--- a/data/02_intermediate/cleaned_PNL_songs.xlsx
+++ b/data/02_intermediate/cleaned_PNL_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bats les couilles d'l'Himalaya, bats les couilles, j'vise plus l'sommet Mon cur fait ouh-là-là-là, crime passionnel que j'commets Sur ton cur, j'fais trou d'boulette, j'fais tache de sang sur le pull J'désire nullement vous connaître, ni toi, ni ces fils de putes J'me tire d'ici si j'm'écoute, sang corse mélangé bougnoule La Lune, j'aime plus, j'vous la laisse, j'm'endors sous doré, sous gnôle J'suis ni d'chez moi ni d'chez vous Vous, elle veut la bise, elle veut qu'j'la baise J'connais la route, j'connais l'adresse, j't'encule sur l'continent d'Hadès Sale comme ta neuch, mèche courte Forte comme la peuf qu'j'écoule J'tire la gueule, j'n'écoute que mon âme seule, mektoub J'vis dans un rêve érotique où j'parle peu mais j'caresse le monde J'meurs dans un cauchemar exotique où la Terre ressemble à ma tombe, igo Pourquoi toi, tu parles en igo ? Si ça s'tue, ouais, dis-moi qui signe Pas d'honneur, toi, tu sens d'ici WAllah, baba m'a dit Mon fils, nan, nan Toi, pas calculer ces pédales Moi, j'ai donné pendant longtemps Puis, j'ai perdu mes pétales You might also like Au DD J'la passe, la détaille, la pé-cou, la vi-sser, des regrets d'vant ton bébé J'sors de chez toi, j'reprends ta voiture mal garée puis j'retire ton PV J'recherche un billet, des affaires, des plans dans la planque, un peu trop peiné J'fais un bisou à mes cafards dans la cave du six, les pectoraux gainés Les BACqueux té-ma parce que les ients-cli ne tomberont jamais sur messagerie Eh, poto, démarre dans la jungle, j'y suis H24, j'y fais des singeries La rue, j'la dévale à toute allure avec du Gucci comme Mitch J'me promène dans les beaux quartiers avec le seum qui fait peur aux riches Que la famille, personne nous inquiète jusqu'au dernier gramme Toujours dans mon 9.1 parce que j'suis baisé par Paname Sans, sans, sans l'bénéf' de la rue, j'aurais jamais niqué le game game, game, game Me sens pas trop humain, un peu comme mes igos habités, yah Y'a du sang à vider, yah Au DD, DD, DD, deuxième ne-grai, j'suis effacé, yah T'as reconnu le cri, igo t'es animal Mais là, tu connais le prix l'canon à nny-Ma Au DD Que la famille dans le bât', on te la push taille-dé Au DD Pas mélangé, cur d'étranger, rien n'a changé, yah C'qui doit arriver va arriver, yah C'est peut-être mon dernier album P't-être ma dernière puta P't-être mon dernier sourire de toi Dans mon unga, dans mon unga Pas plus de haine que d'amour, que j'largue entre mes tours Moins d'humains après minuit, je sors casser mon tour Sur un nuage de l'Enfer Viens, on s'casse, mon frère Avant qu'on s'perde Au DD J'la passe, la détaille, la pé-cou, la vi-sser, des regrets d'vant ton bébé J'sors de chez toi, j'reprends ta voiture mal garée puis j'retire ton PV J'recherche un billet, des affaires, des plans dans la planque, un peu trop peiné J'fais un bisou à mes cafards dans la cave du six, les pectoraux gainés Les BACqueux té-ma parce que les ients-cli ne tomberont jamais sur messagerie Eh, poto, démarre dans la jungle, j'y suis H24, j'y fais des singeries La rue, j'la dévale à toute allure avec du Gucci comme Mitch J'me promène dans les beaux quartiers avec le seum qui fait peur aux riches122</t>
+          <t>Bats les couilles d'l'Himalaya, bats les couilles, j'vise plus l'sommet Mon cur fait ouh-là-là-là, crime passionnel que j'commets Sur ton cur, j'fais trou d'boulette, j'fais tache de sang sur le pull J'désire nullement vous connaître, ni toi, ni ces fils de putes J'me tire d'ici si j'm'écoute, sang corse mélangé bougnoule La Lune, j'aime plus, j'vous la laisse, j'm'endors sous doré, sous gnôle J'suis ni d'chez moi ni d'chez vous Vous, elle veut la bise, elle veut qu'j'la baise J'connais la route, j'connais l'adresse, j't'encule sur l'continent d'Hadès Sale comme ta neuch, mèche courte Forte comme la peuf qu'j'écoule J'tire la gueule, j'n'écoute que mon âme seule, mektoub J'vis dans un rêve érotique où j'parle peu mais j'caresse le monde J'meurs dans un cauchemar exotique où la Terre ressemble à ma tombe, igo Pourquoi toi, tu parles en igo ? Si ça s'tue, ouais, dis-moi qui signe Pas d'honneur, toi, tu sens d'ici WAllah, baba m'a dit Mon fils, nan, nan Toi, pas calculer ces pédales Moi, j'ai donné pendant longtemps Puis, j'ai perdu mes pétales Au DD J'la passe, la détaille, la pé-cou, la vi-sser, des regrets d'vant ton bébé J'sors de chez toi, j'reprends ta voiture mal garée puis j'retire ton PV J'recherche un billet, des affaires, des plans dans la planque, un peu trop peiné J'fais un bisou à mes cafards dans la cave du six, les pectoraux gainés Les BACqueux té-ma parce que les ients-cli ne tomberont jamais sur messagerie Eh, poto, démarre dans la jungle, j'y suis H24, j'y fais des singeries La rue, j'la dévale à toute allure avec du Gucci comme Mitch J'me promène dans les beaux quartiers avec le seum qui fait peur aux riches Que la famille, personne nous inquiète jusqu'au dernier gramme Toujours dans mon 9.1 parce que j'suis baisé par Paname Sans, sans, sans l'bénéf' de la rue, j'aurais jamais niqué le game game, game, game Me sens pas trop humain, un peu comme mes igos habités, yah Y'a du sang à vider, yah Au DD, DD, DD, deuxième ne-grai, j'suis effacé, yah T'as reconnu le cri, igo t'es animal Mais là, tu connais le prix l'canon à nny-Ma Au DD Que la famille dans le bât', on te la push taille-dé Au DD Pas mélangé, cur d'étranger, rien n'a changé, yah C'qui doit arriver va arriver, yah C'est peut-être mon dernier album P't-être ma dernière puta P't-être mon dernier sourire de toi Dans mon unga, dans mon unga Pas plus de haine que d'amour, que j'largue entre mes tours Moins d'humains après minuit, je sors casser mon tour Sur un nuage de l'Enfer Viens, on s'casse, mon frère Avant qu'on s'perde Au DD J'la passe, la détaille, la pé-cou, la vi-sser, des regrets d'vant ton bébé J'sors de chez toi, j'reprends ta voiture mal garée puis j'retire ton PV J'recherche un billet, des affaires, des plans dans la planque, un peu trop peiné J'fais un bisou à mes cafards dans la cave du six, les pectoraux gainés Les BACqueux té-ma parce que les ients-cli ne tomberont jamais sur messagerie Eh, poto, démarre dans la jungle, j'y suis H24, j'y fais des singeries La rue, j'la dévale à toute allure avec du Gucci comme Mitch J'me promène dans les beaux quartiers avec le seum qui fait peur aux riches122</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ma frappe, y a personne qui larrête Penalty, j'souris au gardien Igo, y a Mowgli dans larène Ciseaux, retournée comme Papin J'parle pas trop, j'me fous du rap J'négocie l'tarot, man Tes rappeurs, c'est tous des tapins Ils s'passent tous, tous la pommade Toute ma vie, j'l'ai ramée dans les ténèbres J'me réveille, j'ai cette haine qui me pénètre Peu d'mandats, mais les 'tasses m'envoient des lettres Mowgli n'aime pas qu'on lui dise T'es célèbre Chaque jour, c'est la même, c'est le biff qui m'fait frissonner N'aie pas honte de leur mettre ces pédés, moi j'leur pisse au nez Né dans la jungle, j'suis sauvage un gros oinj' pour m'isoler Les grosses 'tasses qui déboulent sous mon arbre, moi j'les prends en le-le J'tacle à la gorge comme en BPL wAllah pum-pum Dis à ton pote, dans la street c'est la mort ou la bibi Choisis ton camp mais belek au cas où ça ti-tire Joue pas l'thug, avec ta meuf, on sait tu fais l'Titi J'suis d'l'époque d'la Sega j'm'entraîne à frapper comme Sagat Rico Rico, j'débarque brr brr ratatata Fais gaffe fais gaffe au hebs c'est pa-pata-ta-ta J'connais le million mais j'chante toujours pas, la-la-la-la Entre nous, trop cramé, ils m'aiment pas, font semblant C'est chelou, j'suis armé, cur de pierre, abonné J'suis Mowgli, j'suis Simba, animal, ça s'entend Hum, hum, dans leurs mères, tu connais You might also like DA, DA, DA Bats les couilles pour eux j'suis nda, da, da Bats les couilles qu'ces pédés m'aiment pas, pas, pas Au fait moi j'ai les couilles de papa, pa, pa Mon Dieu, faut qu'j'me dirige vers la Mecque Mais bon, j'suis d'la pire espèce Avant j'étais moche dans la tess Aujourd'hui, j'plais à Eva Mendes Gars, gars, gars, gars J'ai mal, j'vois mes semblables en bas, bas, bas Faire rampampampam Hé la, holà ! Tes lèvres ne me font plus penser Hé la, holà ! Mes rêves ne me font plus bander J'ai sorti une arme dans l'respect La patience, le temps, pas testé Gratte pas l'amitié pas d'nouveaux amis Pas l'amitié pas d'nouveaux amis On enverra Mowgli chercher médaille J'redoute plus la visite de la flicaille Tout est possible, j'fais oseille tout devient réel Elle aime les voyous, jeune sheitana cherche mec mortel Puta, épluche mon cur Ton putain de futur au bout d'une chaîne Ne m'attends pas, -tends pas, ou gâche ta vie dans mes bras Petit ange, qu'elle est séduisante la couronne à Simba ! DA, DA, DA Bats les couilles pour eux j'suis nda, da, da Bats les couilles qu'ces pédés m'aiment pas, pas, pas Au fait moi j'ai les couilles de papa, pa, pa Mon Dieu, faut qu'j'me dirige vers la Mecque Mais bon, j'suis d'la pire espèce Avant j'étais moche dans la tess Aujourd'hui, j'plais à Eva Mendes Gars, gars, gars, gars J'ai mal, j'vois mes semblables en bas, bas, bas Faire rampampampam103</t>
+          <t>Ma frappe, y a personne qui larrête Penalty, j'souris au gardien Igo, y a Mowgli dans larène Ciseaux, retournée comme Papin J'parle pas trop, j'me fous du rap J'négocie l'tarot, man Tes rappeurs, c'est tous des tapins Ils s'passent tous, tous la pommade Toute ma vie, j'l'ai ramée dans les ténèbres J'me réveille, j'ai cette haine qui me pénètre Peu d'mandats, mais les 'tasses m'envoient des lettres Mowgli n'aime pas qu'on lui dise T'es célèbre Chaque jour, c'est la même, c'est le biff qui m'fait frissonner N'aie pas honte de leur mettre ces pédés, moi j'leur pisse au nez Né dans la jungle, j'suis sauvage un gros oinj' pour m'isoler Les grosses 'tasses qui déboulent sous mon arbre, moi j'les prends en le-le J'tacle à la gorge comme en BPL wAllah pum-pum Dis à ton pote, dans la street c'est la mort ou la bibi Choisis ton camp mais belek au cas où ça ti-tire Joue pas l'thug, avec ta meuf, on sait tu fais l'Titi J'suis d'l'époque d'la Sega j'm'entraîne à frapper comme Sagat Rico Rico, j'débarque brr brr ratatata Fais gaffe fais gaffe au hebs c'est pa-pata-ta-ta J'connais le million mais j'chante toujours pas, la-la-la-la Entre nous, trop cramé, ils m'aiment pas, font semblant C'est chelou, j'suis armé, cur de pierre, abonné J'suis Mowgli, j'suis Simba, animal, ça s'entend Hum, hum, dans leurs mères, tu connais DA, DA, DA Bats les couilles pour eux j'suis nda, da, da Bats les couilles qu'ces pédés m'aiment pas, pas, pas Au fait moi j'ai les couilles de papa, pa, pa Mon Dieu, faut qu'j'me dirige vers la Mecque Mais bon, j'suis d'la pire espèce Avant j'étais moche dans la tess Aujourd'hui, j'plais à Eva Mendes Gars, gars, gars, gars J'ai mal, j'vois mes semblables en bas, bas, bas Faire rampampampam Hé la, holà ! Tes lèvres ne me font plus penser Hé la, holà ! Mes rêves ne me font plus bander J'ai sorti une arme dans l'respect La patience, le temps, pas testé Gratte pas l'amitié pas d'nouveaux amis Pas l'amitié pas d'nouveaux amis On enverra Mowgli chercher médaille J'redoute plus la visite de la flicaille Tout est possible, j'fais oseille tout devient réel Elle aime les voyous, jeune sheitana cherche mec mortel Puta, épluche mon cur Ton putain de futur au bout d'une chaîne Ne m'attends pas, -tends pas, ou gâche ta vie dans mes bras Petit ange, qu'elle est séduisante la couronne à Simba ! DA, DA, DA Bats les couilles pour eux j'suis nda, da, da Bats les couilles qu'ces pédés m'aiment pas, pas, pas Au fait moi j'ai les couilles de papa, pa, pa Mon Dieu, faut qu'j'me dirige vers la Mecque Mais bon, j'suis d'la pire espèce Avant j'étais moche dans la tess Aujourd'hui, j'plais à Eva Mendes Gars, gars, gars, gars J'ai mal, j'vois mes semblables en bas, bas, bas Faire rampampampam103</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>J'suis à 91 mille lieues sous la merde J'ai mille eu' sous la semelle ouais, ouais, ouais J'ai mêmes soucis en fin d'semaine en fin d'semaine J'ai paire de couilles en cas de problème Le monde, j'le vois d'travers, je le monte je le monte en l'air En l'air, en l'air jusqu'à jusqu'à ce que ce putain de bonheur se montre bah ouais Y a pas de cinéma j'ai pas de temps, pas de temps à donner ou à perdre Baba m'a dit faut du douze, faut scier l'canon pour la guerre eh, eh, eh Et la guerre et la guerre on l'a fait, on la refera, pourquoi donc épiloguer pourquoi donc épiloguer Pas de paix, pas de paix, pas de paix dans le contrat, la haine pour co-piloter Il s'agit de n'plus jouer au con nan, dans l'regard paraît qu'on y voit une âme Ah bon ? Chez moi on dit qu'au fond du trou quoi ?, jette un homme il ressort avec une arme Pardonnez-moi, poussez-vous, là-bas, vite fait, deux secondes Parce que sinon c'est ma bite dans votre cul qui vous flaire, qui vous sert de sonde J'aime voir le ciel, j'aime ce silence alors ferme ta gueule ta gueule J'perds pas le Nord, nan j'ai l'courage qui emmerde ma peur La feuille est si belle, plus j'écris plus j'salis Fleur de décibels, ma rage les contamine les contamine Un million par mois et là j'ai l'bon timing eh, eh Sous alcool, sous beuh hum, j'ai tout fait consciemment Le poids d'mes erreurs hum, découpé constamment hum ouais Un regard, un mytho, un sourire Et le cur qui n'veut plus se nourrir Des minutes, des années sur la montre Naïveté ou trahison sur un mot You might also like Igo la vie est moche donc on l'a maquillée avec des mensonges Igo son âme est moche, plus qu'à la maquiller avec des mensonges J'sais pas c'qu'il s'passe dans ma tête Parfois, j'voudrais sauver la Terre Parfois, j'voudrais la voir brûler Ça va pas trop, j'roule un teh Trop d'haine pour neuf mètres carrés Tristesse faut pas calculer J'aime pas tes rêves, cauchemars entassés Le cur qui brûle, sentiments glacés On s'connaît pas, j'aime pas ton passé La mif' va bien, pas s'embarrasser Parfois peur de demain, peur de t'ôter la vie Parce qu'on a grandi et ma haine aussi haine Chérie t'as le boule qui bat, un peu de tendresse j'dis pas Non car j'ai le cur qui bat après quatre, cinq barres J'sais pas si le bonheur va m'endurcir, dur dans la merde J'sais pas si son cur va me suffire, j'rajoute la mer J'regarde le ciel, j'attends l'orage J'attends la nuit, j'attends mon cash J'me vide dans le cul du superficiel J'recharge mon arme j'ai le cur qui saigne Les sentiments, ta chatte éphémère J'ai le cur qui bande devant billets verts J'croise les mêmes cafards dans le même bât' J'ai les mêmes plats pour les mêmes pâtes Il y a moins de stress à six du mat' Et je veux plus jamais voir l'impasse Je l'ai mise à nu, elle m'a volé mon cur Confiance, confiance, plus de mal que de peur Garde tout dedans, plus de larmes que de pleurs Garde tout dedans, plus de larmes que de pleurs J'ai pas le temps de te séduire, faut que j'retourne charbonner J'ai pas le temps de te mentir, QLF abonné Cette lumière va partir et mes rêves en pâtir Cette lumière va partir, l'obscurité m'attire La manière dont tu comptes en dit long sur ce que t'as brassé La manière dont tu pompes en dit long sur ce que t'as sucé Tends pas ta main, on te tord ton âme Et le shit a bullé jusqu'au dernier gramme J'suis pas net pas net, sah Pute de planète j'fais du sale Je vois leur regard me dire à l'aide Et plus je monte, plus j'ai mal J'suis pas net pas net, sah Pute de planète j'fais du sale Je vois leur regard me dire à l'aide Et plus je monte, plus j'ai mal36</t>
+          <t>J'suis à 91 mille lieues sous la merde J'ai mille eu' sous la semelle ouais, ouais, ouais J'ai mêmes soucis en fin d'semaine en fin d'semaine J'ai paire de couilles en cas de problème Le monde, j'le vois d'travers, je le monte je le monte en l'air En l'air, en l'air jusqu'à jusqu'à ce que ce putain de bonheur se montre bah ouais Y a pas de cinéma j'ai pas de temps, pas de temps à donner ou à perdre Baba m'a dit faut du douze, faut scier l'canon pour la guerre eh, eh, eh Et la guerre et la guerre on l'a fait, on la refera, pourquoi donc épiloguer pourquoi donc épiloguer Pas de paix, pas de paix, pas de paix dans le contrat, la haine pour co-piloter Il s'agit de n'plus jouer au con nan, dans l'regard paraît qu'on y voit une âme Ah bon ? Chez moi on dit qu'au fond du trou quoi ?, jette un homme il ressort avec une arme Pardonnez-moi, poussez-vous, là-bas, vite fait, deux secondes Parce que sinon c'est ma bite dans votre cul qui vous flaire, qui vous sert de sonde J'aime voir le ciel, j'aime ce silence alors ferme ta gueule ta gueule J'perds pas le Nord, nan j'ai l'courage qui emmerde ma peur La feuille est si belle, plus j'écris plus j'salis Fleur de décibels, ma rage les contamine les contamine Un million par mois et là j'ai l'bon timing eh, eh Sous alcool, sous beuh hum, j'ai tout fait consciemment Le poids d'mes erreurs hum, découpé constamment hum ouais Un regard, un mytho, un sourire Et le cur qui n'veut plus se nourrir Des minutes, des années sur la montre Naïveté ou trahison sur un mot Igo la vie est moche donc on l'a maquillée avec des mensonges Igo son âme est moche, plus qu'à la maquiller avec des mensonges J'sais pas c'qu'il s'passe dans ma tête Parfois, j'voudrais sauver la Terre Parfois, j'voudrais la voir brûler Ça va pas trop, j'roule un teh Trop d'haine pour neuf mètres carrés Tristesse faut pas calculer J'aime pas tes rêves, cauchemars entassés Le cur qui brûle, sentiments glacés On s'connaît pas, j'aime pas ton passé La mif' va bien, pas s'embarrasser Parfois peur de demain, peur de t'ôter la vie Parce qu'on a grandi et ma haine aussi haine Chérie t'as le boule qui bat, un peu de tendresse j'dis pas Non car j'ai le cur qui bat après quatre, cinq barres J'sais pas si le bonheur va m'endurcir, dur dans la merde J'sais pas si son cur va me suffire, j'rajoute la mer J'regarde le ciel, j'attends l'orage J'attends la nuit, j'attends mon cash J'me vide dans le cul du superficiel J'recharge mon arme j'ai le cur qui saigne Les sentiments, ta chatte éphémère J'ai le cur qui bande devant billets verts J'croise les mêmes cafards dans le même bât' J'ai les mêmes plats pour les mêmes pâtes Il y a moins de stress à six du mat' Et je veux plus jamais voir l'impasse Je l'ai mise à nu, elle m'a volé mon cur Confiance, confiance, plus de mal que de peur Garde tout dedans, plus de larmes que de pleurs Garde tout dedans, plus de larmes que de pleurs J'ai pas le temps de te séduire, faut que j'retourne charbonner J'ai pas le temps de te mentir, QLF abonné Cette lumière va partir et mes rêves en pâtir Cette lumière va partir, l'obscurité m'attire La manière dont tu comptes en dit long sur ce que t'as brassé La manière dont tu pompes en dit long sur ce que t'as sucé Tends pas ta main, on te tord ton âme Et le shit a bullé jusqu'au dernier gramme J'suis pas net pas net, sah Pute de planète j'fais du sale Je vois leur regard me dire à l'aide Et plus je monte, plus j'ai mal J'suis pas net pas net, sah Pute de planète j'fais du sale Je vois leur regard me dire à l'aide Et plus je monte, plus j'ai mal36</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>J'veux du L, j'veux du V, j'veux du G, pour désaper ta racli Igo, on est voués à l'Enfer, l'ascenseur est en panne au Paradis C'est bloqué ? Ah bon ? Bah j'vais bicrave dans l'escalier Président, dans l'hall, j'ai vu l'ient-cli voter blanc Ounga, ounga, ounga ouais, mon gars, mon gars, mon gars, j'sers Du taga, taga à ve-Her, en jaune ou en vert, nique sa mère La famille a faim, pas l'temps d'raconter ma life, trêve de balivernes J'veux pas d'câlin, j'suis qu'un glaçon sous string ficelle Oh, non mais oh, elle m'a pris pour qui, pour Romeo ? Non mais allô ? Non mais allô ? J'laisse trace pour transe au WC, en LV, totalement pété J'rentre, coke dans les poches, quand p'tit frère part à l'école J'suis dans ma bulle, bulle, bulle Oh shit, le shit, le shit, bulle Sang sur l'pull, pull, pull, oh lala, oh lala Dégage ton boule, boule, boule Oh shit, ton mal mon bien Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Tout pour les miens Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Le monde ou rien Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Moi, ça m'convient Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais You might also like Igo, je tourne en rond, les putains tournent en rond pour attraper ma queue Que du bon-char, fuck tout c'qui vaut pas un rond, comme l'honneur du bacqueux Et j'suis la pomme pourrie qui s'écarte du panier J'nique ma solitude tant qu'les poches sont bien accompagnées Que la mif, les mêmes armes, les mêmes salaires On sauvera pas toute la terre, j'prends la couronne, la pose sur la tête du p'tit frère Les larmes de la misère ont l'goût de ma haine À bout de souffle, ma haine me redonne de l'oxygène Faut pas t'en faire chico, relève la tête, la misère m'emmène en balade Remballe ton échelle, au fond du trou, j'empile mes péchés, j'escalade Et rien n'change comme le bruit du gyro', j'suis plus Savastano que Ciro Et j'préfère m'éteindre plutôt que d'briller dans l'ombre de ces bâtards, le monde chico J'suis dans ma bulle, bulle, bulle Oh shit, le shit, le shit, bulle Sang sur l'pull, pull, pull, oh lala, oh lala Dégage ton boule, boule, boule Oh shit, ton mal mon bien Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Tout pour les miens Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Le monde ou rien Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Moi, ça m'convient Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais50</t>
+          <t>J'veux du L, j'veux du V, j'veux du G, pour désaper ta racli Igo, on est voués à l'Enfer, l'ascenseur est en panne au Paradis C'est bloqué ? Ah bon ? Bah j'vais bicrave dans l'escalier Président, dans l'hall, j'ai vu l'ient-cli voter blanc Ounga, ounga, ounga ouais, mon gars, mon gars, mon gars, j'sers Du taga, taga à ve-Her, en jaune ou en vert, nique sa mère La famille a faim, pas l'temps d'raconter ma life, trêve de balivernes J'veux pas d'câlin, j'suis qu'un glaçon sous string ficelle Oh, non mais oh, elle m'a pris pour qui, pour Romeo ? Non mais allô ? Non mais allô ? J'laisse trace pour transe au WC, en LV, totalement pété J'rentre, coke dans les poches, quand p'tit frère part à l'école J'suis dans ma bulle, bulle, bulle Oh shit, le shit, le shit, bulle Sang sur l'pull, pull, pull, oh lala, oh lala Dégage ton boule, boule, boule Oh shit, ton mal mon bien Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Tout pour les miens Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Le monde ou rien Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Moi, ça m'convient Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Igo, je tourne en rond, les putains tournent en rond pour attraper ma queue Que du bon-char, fuck tout c'qui vaut pas un rond, comme l'honneur du bacqueux Et j'suis la pomme pourrie qui s'écarte du panier J'nique ma solitude tant qu'les poches sont bien accompagnées Que la mif, les mêmes armes, les mêmes salaires On sauvera pas toute la terre, j'prends la couronne, la pose sur la tête du p'tit frère Les larmes de la misère ont l'goût de ma haine À bout de souffle, ma haine me redonne de l'oxygène Faut pas t'en faire chico, relève la tête, la misère m'emmène en balade Remballe ton échelle, au fond du trou, j'empile mes péchés, j'escalade Et rien n'change comme le bruit du gyro', j'suis plus Savastano que Ciro Et j'préfère m'éteindre plutôt que d'briller dans l'ombre de ces bâtards, le monde chico J'suis dans ma bulle, bulle, bulle Oh shit, le shit, le shit, bulle Sang sur l'pull, pull, pull, oh lala, oh lala Dégage ton boule, boule, boule Oh shit, ton mal mon bien Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Tout pour les miens Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Le monde ou rien Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Moi, ça m'convient Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais50</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mes gouttes de sueur ont l'odeur d'l'Enfer Ça r'commence on finira par s'y faire Nique ta célébrité, nique ton buzz Sans c'putain d'rap t'es rien, puta creuse J'veux pas qu'on m'invite Pardon la vie, j'recompte Mes rêves se rhabillent, Manny Leur offrir tous ces rêves on va brûler Son cul commence à me plaire Les billets bleus sont devenus violets Les rouges sont devenus verts Naha, Naha, hmm, hmm Ok j'm'en bats les hmm, hmm J'crame une clope, dans la hmm, hmm Cette 'tasse veut voir ma hmm, hmm J'lui parle à ma hmm, hmm Le ien-cli, veut sa hmm, hmm En menottes, dans la hmm, hmm Au parlu', j'sors la hmm, hmm You might also like J'crame une gainz au milieu d'Etosha J'fais le tour de la plaine avec Epona Tu l'as tant rêvé j'ai pas fini clochard Nananère, grosse te-pu tu m'jalouses En regardant YouTube tu me jettes l'il J'fais plus de eu' à chaque lettre sur ma feuille Nique ta mère ouais Un cur de ice tu connais olé, olé! J'suis parisien enculé Voler, voler aux riches mais pas aux pauvres salope, salope, hmmm Une légende comme Raí sur le terrain Arrête tu sais ma bitch on aime la maille C'est avec cette merde que la mif' graille 3atay On pourra pas dire qu'on est condamnés La lumière on la voit que depuis cette année Sur 70 degrés j'dois pédaler, laisse-les parler Des schlags et des schlags j'peux plus les compter non Et l'hôtesse de l'air me sert un bon thé ouais J'suis pas là mais vé-Her continue de voter dans l'escalier J'veux du L j'veux du V j'veux du G Président, ta grand-mère Rigolo, prononce mon blaze j'aimerais bien rigoler Soleil sur la tess, ça lève les compét' Mon hall, tu me manques, et tu le sais, j'm'en pète Naha, Naha, hmm, hmm Ok j'm'en bats les hmm, hmm J'crame une clope, dans la hmm, hmm Cette 'tasse veut voir ma hmm, hmm J'lui parle à ma hmm, hmm Le ien-cli, veut sa hmm, hmm En menottes, dans la hmm, hmm Au parlu', j'sors la hmm, hmm J'rappe que pour la hmm, hmm La street ça pue la hmm, hmm J'vois l'monde, j'vois ça hmm, hmm En poster j'ai la hmm, hmm Chico j'veux le hmm, hmm Et tout ce qu'il y a de hmm, hmm Sa mère la reine des hmm, hmm J'suis totalement pé' hmm, hmm Naha56</t>
+          <t>Mes gouttes de sueur ont l'odeur d'l'Enfer Ça r'commence on finira par s'y faire Nique ta célébrité, nique ton buzz Sans c'putain d'rap t'es rien, puta creuse J'veux pas qu'on m'invite Pardon la vie, j'recompte Mes rêves se rhabillent, Manny Leur offrir tous ces rêves on va brûler Son cul commence à me plaire Les billets bleus sont devenus violets Les rouges sont devenus verts Naha, Naha, hmm, hmm Ok j'm'en bats les hmm, hmm J'crame une clope, dans la hmm, hmm Cette 'tasse veut voir ma hmm, hmm J'lui parle à ma hmm, hmm Le ien-cli, veut sa hmm, hmm En menottes, dans la hmm, hmm Au parlu', j'sors la hmm, hmm J'crame une gainz au milieu d'Etosha J'fais le tour de la plaine avec Epona Tu l'as tant rêvé j'ai pas fini clochard Nananère, grosse te-pu tu m'jalouses En regardant YouTube tu me jettes l'il J'fais plus de eu' à chaque lettre sur ma feuille Nique ta mère ouais Un cur de ice tu connais olé, olé! J'suis parisien enculé Voler, voler aux riches mais pas aux pauvres salope, salope, hmmm Une légende comme Raí sur le terrain Arrête tu sais ma bitch on aime la maille C'est avec cette merde que la mif' graille 3atay On pourra pas dire qu'on est condamnés La lumière on la voit que depuis cette année Sur 70 degrés j'dois pédaler, laisse-les parler Des schlags et des schlags j'peux plus les compter non Et l'hôtesse de l'air me sert un bon thé ouais J'suis pas là mais vé-Her continue de voter dans l'escalier J'veux du L j'veux du V j'veux du G Président, ta grand-mère Rigolo, prononce mon blaze j'aimerais bien rigoler Soleil sur la tess, ça lève les compét' Mon hall, tu me manques, et tu le sais, j'm'en pète Naha, Naha, hmm, hmm Ok j'm'en bats les hmm, hmm J'crame une clope, dans la hmm, hmm Cette 'tasse veut voir ma hmm, hmm J'lui parle à ma hmm, hmm Le ien-cli, veut sa hmm, hmm En menottes, dans la hmm, hmm Au parlu', j'sors la hmm, hmm J'rappe que pour la hmm, hmm La street ça pue la hmm, hmm J'vois l'monde, j'vois ça hmm, hmm En poster j'ai la hmm, hmm Chico j'veux le hmm, hmm Et tout ce qu'il y a de hmm, hmm Sa mère la reine des hmm, hmm J'suis totalement pé' hmm, hmm Naha56</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Yeah-eh, oh-oh-oh Eh-eh, eh-eh Explícale lo que sientes cuando estás desnuda Woh, oh, oh Dile que sólo conmigo el corazón desnuda Yeah, eh La cama empieza tendida y quedará desnuda Oh oh Cómo te tiemblan las piernas y cómo el cuerpo te suda Explícale lo que sientes cuando estás desnuda Dile que sólo conmigo el corazón desnuda La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Yeah, yeah Dile que yo soy tu Jay Z, y que tú ere' mi Beyonce Yah Que cuando lo hacemo' en el carro E' desde Humacao hasta Ponce Despacito como Fonsi Jajaja En la Mercedes por toda la Monce Explícale que mientras manejo te tengo botando fuego en la B11, uh Brr brr! Nos prendimo' un creepy y fumamo' desde la noche hasta que el sol nos alumbre Que si yo estoy de viaje, te tocas tú misma para no perder la costumbre Wuh De escucharme, allá bajo te llueve Jajajajaja Mami, yo sé que por mí te la bebe' Tú dile que al que yo acuesto Prr, prr Más nunca se mueve Buh Dile que por mí tienes el clóset Lleno de ropa, zapato' y cartera' Chá-chá-chá-chá Que a veces te pillo y ni te dejo quitar El traje Carolina Herrera Oh shit Explícale que tengo el control Pero lo hacemo' a tu manera Baby Cumplí tus fantasías, y cumpliste las mía' Encima de la alfombra con piel de pantera Brr brra! You might also like Explícale lo que sientes cuando estás desnuda Eh, eh oh, oh Dile que sólo conmigo el corazón desnuda La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Eh Explícale lo que sientes cuando estás desnuda Woh, oh Dile que sólo conmigo el corazón desnuda Yeah, eh La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Yeh-yeh-yeh-yeh Yo no soy Carlos Vives Wuh Pero quiero que te montes en mi bicicleta Le damo' la vuelta al planeta Dime en qué país quiere' que te lo meta Yih, yih Explícale que conmigo te sientes completa Yeh! Que yo sí te hago venir hasta que el totito se te aprieta Yeh-yeh Dile que ya se acabó Yeh Que mi nombre en tu piel se grabó Grabó Que ahora tú estás con el boss Oh Que no te alza la voz Oh Periódico de ayer como dijo Lavoe Lavoe Dile que fui yo el que entró pa' tu cuarto y te robó Rrr!, yeah Explícale que te gusta cómo te lo hago Wuh Ve y cuéntale, que conmigo en la movie, to' pago Wuh Que tú no eres mujer de ser infiel No Pero que te cansaste y no quieres con él Explícale lo que sientes cuando estás desnuda Eh, eh Dile que sólo conmigo el corazón desnuda La cama empieza tendida y quedará desnuda Yeah Cómo te tiemblan las piernas y cómo el cuerpo te suda Explícale lo que sientes cuando estás desnuda Woh, oh Dile que sólo conmigo el corazón desnuda Yeah, eh La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Ah, baby, tú sabes quién es ah-ah No-No-Noriel Baby, tú y yo sabemo' que ese novio tuyo e' un atraso Jeje ajá Dile que ahora tú ere' mía Wuh Que me haga el traspaso Ajá Baby, si mi amor fuera un arte, tú fuera' Picasso Jaja, Picasso Y a tu novio le tengo un regalo Le voa' mandar este bicho con un lazo Wuh Dile que ya yo te metí Que no se ponga triste Que eso a veces pasa Wuh Que te dedique Desperté Sin Ti Pa' ver si algún día tú vuelve' a su casa No creo Explícale que te llevo a las nube' Y que él te saca por techo Ajá Y dile que ahora terminó en amor Lo que empezó por despecho Wuh Dile que por dejarte sola Sola Ahora conmigo eres infiel -fie-el Que no venga a buscarte ahora Ahora Que no te llame pa' volver, yeah-eh-eh Explícale lo que sientes cuando estás desnuda Eh, eh Dile que sólo conmigo el corazón desnuda' La cama empieza tendida y quedará desnuda Yeah Cómo te tiemblan las piernas y cómo el cuerpo te suda Explícale lo que sientes cuando estás desnuda Woh, oh Dile que sólo conmigo el corazón desnuda' Yeah, eh La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Brytiago, baby Hablamo' claro desde que nos conocemo' Ja, ja A nadie le decimo' lo que hacemo' La vibra entre tú y yo e' un volcán en erupción Es corriente y nunca la desconectamo', yeah-yeah Wuh Si estar contigo es delito Que me arresten, yo no me quito Wuh Y me den la pena de muerte Te busco si resucito Wuh, wuh Yo conozco el lugar que más te da placer Hah Y con la boca hago que vuelva' a nacer Auh Explícale que no sé nada de amor Wuh, wuh Pero en la cama sé cómo darte calor Baby Que to' el que estaba antes de mí ya se jodió Ja, ja Porque hago que te moje' al escuchar mi vo' Wuh, huh Explícale lo que sientes cuando estás desnuda Eh, eh Dile que sólo conmigo el corazón desnuda' La cama empieza tendida y quedará desnuda Yeah Cómo te tiemblan las piernas y cómo el cuerpo te suda Explícale lo que sientes cuando estás desnuda Woh, oh Dile que sólo conmigo el corazón desnuda' Yeah, eh La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Yeh-yeh-yeh-yeh Yandel Bad Bunny baby, bebé, bebé No-No-Noriel UPDATE Cosculluela El Príncipe Hear This Music Brytiago, baby DJ Luian Mambo Kingz Mambo Kingz! Wuh-uh-uh-uh Yandel Hydro Jaja Trap Kingz Woh-oh-oh-oh-oh Trap Kingz baby, bebé Oh-oh-oh-oh-oh-oh Dímelo, BF Woh-oh-oh-oh-oh Woh-oh-oh, oh</t>
+          <t>Yeah, yeah, yeah Yeah-eh, oh-oh-oh Eh-eh, eh-eh Explícale lo que sientes cuando estás desnuda Woh, oh, oh Dile que sólo conmigo el corazón desnuda Yeah, eh La cama empieza tendida y quedará desnuda Oh oh Cómo te tiemblan las piernas y cómo el cuerpo te suda Explícale lo que sientes cuando estás desnuda Dile que sólo conmigo el corazón desnuda La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Yeah, yeah Dile que yo soy tu Jay Z, y que tú ere' mi Beyonce Yah Que cuando lo hacemo' en el carro E' desde Humacao hasta Ponce Despacito como Fonsi Jajaja En la Mercedes por toda la Monce Explícale que mientras manejo te tengo botando fuego en la B11, uh Brr brr! Nos prendimo' un creepy y fumamo' desde la noche hasta que el sol nos alumbre Que si yo estoy de viaje, te tocas tú misma para no perder la costumbre Wuh De escucharme, allá bajo te llueve Jajajajaja Mami, yo sé que por mí te la bebe' Tú dile que al que yo acuesto Prr, prr Más nunca se mueve Buh Dile que por mí tienes el clóset Lleno de ropa, zapato' y cartera' Chá-chá-chá-chá Que a veces te pillo y ni te dejo quitar El traje Carolina Herrera Oh shit Explícale que tengo el control Pero lo hacemo' a tu manera Baby Cumplí tus fantasías, y cumpliste las mía' Encima de la alfombra con piel de pantera Brr brra! Explícale lo que sientes cuando estás desnuda Eh, eh oh, oh Dile que sólo conmigo el corazón desnuda La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Eh Explícale lo que sientes cuando estás desnuda Woh, oh Dile que sólo conmigo el corazón desnuda Yeah, eh La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Yeh-yeh-yeh-yeh Yo no soy Carlos Vives Wuh Pero quiero que te montes en mi bicicleta Le damo' la vuelta al planeta Dime en qué país quiere' que te lo meta Yih, yih Explícale que conmigo te sientes completa Yeh! Que yo sí te hago venir hasta que el totito se te aprieta Yeh-yeh Dile que ya se acabó Yeh Que mi nombre en tu piel se grabó Grabó Que ahora tú estás con el boss Oh Que no te alza la voz Oh Periódico de ayer como dijo Lavoe Lavoe Dile que fui yo el que entró pa' tu cuarto y te robó Rrr!, yeah Explícale que te gusta cómo te lo hago Wuh Ve y cuéntale, que conmigo en la movie, to' pago Wuh Que tú no eres mujer de ser infiel No Pero que te cansaste y no quieres con él Explícale lo que sientes cuando estás desnuda Eh, eh Dile que sólo conmigo el corazón desnuda La cama empieza tendida y quedará desnuda Yeah Cómo te tiemblan las piernas y cómo el cuerpo te suda Explícale lo que sientes cuando estás desnuda Woh, oh Dile que sólo conmigo el corazón desnuda Yeah, eh La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Ah, baby, tú sabes quién es ah-ah No-No-Noriel Baby, tú y yo sabemo' que ese novio tuyo e' un atraso Jeje ajá Dile que ahora tú ere' mía Wuh Que me haga el traspaso Ajá Baby, si mi amor fuera un arte, tú fuera' Picasso Jaja, Picasso Y a tu novio le tengo un regalo Le voa' mandar este bicho con un lazo Wuh Dile que ya yo te metí Que no se ponga triste Que eso a veces pasa Wuh Que te dedique Desperté Sin Ti Pa' ver si algún día tú vuelve' a su casa No creo Explícale que te llevo a las nube' Y que él te saca por techo Ajá Y dile que ahora terminó en amor Lo que empezó por despecho Wuh Dile que por dejarte sola Sola Ahora conmigo eres infiel -fie-el Que no venga a buscarte ahora Ahora Que no te llame pa' volver, yeah-eh-eh Explícale lo que sientes cuando estás desnuda Eh, eh Dile que sólo conmigo el corazón desnuda' La cama empieza tendida y quedará desnuda Yeah Cómo te tiemblan las piernas y cómo el cuerpo te suda Explícale lo que sientes cuando estás desnuda Woh, oh Dile que sólo conmigo el corazón desnuda' Yeah, eh La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Brytiago, baby Hablamo' claro desde que nos conocemo' Ja, ja A nadie le decimo' lo que hacemo' La vibra entre tú y yo e' un volcán en erupción Es corriente y nunca la desconectamo', yeah-yeah Wuh Si estar contigo es delito Que me arresten, yo no me quito Wuh Y me den la pena de muerte Te busco si resucito Wuh, wuh Yo conozco el lugar que más te da placer Hah Y con la boca hago que vuelva' a nacer Auh Explícale que no sé nada de amor Wuh, wuh Pero en la cama sé cómo darte calor Baby Que to' el que estaba antes de mí ya se jodió Ja, ja Porque hago que te moje' al escuchar mi vo' Wuh, huh Explícale lo que sientes cuando estás desnuda Eh, eh Dile que sólo conmigo el corazón desnuda' La cama empieza tendida y quedará desnuda Yeah Cómo te tiemblan las piernas y cómo el cuerpo te suda Explícale lo que sientes cuando estás desnuda Woh, oh Dile que sólo conmigo el corazón desnuda' Yeah, eh La cama empieza tendida y quedará desnuda Cómo te tiemblan las piernas y cómo el cuerpo te suda Yeh-yeh-yeh-yeh Yandel Bad Bunny baby, bebé, bebé No-No-Noriel UPDATE Cosculluela El Príncipe Hear This Music Brytiago, baby DJ Luian Mambo Kingz Mambo Kingz! Wuh-uh-uh-uh Yandel Hydro Jaja Trap Kingz Woh-oh-oh-oh-oh Trap Kingz baby, bebé Oh-oh-oh-oh-oh-oh Dímelo, BF Woh-oh-oh-oh-oh Woh-oh-oh, oh</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>J'fais les ronds, j'fais les ronds, j'fais les ronds, leur monde Plus je me rapproche du sommet, plus j'entends le ciel qui gronde J'voulais juste grailler QLF ne cherche pas d'alliés Eh zut la vie est bonne, bonne à niquer Ils vendent leur cul, leur mère On n'imagine pas cette vie sans remporter la guerre J'aimerais un gosse mais à laquelle de ces putains le faire Je pense à demain du soir au matin J'ai cru apercevoir le destin Ouais je t'ai jamais aimé, on s'est jamais vraiment quittés Gratte pas l'amitié, man on sait pas vraiment qui t'es Rien n'a changé, dans ma direction du vent Y'a juste que j'recompte un peu plus qu'avant P'tit frère n'a pas de grand, prince de la ville J'm'écarte du bâtiment, j'oublie le taro du kil' Ouh Onizuka Ouh, ah Ouh Onizuka Hella, hella, hella, hella Hella, hella, hella, hella Hella, hella, hella, hella Ouh Onizuka Hella, hella, hella You might also like Mhh ouais J'viens faire mon beurre, mer de billets, j'fais des longueurs Toi tu fais l'con, j'parle au scié, parle à mon coeur Belek au douze, belek au krr, ou là zumba La street c'est fou, j'fais le tour de la ville Onizuka Comme Yakuza, comme GTO Il pleut des balles à la météo J'vois pas d'étoiles, à part au tel-ho à part au tel-ho Elle l'a plus gros que J-LO Pas peur d'aider un frère s'il y a heja Mais l'frère a peur de m'aider quand y a heja Moi quand j'm'habille, j'ai l'flow Onizuka Le charme de la street, ouais gros, Onizuka La vie c'est chelou, vraiment chelou solitaires, mais entre nous Son boule est relou, vraiment relou hein les loups s'cassent le cou Ouh Onizuka Ouh, ah Ouh Onizuka Hella, hella, hella, hella Hella, hella, hella, hella Hella, hella, hella, hella Ouh Onizuka Hella, hella, hella Hella, hella, hella, hella Ils vendent leur cul, leur mère Ouh Onizuka Ouh, ah P'tit frère n'a pas de grand Ouh Onizuka J'm'écarte du bâtiment Hella, hella, hella, hella37</t>
+          <t>J'fais les ronds, j'fais les ronds, j'fais les ronds, leur monde Plus je me rapproche du sommet, plus j'entends le ciel qui gronde J'voulais juste grailler QLF ne cherche pas d'alliés Eh zut la vie est bonne, bonne à niquer Ils vendent leur cul, leur mère On n'imagine pas cette vie sans remporter la guerre J'aimerais un gosse mais à laquelle de ces putains le faire Je pense à demain du soir au matin J'ai cru apercevoir le destin Ouais je t'ai jamais aimé, on s'est jamais vraiment quittés Gratte pas l'amitié, man on sait pas vraiment qui t'es Rien n'a changé, dans ma direction du vent Y'a juste que j'recompte un peu plus qu'avant P'tit frère n'a pas de grand, prince de la ville J'm'écarte du bâtiment, j'oublie le taro du kil' Ouh Onizuka Ouh, ah Ouh Onizuka Hella, hella, hella, hella Hella, hella, hella, hella Hella, hella, hella, hella Ouh Onizuka Hella, hella, hella Mhh ouais J'viens faire mon beurre, mer de billets, j'fais des longueurs Toi tu fais l'con, j'parle au scié, parle à mon coeur Belek au douze, belek au krr, ou là zumba La street c'est fou, j'fais le tour de la ville Onizuka Comme Yakuza, comme GTO Il pleut des balles à la météo J'vois pas d'étoiles, à part au tel-ho à part au tel-ho Elle l'a plus gros que J-LO Pas peur d'aider un frère s'il y a heja Mais l'frère a peur de m'aider quand y a heja Moi quand j'm'habille, j'ai l'flow Onizuka Le charme de la street, ouais gros, Onizuka La vie c'est chelou, vraiment chelou solitaires, mais entre nous Son boule est relou, vraiment relou hein les loups s'cassent le cou Ouh Onizuka Ouh, ah Ouh Onizuka Hella, hella, hella, hella Hella, hella, hella, hella Hella, hella, hella, hella Ouh Onizuka Hella, hella, hella Hella, hella, hella, hella Ils vendent leur cul, leur mère Ouh Onizuka Ouh, ah P'tit frère n'a pas de grand Ouh Onizuka J'm'écarte du bâtiment Hella, hella, hella, hella37</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bené Bené, Bené Bené, Bené Bené, Bené Bené Bené Bené, Bené Bené, Bené Bené, Bené Bené Dring dring dring dring dring dring Je suis dingue-dingue dans ma tête J'roule j'me fais racol' au feu par Sheitana J'vois des frères rentrer pour des peines à la Fofana Dring dring dring dring dring dring Bebeto, Romário, igo j'ai la tech' Zamorano, de Baggio à Batistuta Les attaquants au ballon car t'es parti poucave Gang gang j'fais l'milli' j'sors la Sega-Sega J'pose avec ma clope, avec mon fé-ca fé-ca T'inquiète mon ami hijo de puta-puta T'aimes pas ta copine veut nous faire le boussa-boussa mouah Dring dring dring dring dring dring T'es dingue-dingue dans ta tête Et toute la journée je pense à tous ces Calimero À ger-char' le coffre de litrons de Caramelo Chico chico, hola hola hello girl, tu toucheras pas la balle on te fait la brésilienne Comment ça se passe dans la villa ? Bené Bené Belek tu sors une arme, cent larmes de Yemma, Yemma Bené Bené, Bené Bené, Bené Bené, Bené Bené Chico chico, hola hola hello girl, tu toucheras pas la balle on te fait la brésilienne You might also like Elle écoute PNL quand elle est accroupie J'crois bien que j'suis condamné à baiser des groupies Ce soir je vais me balader, j'vais m'rouler un Cookie Onizuka-raté, le M dAdé' un putain d'peace Je dis adieu la bicrave, la mère à la flicaille, Algérie Corsica, rappelle-nous dans 10k J'entends crier Bil-Na, QLF la chica Grosse couilles dans le CK, tire en l'air ça ricane Je n'ai plus peur du noir, j'suis rassuré par l'violet Tu as cru, tu as cr..., pas l'temps d'lécher ce honey On va les Tchiki Tchiki, les Tchikiter Derrière la fumée, j'aime voir disparaître sa beauté Ah wesh ah wesh ah wesh, polícia Ah wesh ah wesh ah wesh, madre mia Billets sentent comme un bouquet Les miens sont beaux, relookés Le monde ou nada Bené Bené, Bené Bené, Bené Bené, Bené Bené Bené Bené, Bené Bené, Bené Bené, Bené Bené Chico chico, hola hola hello girl, tu toucheras pas la balle on te fait la brésilienne Comment ça se passe dans la villa ? Bené Bené Belek tu sors une arme, cent larmes de Yemma, Yemma Bené Bené, Bené Bené, Bené Bené, Bené Bené Chico chico, hola hola hello girl, tu toucheras pas la balle on te fait la brésilienne21</t>
+          <t>Bené Bené, Bené Bené, Bené Bené, Bené Bené Bené Bené, Bené Bené, Bené Bené, Bené Bené Dring dring dring dring dring dring Je suis dingue-dingue dans ma tête J'roule j'me fais racol' au feu par Sheitana J'vois des frères rentrer pour des peines à la Fofana Dring dring dring dring dring dring Bebeto, Romário, igo j'ai la tech' Zamorano, de Baggio à Batistuta Les attaquants au ballon car t'es parti poucave Gang gang j'fais l'milli' j'sors la Sega-Sega J'pose avec ma clope, avec mon fé-ca fé-ca T'inquiète mon ami hijo de puta-puta T'aimes pas ta copine veut nous faire le boussa-boussa mouah Dring dring dring dring dring dring T'es dingue-dingue dans ta tête Et toute la journée je pense à tous ces Calimero À ger-char' le coffre de litrons de Caramelo Chico chico, hola hola hello girl, tu toucheras pas la balle on te fait la brésilienne Comment ça se passe dans la villa ? Bené Bené Belek tu sors une arme, cent larmes de Yemma, Yemma Bené Bené, Bené Bené, Bené Bené, Bené Bené Chico chico, hola hola hello girl, tu toucheras pas la balle on te fait la brésilienne Elle écoute PNL quand elle est accroupie J'crois bien que j'suis condamné à baiser des groupies Ce soir je vais me balader, j'vais m'rouler un Cookie Onizuka-raté, le M dAdé' un putain d'peace Je dis adieu la bicrave, la mère à la flicaille, Algérie Corsica, rappelle-nous dans 10k J'entends crier Bil-Na, QLF la chica Grosse couilles dans le CK, tire en l'air ça ricane Je n'ai plus peur du noir, j'suis rassuré par l'violet Tu as cru, tu as cr..., pas l'temps d'lécher ce honey On va les Tchiki Tchiki, les Tchikiter Derrière la fumée, j'aime voir disparaître sa beauté Ah wesh ah wesh ah wesh, polícia Ah wesh ah wesh ah wesh, madre mia Billets sentent comme un bouquet Les miens sont beaux, relookés Le monde ou nada Bené Bené, Bené Bené, Bené Bené, Bené Bené Bené Bené, Bené Bené, Bené Bené, Bené Bené Chico chico, hola hola hello girl, tu toucheras pas la balle on te fait la brésilienne Comment ça se passe dans la villa ? Bené Bené Belek tu sors une arme, cent larmes de Yemma, Yemma Bené Bené, Bené Bené, Bené Bené, Bené Bené Chico chico, hola hola hello girl, tu toucheras pas la balle on te fait la brésilienne21</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J'suis dans un merdier, dans un cul de sac Ah ouais, ta chatte, toi ferme ta gueule, toi ferme ta gueule La vie c'est dur, me3lich j'suis dur, j'recoupe la pure Faut faire des ronds, un cur de ice alors j'réchauffe la lame J'sais pas, j't'aime pas, tu m'aimes pas, bravo, bref Faut faire du biff, on a intérêt, donc parlons 'zeille oh lala Y'a pas d'ami, pour ta bitch, pas de temps Faut que tu piges, que du biff, que la mif, bah ouais oh lala J'sais pas c'qu'on sera dans 10 ans mais disons que pour l'instant J'fais tomber mes zitounes en pissant J'suis seul, sur ma planète Et j'nique tout en disant Hamdoullah dans ma galère C'est sale quand j'vends la came Mais bon, croyez pas qu'j'kiffe, des remords quand j'suis à table Baba, j'bibi' en bas L'temps passe, j'vois l'soleil s'lever, s'coucher, j'mens quand j'dis Ça va La vérité c'est qu'j'suis autant obsédé par l'argent Que j'suis to-to-totalement pété, gros pédé Viens prendre ta cons', cons', cons' Avec Nabil on n'est pas à onze, onze, onze, oh lala En vert pour l'salaire, et j'sers même le week-end, la putain d'sa mère Baba, j'bibi' en bas L'temps passe, j'vois l'soleil s'lever, s'coucher, j'mens quand j'dis Ça va You might also like Hey, mes ennemis, la vengeance ou la grêle Hey, mes amis, on danse ou on crève ? J'suis dans le four, j'ai chaud, j'ai la dalle La pesanteur sur le dos qui s'installe Hey la vida loca nous rend animal Tout niquer devient vital J'me défonce pour me rappeler J'me défonce pour oublier Salut, salut J'me défonce dans l'obscurité Parce qu'on aime voir l'ombre briller La Lune, la Lune Le temps qui passe me chuchote Ma biche, c'est ta faute Il nous reste toutes ces bougies à souffler sur la côte Le roi bien profond pour caresser le trophée Tu veux qu'on t'sauve, on ... s'est même pas sauvés La vérité c'est qu'j'suis autant obsédé par l'argent Que j'suis to-to-totalement pété, gros pédé Viens prendre ta cons', cons', cons' Avec Nabil on n'est pas à onze, onze, onze, oh lala En vert pour l'salaire, et j'sers même le week-end, la putain d'sa mère Baba, j'bibi' en bas L'temps passe, j'vois l'soleil, s'lever, s'coucher, j'mens quand j'dis Ça va38</t>
+          <t>J'suis dans un merdier, dans un cul de sac Ah ouais, ta chatte, toi ferme ta gueule, toi ferme ta gueule La vie c'est dur, me3lich j'suis dur, j'recoupe la pure Faut faire des ronds, un cur de ice alors j'réchauffe la lame J'sais pas, j't'aime pas, tu m'aimes pas, bravo, bref Faut faire du biff, on a intérêt, donc parlons 'zeille oh lala Y'a pas d'ami, pour ta bitch, pas de temps Faut que tu piges, que du biff, que la mif, bah ouais oh lala J'sais pas c'qu'on sera dans 10 ans mais disons que pour l'instant J'fais tomber mes zitounes en pissant J'suis seul, sur ma planète Et j'nique tout en disant Hamdoullah dans ma galère C'est sale quand j'vends la came Mais bon, croyez pas qu'j'kiffe, des remords quand j'suis à table Baba, j'bibi' en bas L'temps passe, j'vois l'soleil s'lever, s'coucher, j'mens quand j'dis Ça va La vérité c'est qu'j'suis autant obsédé par l'argent Que j'suis to-to-totalement pété, gros pédé Viens prendre ta cons', cons', cons' Avec Nabil on n'est pas à onze, onze, onze, oh lala En vert pour l'salaire, et j'sers même le week-end, la putain d'sa mère Baba, j'bibi' en bas L'temps passe, j'vois l'soleil s'lever, s'coucher, j'mens quand j'dis Ça va Hey, mes ennemis, la vengeance ou la grêle Hey, mes amis, on danse ou on crève ? J'suis dans le four, j'ai chaud, j'ai la dalle La pesanteur sur le dos qui s'installe Hey la vida loca nous rend animal Tout niquer devient vital J'me défonce pour me rappeler J'me défonce pour oublier Salut, salut J'me défonce dans l'obscurité Parce qu'on aime voir l'ombre briller La Lune, la Lune Le temps qui passe me chuchote Ma biche, c'est ta faute Il nous reste toutes ces bougies à souffler sur la côte Le roi bien profond pour caresser le trophée Tu veux qu'on t'sauve, on ... s'est même pas sauvés La vérité c'est qu'j'suis autant obsédé par l'argent Que j'suis to-to-totalement pété, gros pédé Viens prendre ta cons', cons', cons' Avec Nabil on n'est pas à onze, onze, onze, oh lala En vert pour l'salaire, et j'sers même le week-end, la putain d'sa mère Baba, j'bibi' en bas L'temps passe, j'vois l'soleil, s'lever, s'coucher, j'mens quand j'dis Ça va38</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mhh, quand t'as pas d'thème Mhh, comme la fin d'peine J'traîne, souvenirs par centaines J'traîne Bambina, bambina, bambina Y'a rien d'magique tu sais, ma vie est simple, j'joue pas d'rôle Hé bambina, bambina, bambina Baila, baila, baila, baila, noire est la rose Opé, Opé, j'vendais l'coco, j'graillais l'tacos Hombre hombre j'fais l'tour du Monde même en tacos Faut qu'j'voie l'Japon, faut qu'j'voie la Chine, faut qu'j'voie l'Mexique Faut qu'j'voie l'Afrique, faut qu'j'voie ma jungle, qu'Mowgli s'exprime J'rime tranquille devant l'cul de Kim Anakin Tu m'fascines, tu m'rends stupide, ça m'abîme Si tu m'aimes, est-ce que tu signes si je saigne ? Si fragile, tu serais copine sans le sale J'aime quand t'as pas d'thème J'aime comme la fin d'peine, J'aime J'traîne souvenirs par centaines Qu'est-ce qu'on riait, comme c'était bon à l'ancienne J'aime, t'aimes J'aime comme la fin d'peine J'traîne souvenirs par centaines Comme c'était bon à l'ancienne You might also like Shut up, shut up, shut up Shut up, shut up, shut up Igo j'suis sous calmant Tais-toi, juste un moment Ouh la, la, la Ouh ça, ça, ça Chkoun, chkoun, salope J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah Shut up, shut up, shut up Ouh la, la, la Ouh ça, ça, ça Chkoun, chkoun, salope J'fais mon biff, ouah ouah ouah J'ai rempli mon répertoire de charognards Brr Tranquille tant que ces ... parlent en dollars Monnaie Mes frères savent bien qu'j'les oublierai pas La mif sait bien sans elle j'm'en irai pas Elle est belle, mais elle kiffe trop PNL J'pourrai jamais lui présenter mes séquelles J'suis sur le cul d'une étoile filante Pas d'vux, j'fais l'bilan, vers gris-land J'peux pas la ken, elle est trop love Peace n'Lovés, pas Peace n'Love Plus j'me rapproche du butin, plus je sais que tout ça n'me sauvera pas Pendant qu'tu changes d'air, je reste en bas, je rabats Et pourquoi à chaque fois, igo, on devient, on naît Ils veulent trop en savoir, bientôt on devient honnêtes Shut up, shut up, shut up Shut up, shut up, shut up Igo j'suis sous calmant Tais-toi, juste un moment Ouh la, la, la Ouh ça, ça, ça Chkoun, chkoun, salope J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah Shut up, shut up, shut up Ouh la, la, la Ouh ça, ça, ça Chkoun, chkoun, salope J'fais mon biff, ouah ouah ouah13</t>
+          <t>Mhh, quand t'as pas d'thème Mhh, comme la fin d'peine J'traîne, souvenirs par centaines J'traîne Bambina, bambina, bambina Y'a rien d'magique tu sais, ma vie est simple, j'joue pas d'rôle Hé bambina, bambina, bambina Baila, baila, baila, baila, noire est la rose Opé, Opé, j'vendais l'coco, j'graillais l'tacos Hombre hombre j'fais l'tour du Monde même en tacos Faut qu'j'voie l'Japon, faut qu'j'voie la Chine, faut qu'j'voie l'Mexique Faut qu'j'voie l'Afrique, faut qu'j'voie ma jungle, qu'Mowgli s'exprime J'rime tranquille devant l'cul de Kim Anakin Tu m'fascines, tu m'rends stupide, ça m'abîme Si tu m'aimes, est-ce que tu signes si je saigne ? Si fragile, tu serais copine sans le sale J'aime quand t'as pas d'thème J'aime comme la fin d'peine, J'aime J'traîne souvenirs par centaines Qu'est-ce qu'on riait, comme c'était bon à l'ancienne J'aime, t'aimes J'aime comme la fin d'peine J'traîne souvenirs par centaines Comme c'était bon à l'ancienne Shut up, shut up, shut up Shut up, shut up, shut up Igo j'suis sous calmant Tais-toi, juste un moment Ouh la, la, la Ouh ça, ça, ça Chkoun, chkoun, salope J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah Shut up, shut up, shut up Ouh la, la, la Ouh ça, ça, ça Chkoun, chkoun, salope J'fais mon biff, ouah ouah ouah J'ai rempli mon répertoire de charognards Brr Tranquille tant que ces ... parlent en dollars Monnaie Mes frères savent bien qu'j'les oublierai pas La mif sait bien sans elle j'm'en irai pas Elle est belle, mais elle kiffe trop PNL J'pourrai jamais lui présenter mes séquelles J'suis sur le cul d'une étoile filante Pas d'vux, j'fais l'bilan, vers gris-land J'peux pas la ken, elle est trop love Peace n'Lovés, pas Peace n'Love Plus j'me rapproche du butin, plus je sais que tout ça n'me sauvera pas Pendant qu'tu changes d'air, je reste en bas, je rabats Et pourquoi à chaque fois, igo, on devient, on naît Ils veulent trop en savoir, bientôt on devient honnêtes Shut up, shut up, shut up Shut up, shut up, shut up Igo j'suis sous calmant Tais-toi, juste un moment Ouh la, la, la Ouh ça, ça, ça Chkoun, chkoun, salope J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah J'aime son putain d'accent J'fais mon biff, ouah ouah ouah Shut up, shut up, shut up Ouh la, la, la Ouh ça, ça, ça Chkoun, chkoun, salope J'fais mon biff, ouah ouah ouah13</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Igo m'demandent tous de laide Mais moi, j'suis rien sans cet oseille Je roule que la peuf me balaie Tordu, tordu par Corbeil J'ai peur un peu pour moi, beaucoup pour toi Jessaie de m'adoucir mais l'humain m'rend noir Il reste quelques gens biens, je garde espoir J'serais pas l'même sans les miens ou sans le noir J'fais l'tour dla pièce, la nuit, jfais le tour d'la ville Une gourde, jfais l'shlag quand cette putain d'vie m'ennuie Et si cette vie nest pas bonne, j'la baiserai pas J'veux pas être comme le roi, j'vaux mieux que ça Nerveux comme équipe sans liquide Recherche du bonheur, j'm'enfonce dans le vide Le temps passe sur ton visage, le chrono' m'fait mal au bide J'vois l'monde un peu à l'envers J'attire les putes blanches aux sentiments noirs J'ai les douilles, j'fais pas la catine lé-lé-lé Bats les couilles si tu parles trop hmm, c'est la rue qui t'abîme Tu connais, faudra pas déconner, c'est AD qui taquine Coco joue pas l'kéké, humble comme Kaká Un peu survolté, un dos louche comme Blanka Sous jamaïca, sors un flow comme Sanka You might also like J'mets ma casquette, elle m'rappellera toujours c'temps où j'tenais les murs J'adoucis l'flow, l'regard si dur J'me suis détruit, en construisant l'avenir des miens J'me remets en question avec des larmes dans mon vin J'disais Mon ombre, tu sais, tu devrais fuir À croire qu'elle savait c'que j'deviendrai à l'av'nir J'ai que des tics sniff, à l'odeur d'l'argent j'comptais J'me cache, j'compte, j'cache, le cash dans la chambre Comme avant, comme demain ou comme avant-hier Rien ne change à part que j'suis encore plus fier putain d'sa mère J'suis toujours gang, à la trentaine, j'dis toujours bang Elle s'rappelle de mon coup d'rein sur du triple chain gang gang, gang, gang, gang J'fume et puis j'tractionne en pronation en pronation, j'sors ma bite dans les prolongations prolongations J'suis serein dans ce corps en location J'suis à cent pour cent d'mes dix pour cent, Epoque il pour il et bouche sur gland Et j'passe au vert en billets d'cent, l'cur pas si blanc et j'prie pourtant J'souris, j'ai l'parfum du doré Y'a très peu d'anges pour m'épauler J'ai les douilles, j'fais pas la catine lé-lé-lé Bats les couilles si tu parles trop hmm, c'est la rue qui t'abîme Tu connais, faudra pas déconner, c'est AD qui taquine Coco joue pas l'kéké, humble comme Kaká Un peu survolté, un dos louche comme Blanka Sous jamaïca, sors un flow comme Sanka28</t>
+          <t>Igo m'demandent tous de laide Mais moi, j'suis rien sans cet oseille Je roule que la peuf me balaie Tordu, tordu par Corbeil J'ai peur un peu pour moi, beaucoup pour toi Jessaie de m'adoucir mais l'humain m'rend noir Il reste quelques gens biens, je garde espoir J'serais pas l'même sans les miens ou sans le noir J'fais l'tour dla pièce, la nuit, jfais le tour d'la ville Une gourde, jfais l'shlag quand cette putain d'vie m'ennuie Et si cette vie nest pas bonne, j'la baiserai pas J'veux pas être comme le roi, j'vaux mieux que ça Nerveux comme équipe sans liquide Recherche du bonheur, j'm'enfonce dans le vide Le temps passe sur ton visage, le chrono' m'fait mal au bide J'vois l'monde un peu à l'envers J'attire les putes blanches aux sentiments noirs J'ai les douilles, j'fais pas la catine lé-lé-lé Bats les couilles si tu parles trop hmm, c'est la rue qui t'abîme Tu connais, faudra pas déconner, c'est AD qui taquine Coco joue pas l'kéké, humble comme Kaká Un peu survolté, un dos louche comme Blanka Sous jamaïca, sors un flow comme Sanka J'mets ma casquette, elle m'rappellera toujours c'temps où j'tenais les murs J'adoucis l'flow, l'regard si dur J'me suis détruit, en construisant l'avenir des miens J'me remets en question avec des larmes dans mon vin J'disais Mon ombre, tu sais, tu devrais fuir À croire qu'elle savait c'que j'deviendrai à l'av'nir J'ai que des tics sniff, à l'odeur d'l'argent j'comptais J'me cache, j'compte, j'cache, le cash dans la chambre Comme avant, comme demain ou comme avant-hier Rien ne change à part que j'suis encore plus fier putain d'sa mère J'suis toujours gang, à la trentaine, j'dis toujours bang Elle s'rappelle de mon coup d'rein sur du triple chain gang gang, gang, gang, gang J'fume et puis j'tractionne en pronation en pronation, j'sors ma bite dans les prolongations prolongations J'suis serein dans ce corps en location J'suis à cent pour cent d'mes dix pour cent, Epoque il pour il et bouche sur gland Et j'passe au vert en billets d'cent, l'cur pas si blanc et j'prie pourtant J'souris, j'ai l'parfum du doré Y'a très peu d'anges pour m'épauler J'ai les douilles, j'fais pas la catine lé-lé-lé Bats les couilles si tu parles trop hmm, c'est la rue qui t'abîme Tu connais, faudra pas déconner, c'est AD qui taquine Coco joue pas l'kéké, humble comme Kaká Un peu survolté, un dos louche comme Blanka Sous jamaïca, sors un flow comme Sanka28</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ça va comme tous les jours, j'ai l'démon faut l'tempérer Arriba arriba... Hé Tarik, comment tu vas ? Hé Tarik, comment tu vas ? Ça va comme tous les jours, j'ai l'démon faut l'tempérer J'vois que t'es bien entouré Ouais mais quand j'étais dans le trou, personne Je m'en bats les reins T'es sérieux ? Je suis sérieux, ouais je leur donnerai ma bite T'es sérieux ? Ouais QLF pour eux je donnerai ma vie J'ai trimé chaque année, j'étais solo keutchi Ouais je sais, je m'en rappelle, bah bien sûr pas de cevi Et donc là ? Et donc rien, ça me rend pas plus heureux Et l'amour ? J'en ai pas et je ferai bien plus d'euros Hein c'est triste, ouais, hé tranquille c'est la vie, vraiment triste Hé, m'fais pas comme la psy T'as beaucoup d'haine tu sais ? Sans ça j'serais mort T'es fou toi, t'es fou toi ! Et c'est moi ou tu saignes ? J'saigne pas, regarde j'rigole T'es fou toi, t'es fou toi ! T'façon j'ai pas besoin d'eux, mais ah bon t'as besoin de qui ? J'ai ma miff, ouais j'ai Dieu, non j'suis pas de ces harkis Il serait temps qu'tu grandisses Tu sais pas toi, avant que tes ailes s'enlisent, j'en ai pas moi T'es trop fier ! J'ai que ça, sa mère... Hein mira mira mira Des épreuves t'attendent, je le sais T'inquiète mira mira mira You might also like Salut, salut, salut, salut, salut, salut, salut J'tombe dans ma vallée, vallée, vallée, vallée, vallée, vallée, vallée J'ai la dalle, dalle, dalle, dalle, dalle, dalle, dalle J'me rappelle-pelle-pelle-pelle-pelle Salut, salut, salut, salut, salut, salut, salut J'tombe dans ma vallée, vallée, vallée, vallée, vallée, vallée, vallée J'ai la dalle, dalle, dalle, dalle, dalle, dalle, dalle Je rafale-fale-fale-fale-fale-fale-fale-fale J'monte sur scène, l'impression d'être une bête de foire Pas envie de parler, pas envie de te voir Or jaune, or gris, or rose, j'ressors de Cartier Naha, qu'elle sache que jamais j'l'oublierai Et j'roule avec les meilleurs et les moins pires Avec deux trois shooters qui kiffent quand ça tire L'oseille n'a pas de couleur, comme le ient-cli Mon cur n'a pas d'douleur tant que j'le remplis Les effets secondaires de mon premier E Les effets secondaires de mon premier 22 Sur scène elles fouillent dans mes poches, me laissent des 06 Plus que quand j'étais moche, plus que quand c'était la crise Charbon, parlu parlu, Fleury, son-mai À peine le temps d'la ken pas le temps d'aimer Les démons veulent leur dédicace J'y mettrai l'espace Les démons veulent leur dédicace Charbon, parlu parlu, Fleury, son-mai À peine le temps d'la ken pas l'temps d'l'aimer Salut, salut, salut, salut, salut, salut, salut J'tombe dans ma vallée, vallée, vallée, vallée, vallée, vallée, vallée J'ai la dalle, dalle, dalle, dalle, dalle, dalle, dalle J'me rappelle-pelle-pelle-pelle-pelle Salut, salut, salut, salut, salut, salut, salut J'tombe dans ma vallée, vallée, vallée, vallée, vallée, vallée, vallée J'ai la dalle, dalle, dalle, dalle, dalle, dalle, dalle Je rafale-fale-fale-fale-fale-fale-fale-fale16</t>
+          <t>Ça va comme tous les jours, j'ai l'démon faut l'tempérer Arriba arriba... Hé Tarik, comment tu vas ? Hé Tarik, comment tu vas ? Ça va comme tous les jours, j'ai l'démon faut l'tempérer J'vois que t'es bien entouré Ouais mais quand j'étais dans le trou, personne Je m'en bats les reins T'es sérieux ? Je suis sérieux, ouais je leur donnerai ma bite T'es sérieux ? Ouais QLF pour eux je donnerai ma vie J'ai trimé chaque année, j'étais solo keutchi Ouais je sais, je m'en rappelle, bah bien sûr pas de cevi Et donc là ? Et donc rien, ça me rend pas plus heureux Et l'amour ? J'en ai pas et je ferai bien plus d'euros Hein c'est triste, ouais, hé tranquille c'est la vie, vraiment triste Hé, m'fais pas comme la psy T'as beaucoup d'haine tu sais ? Sans ça j'serais mort T'es fou toi, t'es fou toi ! Et c'est moi ou tu saignes ? J'saigne pas, regarde j'rigole T'es fou toi, t'es fou toi ! T'façon j'ai pas besoin d'eux, mais ah bon t'as besoin de qui ? J'ai ma miff, ouais j'ai Dieu, non j'suis pas de ces harkis Il serait temps qu'tu grandisses Tu sais pas toi, avant que tes ailes s'enlisent, j'en ai pas moi T'es trop fier ! J'ai que ça, sa mère... Hein mira mira mira Des épreuves t'attendent, je le sais T'inquiète mira mira mira Salut, salut, salut, salut, salut, salut, salut J'tombe dans ma vallée, vallée, vallée, vallée, vallée, vallée, vallée J'ai la dalle, dalle, dalle, dalle, dalle, dalle, dalle J'me rappelle-pelle-pelle-pelle-pelle Salut, salut, salut, salut, salut, salut, salut J'tombe dans ma vallée, vallée, vallée, vallée, vallée, vallée, vallée J'ai la dalle, dalle, dalle, dalle, dalle, dalle, dalle Je rafale-fale-fale-fale-fale-fale-fale-fale J'monte sur scène, l'impression d'être une bête de foire Pas envie de parler, pas envie de te voir Or jaune, or gris, or rose, j'ressors de Cartier Naha, qu'elle sache que jamais j'l'oublierai Et j'roule avec les meilleurs et les moins pires Avec deux trois shooters qui kiffent quand ça tire L'oseille n'a pas de couleur, comme le ient-cli Mon cur n'a pas d'douleur tant que j'le remplis Les effets secondaires de mon premier E Les effets secondaires de mon premier 22 Sur scène elles fouillent dans mes poches, me laissent des 06 Plus que quand j'étais moche, plus que quand c'était la crise Charbon, parlu parlu, Fleury, son-mai À peine le temps d'la ken pas le temps d'aimer Les démons veulent leur dédicace J'y mettrai l'espace Les démons veulent leur dédicace Charbon, parlu parlu, Fleury, son-mai À peine le temps d'la ken pas l'temps d'l'aimer Salut, salut, salut, salut, salut, salut, salut J'tombe dans ma vallée, vallée, vallée, vallée, vallée, vallée, vallée J'ai la dalle, dalle, dalle, dalle, dalle, dalle, dalle J'me rappelle-pelle-pelle-pelle-pelle Salut, salut, salut, salut, salut, salut, salut J'tombe dans ma vallée, vallée, vallée, vallée, vallée, vallée, vallée J'ai la dalle, dalle, dalle, dalle, dalle, dalle, dalle Je rafale-fale-fale-fale-fale-fale-fale-fale16</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>On voyage, j'm'en bats les couilles j'suis faya J'vogue sur une plaquette d'aya J'sais pas pourquoi j'déraille Paire d'lunettes sur le 'zen Million d'vues en 24 heures, zen Mon frigo n'a plus peur Petit frère change de paire Un clip on les met en sueur Et l'lendemain dans le bend', t'entends du PNL D'mande à ta soeur, t'entends du PNL Dans l'hood, en ville, on navigue La jungle elle s'en voit ravie Et j'gère mes affaires Du sucre dans ma bouche amère La mif sous un soleil plein Tu t'touches, on touche le salaire Igo, on fait c'qu'on peut, toi reste en chien, toi reste en chienne Majeur traverse le ciel On voyage, j'm'en bats les couilles j'suis faya J'vogue sur une plaquette d'aya J'sais pas pourquoi j'déraille On voyage, j'm'en bats les couilles j'suis faya J'vogue sur une plaquette d'aya J'sais pas pourquoi j'déraille You might also like Deux-trois millions, cette moula juste pour quitter la Terre J'fais plus taga, QLF se fait le rap FR L'odeur de la mer, j'sens qu'il est temps d'se refaire J'suis bien ché-per, j'rattrape les années en l'air J'aime son accent, j'aime la vie en vrai Je prends ton temps, je réfléchis après J'ai souri à la merde, souri à l'envers, sans commentaire Suce-moi, merci d'avoir douté de moi J'prends mon oseille, je chante, j'me casse de la te-boi Elle est sombre, elle est timide Ce soir la Lune rougit J'pète niaks vers Itachi Le temps c'est d'la money, j'ai pas d'montre, j'ai des sous DTF, IGD, 2MZ, DBZoo Même adresse, personne ne nous inquiète Dans-dans le vide, j'vois le monde en entier On voyage, j'm'en bats les couilles j'suis faya J'vogue sur une plaquette d'aya J'sais pas pourquoi j'déraille On voyage, j'm'en bats les couilles j'suis faya J'vogue sur une plaquette d'aya J'sais pas pourquoi j'déraille29</t>
+          <t>On voyage, j'm'en bats les couilles j'suis faya J'vogue sur une plaquette d'aya J'sais pas pourquoi j'déraille Paire d'lunettes sur le 'zen Million d'vues en 24 heures, zen Mon frigo n'a plus peur Petit frère change de paire Un clip on les met en sueur Et l'lendemain dans le bend', t'entends du PNL D'mande à ta soeur, t'entends du PNL Dans l'hood, en ville, on navigue La jungle elle s'en voit ravie Et j'gère mes affaires Du sucre dans ma bouche amère La mif sous un soleil plein Tu t'touches, on touche le salaire Igo, on fait c'qu'on peut, toi reste en chien, toi reste en chienne Majeur traverse le ciel On voyage, j'm'en bats les couilles j'suis faya J'vogue sur une plaquette d'aya J'sais pas pourquoi j'déraille On voyage, j'm'en bats les couilles j'suis faya J'vogue sur une plaquette d'aya J'sais pas pourquoi j'déraille Deux-trois millions, cette moula juste pour quitter la Terre J'fais plus taga, QLF se fait le rap FR L'odeur de la mer, j'sens qu'il est temps d'se refaire J'suis bien ché-per, j'rattrape les années en l'air J'aime son accent, j'aime la vie en vrai Je prends ton temps, je réfléchis après J'ai souri à la merde, souri à l'envers, sans commentaire Suce-moi, merci d'avoir douté de moi J'prends mon oseille, je chante, j'me casse de la te-boi Elle est sombre, elle est timide Ce soir la Lune rougit J'pète niaks vers Itachi Le temps c'est d'la money, j'ai pas d'montre, j'ai des sous DTF, IGD, 2MZ, DBZoo Même adresse, personne ne nous inquiète Dans-dans le vide, j'vois le monde en entier On voyage, j'm'en bats les couilles j'suis faya J'vogue sur une plaquette d'aya J'sais pas pourquoi j'déraille On voyage, j'm'en bats les couilles j'suis faya J'vogue sur une plaquette d'aya J'sais pas pourquoi j'déraille29</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>On a grandi comme les princes de la ville, fous comme Prince de Bel-Air Flow Corvette, Ford Mustang, dans la légende La police d'une à six étoiles, à toujours se dire belek Trop gentil comme Cody, sentiments dans la salle du temps Il était une fois deux frères Deux fauves, deux trous dans l'cerveau, poto, deux paires Conditionnés au fond d'un hall sur une chaise Emprisonnés, des rêves qui brisent plus d'une chaîne Esprit de gosse caché derrière le V Pris d'ambition en stagnant d'vant L.V Salaire de bacqueux chaque soir dans les Nike Bénéf' de la beuh qui part dans le mic' On a grandi comme les princes de la ville, les rois du hall Dans l'ciel, pas plus d'une étoile, en face du trône Des grammes, des kill's de peine, même dans le bend' Deux frères, deux fauves, le M Deux frères, deux frères Deux frères, deux frères Deux frères M, M, M, deux frères Deux frères M, M, M, deux frères Bats les couilles d'ces fils de pute, j'suis pas là pour être aimé, faudra t'y faire à l'idée Rien à foutre d'ces catins des bois, d'ce rap de merde ou d'qui t'aura validé Même plus besoin d'visser d'la qualité d'après vé-Her D'la force au calme, au Kaïô-Ken, allez, c'est l'heure allez, c'est l'heure You might also like J'ai grandi dans le zoo, j'suivais les cris dans la jungle, les pas de grand frère Papa nous a cogné tête contre tête, nous a dit J'veux un amour en fer J'veux personne entre vous, même pas moi, même pas les anges de l'Enfer les anges de l'Enfer Donc j'ai aimé mon frère plus que ma vie et que me l'a appris mon père Chaque rêve, chaque cauchemar, chaque ennemi, chaque euro partagés Et à part le nombre de cicatrices, rien ne va changer Dans le même, dans le même miroir, on s'est regardés Dans les mêmes, dans les mêmes trous noirs, on s'est égarés Quand on était petits, on avait les mêmes sapes, plus grands, les mêmes armes Même niaks, même terrain, igo, les mêmes schlags Jamais les mêmes femmes moi, c'était les belles blondes Lui, les Vénézuéliennes, moi dehors, lui qui tombe Rien ne nous sépar'ra, même pas nos bitchs Tout c'que j'prends, j'te l'donne, un peu comme ma vie Y'a qu'toi qui sais c'que j'vis, que moi qui sais c'que tu vis On s'est dit, c'est l'heure d'les baiser, si on fusionnait, chi Deux frères, deux frères Deux frères, deux frères Deux frères M, M, M, deux frères Deux frères M, M, M, deux frères Bats les couilles d'ces fils de pute, j'suis pas là pour être aimé, faudra t'y faire à l'idée Rien à foutre d'ces catins des bois, d'ce rap de merde ou d'qui t'aura validé Même plus besoin d'visser d'la qualité d'après vé-Her D'la force au calme, au Kaïô-Ken, allez, c'est l'heure allez, c'est l'heure30</t>
+          <t>On a grandi comme les princes de la ville, fous comme Prince de Bel-Air Flow Corvette, Ford Mustang, dans la légende La police d'une à six étoiles, à toujours se dire belek Trop gentil comme Cody, sentiments dans la salle du temps Il était une fois deux frères Deux fauves, deux trous dans l'cerveau, poto, deux paires Conditionnés au fond d'un hall sur une chaise Emprisonnés, des rêves qui brisent plus d'une chaîne Esprit de gosse caché derrière le V Pris d'ambition en stagnant d'vant L.V Salaire de bacqueux chaque soir dans les Nike Bénéf' de la beuh qui part dans le mic' On a grandi comme les princes de la ville, les rois du hall Dans l'ciel, pas plus d'une étoile, en face du trône Des grammes, des kill's de peine, même dans le bend' Deux frères, deux fauves, le M Deux frères, deux frères Deux frères, deux frères Deux frères M, M, M, deux frères Deux frères M, M, M, deux frères Bats les couilles d'ces fils de pute, j'suis pas là pour être aimé, faudra t'y faire à l'idée Rien à foutre d'ces catins des bois, d'ce rap de merde ou d'qui t'aura validé Même plus besoin d'visser d'la qualité d'après vé-Her D'la force au calme, au Kaïô-Ken, allez, c'est l'heure allez, c'est l'heure J'ai grandi dans le zoo, j'suivais les cris dans la jungle, les pas de grand frère Papa nous a cogné tête contre tête, nous a dit J'veux un amour en fer J'veux personne entre vous, même pas moi, même pas les anges de l'Enfer les anges de l'Enfer Donc j'ai aimé mon frère plus que ma vie et que me l'a appris mon père Chaque rêve, chaque cauchemar, chaque ennemi, chaque euro partagés Et à part le nombre de cicatrices, rien ne va changer Dans le même, dans le même miroir, on s'est regardés Dans les mêmes, dans les mêmes trous noirs, on s'est égarés Quand on était petits, on avait les mêmes sapes, plus grands, les mêmes armes Même niaks, même terrain, igo, les mêmes schlags Jamais les mêmes femmes moi, c'était les belles blondes Lui, les Vénézuéliennes, moi dehors, lui qui tombe Rien ne nous sépar'ra, même pas nos bitchs Tout c'que j'prends, j'te l'donne, un peu comme ma vie Y'a qu'toi qui sais c'que j'vis, que moi qui sais c'que tu vis On s'est dit, c'est l'heure d'les baiser, si on fusionnait, chi Deux frères, deux frères Deux frères, deux frères Deux frères M, M, M, deux frères Deux frères M, M, M, deux frères Bats les couilles d'ces fils de pute, j'suis pas là pour être aimé, faudra t'y faire à l'idée Rien à foutre d'ces catins des bois, d'ce rap de merde ou d'qui t'aura validé Même plus besoin d'visser d'la qualité d'après vé-Her D'la force au calme, au Kaïô-Ken, allez, c'est l'heure allez, c'est l'heure30</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dans la tour, j'me rappelle, j'me rappelle Les cafards, les baqueux, les ients-cli à la pelle, à la pelle Aujourd'hui hamdoullah plus besoin de le faire Le monde chico-chico Y'a le buzz tant qu'il est chaud on bat le fer Amiga amiga amigo-migo Hmm, hmm, hmm Pas de dix, pas de dix Au bon-char on y va on fait pas de caprices, nan Love and peace, love and peace Sur l'terrain y'a des yeux eh belek au glissement Ouais ouais ouais ouais ouais On te rentre dedans bim bim bim Pas ton temps, pas ton temps, bref Allez file Qu'est-ce que t'as, fais le fou, teste Xin xin xin xin zang Khey khey khey khey khey J'sors des mots de merde Et tu m'payes payes payes payes payes La haine sur l'maillot, l'oseille, la maille, j'vois Miami Le M en saiyan, un teh tu fly, wallay wallay J'pense moins ça m'arrange T'as fait ci, t'as fait ça, allez change Adé' t'es où ? Loin des anges J'vois ma haine sur la balance J'dois rentrer dans la légende You might also like J'voyage, j'filme, j'revis aïe, aïe, aïe, aïe J'rentre pas dans leur fête nan, nan, nan, nan Un charbon et j'm'enfuis j'fly, j'fly, j'fly, j'fly J'fume toute l'année j'm'embête j'maille, j'maille, j'maille, j'maille J'sors de la savane, de la jungle que du soleil WAllah wAllah j'ai plus sommeil Terrain j'te laisse, fini de vendre ça y est, ça y est, ça y est, ça y est Bientôt on rentre dans la légende bye, bye, bye, bye On fait que charbonner on s'occupe Ouais c'est ça ou finir cocu Taille de la sse-lia inquiétante Nous on reste les mêmes et on bande J'refais mon corazon en pépite Chez nous les chromes c'est comme les feats J'veux ce putain d'cash, on veille Le sourire d'un ange nous réveille Balle perdue vers Corbeil Charbonneur dans la vie des billets Des billets j'fais des kils Garde le double des clefs salut je quitte la Terre Igo on veut la ville, boire le sang du maire J'amène la misère, putain de balade J'vis la vie que j'aurai pas, le temps d'une barre, je quitte Paname Personne ne m'manque, la mif, l'argent Le sang, dans la légende J'voyage, j'filme, j'revis aïe, aïe, aïe, aïe J'rentre pas dans leur fête nan, nan, nan, nan Un charbon et j'm'enfuis j'fly, j'fly, j'fly, j'fly J'fume toute l'année j'm'embête j'maille, j'maille, j'maille, j'maille J'sors de la savane, de la jungle que du soleil WAllah wAllah j'ai plus sommeil Terrain j'te laisse, fini de vendre ça y est, ça y est, ça y est, ça y est Bientôt on rentre dans la légende bye, bye, bye, bye J'fly j'fly j'fly J'maille j'maille j'maille Ca y est, ça y est, ça y est Bye bye bye18</t>
+          <t>Dans la tour, j'me rappelle, j'me rappelle Les cafards, les baqueux, les ients-cli à la pelle, à la pelle Aujourd'hui hamdoullah plus besoin de le faire Le monde chico-chico Y'a le buzz tant qu'il est chaud on bat le fer Amiga amiga amigo-migo Hmm, hmm, hmm Pas de dix, pas de dix Au bon-char on y va on fait pas de caprices, nan Love and peace, love and peace Sur l'terrain y'a des yeux eh belek au glissement Ouais ouais ouais ouais ouais On te rentre dedans bim bim bim Pas ton temps, pas ton temps, bref Allez file Qu'est-ce que t'as, fais le fou, teste Xin xin xin xin zang Khey khey khey khey khey J'sors des mots de merde Et tu m'payes payes payes payes payes La haine sur l'maillot, l'oseille, la maille, j'vois Miami Le M en saiyan, un teh tu fly, wallay wallay J'pense moins ça m'arrange T'as fait ci, t'as fait ça, allez change Adé' t'es où ? Loin des anges J'vois ma haine sur la balance J'dois rentrer dans la légende J'voyage, j'filme, j'revis aïe, aïe, aïe, aïe J'rentre pas dans leur fête nan, nan, nan, nan Un charbon et j'm'enfuis j'fly, j'fly, j'fly, j'fly J'fume toute l'année j'm'embête j'maille, j'maille, j'maille, j'maille J'sors de la savane, de la jungle que du soleil WAllah wAllah j'ai plus sommeil Terrain j'te laisse, fini de vendre ça y est, ça y est, ça y est, ça y est Bientôt on rentre dans la légende bye, bye, bye, bye On fait que charbonner on s'occupe Ouais c'est ça ou finir cocu Taille de la sse-lia inquiétante Nous on reste les mêmes et on bande J'refais mon corazon en pépite Chez nous les chromes c'est comme les feats J'veux ce putain d'cash, on veille Le sourire d'un ange nous réveille Balle perdue vers Corbeil Charbonneur dans la vie des billets Des billets j'fais des kils Garde le double des clefs salut je quitte la Terre Igo on veut la ville, boire le sang du maire J'amène la misère, putain de balade J'vis la vie que j'aurai pas, le temps d'une barre, je quitte Paname Personne ne m'manque, la mif, l'argent Le sang, dans la légende J'voyage, j'filme, j'revis aïe, aïe, aïe, aïe J'rentre pas dans leur fête nan, nan, nan, nan Un charbon et j'm'enfuis j'fly, j'fly, j'fly, j'fly J'fume toute l'année j'm'embête j'maille, j'maille, j'maille, j'maille J'sors de la savane, de la jungle que du soleil WAllah wAllah j'ai plus sommeil Terrain j'te laisse, fini de vendre ça y est, ça y est, ça y est, ça y est Bientôt on rentre dans la légende bye, bye, bye, bye J'fly j'fly j'fly J'maille j'maille j'maille Ca y est, ça y est, ça y est Bye bye bye18</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eh ouais, j'suis bon qu'à écrire des textes de merde gang, gang Les gens nous aiment un peu plus sans la misère gang, gang Khey, la couronne a l'odeur du ghetto gang, gang Bon qu'à peser les grammes, bon qu'à peser les mots gang, gang J'ai plus trop l'temps de me voir dans le miroir J'essaie d'comprendre c'que j'suis devenu, tard le soir J'ai goûté, j'aime plus, un jour j'regretterai Pour l'instant je doute, un jour, j'regretterai L'inspi' s'en va comme toi bientôt J'continuerai en bas, à compter les zéros Parce que j'suis contaminé, j'ai que ça pour exister J'reviens d'où t'as pas idée quand j'aurai plus d'haine, j'm'en irai Ce monde, wAllah, j'l'ai vu, wAllah Mais ce n'est pas c'que j'croyais, Manny Mais tu sais quoi, p't-être que des fois P't-être que c'est moi, j'ai chaud au crâne J'ai grandi dans le zoo, j'suis niqué pour la vie Même si j'meurs sur une plage, j'suis niqué pour la vie Parce que ceux qu'j'aime ont la haine, j'suis niqué pour la vie Parce que j'cours après c'biff, j'suis niqué pour la vie Merci pour les étoiles qu't'as posées sous mon ciel M'suis pas de trop près si tu veux garder tes ailes J'récolte ce que je saigne, que le bonheur te prenne J'ai lâché ma haine, j'ai causé ta peine J'fais pas trop confiance, c'est la rue J'confie ma conscience à la Lune On danse la misère, on parle la guerre Charbonne pour pas s'perdre, 22 sur Casper T'as bien gé-chan comme mon TZoo Comme le Bât' C, comme moi demain Zoulou Tchaing Tchaing You might also like J'm'en bats les couilles du trône, j'préfère être debout pour compter Comme ça j'vois mieux la monnaie arriver Comme ça j'vois mieux les haineux arriver Avec une belle âme en train de chavirer en train de chavirer Zoulou Tchaing Zoulou Tchaing, zoulou Tchaing Zoulou Tchaing Zoulou Tchaing Zoulou Tchaing J'm'en bats les couilles du trône, j'préfère être debout pour compter Comme ça j'vois mieux la monnaie arriver Comme ça j'vois mieux les haineux arriver Avec une belle âme en train de chavirer en train de chavirer Zoulou Tchaing Zoulou Tchaing, zoulou Tchaing Zoulou Tchaing Zoulou Tchaing Zoulou Tchaing Si tout ça s'résume à raconter ma haine Priez pour qu'un jour, j'change de thème Malgré tous ces billets, j'rattraperai jamais ce temps J'vois mon âme qui chavire en bord de mer J'pense pas à toi qu'une fois sur deux J'ai pas pu être riche avant Baba, pour ton sourire, j'donnerais ma vie Et p't-être même ma place au paradis J'sais très bien qu'mon vécu n'est qu'un leurre A côté d'ta vie de merde J'montais sur le toit pour finir en pleurs pleurs Seul à penser J'baise le monde J'suis pas trop aimé mais tant qu'toi tu m'aimes, leurs faux sourires, je les vois J'pense que tu sais de quoi j'parle, ces sourires que tu croises Et qui changent quand on t'tourne le dos ah ouais Dis, tu penses que Dieu nous écoute ? Dis, ces gens n'sont pas très fidèles non Différent, j'me sens comme toi, à me dire que j'partirai sur La vie est belle hein Sur l'épaule, j'ai le Zoulou, pour pas oublier que j'tiens d'un roi Ce monde serait moche sans toi, et j'refuse le paradis si t'y es pas Putain ton cur est fort, tu t'rappelles, on était tits-pe Toi, t'avais l'tard-pé, tu nous disais papa reviens d'ici peu J't'aime, j't'aime, j't'aime, j'rêve d'effacer tes cicatrices j'rêve Et pour sauver le monde entier, j'donnerai pas un grain d'ta vie J'm'en bats les couilles du trône, j'préfère être debout pour compter, comme ça, j'vois mieux la monnaie arriver Comme ça, j'vois mieux les haineux arriver avec une belle âme en train de chavirer en train de chavirer Zoulou Tchaing Zoulou Tchaing, zoulou Tchaing Zoulou Tchaing Zoulou Tchaing Zoulou Tchaing J'm'en bats les couilles du trône, j'préfère être debout pour compter, comme ça j'vois mieux la monnaie arriver Comme ça j'vois mieux les haineux arriver, avec une belle âme en train de chavirer en train de chavirer Zoulou Tchaing Zoulou Tchaing, zoulou Tchaing Zoulou Tchaing Zoulou Tchaing Zoulou Tchaing22</t>
+          <t>Eh ouais, j'suis bon qu'à écrire des textes de merde gang, gang Les gens nous aiment un peu plus sans la misère gang, gang Khey, la couronne a l'odeur du ghetto gang, gang Bon qu'à peser les grammes, bon qu'à peser les mots gang, gang J'ai plus trop l'temps de me voir dans le miroir J'essaie d'comprendre c'que j'suis devenu, tard le soir J'ai goûté, j'aime plus, un jour j'regretterai Pour l'instant je doute, un jour, j'regretterai L'inspi' s'en va comme toi bientôt J'continuerai en bas, à compter les zéros Parce que j'suis contaminé, j'ai que ça pour exister J'reviens d'où t'as pas idée quand j'aurai plus d'haine, j'm'en irai Ce monde, wAllah, j'l'ai vu, wAllah Mais ce n'est pas c'que j'croyais, Manny Mais tu sais quoi, p't-être que des fois P't-être que c'est moi, j'ai chaud au crâne J'ai grandi dans le zoo, j'suis niqué pour la vie Même si j'meurs sur une plage, j'suis niqué pour la vie Parce que ceux qu'j'aime ont la haine, j'suis niqué pour la vie Parce que j'cours après c'biff, j'suis niqué pour la vie Merci pour les étoiles qu't'as posées sous mon ciel M'suis pas de trop près si tu veux garder tes ailes J'récolte ce que je saigne, que le bonheur te prenne J'ai lâché ma haine, j'ai causé ta peine J'fais pas trop confiance, c'est la rue J'confie ma conscience à la Lune On danse la misère, on parle la guerre Charbonne pour pas s'perdre, 22 sur Casper T'as bien gé-chan comme mon TZoo Comme le Bât' C, comme moi demain Zoulou Tchaing Tchaing J'm'en bats les couilles du trône, j'préfère être debout pour compter Comme ça j'vois mieux la monnaie arriver Comme ça j'vois mieux les haineux arriver Avec une belle âme en train de chavirer en train de chavirer Zoulou Tchaing Zoulou Tchaing, zoulou Tchaing Zoulou Tchaing Zoulou Tchaing Zoulou Tchaing J'm'en bats les couilles du trône, j'préfère être debout pour compter Comme ça j'vois mieux la monnaie arriver Comme ça j'vois mieux les haineux arriver Avec une belle âme en train de chavirer en train de chavirer Zoulou Tchaing Zoulou Tchaing, zoulou Tchaing Zoulou Tchaing Zoulou Tchaing Zoulou Tchaing Si tout ça s'résume à raconter ma haine Priez pour qu'un jour, j'change de thème Malgré tous ces billets, j'rattraperai jamais ce temps J'vois mon âme qui chavire en bord de mer J'pense pas à toi qu'une fois sur deux J'ai pas pu être riche avant Baba, pour ton sourire, j'donnerais ma vie Et p't-être même ma place au paradis J'sais très bien qu'mon vécu n'est qu'un leurre A côté d'ta vie de merde J'montais sur le toit pour finir en pleurs pleurs Seul à penser J'baise le monde J'suis pas trop aimé mais tant qu'toi tu m'aimes, leurs faux sourires, je les vois J'pense que tu sais de quoi j'parle, ces sourires que tu croises Et qui changent quand on t'tourne le dos ah ouais Dis, tu penses que Dieu nous écoute ? Dis, ces gens n'sont pas très fidèles non Différent, j'me sens comme toi, à me dire que j'partirai sur La vie est belle hein Sur l'épaule, j'ai le Zoulou, pour pas oublier que j'tiens d'un roi Ce monde serait moche sans toi, et j'refuse le paradis si t'y es pas Putain ton cur est fort, tu t'rappelles, on était tits-pe Toi, t'avais l'tard-pé, tu nous disais papa reviens d'ici peu J't'aime, j't'aime, j't'aime, j'rêve d'effacer tes cicatrices j'rêve Et pour sauver le monde entier, j'donnerai pas un grain d'ta vie J'm'en bats les couilles du trône, j'préfère être debout pour compter, comme ça, j'vois mieux la monnaie arriver Comme ça, j'vois mieux les haineux arriver avec une belle âme en train de chavirer en train de chavirer Zoulou Tchaing Zoulou Tchaing, zoulou Tchaing Zoulou Tchaing Zoulou Tchaing Zoulou Tchaing J'm'en bats les couilles du trône, j'préfère être debout pour compter, comme ça j'vois mieux la monnaie arriver Comme ça j'vois mieux les haineux arriver, avec une belle âme en train de chavirer en train de chavirer Zoulou Tchaing Zoulou Tchaing, zoulou Tchaing Zoulou Tchaing Zoulou Tchaing Zoulou Tchaing22</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chang, chang, chang, j'marche sur la muraille avec un gros sanka Chang, chang, chang, l'homme est mauvais, j'vais finir comme Blanka Insomniaque est la bête, L, L J'ai pas ton tel, ton visage, j'l'ai vu qu'à l'hôtel Inconsolable c'est le 'blème, M, M Sur le front, verre de champ' essuie larme de sel Créé pour tout plier, j'n'aurai pas à tâter ton pouls Car non, j't'ai pas oublié, remercie Dieu, tu lui dois tout Le pilon fait un peu de méd'cine, les hagar, on les rate pas On s'défend comme en Palestine, notre terrain, t'y mets pas un pas Et j'suis l'roi des charbonneurs, pourtant, j'ai la plus grande des flemmes Et j'vise le paradis, élevé par la plus forte des femmes J'suis pas dans l'dîn mais j'ai toujours l'intention d'changer Toujours dans c'business, le biff trouve tout, même ton point G Drôle de zik dans ma tête Le clochard ne rentre pas dans ta fête Tu veux mon vécu, jte l'donne volontiers Baisse ma braguette si cest ta volonté Dans lescalier, jlaisse des galettes, quelques cachettes, quelques barrettes Mon ange de droite n'a pas de quoi noter, voué à l'enfer, à la Terre menotté Chang, technique de barbare en I, j'attrape la prod, c'est limpide Chang, balayette sur le beat, j'ai la barre, j'suis ravi, haine, douleur qui m'habite Haine, douleur qui m'habite Chang, j'éradique toute faiblesse, si j'me perds dans la jungle, j'ai Allah qui me guide Chang, j'suis Mowgli, j'me débrouille, j'ai cette dalle qui m'dit Ounga ounga, monte les marches comme un tigre Chang, chang, chang Chang, chang, chang Chang, chang, chang Chang, chang, chang You might also like Une chance qu'ils aient pas détruit mon bâtiment P't-être qu'un jour, j'pourrais l'montrer à mes enfants Où avec Tarik, papa, Sarah j'ai di-gran Là où j'étais qu'un fils de dit-ban Là où j'avais la confiance même avec les grands Parce que mon papa, c'était le plus méchant Laisse-moi toucher c'que t'as touché Laisse-moi aimer c'que t'as aimé Et dans l'illeton d'la porte j'aimerais passer Pour juste une fois ressentir le passé Revenir là où tout a commencé Car on était aussi heureux, je le sais J'aimerais sonner à la porte et voir ton visage Sans les rides sur ton visage Te prévenir de ce qui te fera du mal Pour ne pas te voir souffrir toute ma vie P't-être que ça m'permettra de devenir quelqu'un d'autre P't-être que j'aurais plus de lumière pour les nôtres Mais bon j'suis drogué, capuché, la porte va pas s'ouvrir Et le présent m'chuchote Poto tu vas souffrir Donc mes enfants, j'leur mentirai que j'suis heureux Qu'ils soient jamais comme moi, jamais dans les ténèbres Sur cette chaise, dans ce hall, j'me sens si bien Ça me rappelle quand j'avais des rêves en chien J'aime trop mon zoo, tu comprends pas, pas l'même amour Grâce à mon Dieu ils ont pas cassé ma première tour Le paillasson a pris quinze ans comme moi poto Sauf que moi, j'vais partir, lui, il restera dans le ghetto Peur de changer de vie, peur de désillusion J'aimerais revenir dans le passé toquer à la maison Ouvre-moi la porte que j'prenne Tarik dans les bras petit Que j'lui chuchote Ton frère sera toujours là, petit Ils m'prennent pour un fou au grand cur, comme papa, mais en beur Et je r'viendrai quelques fois regarder la porte, sans toquer, sans sonner, jusqu'à ma mort Et je r'viendrai quelques fois regarder la porte, sans toquer, sans sonner, jusqu'à ma mort Chang, chang, chang Chang, chang, chang Chang, chang, chang Chang, chang, chang Chang, technique de barbare en I, j'attrape la prod, c'est limpide Chang, balayette sur le beat, j'ai la barre, j'suis ravi, haine, douleur qui m'habite Haine, douleur qui m'habite Chang, j'éradique toute faiblesse si je me perds dans la jungle, j'ai Allah qui me guide Chang, j'suis Mowgli, jme débrouille, j'ai cette dalle qui m'dit Ounga ounga, monte les marches comme un tigre Chang, chang, chang Chang, chang, chang Chang, chang, chang Chang, chang, chang24</t>
+          <t>Chang, chang, chang, j'marche sur la muraille avec un gros sanka Chang, chang, chang, l'homme est mauvais, j'vais finir comme Blanka Insomniaque est la bête, L, L J'ai pas ton tel, ton visage, j'l'ai vu qu'à l'hôtel Inconsolable c'est le 'blème, M, M Sur le front, verre de champ' essuie larme de sel Créé pour tout plier, j'n'aurai pas à tâter ton pouls Car non, j't'ai pas oublié, remercie Dieu, tu lui dois tout Le pilon fait un peu de méd'cine, les hagar, on les rate pas On s'défend comme en Palestine, notre terrain, t'y mets pas un pas Et j'suis l'roi des charbonneurs, pourtant, j'ai la plus grande des flemmes Et j'vise le paradis, élevé par la plus forte des femmes J'suis pas dans l'dîn mais j'ai toujours l'intention d'changer Toujours dans c'business, le biff trouve tout, même ton point G Drôle de zik dans ma tête Le clochard ne rentre pas dans ta fête Tu veux mon vécu, jte l'donne volontiers Baisse ma braguette si cest ta volonté Dans lescalier, jlaisse des galettes, quelques cachettes, quelques barrettes Mon ange de droite n'a pas de quoi noter, voué à l'enfer, à la Terre menotté Chang, technique de barbare en I, j'attrape la prod, c'est limpide Chang, balayette sur le beat, j'ai la barre, j'suis ravi, haine, douleur qui m'habite Haine, douleur qui m'habite Chang, j'éradique toute faiblesse, si j'me perds dans la jungle, j'ai Allah qui me guide Chang, j'suis Mowgli, j'me débrouille, j'ai cette dalle qui m'dit Ounga ounga, monte les marches comme un tigre Chang, chang, chang Chang, chang, chang Chang, chang, chang Chang, chang, chang Une chance qu'ils aient pas détruit mon bâtiment P't-être qu'un jour, j'pourrais l'montrer à mes enfants Où avec Tarik, papa, Sarah j'ai di-gran Là où j'étais qu'un fils de dit-ban Là où j'avais la confiance même avec les grands Parce que mon papa, c'était le plus méchant Laisse-moi toucher c'que t'as touché Laisse-moi aimer c'que t'as aimé Et dans l'illeton d'la porte j'aimerais passer Pour juste une fois ressentir le passé Revenir là où tout a commencé Car on était aussi heureux, je le sais J'aimerais sonner à la porte et voir ton visage Sans les rides sur ton visage Te prévenir de ce qui te fera du mal Pour ne pas te voir souffrir toute ma vie P't-être que ça m'permettra de devenir quelqu'un d'autre P't-être que j'aurais plus de lumière pour les nôtres Mais bon j'suis drogué, capuché, la porte va pas s'ouvrir Et le présent m'chuchote Poto tu vas souffrir Donc mes enfants, j'leur mentirai que j'suis heureux Qu'ils soient jamais comme moi, jamais dans les ténèbres Sur cette chaise, dans ce hall, j'me sens si bien Ça me rappelle quand j'avais des rêves en chien J'aime trop mon zoo, tu comprends pas, pas l'même amour Grâce à mon Dieu ils ont pas cassé ma première tour Le paillasson a pris quinze ans comme moi poto Sauf que moi, j'vais partir, lui, il restera dans le ghetto Peur de changer de vie, peur de désillusion J'aimerais revenir dans le passé toquer à la maison Ouvre-moi la porte que j'prenne Tarik dans les bras petit Que j'lui chuchote Ton frère sera toujours là, petit Ils m'prennent pour un fou au grand cur, comme papa, mais en beur Et je r'viendrai quelques fois regarder la porte, sans toquer, sans sonner, jusqu'à ma mort Et je r'viendrai quelques fois regarder la porte, sans toquer, sans sonner, jusqu'à ma mort Chang, chang, chang Chang, chang, chang Chang, chang, chang Chang, chang, chang Chang, technique de barbare en I, j'attrape la prod, c'est limpide Chang, balayette sur le beat, j'ai la barre, j'suis ravi, haine, douleur qui m'habite Haine, douleur qui m'habite Chang, j'éradique toute faiblesse si je me perds dans la jungle, j'ai Allah qui me guide Chang, j'suis Mowgli, jme débrouille, j'ai cette dalle qui m'dit Ounga ounga, monte les marches comme un tigre Chang, chang, chang Chang, chang, chang Chang, chang, chang Chang, chang, chang24</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>J'suis triste comme d'hab', fuck, c'est pas la peine de réfléchir La mélodie me fait du bien, j'pense plus à Gucci pour me vêtir Parfois, j'm'habille en geush bat les couilles Plaire à qui ? À quoi ? Pour quoi faire ? Les années passent comme la galère, j'rêve toujours de cette maison sur la mer Y'a eu des bons moments mais beaucoup moins qu'ceux noirs qui s'installent dans mon regard, dans mon miroir Igo, c'est no comment, vécu d'poissard, va savoir pourquoi j'ai plus rien dans l'tiroir J'sors un sourire, j'me dis qu'il est faux, c'est pas normal d'être si malheureux J'dors pas à deux heures, j'me dis qu'il est tôt, j'vois mes démons mais j'suis pas peureux La solitude, c'est juste une te-pu, être accompagné d'ces faux serait une partouze Et ce soir, j'fume, j'suis torse nu, j'suis devenu aussi vide que ma trousse Faut s'en sortir Tarik, la vie, c'est ça Tarik Tu les encules Tarik, un jour viendra no panic Ma foi, les larmes sont brûlantes, oh mon Dieu, j'attends les dés et vite La roue a tourné ou peut-être pas, au fond, tout ça, c'est toi qui décide Y'a pas d'amour qui tienne, j'les laisse croire qu'ils connaissent tous ça S'ils savaient c'que ça veut dire c'que ça comporte Mais bon, comme on dit qui vivra verra Hey, c'est la vie, la vie ma belle, wow Ce pauvre récit moi j'le trouve beau T'façon la misère est si belle, khey, hey Toute l'année, je les aime, j'rêve d'un avenir heureux pour eux Car au fond, sourire nous va à merveille La misère est si belle zoo, la misère est si belle Gag' La misère est si belle 7G, la misère est si belle bât' C La misère est si belle zoo, la misère est si belle Gag' La misère est si belle 7G, la misère est si belle bât' C You might also like Le gyro' dans la ville, je ne crains rien loin de l'illicite mais j'traîne dans la rue parce que j'l'aime d'puis qu'j'l'ai ttée-qui J'croyais qu'j'l'oublierais, ouais comme une fille facile, j'la rejoins pour péter ma grind d'22 à la street Tu sais qu'est c'que j'aime, ce qui nous ressemble parce que la peine et la haine nous rassemblent Envie d'goûter au vent, étouffé par le temps, rien nest plus comme avant, un peu comme les gens Mais jai gardé l'sourire, pas prêt à accepter le pire, mon cur perd d'sa couleur, mon amour pour lamour se meurt Si jpartage ma douleur, j'le f'rais avec mes démons, ils comprennent mon côté sombre J'étais drogué dans la vie, remonter ça d'Espagne, pour de meilleurs tarifs, pour aller plus vite que les grammes Ils veulent tous des feats, avec Tarik on a dit Nan, nan, on les baise, on est quittes, dans quelques billets d'500 L'éducation de la cagoule, même si j'me barre, cest tatoué Incompris dans la foule, j'abandonnerai la vérité Dans les coins sombres, j'ai mordu à l'hameçon, dans la lumière, récité la leçon Maintenant que j'te connais mieux, j't'en veux pas dêtre une merde, faut qu'jquitte la terre, pirate veut reprendre la mer Mais les océans se sont en allés, comme les fours de G.A.G Comme les tours de mon ZT, à l'ammonia' ressemblaient nos journées On sait doù l'on vient sans savoir où on va mais on tordra ces âmes de rats Aucune question pour l'homme, sans réponse, j'cherche les sommes, j'fais l'million de haine, j'veux moins de monde, plus d'ceux qu'j'aime Hey, c'est la vie, la vie ma belle, wow Ce pauvre récit moi j'le trouve beau T'façon la misère est si belle, khey, hey Toute l'année je les aime, j'rêve d'un avenir heureux pour eux Car au fond sourire nous va à merveille La misère est si belle zoo, la misère est si belle Gag' La misère est si belle 7G, la misère est si belle bât' C La misère est si belle D5, la misère est si belle D4 La misère est si belle RER D, la misère est si belle RER C La misère est si belle Ivry, la misère est si belle Corbeil La misère est si belle Paname, la misère est si belle ouais, bât' C La misère est si belle Nabil, la misère est si belle Karim La misère est si belle Coco, la misère est si belle Moaki La misère est si belle mes cafards, la misère est si belle ma cave La misère est si belle mon hall, la misère est si belle mon toit triste La misère est si belle Baba, la misère est si belle Habiba La misère est si belle, la misère est si belle à ma vie18</t>
+          <t>J'suis triste comme d'hab', fuck, c'est pas la peine de réfléchir La mélodie me fait du bien, j'pense plus à Gucci pour me vêtir Parfois, j'm'habille en geush bat les couilles Plaire à qui ? À quoi ? Pour quoi faire ? Les années passent comme la galère, j'rêve toujours de cette maison sur la mer Y'a eu des bons moments mais beaucoup moins qu'ceux noirs qui s'installent dans mon regard, dans mon miroir Igo, c'est no comment, vécu d'poissard, va savoir pourquoi j'ai plus rien dans l'tiroir J'sors un sourire, j'me dis qu'il est faux, c'est pas normal d'être si malheureux J'dors pas à deux heures, j'me dis qu'il est tôt, j'vois mes démons mais j'suis pas peureux La solitude, c'est juste une te-pu, être accompagné d'ces faux serait une partouze Et ce soir, j'fume, j'suis torse nu, j'suis devenu aussi vide que ma trousse Faut s'en sortir Tarik, la vie, c'est ça Tarik Tu les encules Tarik, un jour viendra no panic Ma foi, les larmes sont brûlantes, oh mon Dieu, j'attends les dés et vite La roue a tourné ou peut-être pas, au fond, tout ça, c'est toi qui décide Y'a pas d'amour qui tienne, j'les laisse croire qu'ils connaissent tous ça S'ils savaient c'que ça veut dire c'que ça comporte Mais bon, comme on dit qui vivra verra Hey, c'est la vie, la vie ma belle, wow Ce pauvre récit moi j'le trouve beau T'façon la misère est si belle, khey, hey Toute l'année, je les aime, j'rêve d'un avenir heureux pour eux Car au fond, sourire nous va à merveille La misère est si belle zoo, la misère est si belle Gag' La misère est si belle 7G, la misère est si belle bât' C La misère est si belle zoo, la misère est si belle Gag' La misère est si belle 7G, la misère est si belle bât' C Le gyro' dans la ville, je ne crains rien loin de l'illicite mais j'traîne dans la rue parce que j'l'aime d'puis qu'j'l'ai ttée-qui J'croyais qu'j'l'oublierais, ouais comme une fille facile, j'la rejoins pour péter ma grind d'22 à la street Tu sais qu'est c'que j'aime, ce qui nous ressemble parce que la peine et la haine nous rassemblent Envie d'goûter au vent, étouffé par le temps, rien nest plus comme avant, un peu comme les gens Mais jai gardé l'sourire, pas prêt à accepter le pire, mon cur perd d'sa couleur, mon amour pour lamour se meurt Si jpartage ma douleur, j'le f'rais avec mes démons, ils comprennent mon côté sombre J'étais drogué dans la vie, remonter ça d'Espagne, pour de meilleurs tarifs, pour aller plus vite que les grammes Ils veulent tous des feats, avec Tarik on a dit Nan, nan, on les baise, on est quittes, dans quelques billets d'500 L'éducation de la cagoule, même si j'me barre, cest tatoué Incompris dans la foule, j'abandonnerai la vérité Dans les coins sombres, j'ai mordu à l'hameçon, dans la lumière, récité la leçon Maintenant que j'te connais mieux, j't'en veux pas dêtre une merde, faut qu'jquitte la terre, pirate veut reprendre la mer Mais les océans se sont en allés, comme les fours de G.A.G Comme les tours de mon ZT, à l'ammonia' ressemblaient nos journées On sait doù l'on vient sans savoir où on va mais on tordra ces âmes de rats Aucune question pour l'homme, sans réponse, j'cherche les sommes, j'fais l'million de haine, j'veux moins de monde, plus d'ceux qu'j'aime Hey, c'est la vie, la vie ma belle, wow Ce pauvre récit moi j'le trouve beau T'façon la misère est si belle, khey, hey Toute l'année je les aime, j'rêve d'un avenir heureux pour eux Car au fond sourire nous va à merveille La misère est si belle zoo, la misère est si belle Gag' La misère est si belle 7G, la misère est si belle bât' C La misère est si belle D5, la misère est si belle D4 La misère est si belle RER D, la misère est si belle RER C La misère est si belle Ivry, la misère est si belle Corbeil La misère est si belle Paname, la misère est si belle ouais, bât' C La misère est si belle Nabil, la misère est si belle Karim La misère est si belle Coco, la misère est si belle Moaki La misère est si belle mes cafards, la misère est si belle ma cave La misère est si belle mon hall, la misère est si belle mon toit triste La misère est si belle Baba, la misère est si belle Habiba La misère est si belle, la misère est si belle à ma vie18</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais, ouais, ouais J'sens l'odeur de mon âme qui brûle Y'a rien à faire, c'est comme ça Ouais, j'suis dans la vallée d'Hyrule Pierres sales, j'construis la casa Pardon la vie, j'serai jamais qui j'voulais être Pardon la vie, tant qu'j'recompte les billets en mètre J'fais des signes, je parle le QLF J'brûle mes souvenirs, j'éclaire le bénef' Cur de billets, j'attends qu'on me greffe Et sur le 22, c'est toujours Casper Y'a assez de couilles pour leur faire la guerre Pas assez de curs pour sauver la Terre Wesh mes cliquos, je vends plus Le rain-té jalouse ma plume On s'est oubliés en bas En haut, j'me rappelle de toi Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki QLF nda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki Le benda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki QLF nda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki Le benda You might also like Eh, j'parle pas tching tchong tchang tching tchang Joue la folle dans ma chambre Tiens, roule ça, que j'm'envole Tching tchang tching eh Bah ouais, j'fume ma drogue J'calcule pas mon phone Faut qu'j'recompte ma somme Tching tchang tching bam Troisième il comme Tenshinhan Joue, j'suis vif comme Nakata J'mets plus le linge sale dans l'cabas oin oin oin oin À fond dans Paname, j'fonce, j'ai la banane Gros pec' dans l'hammam am am am am Toute la tess avec un pet', pet', pet' Un cachet, j'te montre ma tête-tête-tête QLF sur la plaquette-quette-quette Guette, guette, guette, brrr Grosse te-pu, joue pas la Rihanna J'suis un requin, j'suis pas un piranha Va t'rendormir, ta schneck en pyjama Ouais, ouais, fuck la 'sère, 'sère, 'sère Sobre, toi, t'es vert, vert, vert J'sais qu'the world m'appartient, hein Tant qu'on les sert bien, hein L'monde, moi, ça m'convient, hein hein hein hein Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki QLF nda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki Le benda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki QLF nda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki Le benda62</t>
+          <t>Ouais, ouais, ouais, ouais, ouais J'sens l'odeur de mon âme qui brûle Y'a rien à faire, c'est comme ça Ouais, j'suis dans la vallée d'Hyrule Pierres sales, j'construis la casa Pardon la vie, j'serai jamais qui j'voulais être Pardon la vie, tant qu'j'recompte les billets en mètre J'fais des signes, je parle le QLF J'brûle mes souvenirs, j'éclaire le bénef' Cur de billets, j'attends qu'on me greffe Et sur le 22, c'est toujours Casper Y'a assez de couilles pour leur faire la guerre Pas assez de curs pour sauver la Terre Wesh mes cliquos, je vends plus Le rain-té jalouse ma plume On s'est oubliés en bas En haut, j'me rappelle de toi Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki QLF nda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki Le benda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki QLF nda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki Le benda Eh, j'parle pas tching tchong tchang tching tchang Joue la folle dans ma chambre Tiens, roule ça, que j'm'envole Tching tchang tching eh Bah ouais, j'fume ma drogue J'calcule pas mon phone Faut qu'j'recompte ma somme Tching tchang tching bam Troisième il comme Tenshinhan Joue, j'suis vif comme Nakata J'mets plus le linge sale dans l'cabas oin oin oin oin À fond dans Paname, j'fonce, j'ai la banane Gros pec' dans l'hammam am am am am Toute la tess avec un pet', pet', pet' Un cachet, j'te montre ma tête-tête-tête QLF sur la plaquette-quette-quette Guette, guette, guette, brrr Grosse te-pu, joue pas la Rihanna J'suis un requin, j'suis pas un piranha Va t'rendormir, ta schneck en pyjama Ouais, ouais, fuck la 'sère, 'sère, 'sère Sobre, toi, t'es vert, vert, vert J'sais qu'the world m'appartient, hein Tant qu'on les sert bien, hein L'monde, moi, ça m'convient, hein hein hein hein Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki QLF nda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki Le benda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki QLF nda Eh, tchiki tchiki, tchiki tchiki Tchiki tchiki, tchiki tchiki Le benda62</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Un dernier ient-ient et j'glisse gentiment Guapa sheitana dans la villa, les démons me chuchotent marie-la Mon cur, une tirelire toujours en manque de billets J'voulais juste être riche, igo, j'voulais pas briller Billets d'cinq-cents, j'refais papier, Papa m'a dit mon fils, t'en fais pas, c'est des pédés Seront jamais c'que j'ai été, sauront jamais qui j'ai été Alors, j'fais l'tour de la ville, j'rêve de la tonne, j'fais le kil' J'suis tous les jours sur le grill pendant qu'mon étoile défile Rien d'exceptionnel, ça recommence, y a R On s'croise plus sur Terre, en Enfer, on terminera la guerre Igo, j'ai la dalle et ma haine m'ouvre l'appétit On a grandi à poil avec le M sur la tétine Caresse du temps qui passe pour m'adoucir Changer d'vie maintenant, igo, c'est pas possible J'peux pas m'endormir sans demander pardon J'fais l'plein de souvenirs, j'retourne au charbon Ouais J'souris, ma vie, ça s'emmerde J'roule une niaks, j'sors le doigt en l'air Manny, Tony a tant d'rêves Revis, marche dans la tempête You might also like Ce soir, j'fume un gros, gros teh J'te-ma ton postérieur, j'veux l'même en po-poster J'passe au vert comme dans les rues d'Rotter J'suis sur Titan, j'ai plus les pieds sur Terre Igo, c'est l'souk et j'les vois chnoufer, sniffer sous white haze S'piquer, s'piquer, s'piquer aux waters, mmh J'les vois arriver comme des morts-vivants, mmh S'enfoncent dans la D, trouvent ça kiffant, non, j'ai pas halluciné J'course le bonheur, j'fais comme Titi et Grosminet J'suis à l'hôtel, j'suis pas au resto, j'suis pas au ciné' Aux arrivants, aux allumettes, j'crame ma cimé J'dis à la matonne c'que j'te ferais, j'peux pas l'dessiner J'ai la barre, mauvais garçon, laissez passer, laissez passer J'tourne le dos à ces putes, c'est la base J'sors de Fleury, y a les pétasses, j'fais mes lacets J'souris, ma vie, ça s'emmerde J'roule une niaks, j'sors le doigt en l'air Manny, Tony a tant d'rêves Revis, marche dans la tempête17</t>
+          <t>Un dernier ient-ient et j'glisse gentiment Guapa sheitana dans la villa, les démons me chuchotent marie-la Mon cur, une tirelire toujours en manque de billets J'voulais juste être riche, igo, j'voulais pas briller Billets d'cinq-cents, j'refais papier, Papa m'a dit mon fils, t'en fais pas, c'est des pédés Seront jamais c'que j'ai été, sauront jamais qui j'ai été Alors, j'fais l'tour de la ville, j'rêve de la tonne, j'fais le kil' J'suis tous les jours sur le grill pendant qu'mon étoile défile Rien d'exceptionnel, ça recommence, y a R On s'croise plus sur Terre, en Enfer, on terminera la guerre Igo, j'ai la dalle et ma haine m'ouvre l'appétit On a grandi à poil avec le M sur la tétine Caresse du temps qui passe pour m'adoucir Changer d'vie maintenant, igo, c'est pas possible J'peux pas m'endormir sans demander pardon J'fais l'plein de souvenirs, j'retourne au charbon Ouais J'souris, ma vie, ça s'emmerde J'roule une niaks, j'sors le doigt en l'air Manny, Tony a tant d'rêves Revis, marche dans la tempête Ce soir, j'fume un gros, gros teh J'te-ma ton postérieur, j'veux l'même en po-poster J'passe au vert comme dans les rues d'Rotter J'suis sur Titan, j'ai plus les pieds sur Terre Igo, c'est l'souk et j'les vois chnoufer, sniffer sous white haze S'piquer, s'piquer, s'piquer aux waters, mmh J'les vois arriver comme des morts-vivants, mmh S'enfoncent dans la D, trouvent ça kiffant, non, j'ai pas halluciné J'course le bonheur, j'fais comme Titi et Grosminet J'suis à l'hôtel, j'suis pas au resto, j'suis pas au ciné' Aux arrivants, aux allumettes, j'crame ma cimé J'dis à la matonne c'que j'te ferais, j'peux pas l'dessiner J'ai la barre, mauvais garçon, laissez passer, laissez passer J'tourne le dos à ces putes, c'est la base J'sors de Fleury, y a les pétasses, j'fais mes lacets J'souris, ma vie, ça s'emmerde J'roule une niaks, j'sors le doigt en l'air Manny, Tony a tant d'rêves Revis, marche dans la tempête17</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas You might also like Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
+          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Igo j'suis dans la ville, igo j'suis dans la villa Tout ça c'est pas l'avenir, j'm'attache pas à cette vie là Pourquoi se mentir, ce présent n'est qu'un mirage J'ai pas dit Bismillah, j'perds la foi comme un minable J'm'attache pas à mes ailes, je fly comme fils de taulard J'attends le cur ouvert pour sentiments en retard Payant comme une vue sur la mer, gratuit comme une vue sur Uranus Un coup de pression pour effacer ton charisme et resserrer ton anus J'reprends goût à la vie, oseille agrume La nuit elle trompe le Soleil, le jour elle trompe la Lune La gloire en haut, mon cur ne bat plus qu'en bas Avance on t'oublie pas, on te remplace La lune ne sera pas toujours pleine Mon cur ne sera pas toujours vide Et tard le soir je traîne, en attendant qu'ma peine se transforme en haine Comme baba, j'veux qu'ils nous craignent J'voulais le monde, aujourd'hui je veux jongler avec Demain j'lui pisse dessus et j'pars sur Namek J'suis qu'un homme, j'kicke comme un extraterrestre Jusqu'à là j'ai la dalle, j'te laisse pas mes restes Te demande pas pourquoi les billets on aime câliner Et pourtant même en hass tu me verras jamais tapiner J't'abîme, m'abîme, j'dois t'oublier J'suis le djinn de mon djinn, j'suis bousillé J'crache tous mes sentiments sous le rocher Si l'rap paye plus j'te dis buena noche La vie c'est dar, l'oseille nous libère La paix on la préfère, on a connu la guerre Perdu sur la terre, mille E sous la paire Chez moi le maire est le nerf de la guerre N'da comme mon sourire à l'envers mon sourire à l'envers Pas de héros héros, apparemment le monde est dar, j'l'ai dans le viseur Frérot, frérot, rien d'alarmant tant que les miens sont peace Héros héros, apparemment le monde est dar, j'l'ai dans le viseur Frérot, frérot, rien d'alarmant tant que les miens sont peace You might also like La lune ne sera pas toujours pleine Mon cur ne sera pas toujours vide Et tard le soir je traîne, en attendant qu'ma peine se transforme en haine Comme papa, j'veux qu'ils nous craignent12</t>
+          <t>Igo j'suis dans la ville, igo j'suis dans la villa Tout ça c'est pas l'avenir, j'm'attache pas à cette vie là Pourquoi se mentir, ce présent n'est qu'un mirage J'ai pas dit Bismillah, j'perds la foi comme un minable J'm'attache pas à mes ailes, je fly comme fils de taulard J'attends le cur ouvert pour sentiments en retard Payant comme une vue sur la mer, gratuit comme une vue sur Uranus Un coup de pression pour effacer ton charisme et resserrer ton anus J'reprends goût à la vie, oseille agrume La nuit elle trompe le Soleil, le jour elle trompe la Lune La gloire en haut, mon cur ne bat plus qu'en bas Avance on t'oublie pas, on te remplace La lune ne sera pas toujours pleine Mon cur ne sera pas toujours vide Et tard le soir je traîne, en attendant qu'ma peine se transforme en haine Comme baba, j'veux qu'ils nous craignent J'voulais le monde, aujourd'hui je veux jongler avec Demain j'lui pisse dessus et j'pars sur Namek J'suis qu'un homme, j'kicke comme un extraterrestre Jusqu'à là j'ai la dalle, j'te laisse pas mes restes Te demande pas pourquoi les billets on aime câliner Et pourtant même en hass tu me verras jamais tapiner J't'abîme, m'abîme, j'dois t'oublier J'suis le djinn de mon djinn, j'suis bousillé J'crache tous mes sentiments sous le rocher Si l'rap paye plus j'te dis buena noche La vie c'est dar, l'oseille nous libère La paix on la préfère, on a connu la guerre Perdu sur la terre, mille E sous la paire Chez moi le maire est le nerf de la guerre N'da comme mon sourire à l'envers mon sourire à l'envers Pas de héros héros, apparemment le monde est dar, j'l'ai dans le viseur Frérot, frérot, rien d'alarmant tant que les miens sont peace Héros héros, apparemment le monde est dar, j'l'ai dans le viseur Frérot, frérot, rien d'alarmant tant que les miens sont peace La lune ne sera pas toujours pleine Mon cur ne sera pas toujours vide Et tard le soir je traîne, en attendant qu'ma peine se transforme en haine Comme papa, j'veux qu'ils nous craignent12</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>En fait le truc c'est qu'j'suis plus fuck le monde J'fais des cauchemars, ouais mama, les anges sont loin d'mon sommeil En fait le truc c'est qu'j'dois tuer mon monstre Ouais j'suis là, j'me balade dans ce décor de merde Chacal, joue pas le gentil on se connait, chh Waza, tous les jours on court après l'oseille, hein Hassa, t'aimerais bien nous taper la recette WAllah, nous on a jamais été malhonnêtes, quoi ? Ça va ? Ouais ça va, hamdullah, déterminé J'vois tous ces fils de pute qui voudraient m'exterminer Rah, à la vie, à la mort, à la ligne verte, oh T'es au sol, nique ta mère, nique ta civière Tu montes on te suce, tu te crashes, on dit nique ta ma-man J'suis sur Neptune avec ma plume, et j'fume, rien qu'ça pla-ne Les chicos rayent le sol, j'connais pas ré-mi-sol, la 'sique j'm'en bats les couilles Rivaldo, Denilson, 91, Essonne, mais Simba s'débrouille J'monte le level, MC zhemel, la7ess-moi la mèche Tu sais c'qu'elles veulent, voir les double d'celui qui a la fraîche Mets du Adé, mets du Ladiff, la Jungle dans la caisse Tu joues l'grossiste, ounga, ounga, ounga, dans ta graisse J'peux pas leur mentir, longtemps qu'j'suis détruit Faut pas que j'repense au passé, sinon rah, sinon rah À 25 balais, j'pensais être millionnaire Mais bon, rah, mais bon, rah J'suis dans un monde hypocrite, kryptonite en bas, je sème J'te lance un son tu connais, ta tête touche le bas du sol Non j'rêve plus trop, j'suis poli J'parle plus trop, j'ressors, j'visser Cur de glaçon, rigolez, moi j'suis pas, j'suis pas d'humeur You might also like J'plonge la tête dans c'putain d'bénef J'le sens, ne dis pas qu'il a pas d'odeur Elle me dit Lâche tout sur mes lèvres Tout sur mes lèvres, tout sur mon cur J'voulais leur donner de l'amour mais ils préfèrent qu'on leur baise leur mère J'me mets à la musica, un igo de plus qui se met au vert J'écoute pas leur rap et leurs putains d'mythos sur fond vert J'suis QLF comme la chica, comme tous mes petits frères Avant bravas gonflés non je n'ai pas repris la détaille On desserre la ceinture, la banquière prend mon tour de taille J'crois bien qu'ils sont pas humains Ou c'est peut-être moi qui suis pas humain Le cur vide, sapé en Plein Gucci pour mon dog argentin Ouverture à Gaga, on s'introduit vite J'les baise, ils refermeront la porte sur ma bite J'ai l'inspi' des canines à papa J'suis chez moi comme les armes dans l'appart Lala, j'me verrai bien vers là-bas J'veux le monde, j'veux ma part Elle aime personne sauf ses enfants De la haine un peu plus qu'avant Plus monnaie que passionné, j'entends pénave sonner Je sors pour charbonner J'peux pas leur mentir, longtemps qu'j'suis détruit Faut pas que j'repense au passé, sinon rah, sinon rah À 25 balais, j'pensais être millionnaire Mais bon, rah, mais bon, rah J'suis dans un monde hypocrite, kryptonite en bas, je sème J'te lance un son tu connais, ta tête touche le bas du sol Non j'rêve plus trop, j'suis poli J'parle plus trop, j'ressors, j'visser Cur de glaçon, rigolez, moi j'suis pas, j'suis pas d'humeur Deux trois quatre ients-cli Ces bâtards m'envient Là, j'suis dans ta ville L'accident arrive26</t>
+          <t>En fait le truc c'est qu'j'suis plus fuck le monde J'fais des cauchemars, ouais mama, les anges sont loin d'mon sommeil En fait le truc c'est qu'j'dois tuer mon monstre Ouais j'suis là, j'me balade dans ce décor de merde Chacal, joue pas le gentil on se connait, chh Waza, tous les jours on court après l'oseille, hein Hassa, t'aimerais bien nous taper la recette WAllah, nous on a jamais été malhonnêtes, quoi ? Ça va ? Ouais ça va, hamdullah, déterminé J'vois tous ces fils de pute qui voudraient m'exterminer Rah, à la vie, à la mort, à la ligne verte, oh T'es au sol, nique ta mère, nique ta civière Tu montes on te suce, tu te crashes, on dit nique ta ma-man J'suis sur Neptune avec ma plume, et j'fume, rien qu'ça pla-ne Les chicos rayent le sol, j'connais pas ré-mi-sol, la 'sique j'm'en bats les couilles Rivaldo, Denilson, 91, Essonne, mais Simba s'débrouille J'monte le level, MC zhemel, la7ess-moi la mèche Tu sais c'qu'elles veulent, voir les double d'celui qui a la fraîche Mets du Adé, mets du Ladiff, la Jungle dans la caisse Tu joues l'grossiste, ounga, ounga, ounga, dans ta graisse J'peux pas leur mentir, longtemps qu'j'suis détruit Faut pas que j'repense au passé, sinon rah, sinon rah À 25 balais, j'pensais être millionnaire Mais bon, rah, mais bon, rah J'suis dans un monde hypocrite, kryptonite en bas, je sème J'te lance un son tu connais, ta tête touche le bas du sol Non j'rêve plus trop, j'suis poli J'parle plus trop, j'ressors, j'visser Cur de glaçon, rigolez, moi j'suis pas, j'suis pas d'humeur J'plonge la tête dans c'putain d'bénef J'le sens, ne dis pas qu'il a pas d'odeur Elle me dit Lâche tout sur mes lèvres Tout sur mes lèvres, tout sur mon cur J'voulais leur donner de l'amour mais ils préfèrent qu'on leur baise leur mère J'me mets à la musica, un igo de plus qui se met au vert J'écoute pas leur rap et leurs putains d'mythos sur fond vert J'suis QLF comme la chica, comme tous mes petits frères Avant bravas gonflés non je n'ai pas repris la détaille On desserre la ceinture, la banquière prend mon tour de taille J'crois bien qu'ils sont pas humains Ou c'est peut-être moi qui suis pas humain Le cur vide, sapé en Plein Gucci pour mon dog argentin Ouverture à Gaga, on s'introduit vite J'les baise, ils refermeront la porte sur ma bite J'ai l'inspi' des canines à papa J'suis chez moi comme les armes dans l'appart Lala, j'me verrai bien vers là-bas J'veux le monde, j'veux ma part Elle aime personne sauf ses enfants De la haine un peu plus qu'avant Plus monnaie que passionné, j'entends pénave sonner Je sors pour charbonner J'peux pas leur mentir, longtemps qu'j'suis détruit Faut pas que j'repense au passé, sinon rah, sinon rah À 25 balais, j'pensais être millionnaire Mais bon, rah, mais bon, rah J'suis dans un monde hypocrite, kryptonite en bas, je sème J'te lance un son tu connais, ta tête touche le bas du sol Non j'rêve plus trop, j'suis poli J'parle plus trop, j'ressors, j'visser Cur de glaçon, rigolez, moi j'suis pas, j'suis pas d'humeur Deux trois quatre ients-cli Ces bâtards m'envient Là, j'suis dans ta ville L'accident arrive26</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Vie J'ai envie drentrer à la maison Le chemin n'est plus le même maintenant qu'on a lmonde Sur mon dernier flow dans mon bat' k'-skun Y'a qu'les cafards et mes rêves qui rest'ront J'fais une photo de ma vie, un peu plus qu'avant Les doutes se confirment, un peu moins quavant Les anges se confient Et toi tu sauras jamais qui jsuis Moi-même j'aurais du mal toute ma vie Donc jaurai besoin de revenir ici J'te laisserai l'temps d'me décevoir Mais le temps me laissera voir Vais-je te plaire dans le noir ? Dernier dans lfour à la recherche de lueurs Quelques roses, beaucoup d'épines dans l'cur Même enfant sans les rêves, sans les pleurs Et j'ai plein d'questions pour mon Créateur En attendant j'traîne, j'fais plein d'erreurs Et le passé fait vibrer mon cur J'veux plus qu'on survive, j'veux une vie meilleure J'veux plus qu'ils se privent, vis tes rêves et meurs You might also like Que la mif, que la mif, que la mif, que la mif Rien n'a changé dans ma putain d'tête J'suis hors des codes, j'te fais pas de bouquet J'ai la rose mais t'es conne, j'joue pas au Saint-Valentin Que du biff, que du biff, que du biff, que du biff Rien n'a changé dans ma putain d'tête T'sais la rue m'a piqué, m'a dit le litre c'est tant J'voudrais bien t'expliquer mais je té-comp, j'ai pas l'temps Que la mif, que la mif, que la mif, que la mif Rien n'a changé dans ma putain d'tête Y'a d'la richesse dans nos âmes, y'a d'la misère dans nos yeux Que du biff, que du biff, que du biff, que du biff Rien n'a changé dans ma putain d'tête De la beauté et du charme, on pense qu'on mérite pas les cieux J'ai envie d'être gang, j'ai pas envie d'rigoler Pourtant j'ai l'sourire jusqu'aux pecs, sur la Mecque, mec mec, mec La vie nous fait pleurer, j'ai envie d'être bête Ne plus réfléchir, ne plus les pardonner, plus rien dans la tête Et j'garde toutes mes larmes, des fois, mes yeux brillent J'ai envie d'être vide, ne plus avoir d'âme, redevenir la bête wow J'ai envie d'amour mais ça s'achète pas Quand j'en donne, c'est gratuit, ces bâtards m'le rendent pas, drôle de concept Et j'peux dire qu'j'ai le cur gainé, le regard un peu du-per man Et j'peux te dire qu'on a peur d'aimer, Tarik Clark, AD Superman J'ai envie d'arrêter tout mais la hess m'a traumatisé Les gens qui m'ont suivi, j'peux pas les abandonner Alors j'crois qu'j'suis condamné Que la mif, que la mif, que la mif, que la mif Rien n'a changé dans ma putain d'tête J'suis hors des codes, j'te fais pas de bouquet J'ai la rose mais t'es conne, j'joue pas au Saint-Valentin Que du biff, que du biff, que du biff, que du biff Rien n'a changé dans ma putain d'tête T'sais la rue m'a piqué, m'a dit le litre c'est tant J'voudrais bien t'expliquer mais je té-comp, j'ai pas l'temps Que la mif, que la mif, que la mif, que la mif Rien n'a changé dans ma putain d'tête Y'a d'la richesse dans nos âmes, y'a d'la misère dans nos yeux Que du biff, que du biff, que du biff, que du biff Rien n'a changé dans ma putain d'tête De la beauté et du charme, on pense qu'on mérite pas les cieux Que la mif, que la mif, que la mif, que la mif, rien n'a changé dans ma putain d'tête Que du biff, que du biff, que du biff, que du biff, rien n'a changé dans ma putain d'tête19</t>
+          <t>Vie J'ai envie drentrer à la maison Le chemin n'est plus le même maintenant qu'on a lmonde Sur mon dernier flow dans mon bat' k'-skun Y'a qu'les cafards et mes rêves qui rest'ront J'fais une photo de ma vie, un peu plus qu'avant Les doutes se confirment, un peu moins quavant Les anges se confient Et toi tu sauras jamais qui jsuis Moi-même j'aurais du mal toute ma vie Donc jaurai besoin de revenir ici J'te laisserai l'temps d'me décevoir Mais le temps me laissera voir Vais-je te plaire dans le noir ? Dernier dans lfour à la recherche de lueurs Quelques roses, beaucoup d'épines dans l'cur Même enfant sans les rêves, sans les pleurs Et j'ai plein d'questions pour mon Créateur En attendant j'traîne, j'fais plein d'erreurs Et le passé fait vibrer mon cur J'veux plus qu'on survive, j'veux une vie meilleure J'veux plus qu'ils se privent, vis tes rêves et meurs Que la mif, que la mif, que la mif, que la mif Rien n'a changé dans ma putain d'tête J'suis hors des codes, j'te fais pas de bouquet J'ai la rose mais t'es conne, j'joue pas au Saint-Valentin Que du biff, que du biff, que du biff, que du biff Rien n'a changé dans ma putain d'tête T'sais la rue m'a piqué, m'a dit le litre c'est tant J'voudrais bien t'expliquer mais je té-comp, j'ai pas l'temps Que la mif, que la mif, que la mif, que la mif Rien n'a changé dans ma putain d'tête Y'a d'la richesse dans nos âmes, y'a d'la misère dans nos yeux Que du biff, que du biff, que du biff, que du biff Rien n'a changé dans ma putain d'tête De la beauté et du charme, on pense qu'on mérite pas les cieux J'ai envie d'être gang, j'ai pas envie d'rigoler Pourtant j'ai l'sourire jusqu'aux pecs, sur la Mecque, mec mec, mec La vie nous fait pleurer, j'ai envie d'être bête Ne plus réfléchir, ne plus les pardonner, plus rien dans la tête Et j'garde toutes mes larmes, des fois, mes yeux brillent J'ai envie d'être vide, ne plus avoir d'âme, redevenir la bête wow J'ai envie d'amour mais ça s'achète pas Quand j'en donne, c'est gratuit, ces bâtards m'le rendent pas, drôle de concept Et j'peux dire qu'j'ai le cur gainé, le regard un peu du-per man Et j'peux te dire qu'on a peur d'aimer, Tarik Clark, AD Superman J'ai envie d'arrêter tout mais la hess m'a traumatisé Les gens qui m'ont suivi, j'peux pas les abandonner Alors j'crois qu'j'suis condamné Que la mif, que la mif, que la mif, que la mif Rien n'a changé dans ma putain d'tête J'suis hors des codes, j'te fais pas de bouquet J'ai la rose mais t'es conne, j'joue pas au Saint-Valentin Que du biff, que du biff, que du biff, que du biff Rien n'a changé dans ma putain d'tête T'sais la rue m'a piqué, m'a dit le litre c'est tant J'voudrais bien t'expliquer mais je té-comp, j'ai pas l'temps Que la mif, que la mif, que la mif, que la mif Rien n'a changé dans ma putain d'tête Y'a d'la richesse dans nos âmes, y'a d'la misère dans nos yeux Que du biff, que du biff, que du biff, que du biff Rien n'a changé dans ma putain d'tête De la beauté et du charme, on pense qu'on mérite pas les cieux Que la mif, que la mif, que la mif, que la mif, rien n'a changé dans ma putain d'tête Que du biff, que du biff, que du biff, que du biff, rien n'a changé dans ma putain d'tête19</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>J'marche comme Link dans l'monde des Gorons ouh J'attends rien des hommes à part Shenmue ouais, ouais J'suis comme Mowgli, j'fais l'Z de Zorro sifflement Ouais J'marche comme Link dans l'monde des Gorons ouh J'attends rien des hommes à part Shenmue hmm J'suis comme Mowgli, j'fais l'Z de Zorro soufflements J'attends rien d'cette 'tasse, pourtant elle twerk eh eh J'louche un peu, j'me dis N3al Sheitan ouh, ouh Un plat d'otoro, j'pars en bécane ouh, ouh J'vagabonde partout comme Eikichi comme Eikichi Pas d'chichis, cuisine-moi comme Chichi eh eh En mode Shinobi, putain, zebi zebi J'dis insert coin, j'continue pour qu'ffe-bi ouais Petit déjà, j'voulais devenir che-ri che-ri Devant Zangief et la jambe de Chun-Li ouais, ouais J'suis pas cool ? Ah bon ? Suce ma te-bi ouh, ouh Tellement d'flows, j'te coupe trois fois le flow re-pu ouh, ouh J'quitte le rrain-té, dernier ient-cli servi eh J'rentre, p'tit flash, gros teh d'vant la porte d'la semi ah Yeux rouges, fonce-deh, j'suis pas très poli J'calcule pas l'3assas, l'3assas qui joue l'gorille ouh J'vends la Ryu été comme hiver Easy ou hard, j'prends pas d'holidays You might also like Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, parle pas p'tite abeille Faut dire que j'y vais pas d'main d'morte, que dire si c'n'est qu'le monde est fou Animal jusqu'à la mort, Madame la juge, c'est la faute au zoo, oh Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, parle pas p'tite abeille Faut dire que j'y vais pas d'main d'morte, que dire si c'n'est qu'le monde est fou Animal jusqu'à la mort, Madame la juge, c'est la faute au zoo, oh J'voulais devenir une grosse tête, avoir la plus belle de l'hôtel Elle casse les couilles, je casse mon tel', et j'me casse faire un tour, j'tire sur mon pét' Pour mes rêves, la Terre est trop p'tite, crois pas qu'on a percé trop vite Charbon, hiver, été, profit parc'qu'on voulait changer trop d'vies Capuche, un toit, sur la lune, un pét', million d'eu plus personne s'inquiète J'vis dans un game pas trop réel, elle a l'accent de PNL Au milieu d'la route, j'aime danser, fumer sans savoir où j'vais où j'suis Ici, j'me suis trop écarté, dans du LV, même pas payé Des culs plus gros qu'dans le passé, ma tête pour recompter Mon cur ment pour aimer, mon snap, c'est un défilé On a souffert dans l'passé, promis qu'demain, on s'veng'rait Appris à marcher où on n'avait pas pieds Toujours un peu sales, vu par où on est passés La planète meurt mais personne voit Moi, j'suis conscient mais dans le noir J'en veux plus d'ce monde de putes Sur le trône, le cur presque noir J'connais que le nom de son cul cul, cul, cul Élevé par un bandit, la rue rue, rue, rue Par le gang, par ma haine, t'as vu ? vu, vu, vu J'les fume, fume, fume Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, parle pas p'tite abeille Faut dire que j'y vais pas d'main d'morte, que dire si c'n'est qu'le monde est fou Animal jusqu'à la mort, Madame la juge, c'est la faute au zoo, oh Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, pars pas la ptite abeille Faut dire que j'y vais pas d'main d'morte, que dire si c'n'est qu'le monde est fou Animal jusqu'à la mort, Madame la juge, c'est la faute au zoo, oh Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, pars pas la ptite abeille Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, pars pas la ptite abeille19</t>
+          <t>J'marche comme Link dans l'monde des Gorons ouh J'attends rien des hommes à part Shenmue ouais, ouais J'suis comme Mowgli, j'fais l'Z de Zorro sifflement Ouais J'marche comme Link dans l'monde des Gorons ouh J'attends rien des hommes à part Shenmue hmm J'suis comme Mowgli, j'fais l'Z de Zorro soufflements J'attends rien d'cette 'tasse, pourtant elle twerk eh eh J'louche un peu, j'me dis N3al Sheitan ouh, ouh Un plat d'otoro, j'pars en bécane ouh, ouh J'vagabonde partout comme Eikichi comme Eikichi Pas d'chichis, cuisine-moi comme Chichi eh eh En mode Shinobi, putain, zebi zebi J'dis insert coin, j'continue pour qu'ffe-bi ouais Petit déjà, j'voulais devenir che-ri che-ri Devant Zangief et la jambe de Chun-Li ouais, ouais J'suis pas cool ? Ah bon ? Suce ma te-bi ouh, ouh Tellement d'flows, j'te coupe trois fois le flow re-pu ouh, ouh J'quitte le rrain-té, dernier ient-cli servi eh J'rentre, p'tit flash, gros teh d'vant la porte d'la semi ah Yeux rouges, fonce-deh, j'suis pas très poli J'calcule pas l'3assas, l'3assas qui joue l'gorille ouh J'vends la Ryu été comme hiver Easy ou hard, j'prends pas d'holidays Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, parle pas p'tite abeille Faut dire que j'y vais pas d'main d'morte, que dire si c'n'est qu'le monde est fou Animal jusqu'à la mort, Madame la juge, c'est la faute au zoo, oh Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, parle pas p'tite abeille Faut dire que j'y vais pas d'main d'morte, que dire si c'n'est qu'le monde est fou Animal jusqu'à la mort, Madame la juge, c'est la faute au zoo, oh J'voulais devenir une grosse tête, avoir la plus belle de l'hôtel Elle casse les couilles, je casse mon tel', et j'me casse faire un tour, j'tire sur mon pét' Pour mes rêves, la Terre est trop p'tite, crois pas qu'on a percé trop vite Charbon, hiver, été, profit parc'qu'on voulait changer trop d'vies Capuche, un toit, sur la lune, un pét', million d'eu plus personne s'inquiète J'vis dans un game pas trop réel, elle a l'accent de PNL Au milieu d'la route, j'aime danser, fumer sans savoir où j'vais où j'suis Ici, j'me suis trop écarté, dans du LV, même pas payé Des culs plus gros qu'dans le passé, ma tête pour recompter Mon cur ment pour aimer, mon snap, c'est un défilé On a souffert dans l'passé, promis qu'demain, on s'veng'rait Appris à marcher où on n'avait pas pieds Toujours un peu sales, vu par où on est passés La planète meurt mais personne voit Moi, j'suis conscient mais dans le noir J'en veux plus d'ce monde de putes Sur le trône, le cur presque noir J'connais que le nom de son cul cul, cul, cul Élevé par un bandit, la rue rue, rue, rue Par le gang, par ma haine, t'as vu ? vu, vu, vu J'les fume, fume, fume Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, parle pas p'tite abeille Faut dire que j'y vais pas d'main d'morte, que dire si c'n'est qu'le monde est fou Animal jusqu'à la mort, Madame la juge, c'est la faute au zoo, oh Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, pars pas la ptite abeille Faut dire que j'y vais pas d'main d'morte, que dire si c'n'est qu'le monde est fou Animal jusqu'à la mort, Madame la juge, c'est la faute au zoo, oh Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, pars pas la ptite abeille Oyé Sapapaya moi ça paye J'suis culotté, toi, t'es stringé, pars pas la ptite abeille19</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Eh Nabil on s'tire, loin de ces faux types, ouais ouais en bas Tu t'rappelles les baqeux qui nous disaient Les deux frères, on vous aura Mais trop techniques, H24 sur le rrain-té Ces rappeurs font les acteurs n'ont pas vécu la moitié D'c'qu'on a vécu chica, chico, chico loco On s'barre à Salou ou à Zrce Beach Y a que des neuch', nous on est khabat, on s'tape sur la plage On serre des grosses fesses, ouais bouge tes gros bzez, te voile pas la face En te-boî toujours, QLF au carré VIP On s'perd, on s'retrouve, quand ça s'péta pétasse on t'évite Ce soir on t'perds de vue à cause d'une bagarre À cause de Taktak, c'est l'ghetto, c'est bim Ouais y a la légende, ouais demande à Gag Dans l'9-4 j'ai bangbang demande à la BAC Demande à yeux bleus, demande à la rue Demande au 9-1, connu sans le rap On a shlassé, tiré, vendu, pour manger, tu sais rien Fuck vos interviews, j'aurais pu passer dans vos reportages de chiens Fallait qu'on l'vise, fallait qu'on l'vise, fallait qu'on l'fasse Fallait qu'on trime, on voulait pas briller, fallait qu'on graille Le ciel est gris, soleil arrive, fallait qu'on s'fight Tout pour la miff, allez on s'tire, allez on ride Wouh wouh wouh wouh Tu sais pas, tu sais pas, tu sais pas wouh Et j'me taille, et j'me taille, et j'me taille wouh Toute l'année, igo, j'suis sous amné wouh Et j'me taille, et j'me taille, et j'me taille You might also like Ma plume m'a dit prends le monde, prends le monde, prends le monde, prends le monde Ma rue m'a dit prends le monde, prends le monde, prends le monde Le regard dans l'vide, milliers d'euros pour retrouver la vue J'ai les stups dans l'dos, Igo, j'me retourne même plus Manny, bientôt les poches pleines Vous pouvez m'quitter, ma liasse me chuchote tu finiras jamais seul J'veux nouvelle vie pour ma F Leur victoire a l'goût du sperme, ma défaite aura l'odeur du cash Pas le temps, d'te détester J'compte, j'vends, un peu comme avant Un peu comme AD J'recompte, j'recompte mon cur, j'fais mon beurre Jusqu'à c'que l'avenir n'leur fasse plus jamais peur Fallait qu'on l'vise, fallait qu'on l'vise, fallait qu'on l'fasse Fallait qu'on trime, on voulait pas briller, fallait qu'on graille Le ciel est gris, soleil arrive, fallait qu'on s'fight Tout pour la miff, allez on s'tire, allez on ride Wouh wouh wouh wouh Tu sais pas, tu sais pas, tu sais pas wouh Et j'me taille, et j'me taille, et j'me taille wouh Toute l'année, igo, j'suis sous amné wouh Et j'me taille, et j'me taille, et j'me taille12</t>
+          <t>Eh Nabil on s'tire, loin de ces faux types, ouais ouais en bas Tu t'rappelles les baqeux qui nous disaient Les deux frères, on vous aura Mais trop techniques, H24 sur le rrain-té Ces rappeurs font les acteurs n'ont pas vécu la moitié D'c'qu'on a vécu chica, chico, chico loco On s'barre à Salou ou à Zrce Beach Y a que des neuch', nous on est khabat, on s'tape sur la plage On serre des grosses fesses, ouais bouge tes gros bzez, te voile pas la face En te-boî toujours, QLF au carré VIP On s'perd, on s'retrouve, quand ça s'péta pétasse on t'évite Ce soir on t'perds de vue à cause d'une bagarre À cause de Taktak, c'est l'ghetto, c'est bim Ouais y a la légende, ouais demande à Gag Dans l'9-4 j'ai bangbang demande à la BAC Demande à yeux bleus, demande à la rue Demande au 9-1, connu sans le rap On a shlassé, tiré, vendu, pour manger, tu sais rien Fuck vos interviews, j'aurais pu passer dans vos reportages de chiens Fallait qu'on l'vise, fallait qu'on l'vise, fallait qu'on l'fasse Fallait qu'on trime, on voulait pas briller, fallait qu'on graille Le ciel est gris, soleil arrive, fallait qu'on s'fight Tout pour la miff, allez on s'tire, allez on ride Wouh wouh wouh wouh Tu sais pas, tu sais pas, tu sais pas wouh Et j'me taille, et j'me taille, et j'me taille wouh Toute l'année, igo, j'suis sous amné wouh Et j'me taille, et j'me taille, et j'me taille Ma plume m'a dit prends le monde, prends le monde, prends le monde, prends le monde Ma rue m'a dit prends le monde, prends le monde, prends le monde Le regard dans l'vide, milliers d'euros pour retrouver la vue J'ai les stups dans l'dos, Igo, j'me retourne même plus Manny, bientôt les poches pleines Vous pouvez m'quitter, ma liasse me chuchote tu finiras jamais seul J'veux nouvelle vie pour ma F Leur victoire a l'goût du sperme, ma défaite aura l'odeur du cash Pas le temps, d'te détester J'compte, j'vends, un peu comme avant Un peu comme AD J'recompte, j'recompte mon cur, j'fais mon beurre Jusqu'à c'que l'avenir n'leur fasse plus jamais peur Fallait qu'on l'vise, fallait qu'on l'vise, fallait qu'on l'fasse Fallait qu'on trime, on voulait pas briller, fallait qu'on graille Le ciel est gris, soleil arrive, fallait qu'on s'fight Tout pour la miff, allez on s'tire, allez on ride Wouh wouh wouh wouh Tu sais pas, tu sais pas, tu sais pas wouh Et j'me taille, et j'me taille, et j'me taille wouh Toute l'année, igo, j'suis sous amné wouh Et j'me taille, et j'me taille, et j'me taille12</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Baisés dans la vie, ces fils de pute j'leur mets la fessée Aisé ouais l'ami, sors-nous le biff on sait encaisser Demande pas un feat on n'en fait pas, viens pas te baisser Bien sûr c'est Paname alors tous les jours on est pressé Si on remplit le frigo, on remercie le bout de taga Sois le meilleur dans le crime ou à l'école, c'est c'qu'a dit Baba Igo c'est QLF, ceux qui connaissent ont chanté La la La la, lala Ici on sort la niaks et puis on prend un bol d'air J'repense à l'époque d'mon survêt' et ma bulle d'air Mais bon c'est la vie, j'espère qu'en GAV t'as su t'taire Tu veux être ma bitch, t'as un gros boule, c'est super Ouais l'ami j'ai pas de respect, bah pourquoi t'avales ? Trêve de balivernes, c'est Ademo en aval J'sors un gros joint et puis j'le pète dans la savane Ces cons font la queue, mais moi j'bicrave d'la banane T'es pas content ? Reste dans ton camp Nous on charbonne pendant que toi tu tapes du bon temps Je suis à fond d'dans, t'inquiète mon gland Est préparé pour leur foutre depuis longtemps Alors essaye pas de tester, la putain d'ta grand-mère Tu joues un rôle, nous pas du tout, on t'attaque en mer La juge m'a arrosé, j'ai poussé, grandi sans mère J'ai saigné mais les anges m'ont dit Faut pas s'en faire Je suis pas Madame Soleil, l'avenir est dark Igo, les miens ont faim, j'tape pas des barres Téma les crocs, ici on est trop À s'tirer dessus depuis le départ You might also like J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL T'as cru quoi ? Rien n'a changé, la putain d'ta mère T'as cru quoi ? J'taille-dé 200g d'ke-skun, j'fais un salaire Chico me ment pas, j'ramène la peuf, la rétine du ien-ien, toujours sincère Surtout t'inquiète pas, malade sous calmant, dans quelques milliers d'eu' on m'opère J'me sens bizarre comme quand j'goûte à la vie, comme quand j'ai pas d'ennemis dans la ville Moi j'connais pas argent facile, on n'a rien construit depuis l'premier kil' Pas d'amitié grattée même pour un million d'lovés, ces milliers de billets de 20 nous ont même pas sauvés Demain j'arrête pas c'est tendu, j'suis plus Tony la langue pendue Y'a rien à tter-gra en bas On t'oublie pas, on t'remplace Que la famille, que la famille, que la famille, que la famille J'recompte bénéf dans la glace Que la famille, que la famille, que la famille, que la famille 6 heures 0.1 j'tire la chasse J'ai pas l'temps, j'ai du terh et d'la verte, j'ai fait un choix sous beuh c'est la merde Pas d'vacances pour la mif' il s'avère, qu'j'ai la haine, j'prends l'chemin de travers On sort faire du biff quand on a mal, dernier charbon sous cagoule, teint pâle J'espère ne pas partir les mains sales, elle pense pas à moi quand elle avale Tu connais, abonné, tu connais, abonné J'ai vu ces billets froissés consommer les âmes par milliers, briser les coeurs Que la monnaie, monnaie, monnaie, monnaie Parce que cette pute de vie m'a déçu comme j'ai déçu mon créateur J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL J'suis dans ta ville, j'suis dans ta rue J'suis dans ta ville, j'suis dans ta rue32</t>
+          <t>Baisés dans la vie, ces fils de pute j'leur mets la fessée Aisé ouais l'ami, sors-nous le biff on sait encaisser Demande pas un feat on n'en fait pas, viens pas te baisser Bien sûr c'est Paname alors tous les jours on est pressé Si on remplit le frigo, on remercie le bout de taga Sois le meilleur dans le crime ou à l'école, c'est c'qu'a dit Baba Igo c'est QLF, ceux qui connaissent ont chanté La la La la, lala Ici on sort la niaks et puis on prend un bol d'air J'repense à l'époque d'mon survêt' et ma bulle d'air Mais bon c'est la vie, j'espère qu'en GAV t'as su t'taire Tu veux être ma bitch, t'as un gros boule, c'est super Ouais l'ami j'ai pas de respect, bah pourquoi t'avales ? Trêve de balivernes, c'est Ademo en aval J'sors un gros joint et puis j'le pète dans la savane Ces cons font la queue, mais moi j'bicrave d'la banane T'es pas content ? Reste dans ton camp Nous on charbonne pendant que toi tu tapes du bon temps Je suis à fond d'dans, t'inquiète mon gland Est préparé pour leur foutre depuis longtemps Alors essaye pas de tester, la putain d'ta grand-mère Tu joues un rôle, nous pas du tout, on t'attaque en mer La juge m'a arrosé, j'ai poussé, grandi sans mère J'ai saigné mais les anges m'ont dit Faut pas s'en faire Je suis pas Madame Soleil, l'avenir est dark Igo, les miens ont faim, j'tape pas des barres Téma les crocs, ici on est trop À s'tirer dessus depuis le départ J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL T'as cru quoi ? Rien n'a changé, la putain d'ta mère T'as cru quoi ? J'taille-dé 200g d'ke-skun, j'fais un salaire Chico me ment pas, j'ramène la peuf, la rétine du ien-ien, toujours sincère Surtout t'inquiète pas, malade sous calmant, dans quelques milliers d'eu' on m'opère J'me sens bizarre comme quand j'goûte à la vie, comme quand j'ai pas d'ennemis dans la ville Moi j'connais pas argent facile, on n'a rien construit depuis l'premier kil' Pas d'amitié grattée même pour un million d'lovés, ces milliers de billets de 20 nous ont même pas sauvés Demain j'arrête pas c'est tendu, j'suis plus Tony la langue pendue Y'a rien à tter-gra en bas On t'oublie pas, on t'remplace Que la famille, que la famille, que la famille, que la famille J'recompte bénéf dans la glace Que la famille, que la famille, que la famille, que la famille 6 heures 0.1 j'tire la chasse J'ai pas l'temps, j'ai du terh et d'la verte, j'ai fait un choix sous beuh c'est la merde Pas d'vacances pour la mif' il s'avère, qu'j'ai la haine, j'prends l'chemin de travers On sort faire du biff quand on a mal, dernier charbon sous cagoule, teint pâle J'espère ne pas partir les mains sales, elle pense pas à moi quand elle avale Tu connais, abonné, tu connais, abonné J'ai vu ces billets froissés consommer les âmes par milliers, briser les coeurs Que la monnaie, monnaie, monnaie, monnaie Parce que cette pute de vie m'a déçu comme j'ai déçu mon créateur J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL J'suis dans ta ville, j'suis dans ta rue J'suis dans ta ville, j'suis dans ta rue32</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J'rallume ma béda-da-da Dix-huit piges, gros, ça rabat-bat-bat L'amour des miens pour m'tenir, c'est la ba-ba-base J'te l'ai déjà dit, tu testes, igo, c'est bah-bah-bah On a pesé la M dans la ca-ca-cave Rlah, rlah, rlah, chiffre à défaut de la lettre Laisse tomber, c'est noir en bas-bas-bas Tu deviens chelou quand tu nous vois dans ta fête On danse, mets-nous du son, on bouge les mains n'importe comment Dégaine de Mexicain avec le seum qui sort d'Hollande Chacal, chacal, n'oublie pas qu'y a Mowgli dans la jungle Taga, taga sous la branche qui sourit dans la gainz On prendra l'terrain, prendra la tour à Dendé Tu trouves pas l'bonheur, tu trouves la beuh, la coke, la M.D T'inquiète, t'inquiète, au ballon, on a tous voulu percer Te trompe pas d'but, igo, fais pas l'CSC C'est, c'est sept sur sept que les démons stressent Deux-trois semaines et les résolutions cessent Ton nez dans ma cess, chienne, on te dresse Joue pas les chauds si tu refroidis devant la braise Un pas d'travers, j'te dis hasta luego On veut pas d'ta gow, on veut ton biff, ah ouais, gros La barre, trop haute pour faire du limbo On prend pas d'coke, on met rien dans la limo' You might also like OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas On m'a trahi, j'ai voulu pardonner J'te casse la boca si tu payes pas c'que t'as dans l'nez On veut la vie à Sosa, pour ça, faut charbonner Ramasse la monnaie, pas d'chrome, évite la D Dis-leur, c'est Bad, featuring Adé' D'la S dans l'zemeh, à la main, du Taittinger C'est la hass, mehlich, j'ai la santé Tu m'fais du mal, wAllah, je vais t'planter La vie, c'est dur et guette, rien qu'ça s'endette Enchaîne les péchés de façon bête Les pieds dans la merde, c'est l'bordel dans ma tête Dis-leur, N.O.S, ça charbonne dur dans la tess C'est que pour la mif, rlah Beretta Gé-char sous la table, j'allume si y a haja OK Manny, Rebenga PNL dans ma tête, dis-leur, t'inquiète même pas OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas Igo, j'brûle mes rêves Sur les poings, je pousse le sol, je fais du karaté On tombe, on se relève D'temps à autre, dans l'salon, j'vois la hass se balader J'sais qu'ils m'aiment pas Leurs mères, ces putains, j'aimerais faire le bien Mais y a des pédés armés J'pense qu'à recompter, y a que ça pour me calmer Igo, j'pète une niaks Rien d'neuf à part les 'tasses qui pensent que j'vais percer Salam la misère, j'pourrai jamais te pourchasser J'casse ma puce de mes pêchés, j'suis pas débarrassé Là, j'suis vers Namek J'rentre pas à la maison, j'ai pas assez brassé OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas11</t>
+          <t>J'rallume ma béda-da-da Dix-huit piges, gros, ça rabat-bat-bat L'amour des miens pour m'tenir, c'est la ba-ba-base J'te l'ai déjà dit, tu testes, igo, c'est bah-bah-bah On a pesé la M dans la ca-ca-cave Rlah, rlah, rlah, chiffre à défaut de la lettre Laisse tomber, c'est noir en bas-bas-bas Tu deviens chelou quand tu nous vois dans ta fête On danse, mets-nous du son, on bouge les mains n'importe comment Dégaine de Mexicain avec le seum qui sort d'Hollande Chacal, chacal, n'oublie pas qu'y a Mowgli dans la jungle Taga, taga sous la branche qui sourit dans la gainz On prendra l'terrain, prendra la tour à Dendé Tu trouves pas l'bonheur, tu trouves la beuh, la coke, la M.D T'inquiète, t'inquiète, au ballon, on a tous voulu percer Te trompe pas d'but, igo, fais pas l'CSC C'est, c'est sept sur sept que les démons stressent Deux-trois semaines et les résolutions cessent Ton nez dans ma cess, chienne, on te dresse Joue pas les chauds si tu refroidis devant la braise Un pas d'travers, j'te dis hasta luego On veut pas d'ta gow, on veut ton biff, ah ouais, gros La barre, trop haute pour faire du limbo On prend pas d'coke, on met rien dans la limo' OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas On m'a trahi, j'ai voulu pardonner J'te casse la boca si tu payes pas c'que t'as dans l'nez On veut la vie à Sosa, pour ça, faut charbonner Ramasse la monnaie, pas d'chrome, évite la D Dis-leur, c'est Bad, featuring Adé' D'la S dans l'zemeh, à la main, du Taittinger C'est la hass, mehlich, j'ai la santé Tu m'fais du mal, wAllah, je vais t'planter La vie, c'est dur et guette, rien qu'ça s'endette Enchaîne les péchés de façon bête Les pieds dans la merde, c'est l'bordel dans ma tête Dis-leur, N.O.S, ça charbonne dur dans la tess C'est que pour la mif, rlah Beretta Gé-char sous la table, j'allume si y a haja OK Manny, Rebenga PNL dans ma tête, dis-leur, t'inquiète même pas OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas Igo, j'brûle mes rêves Sur les poings, je pousse le sol, je fais du karaté On tombe, on se relève D'temps à autre, dans l'salon, j'vois la hass se balader J'sais qu'ils m'aiment pas Leurs mères, ces putains, j'aimerais faire le bien Mais y a des pédés armés J'pense qu'à recompter, y a que ça pour me calmer Igo, j'pète une niaks Rien d'neuf à part les 'tasses qui pensent que j'vais percer Salam la misère, j'pourrai jamais te pourchasser J'casse ma puce de mes pêchés, j'suis pas débarrassé Là, j'suis vers Namek J'rentre pas à la maison, j'ai pas assez brassé OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas OK Manny, Rebenga Dix-huit piges sous l'hall, j'vends la ganja Dans c'monde, j'ai pas d'grand, j'suis N'DA Besoin d'personne, j'sais qu'ils m'aiment pas11</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>I've never seen a diamond in the flesh I cut my teeth on wedding rings in the movies And I'm not proud of my address In a torn-up town, no postcode envy But every song's like Gold teeth, Grey Goose, trippin' in the bathroom Bloodstains, ball gowns, trashin' the hotel room We don't care, we're driving Cadillacs in our dreams But everybody's like Cristal, Maybach, diamonds on your timepiece Jet planes, islands, tigers on a gold leash We don't care, we aren't caught up in your love affair And we'll never be royals Royals It don't run in our blood That kind of luxe just ain't for us We crave a different kind of buzz Let me be your ruler Ruler You can call me queen bee And baby, I'll rule I'll rule, I'll rule, I'll rule Let me live that fantasy You might also like My friends and I, we've cracked the code We count our dollars on the train to the party And everyone who knows us knows That we're fine with this, we didn't come from money But every song's like Gold teeth, Grey Goose, trippin' in the bathroom Bloodstains, ball gowns, trashin' the hotel room We don't care, we're driving Cadillacs in our dreams But everybody's like Cristal, Maybach, diamonds on your timepiece Jet planes, islands, tiger's on a gold leash We don't care, we aren't caught up in your love affair And we'll never be royals Royals It don't run in our blood That kind of luxe just ain't for us We crave a different kind of buzz Let me be your ruler Ruler You can call me queen bee And baby, I'll rule I'll rule, I'll rule, I'll rule Let me live that fantasy Oh, oh-oh We're bigger than we ever dreamed And I'm in love with being queen Oh, oh-oh Life is great without a care We aren't caught up in your love affair And we'll never be royals Royals It don't run in our blood That kind of luxe just ain't for us We crave a different kind of buzz Let me be your ruler Ruler You can call me queen bee And baby, I'll rule I'll rule, I'll rule, I'll rule Let me live that fantasy 429</t>
+          <t>I've never seen a diamond in the flesh I cut my teeth on wedding rings in the movies And I'm not proud of my address In a torn-up town, no postcode envy But every song's like Gold teeth, Grey Goose, trippin' in the bathroom Bloodstains, ball gowns, trashin' the hotel room We don't care, we're driving Cadillacs in our dreams But everybody's like Cristal, Maybach, diamonds on your timepiece Jet planes, islands, tigers on a gold leash We don't care, we aren't caught up in your love affair And we'll never be royals Royals It don't run in our blood That kind of luxe just ain't for us We crave a different kind of buzz Let me be your ruler Ruler You can call me queen bee And baby, I'll rule I'll rule, I'll rule, I'll rule Let me live that fantasy My friends and I, we've cracked the code We count our dollars on the train to the party And everyone who knows us knows That we're fine with this, we didn't come from money But every song's like Gold teeth, Grey Goose, trippin' in the bathroom Bloodstains, ball gowns, trashin' the hotel room We don't care, we're driving Cadillacs in our dreams But everybody's like Cristal, Maybach, diamonds on your timepiece Jet planes, islands, tiger's on a gold leash We don't care, we aren't caught up in your love affair And we'll never be royals Royals It don't run in our blood That kind of luxe just ain't for us We crave a different kind of buzz Let me be your ruler Ruler You can call me queen bee And baby, I'll rule I'll rule, I'll rule, I'll rule Let me live that fantasy Oh, oh-oh We're bigger than we ever dreamed And I'm in love with being queen Oh, oh-oh Life is great without a care We aren't caught up in your love affair And we'll never be royals Royals It don't run in our blood That kind of luxe just ain't for us We crave a different kind of buzz Let me be your ruler Ruler You can call me queen bee And baby, I'll rule I'll rule, I'll rule, I'll rule Let me live that fantasy 429</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>J'ai compté jusqu'à m'en brûler les ailes wAllah Toute la journée wAllah J'ai compté toute la journée jusqu'à m'en brûler les ailes J'ai cogité toute la nuit jusqu'à ce que s'éclaircisse le ciel Igo j'ai demandé pardon, on m'a demandé la mort Chez toi on est peut être personne, chez nous c'est nous les plus forts On connait que le noir, paraît que la lumière existe Le temps passe le temps passe, je sais très bien quoi faire de ce fric Un peace avec les oigts-d, je suis pas trop Pattaya je suis plus Afrique Deux peace avec les oigts-d, un coup de feu il y a plus personne de leur clique bang bang Nouvelles armes à la maison car ma chair vaut le prix de ta vie La vie si c'est pas moi c'est un autre qui la déshabille D'humeur à détester d'humeur à lâcher deux trois je t'aime C'est pas moi, c'est ma putain de nouvelle vie qu'ils aiment Mira, mira, mira Petit pélican Mira, mira, mira Petit pélican Mu-mu-mula meilleure amie Ouais j'ouvre le bal Petit pélican Mira Mula meilleure amie Une douche de balles Petit pélican You might also like WAllah, wAllah, wAllah Bizarre, bizarre, bizarre J'redoute demain dis-moi pourquoi? Mira mira mira Tu sais la vie t'a mis des coups à long terme J't'ai vu nager, trimer dans le haram ramper J't'ai vu tout seul, connaître, le temps sa lenteur Je sais que tu sais la haine éclaire ta lanterne Mais wAllah wAllah wAllah J'sais pas, j'sais pas, j'sais pas J'aimerais sourire des fois Mira mira mira Tu te rappelles pas quand t'étais heureux sans rien ? Quand tout ces gens pensaient que t'étais qu'un vaurien Ici l'amour te manque mais tu l'abandonnes T'es dans l'attente dans l'ombre d'un parloir fantôme WAllah wAllah wAllah C'est chelou tu sais Mira J'regarde ce ciel tout noir Et j'espère, tu sais, Mira Gros t'as ta chance alors saisis-la maintenant Remémore-toi toutes ces galères, ces instants Chaussures trouées en Nike, en Fila Fila Mowgli tu verras, vida Mira Mira Mira, mira, mira Petit pélican Mira, mira, mira Petit pélican Mu-mu-mula meilleure amie Ouais j'ouvre le bal Petit pélican Mira Mula meilleure amie Une douche de balles Petit pélican7</t>
+          <t>J'ai compté jusqu'à m'en brûler les ailes wAllah Toute la journée wAllah J'ai compté toute la journée jusqu'à m'en brûler les ailes J'ai cogité toute la nuit jusqu'à ce que s'éclaircisse le ciel Igo j'ai demandé pardon, on m'a demandé la mort Chez toi on est peut être personne, chez nous c'est nous les plus forts On connait que le noir, paraît que la lumière existe Le temps passe le temps passe, je sais très bien quoi faire de ce fric Un peace avec les oigts-d, je suis pas trop Pattaya je suis plus Afrique Deux peace avec les oigts-d, un coup de feu il y a plus personne de leur clique bang bang Nouvelles armes à la maison car ma chair vaut le prix de ta vie La vie si c'est pas moi c'est un autre qui la déshabille D'humeur à détester d'humeur à lâcher deux trois je t'aime C'est pas moi, c'est ma putain de nouvelle vie qu'ils aiment Mira, mira, mira Petit pélican Mira, mira, mira Petit pélican Mu-mu-mula meilleure amie Ouais j'ouvre le bal Petit pélican Mira Mula meilleure amie Une douche de balles Petit pélican WAllah, wAllah, wAllah Bizarre, bizarre, bizarre J'redoute demain dis-moi pourquoi? Mira mira mira Tu sais la vie t'a mis des coups à long terme J't'ai vu nager, trimer dans le haram ramper J't'ai vu tout seul, connaître, le temps sa lenteur Je sais que tu sais la haine éclaire ta lanterne Mais wAllah wAllah wAllah J'sais pas, j'sais pas, j'sais pas J'aimerais sourire des fois Mira mira mira Tu te rappelles pas quand t'étais heureux sans rien ? Quand tout ces gens pensaient que t'étais qu'un vaurien Ici l'amour te manque mais tu l'abandonnes T'es dans l'attente dans l'ombre d'un parloir fantôme WAllah wAllah wAllah C'est chelou tu sais Mira J'regarde ce ciel tout noir Et j'espère, tu sais, Mira Gros t'as ta chance alors saisis-la maintenant Remémore-toi toutes ces galères, ces instants Chaussures trouées en Nike, en Fila Fila Mowgli tu verras, vida Mira Mira Mira, mira, mira Petit pélican Mira, mira, mira Petit pélican Mu-mu-mula meilleure amie Ouais j'ouvre le bal Petit pélican Mira Mula meilleure amie Une douche de balles Petit pélican7</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>J'remplace vé-Her par JR, j'suis loin d'Dallas j'suis loin d'Dallas J'fuck l'esclavage, j'revends la blanche à Obama à Obama J'refuse qu'on soit soumis, j'sors le gala j'sors le gala J'suis un lion, pas un mouton, j'suis comme baba ba-ba-ba-ba-ba J'traîne dans la city bourrée d'vices J'ai la bouche pleine pourtant, j'dois goûter l'vide Le miroir est net, le visage est brisé On chante en public mais nos larmes sont privées Et pour le coup, j'suis pas une star d'Hollywood Bat les couilles, j'fais du Beverly Hills Rien ne sert de jouer les thugs, on est cool Même deux Glocks peuvent te faire des peaces J'suis QLF, j'fais mes ennemis amis Trop parano pour faire ami-ami Et bat les couilles, j'suis pas une star d'Hollywood J'remplace vé-Her par JR, j'suis loin d'Dallas J'suis loin d'Dallas J'fuck l'esclavage, j'revends la blanche à Obama à Obama J'refuse qu'on soit soumis, j'sors le gala j'sors le gala J'suis un lion, pas un mouton, j'suis comme baba ba-ba-ba-ba-ba J'veux juste un cocktail frais frais avec le petit parasol Fuck ta chicha trop flinguée flinguée, nous, c'est cigare Al Capone Et tchi, et tchi, ah-ah-ah ah-ah-ah J'veux juste un cocktail frais frais You might also like Pas de feat, igo, pas de suçage de bites Représente les miens comme il faut, dans le shit comme dans la 'sique Ouais, tu peux pas comprendre l'histoire d'une vie Donc ne pose pas de questions ou interview ma bite Peace, peace, peace, peace Faut qu'on claque ce liquide, pour les nôtres dans cette vie avant de partir en shit Toutes les rues sont vides et les fenêtres donnent sur nous Âme tordue dans la ville, on fait peur à ton jnoun Un regard froid sur le pétard J'claque du fric comme à l'ancienne juste pour voir 3ami que la famille, on les baise au ralenti Je t'aime plus que ma vie, ton rire pour m'en sortir Ça a démarré dans l'zoo, dans la haine pour les keufs Dans le stress, dans les fours, dans les tirs près d'mes reufs Puis l'argent a séparé, pas longtemps, juste pour la vie J'fais le tour du monde, je m'enfume, je m'ennuie J'monte sur scène l'ami, elles crient mon blase J't'aurais bien fait faire un tour du ghetto quand j'vendais la Niaks Tordage au max, j'fais l'tour, j'me casse Presque tout m'ennuie, à part les baiser J'ai trop fumé, trop percé, à part ça, on les pénètre J'brise rêve de go de tes rêves, on prend le monde sans vivre Le monde ou rien d'père en fils Nine-one-ties J'remplace vé-Her par JR, j'suis loin d'Dallas j'suis loin d'Dallas J'fuck l'esclavage, j'revends la blanche à Obama à Obama J'refuse qu'on soit soumis, j'sors le gala j'sors le gala J'suis un lion, pas un mouton, j'suis comme baba ba-ba-ba-ba-ba J'veux juste un cocktail frais frais avec le petit parasol Fuck ta chicha trop flinguée flinguée, nous, c'est cigare Al Capone Les thunes, les thunes, ah-ah-ah ah-ah-ah J'veux juste un cocktail frais frais19</t>
+          <t>J'remplace vé-Her par JR, j'suis loin d'Dallas j'suis loin d'Dallas J'fuck l'esclavage, j'revends la blanche à Obama à Obama J'refuse qu'on soit soumis, j'sors le gala j'sors le gala J'suis un lion, pas un mouton, j'suis comme baba ba-ba-ba-ba-ba J'traîne dans la city bourrée d'vices J'ai la bouche pleine pourtant, j'dois goûter l'vide Le miroir est net, le visage est brisé On chante en public mais nos larmes sont privées Et pour le coup, j'suis pas une star d'Hollywood Bat les couilles, j'fais du Beverly Hills Rien ne sert de jouer les thugs, on est cool Même deux Glocks peuvent te faire des peaces J'suis QLF, j'fais mes ennemis amis Trop parano pour faire ami-ami Et bat les couilles, j'suis pas une star d'Hollywood J'remplace vé-Her par JR, j'suis loin d'Dallas J'suis loin d'Dallas J'fuck l'esclavage, j'revends la blanche à Obama à Obama J'refuse qu'on soit soumis, j'sors le gala j'sors le gala J'suis un lion, pas un mouton, j'suis comme baba ba-ba-ba-ba-ba J'veux juste un cocktail frais frais avec le petit parasol Fuck ta chicha trop flinguée flinguée, nous, c'est cigare Al Capone Et tchi, et tchi, ah-ah-ah ah-ah-ah J'veux juste un cocktail frais frais Pas de feat, igo, pas de suçage de bites Représente les miens comme il faut, dans le shit comme dans la 'sique Ouais, tu peux pas comprendre l'histoire d'une vie Donc ne pose pas de questions ou interview ma bite Peace, peace, peace, peace Faut qu'on claque ce liquide, pour les nôtres dans cette vie avant de partir en shit Toutes les rues sont vides et les fenêtres donnent sur nous Âme tordue dans la ville, on fait peur à ton jnoun Un regard froid sur le pétard J'claque du fric comme à l'ancienne juste pour voir 3ami que la famille, on les baise au ralenti Je t'aime plus que ma vie, ton rire pour m'en sortir Ça a démarré dans l'zoo, dans la haine pour les keufs Dans le stress, dans les fours, dans les tirs près d'mes reufs Puis l'argent a séparé, pas longtemps, juste pour la vie J'fais le tour du monde, je m'enfume, je m'ennuie J'monte sur scène l'ami, elles crient mon blase J't'aurais bien fait faire un tour du ghetto quand j'vendais la Niaks Tordage au max, j'fais l'tour, j'me casse Presque tout m'ennuie, à part les baiser J'ai trop fumé, trop percé, à part ça, on les pénètre J'brise rêve de go de tes rêves, on prend le monde sans vivre Le monde ou rien d'père en fils Nine-one-ties J'remplace vé-Her par JR, j'suis loin d'Dallas j'suis loin d'Dallas J'fuck l'esclavage, j'revends la blanche à Obama à Obama J'refuse qu'on soit soumis, j'sors le gala j'sors le gala J'suis un lion, pas un mouton, j'suis comme baba ba-ba-ba-ba-ba J'veux juste un cocktail frais frais avec le petit parasol Fuck ta chicha trop flinguée flinguée, nous, c'est cigare Al Capone Les thunes, les thunes, ah-ah-ah ah-ah-ah J'veux juste un cocktail frais frais19</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>J'fais l'tour de ta vie, je m'ennuie, j'retourne à la mienne et j'retourne à la mienne On n'a pas la même vie, mes cauchemars ne d'viendront pas tes chaînes ne d'viendront pas tes chaînes J'ai quitté ma chaise dans l'hall pour monter chier sur le trône monter chier sur le trône J'ai percé si vite, ient-ient, qu'j'en ai oublié tes chromes oublié tes chromes Milliers d'euros, plus de peine de cur plus de peine de cur Cur à zéro, j't'oublie sans rancur seul, seul Fonce-dé dans le noir pour oublier que ce monde est moche que ce monde est moche Non, j'aime pas l'argent, j'aime mes proches donc je remplis mes poches je remplis mes poches Haute couture, petit frère se sert dans l'armoire Un p'tit regard, j'caresse ton âme, mouah Tard la nuit, je montre mes blessures à la Lune car j'ai mal à la Terre car j'ai mal à la Terre Ce monde sale m'aveugle, j'verrai pas l'auréole au-dessus de ta tête Ce soir, ce sera pas pour la vie pour la vie Putain d'âme, putain d'drame, putain d'cri putain, putain d'cri J'ai peur de perdre du temps de perdre du temps Alors, j'suis pire qu'avant j'suis pire qu'avant Dans l're-fou, cramés dans l're-fou cramés, cramés J'pensais qu'à grammer j'pensais qu'à grammer, j'pensais qu'à grammer Les âmes ont fané fané, fané Parce qu'il le fallait fallait, parce qu'il le fallait You might also like J'lance des t'es moche à ta bella, bella Chienne de guerre se prend pour Athéna-théna J'veux du L, j'veux du V, du G, hella Mes tartines et mon Nutella-tella Oh, qu'il est lourd, mais qu'il est lourd Oh, woulah woulah, gros Soleil sur la tour, on s'barre faire un tour L'hôtel, c'est trop trop, hmm J'te refais la scène, wa, wa, waya Le S dans la veine, fuck la flemme Sors tampon M, ient-cli aime Au bout du , wawawaza J'tire ma langue comme Manny, Manny On perd du temps, d'la sueur pour la monnaie monnaie Comme le dit le défaut l'a ordonné-donné Chercheur d'oseille j'suis dans ma bulle Ouais le shit bulle Le monde ou rien Lèche-nous pas, hein, hein, hein, pute Non, ne nous lèche pas, hein hein hein, pute On s'ressemble pas, s'ressemblera jamais, sale pute sale pute Dans le noir, condamné, j'rêve, sale pute Ce soir, ce sera pas pour la vie pour la vie Putain d'âme, putain d'drame, putain d'cri putain, putain d'cri J'ai peur de perdre du temps de perdre du temps Alors, j'suis pire qu'avant j'suis pire qu'avant Dans l're-fou, cramés dans l're-fou cramés, cramés J'pensais qu'à grammer j'pensais qu'à grammer, j'pensais qu'à grammer Les âmes ont fané fané, fané Parce qu'il le fallait fallait, parce qu'il le fallait13</t>
+          <t>J'fais l'tour de ta vie, je m'ennuie, j'retourne à la mienne et j'retourne à la mienne On n'a pas la même vie, mes cauchemars ne d'viendront pas tes chaînes ne d'viendront pas tes chaînes J'ai quitté ma chaise dans l'hall pour monter chier sur le trône monter chier sur le trône J'ai percé si vite, ient-ient, qu'j'en ai oublié tes chromes oublié tes chromes Milliers d'euros, plus de peine de cur plus de peine de cur Cur à zéro, j't'oublie sans rancur seul, seul Fonce-dé dans le noir pour oublier que ce monde est moche que ce monde est moche Non, j'aime pas l'argent, j'aime mes proches donc je remplis mes poches je remplis mes poches Haute couture, petit frère se sert dans l'armoire Un p'tit regard, j'caresse ton âme, mouah Tard la nuit, je montre mes blessures à la Lune car j'ai mal à la Terre car j'ai mal à la Terre Ce monde sale m'aveugle, j'verrai pas l'auréole au-dessus de ta tête Ce soir, ce sera pas pour la vie pour la vie Putain d'âme, putain d'drame, putain d'cri putain, putain d'cri J'ai peur de perdre du temps de perdre du temps Alors, j'suis pire qu'avant j'suis pire qu'avant Dans l're-fou, cramés dans l're-fou cramés, cramés J'pensais qu'à grammer j'pensais qu'à grammer, j'pensais qu'à grammer Les âmes ont fané fané, fané Parce qu'il le fallait fallait, parce qu'il le fallait J'lance des t'es moche à ta bella, bella Chienne de guerre se prend pour Athéna-théna J'veux du L, j'veux du V, du G, hella Mes tartines et mon Nutella-tella Oh, qu'il est lourd, mais qu'il est lourd Oh, woulah woulah, gros Soleil sur la tour, on s'barre faire un tour L'hôtel, c'est trop trop, hmm J'te refais la scène, wa, wa, waya Le S dans la veine, fuck la flemme Sors tampon M, ient-cli aime Au bout du , wawawaza J'tire ma langue comme Manny, Manny On perd du temps, d'la sueur pour la monnaie monnaie Comme le dit le défaut l'a ordonné-donné Chercheur d'oseille j'suis dans ma bulle Ouais le shit bulle Le monde ou rien Lèche-nous pas, hein, hein, hein, pute Non, ne nous lèche pas, hein hein hein, pute On s'ressemble pas, s'ressemblera jamais, sale pute sale pute Dans le noir, condamné, j'rêve, sale pute Ce soir, ce sera pas pour la vie pour la vie Putain d'âme, putain d'drame, putain d'cri putain, putain d'cri J'ai peur de perdre du temps de perdre du temps Alors, j'suis pire qu'avant j'suis pire qu'avant Dans l're-fou, cramés dans l're-fou cramés, cramés J'pensais qu'à grammer j'pensais qu'à grammer, j'pensais qu'à grammer Les âmes ont fané fané, fané Parce qu'il le fallait fallait, parce qu'il le fallait13</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ce soir je fume un gros gros teh' J'téma ton postérieur je veux le même en po-poster Si on se tue je compte pas les balles qui s'perdent La vie c'est chelou je la baise y a pas de mystère Igo, je deviens méchant, pas de Jasmine pour Jafar Je suis comme le bas de mon bâtiment j'ai tous les jours le cafard Mes yeux clairs regardent l'enfer, l'enfer, l'enfer J'croyais que t'étais droit mais en fait en fait, en fait en fait, en fait J'fais pompe et traction, j'ai le tri' à Végéta Les pec' à Léonidas et ta bitch se met des doigts Et j'bande et j'bande, et j'fais un gros smiley Et je vais tous les khabat si je vends mon cur en tail-dé Ouwawa ouwawa ouwawa J'ai trop traîné en bas bas Ouwawa ouwawa ouwawa Je dois faire le million pour baba Ouwawa ouwawa ouwawa Tu testes, on sort le baba Ouwawa ouwawa ouwawa J'comprends pas pourquoi on m'comprend pas You might also like Que Dieu me pardonne si je me trompe, lala J'pose ma miff avant qu'on pose ma tombe, gala, gala, gala Ce chemin étroit et sombre me séduit L'impression qu'il soigne mon cur de E.T Couvert d'oseille igo j'suis sous calmant De la haine en revanche j'en ai tellement Et j'comprends pas pourquoi on m'comprend pas T'es seul dans le noir, j'espère que ton ombre ne t'a pas lâché Et ils croient savoir pourquoi on emballe Je serai pas le premier, ni le dernier QLF, ceux qui crèvent à part J'm'endors sous alcool vers Zadar J'vends la drogue c'est pas un hasard Je prends mes tunes j'rentre à la casa J'téma la lune, les péchés m'endettent Les anges me parlent mais moi j'entends pas Je suis dans ma bulle je suis baisé j'm'embête Et j'comprends pas pourquoi j'comprends pas Ouwawa ouwawa ouwawa J'ai trop traîné en bas bas Ouwawa ouwawa ouwawa Je dois faire le million pour baba Ouwawa ouwawa ouwawa Tu testes, on sort le baba Ouwawa ouwawa ouwawa J'comprends pas pourquoi on m'comprend pas Ouwawa ouwawa ouwawa J'ai trop traîné en bas Ouwawa ouwawa ouwawa Je dois faire le million pour baba Ouwawa ouwawa ouwawa Tu testes, on sort le baba Ouwawa ouwawa ouwawa J'comprends pas pourquoi on m'comprend pas21</t>
+          <t>Ce soir je fume un gros gros teh' J'téma ton postérieur je veux le même en po-poster Si on se tue je compte pas les balles qui s'perdent La vie c'est chelou je la baise y a pas de mystère Igo, je deviens méchant, pas de Jasmine pour Jafar Je suis comme le bas de mon bâtiment j'ai tous les jours le cafard Mes yeux clairs regardent l'enfer, l'enfer, l'enfer J'croyais que t'étais droit mais en fait en fait, en fait en fait, en fait J'fais pompe et traction, j'ai le tri' à Végéta Les pec' à Léonidas et ta bitch se met des doigts Et j'bande et j'bande, et j'fais un gros smiley Et je vais tous les khabat si je vends mon cur en tail-dé Ouwawa ouwawa ouwawa J'ai trop traîné en bas bas Ouwawa ouwawa ouwawa Je dois faire le million pour baba Ouwawa ouwawa ouwawa Tu testes, on sort le baba Ouwawa ouwawa ouwawa J'comprends pas pourquoi on m'comprend pas Que Dieu me pardonne si je me trompe, lala J'pose ma miff avant qu'on pose ma tombe, gala, gala, gala Ce chemin étroit et sombre me séduit L'impression qu'il soigne mon cur de E.T Couvert d'oseille igo j'suis sous calmant De la haine en revanche j'en ai tellement Et j'comprends pas pourquoi on m'comprend pas T'es seul dans le noir, j'espère que ton ombre ne t'a pas lâché Et ils croient savoir pourquoi on emballe Je serai pas le premier, ni le dernier QLF, ceux qui crèvent à part J'm'endors sous alcool vers Zadar J'vends la drogue c'est pas un hasard Je prends mes tunes j'rentre à la casa J'téma la lune, les péchés m'endettent Les anges me parlent mais moi j'entends pas Je suis dans ma bulle je suis baisé j'm'embête Et j'comprends pas pourquoi j'comprends pas Ouwawa ouwawa ouwawa J'ai trop traîné en bas bas Ouwawa ouwawa ouwawa Je dois faire le million pour baba Ouwawa ouwawa ouwawa Tu testes, on sort le baba Ouwawa ouwawa ouwawa J'comprends pas pourquoi on m'comprend pas Ouwawa ouwawa ouwawa J'ai trop traîné en bas Ouwawa ouwawa ouwawa Je dois faire le million pour baba Ouwawa ouwawa ouwawa Tu testes, on sort le baba Ouwawa ouwawa ouwawa J'comprends pas pourquoi on m'comprend pas21</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Khey, khey, khey, khey Ouais, ouais Khey, khey, khey, khey Mmh, mouais, mmh, mouais Deux, trois, quatre, cinq barres cinq barres Six, sept, huit cliquos cliquos Pas maintenant qu'on s'barre qu'on s'barre Pas d'rêve, que des doss' des doss' La hess, longtemps qu'on te tient tête, ouais, tout pour la F, c'est ma quête Le poids d'ton rappeur en plaquette plaquette, igo, t'inquiète Nique sa mère, j'm'embête, j'papote avec ma pocket Guccisé, obligé, elle guette, zézère, plutôt coquette Sous taga, j'suis pas jnouné, balaise comme ma pocket en fin d'journée Les poches prennent des formes, les poches perdent des formes jusqu'à la prochaine fournée 89, goûte à ma teub, 25 ans d'âge Pas dans ta teuf, j'visser un keuf, j'monte d'un étage j'monte d'un étage Khey, khey, khey, khey J'la bute sous l'soleil Ouais, ouais Khey, khey, khey, khey J'la bute sous l'soleil Mmh, mouais, mmh, mouais You might also like Khey, khey, khey, khey J'la bute sous l'soleil J'maille, j'maille, j'maille, j'maille Et puis j'm'envole à Miami Khey, khey, khey, khey J'la bute sous l'soleil J'maille, j'maille, j'maille, j'maille Et puis j'm'envole à Miami Rompompompompom, c'est d'la bonne, hein, sa mère J'sors de la galère, la vie d'ma mère Rompompompompom, hella venga venga Dans, dans la ciudad, j'marche le regard amer Coup du sombrero à la Mexico J'na3ass, bob sur la tê-tê-tête, à hauteur d'chicots Fuck, fuck amigo, m'sors pas tes mythos Il m'faut la Black Card, il m'faut la White Widow Des des des des bâtards, des des des des barres Des des des des shlags, j'leur fous ma merde et c'est l'bazar Et puis si t'es bonne, j'ai le fouet, et puis, d'vant ton boul, j'ai le souhait Et puis si j'ai parlu avec toi, pétasse, j'fais 500 pompes avant, les bravas gonflés Khey, khey, khey, khey J'la bute sous l'soleil Ouais, ouais Khey, khey, khey, khey J'la bute sous l'soleil Mmh, mouais, mmh, mouais Khey, khey, khey, khey J'la bute sous l'soleil J'maille, j'maille, j'maille, j'maille Et puis j'm'envole à Miami Khey, khey, khey, khey J'la bute sous l'soleil J'maille, j'maille, j'maille, j'maille Et puis j'm'envole à Miami17</t>
+          <t>Khey, khey, khey, khey Ouais, ouais Khey, khey, khey, khey Mmh, mouais, mmh, mouais Deux, trois, quatre, cinq barres cinq barres Six, sept, huit cliquos cliquos Pas maintenant qu'on s'barre qu'on s'barre Pas d'rêve, que des doss' des doss' La hess, longtemps qu'on te tient tête, ouais, tout pour la F, c'est ma quête Le poids d'ton rappeur en plaquette plaquette, igo, t'inquiète Nique sa mère, j'm'embête, j'papote avec ma pocket Guccisé, obligé, elle guette, zézère, plutôt coquette Sous taga, j'suis pas jnouné, balaise comme ma pocket en fin d'journée Les poches prennent des formes, les poches perdent des formes jusqu'à la prochaine fournée 89, goûte à ma teub, 25 ans d'âge Pas dans ta teuf, j'visser un keuf, j'monte d'un étage j'monte d'un étage Khey, khey, khey, khey J'la bute sous l'soleil Ouais, ouais Khey, khey, khey, khey J'la bute sous l'soleil Mmh, mouais, mmh, mouais Khey, khey, khey, khey J'la bute sous l'soleil J'maille, j'maille, j'maille, j'maille Et puis j'm'envole à Miami Khey, khey, khey, khey J'la bute sous l'soleil J'maille, j'maille, j'maille, j'maille Et puis j'm'envole à Miami Rompompompompom, c'est d'la bonne, hein, sa mère J'sors de la galère, la vie d'ma mère Rompompompompom, hella venga venga Dans, dans la ciudad, j'marche le regard amer Coup du sombrero à la Mexico J'na3ass, bob sur la tê-tê-tête, à hauteur d'chicots Fuck, fuck amigo, m'sors pas tes mythos Il m'faut la Black Card, il m'faut la White Widow Des des des des bâtards, des des des des barres Des des des des shlags, j'leur fous ma merde et c'est l'bazar Et puis si t'es bonne, j'ai le fouet, et puis, d'vant ton boul, j'ai le souhait Et puis si j'ai parlu avec toi, pétasse, j'fais 500 pompes avant, les bravas gonflés Khey, khey, khey, khey J'la bute sous l'soleil Ouais, ouais Khey, khey, khey, khey J'la bute sous l'soleil Mmh, mouais, mmh, mouais Khey, khey, khey, khey J'la bute sous l'soleil J'maille, j'maille, j'maille, j'maille Et puis j'm'envole à Miami Khey, khey, khey, khey J'la bute sous l'soleil J'maille, j'maille, j'maille, j'maille Et puis j'm'envole à Miami17</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>J'me regaine comme à lépoque de l'arène Le fauve a toujours les crocs et sourit Plus trop à l'envers, non, plutôt à lendroit Ouais, j'finirai moins pourri Eh ma gueule, j'me sens mieux mais j'ai pas dit que j'sentais bon Et la nuit c'est vite fait, j'côtoie toujours mes démons C'toujours la routine, trop dsentiments mabîment 'Blèmes durs à résoudre, des djinns dans lcasting Stand, bang, caché dans la veine J'ai envie d'ken, aux illes-cou, j'ai mis les chaînes Chienne, bouge ton boule, Mowgli na pas l'time Avant, tu l'aimais moins, aujourd'hui, toi, pas d'taille Khey, hein, j'ressens les épines J'descends la pente, j'fais l'avion comme Pauleta Il nous en faudra plus pour courber l'échine Dès qu'tu diras n'da, l'son, tu m'reconnaîtras Ouais, ouais, tous les jours abonnés Toujours c'passé qui se colle à mon derche Pourtant perché dans mon coin, on m'reconnait Qu'ce soit babtou, black, rebeu, nois-ch' ou guesh Yes, check, m'prends pas pour un Dieu, starf' J'suis comme toi, j'fais ner-tour le 22, taf, taf Ouais, l'ami, c'est dingue A croire que l'amitié s'arrête à mille eu', eu', eu' Arrête d'jouer les singes Tu parles beaucoup pour un mec qui sait où on habite bref, peace J'ai rêvé d'ces lâches J'me réconforte en m'disant qu'j'ai jamais rêvé d'ce cash ouais, j'vis J'survis et j'révise mon âme, j'me dis qu'la connaissance est la meilleure des armes J'essaie d'ouvrir mon cur, chelou comme ça fait peur Et j'surmonte mes épreuves J'les kiffe, j'les embrasse, j'les abreuve Toujours au départ, jamais sans les miens, jamais sans ma haine, bref jamais sans ma haine, bref Bientôt, j'vais dessaouler Bientôt une année d'plus, pas d'mal à la souffler Euros dans la valise Cul propre, langue propre, toujours les tiens qui se salissent You might also like J'ai l'flow te3 Boubou, de Kuta à Ubud, yeah Salam gue3, coucou ouais puta, j'suis fou-fou, yeah Et j'roule à gauche, oui et j'roule à gauche, oh, oh Appelle-moi Mowgli woo, woo, ounga, ounga J'ai l'flow te3 Boubou, de Kuta à Ubud, yeah yeah, yeah Salam gue3, coucou ouais puta, j'suis fou-fou, yeah yeah, yeah, yeah Et j'roule à gauche, oui et j'roule à gauche, oh, oh Appelle-moi Mowgli woo, woo, woooo Avant j'étais dans l'trou, avant j'étais dans l'vide Et personne n'a sauté pour moi pour chercher ce liquide J'ai pas besoin de feat', pas besoin d'équipe J'ai quelques frères sincères qui m'envient pas pour ce liquide Les autres, je leur en veux pas, avant j'étais comme eux Quand tout c'que j'voulais, c'est qu'tu fumes ma putain d'beuh C'que tu penses de moi, igo j'm'en bats les couilles Et ma putain de haine se réveille juste un peu AD c'était la coco, moi c'était l'shit, la beuh Ramasser tous les gueushs et tous les, tous les, tous les eu' Puis on a pris les eu', tout investi dans l'jeu C'putain d'game a redressé ma putain d'queue Game, game, game Tu nous aimes pas ? Tords ton âme sur ma bite Game, game, game Plein d'ennemis savent où j'habite game, game, game J'vis ma vie de rockstar, pendant une semaine Je traîne tard le soir, j'suis fonce' à la Jack et j'm'en bats les couilles Fais rentrer des groupies Brrr , j'me transforme en rockstar Elles nous voient en 3D, moi j'suis défoncé, j'm'en bats les couilles Je tords l'âme d'une groupie, tard le soir dans la nuit Très loin de Paris, et j'm'en bats les couilles Toi, fais fumer sur la niaks, sers-lui un autre verre de Jack Neuf heures du mat', le sunrise mais j'm'en bats les couilles J'ai l'flow te3 Boubou, de Kuta à Ubud, yeah Salam gue3, coucou ouais puta, j'suis fou-fou, yeah Et j'roule à gauche, oui et j'roule à gauche, oh Appelle-moi Mowgli woo, woo, ounga, ounga J'ai l'flow te3 Boubou, de Kuta à Ubud, yeah yeah, yeah Salam gue3, coucou ouais puta, j'suis fou-fou, yeah yeah, yeah Et j'roule à gauche, oui et j'roule à gauche, oh Appelle-moi Mowgli woo, woo12</t>
+          <t>J'me regaine comme à lépoque de l'arène Le fauve a toujours les crocs et sourit Plus trop à l'envers, non, plutôt à lendroit Ouais, j'finirai moins pourri Eh ma gueule, j'me sens mieux mais j'ai pas dit que j'sentais bon Et la nuit c'est vite fait, j'côtoie toujours mes démons C'toujours la routine, trop dsentiments mabîment 'Blèmes durs à résoudre, des djinns dans lcasting Stand, bang, caché dans la veine J'ai envie d'ken, aux illes-cou, j'ai mis les chaînes Chienne, bouge ton boule, Mowgli na pas l'time Avant, tu l'aimais moins, aujourd'hui, toi, pas d'taille Khey, hein, j'ressens les épines J'descends la pente, j'fais l'avion comme Pauleta Il nous en faudra plus pour courber l'échine Dès qu'tu diras n'da, l'son, tu m'reconnaîtras Ouais, ouais, tous les jours abonnés Toujours c'passé qui se colle à mon derche Pourtant perché dans mon coin, on m'reconnait Qu'ce soit babtou, black, rebeu, nois-ch' ou guesh Yes, check, m'prends pas pour un Dieu, starf' J'suis comme toi, j'fais ner-tour le 22, taf, taf Ouais, l'ami, c'est dingue A croire que l'amitié s'arrête à mille eu', eu', eu' Arrête d'jouer les singes Tu parles beaucoup pour un mec qui sait où on habite bref, peace J'ai rêvé d'ces lâches J'me réconforte en m'disant qu'j'ai jamais rêvé d'ce cash ouais, j'vis J'survis et j'révise mon âme, j'me dis qu'la connaissance est la meilleure des armes J'essaie d'ouvrir mon cur, chelou comme ça fait peur Et j'surmonte mes épreuves J'les kiffe, j'les embrasse, j'les abreuve Toujours au départ, jamais sans les miens, jamais sans ma haine, bref jamais sans ma haine, bref Bientôt, j'vais dessaouler Bientôt une année d'plus, pas d'mal à la souffler Euros dans la valise Cul propre, langue propre, toujours les tiens qui se salissent J'ai l'flow te3 Boubou, de Kuta à Ubud, yeah Salam gue3, coucou ouais puta, j'suis fou-fou, yeah Et j'roule à gauche, oui et j'roule à gauche, oh, oh Appelle-moi Mowgli woo, woo, ounga, ounga J'ai l'flow te3 Boubou, de Kuta à Ubud, yeah yeah, yeah Salam gue3, coucou ouais puta, j'suis fou-fou, yeah yeah, yeah, yeah Et j'roule à gauche, oui et j'roule à gauche, oh, oh Appelle-moi Mowgli woo, woo, woooo Avant j'étais dans l'trou, avant j'étais dans l'vide Et personne n'a sauté pour moi pour chercher ce liquide J'ai pas besoin de feat', pas besoin d'équipe J'ai quelques frères sincères qui m'envient pas pour ce liquide Les autres, je leur en veux pas, avant j'étais comme eux Quand tout c'que j'voulais, c'est qu'tu fumes ma putain d'beuh C'que tu penses de moi, igo j'm'en bats les couilles Et ma putain de haine se réveille juste un peu AD c'était la coco, moi c'était l'shit, la beuh Ramasser tous les gueushs et tous les, tous les, tous les eu' Puis on a pris les eu', tout investi dans l'jeu C'putain d'game a redressé ma putain d'queue Game, game, game Tu nous aimes pas ? Tords ton âme sur ma bite Game, game, game Plein d'ennemis savent où j'habite game, game, game J'vis ma vie de rockstar, pendant une semaine Je traîne tard le soir, j'suis fonce' à la Jack et j'm'en bats les couilles Fais rentrer des groupies Brrr , j'me transforme en rockstar Elles nous voient en 3D, moi j'suis défoncé, j'm'en bats les couilles Je tords l'âme d'une groupie, tard le soir dans la nuit Très loin de Paris, et j'm'en bats les couilles Toi, fais fumer sur la niaks, sers-lui un autre verre de Jack Neuf heures du mat', le sunrise mais j'm'en bats les couilles J'ai l'flow te3 Boubou, de Kuta à Ubud, yeah Salam gue3, coucou ouais puta, j'suis fou-fou, yeah Et j'roule à gauche, oui et j'roule à gauche, oh Appelle-moi Mowgli woo, woo, ounga, ounga J'ai l'flow te3 Boubou, de Kuta à Ubud, yeah yeah, yeah Salam gue3, coucou ouais puta, j'suis fou-fou, yeah yeah, yeah Et j'roule à gauche, oui et j'roule à gauche, oh Appelle-moi Mowgli woo, woo12</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hmm, hmm Dans la rue d'l'enfer Dans la rue d'l'enfer J'suis d'la jungle, appelle-moi Mowgli, j'ai le seum, j'ai pas le semi J'suis toujours solo comme Rémi, trop gang, c'est la rue, 3ami J'ai du sale à cracher seul, teh sous mon teint pâle J'vis comme un Saïyan dans un monde où les murs parlent J'suis d'Namek, toujours sur les nerfs, les yeux marrons, verts J'peux pas perdre, trop fier pour mes frères, sourire à l'envers J'ai du cran, j'fuck tous tes humains, mourir, c'est la life Ouais, maman, j'suis sous thérapie, j'vois le terrain vide Un moment, faut qu'j'me pose solo, croco sur l'polo Calmement, j'fais mes bails nda, j'suis toujours en bas J'suis du hall, j'suis du bâtiment, la varièt', j'la baise Et maintenant, j'rêve d'ma vie d'avant, la jungle qui m'appelle Ouais, ma belle, même moche, t'es ma pute, bah ouais, t'es ma rue J'crame mon pét', j'sers un fantôme dans l'binks, dans l'binks, j'fais d'l'abus Toi, tu connais R, R de nos vies et la haine nous aura servi comme des ients-cli Sous la lune, j'ai l'sourire qui pleure, pec' inclinés J'prie Allah, non, j'l'oublie jamais, Fatiha sur les lèvres J'ai l'âme dure, j'dirais pas l'âme pure, mon lion, mon gars sûr Sur ma vie, j'ai laissé ma sueur, du plomb dans mon cur Fuck mes peurs, fuck ces billets verts, j'les gagne et j'les perds Pas d'acteur, dans ma mif', on meurt, on meurt pour nos frères C'est la dar, la rue qui nous prend, qui nous crée, nous forme Puis à terme, on ouvre que des portes où on s'prend du ferme Sur la Terre, j'ai brûlé mes ailes, coco dans ton ze-n J'suis déter', j'pourrais tous les ken, pour les vies que j'aime J'suis qu'du gang, droit dans la rétine dans un monde hostile Fuck ton style, qu'ce soit face ou pile, j'parie qu'j'les abîme Que j'les tords, que j'les tords encore, j'ai changé nos sorts J'ai pas d'mandé si c'était hardcore de vivre comme un mort J'suis à fleur de haine et de peine, comme baba, on s'aime S'rappelera toujours de nos vies, d'c'qu'on tait et d'c'qu'on sait J'suis en lion, fini d'être en chien, fini les vauriens J'suis comme Zion alors no excuse, on sait d'où on vient Et ta pute, qu'elle suck, qu'elle suck, qu'elle s'tire Sous la capuche, j'ai l'mort, hardcore, j'respire en rêvant Demain s'ra meilleur, qu'on vivra ailleurs, ennuyant J'pe-ra d'puis t'à l'heure, j'sais qu'j'vais faire mon beurre Faire mon beurre, faire mon beurre, faire mon beurre, faire mon beurre Faire mon beurre, faire mon beurre, faire mon beurre, faire mon beurre You might also like J'ai vu les yeux d'ces fils de putes, devant l'scié, devant l'scié à bégayer à bégayer, à bégayer, à bégayer Coup d'crosse et encore, j'suis til-gen de pas t'jeter chez les oubliés chez les oubliés, chez les oubliés Entre toi et moi, qui s'aime le plus ? Qui souffre le plus, le plus, le plus ? Le cur niqué le plus, le plus, le plus, le plus, le plus, le plus Élevé dans l'honneur du dit-ban dans tout Corbeil, hmm, tu peux vérifier tu peux vérifier, vérifier, vérifier J'ai vu les yeux d'ces fils de putes, ces fils de pute devant l'scié, à bégayer à bégayer, à bégayer, à bégayer Coup d'crosse et encore, j'suis til-gen de pas t'jeter chez les oubliés chez les oubliés, chez les oubliés Entre toi et moi, qui s'aime le plus ? Qui souffre le plus, le plus, le plus ? Le cur niqué le plus, le plus, le plus, le plus, le plus, le plus Élevé dans l'honneur du dit-ban dans tout Corbeil, hmm, tu peux vérifier tu peux vérifier, vérifier, vérifier37</t>
+          <t>Hmm, hmm Dans la rue d'l'enfer Dans la rue d'l'enfer J'suis d'la jungle, appelle-moi Mowgli, j'ai le seum, j'ai pas le semi J'suis toujours solo comme Rémi, trop gang, c'est la rue, 3ami J'ai du sale à cracher seul, teh sous mon teint pâle J'vis comme un Saïyan dans un monde où les murs parlent J'suis d'Namek, toujours sur les nerfs, les yeux marrons, verts J'peux pas perdre, trop fier pour mes frères, sourire à l'envers J'ai du cran, j'fuck tous tes humains, mourir, c'est la life Ouais, maman, j'suis sous thérapie, j'vois le terrain vide Un moment, faut qu'j'me pose solo, croco sur l'polo Calmement, j'fais mes bails nda, j'suis toujours en bas J'suis du hall, j'suis du bâtiment, la varièt', j'la baise Et maintenant, j'rêve d'ma vie d'avant, la jungle qui m'appelle Ouais, ma belle, même moche, t'es ma pute, bah ouais, t'es ma rue J'crame mon pét', j'sers un fantôme dans l'binks, dans l'binks, j'fais d'l'abus Toi, tu connais R, R de nos vies et la haine nous aura servi comme des ients-cli Sous la lune, j'ai l'sourire qui pleure, pec' inclinés J'prie Allah, non, j'l'oublie jamais, Fatiha sur les lèvres J'ai l'âme dure, j'dirais pas l'âme pure, mon lion, mon gars sûr Sur ma vie, j'ai laissé ma sueur, du plomb dans mon cur Fuck mes peurs, fuck ces billets verts, j'les gagne et j'les perds Pas d'acteur, dans ma mif', on meurt, on meurt pour nos frères C'est la dar, la rue qui nous prend, qui nous crée, nous forme Puis à terme, on ouvre que des portes où on s'prend du ferme Sur la Terre, j'ai brûlé mes ailes, coco dans ton ze-n J'suis déter', j'pourrais tous les ken, pour les vies que j'aime J'suis qu'du gang, droit dans la rétine dans un monde hostile Fuck ton style, qu'ce soit face ou pile, j'parie qu'j'les abîme Que j'les tords, que j'les tords encore, j'ai changé nos sorts J'ai pas d'mandé si c'était hardcore de vivre comme un mort J'suis à fleur de haine et de peine, comme baba, on s'aime S'rappelera toujours de nos vies, d'c'qu'on tait et d'c'qu'on sait J'suis en lion, fini d'être en chien, fini les vauriens J'suis comme Zion alors no excuse, on sait d'où on vient Et ta pute, qu'elle suck, qu'elle suck, qu'elle s'tire Sous la capuche, j'ai l'mort, hardcore, j'respire en rêvant Demain s'ra meilleur, qu'on vivra ailleurs, ennuyant J'pe-ra d'puis t'à l'heure, j'sais qu'j'vais faire mon beurre Faire mon beurre, faire mon beurre, faire mon beurre, faire mon beurre Faire mon beurre, faire mon beurre, faire mon beurre, faire mon beurre J'ai vu les yeux d'ces fils de putes, devant l'scié, devant l'scié à bégayer à bégayer, à bégayer, à bégayer Coup d'crosse et encore, j'suis til-gen de pas t'jeter chez les oubliés chez les oubliés, chez les oubliés Entre toi et moi, qui s'aime le plus ? Qui souffre le plus, le plus, le plus ? Le cur niqué le plus, le plus, le plus, le plus, le plus, le plus Élevé dans l'honneur du dit-ban dans tout Corbeil, hmm, tu peux vérifier tu peux vérifier, vérifier, vérifier J'ai vu les yeux d'ces fils de putes, ces fils de pute devant l'scié, à bégayer à bégayer, à bégayer, à bégayer Coup d'crosse et encore, j'suis til-gen de pas t'jeter chez les oubliés chez les oubliés, chez les oubliés Entre toi et moi, qui s'aime le plus ? Qui souffre le plus, le plus, le plus ? Le cur niqué le plus, le plus, le plus, le plus, le plus, le plus Élevé dans l'honneur du dit-ban dans tout Corbeil, hmm, tu peux vérifier tu peux vérifier, vérifier, vérifier37</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>J'me suis fait tout seul, j'sais même pas si j'me suis fini En contrat avec le Sheitan, sur, faut qu'j'le résilie Tu veux d'la haine ? Tiens, la mienne, j'te la définis Si j'te fais des curs, c'est qu'j'kiffe ton boule dans le bikini J't'envoie du vrai, écouté par des faux Quand t'es dans la merde, bah, tu bibi par défaut Y a qu'dans dans nos sons qu't'entendras du bang bang bang Devant son boule, j'mets du Triple Chain Gang Tant d'choses à raconter, plus vraiment grand-chose à compter J'mets mon front au sol pour voter, que des 'tasses à la porte d'à côté Que des traîtres à l'étage en-dessous, que des jnouns à l'étage au-dessus Et wAllah, les mythos rendent sourd, s'tu dis vrai, les mythos censurent Marre d'rapper, ça m'fait chier, j'arrête bientôt si y a pas l'biff Marre d'rapper, ça m'fait chier, j'arrête bientôt si y a pas l'biff Igo, c'est tellement la street, ça nous écoute en Free Wifi Au milieu du hood, les frères qui s'noient dans le Tennessee Avoue qu'tu kiffes Jasmine mais elle comprend pas qu't'es QLF Que tu vends pour la mif, que tu gardes tout au bout des lèvres au bout des lèvres Pense pas ma gueule, Dieu est grand, fuck les ténèbres Et même assis sur l'banc, c'est le banc qui devient célèbre Igo, j'ai l'habitude, c'est ma routine, la galère Un gros billet, ma villa et j'crie nananananère Nananananère, nananananère Si on perce, j'fume le Cohiba, en Louis V sur la mer Elle a voulu qu'j'lui parle, elle a fini par pleurer, la psy' Pourtant, y a rien d'tragique, hein, c'est la vie, hein, hein, moi-même, j'assume J'fais ça pour les RPS, les rappeurs sont SNPR Nous, on leur bibi la cess, nique la grand-mère aux 3assas Mon son, c'est d'la frappe, droit au but comme Mark Landers Toi, t'écoutes tes rappeurs khenez qui t'vendent d'la caille ou du poppers Bref, j'vais pas jalouser, moi, j'fais pas d'feats, oubliez Si j'pose ma voix sur l'instru, c'est juste pour ramener un billet You might also like J'm'isole du troupeau, j'm'enfonce dans la savane Le sol au-dessus des épaules, plus bas qu'terre, usé par les grammes Pas b'soin de leurs langues de putes pour m'égarer Entassés, ça sort du F3, on finit dans un neuf mètres carrés J'suis pas comme eux, igo, j'ai pas ma place, Sur Namek, un tour, j'casse Chico, pas de respect, pour le but, cette monnaie, j'la vois pas dans la glace Le charme de ma haine m'embarrasse, mon passé, mon présent dans ta mass' Pas leur plaire ni leur ressembler Sur le front, un M, dans le dos, un V J'parle au cul de mon teh, j'fais 22 à Casper Mêmes ennemis que mon frère, ensemble, on fait la guerre Un bâtard teste mes couilles, un p'tit ange teste mon corazón Pour le bâtard, j'parle en douilles, pour le p'tit ange, mon cur parle en sommes Qu'est-c'qu'on fait dans la vie vie ? On fait c'q'il faut pour la mif Sinon, j'fais dans la bibi, banni, les anges me sifflent Les démons kiffent, les démons kiffent, les démons kiffent Une bombe dans l'bide, j'suis sous calmant avant qu'elle pète, bang Les démons kiffent, les démons kiffent, les démons kiffent Loin des hommes, j'ai pas d'attaches J'tourne en rond, Manny, j'fais les quatre cents pas Égaré, les anges jouent à cache-cache Si ça paye pas, retour sur le terrain, mauvais côté du trottoir Niquer nos vies, ça va vite, mon ami, hésiter, il est trop tard Baiser cette vie m'inspire plus trop, même dans son cul, je m'embête Rien n'change, demande à tous ces kilos, le monde chico sur le cul d'la plaquette Peu bavard comme téléphone maison Là, j'tourne en rond, j'cours après les ronds Cette tasse-pé smoke sur ma ke-skun mais elle veut pas qu'son mec le sache Et moi, j'veux pas savoir ton blaze, pour leur sourire, ça pipe-casse C'est QLF quand tu crois qu'on brasse, va bien niquer ta p'tite race Que la mif pour raisonner, que les bleus pour v'nir sonner Sous l'matelas, plus de monnaie, retour au bon-char, abonné Les murs s'effritent, le temps passe trop vite Là, y a plus de liquide, chico, je revends le bolide et je garde le brolique J'pose pas l'genou dans la montée, j'attends l'sommet pour recompter Igo, y a des vies à combler, à fonder, j'ris pas, j'aime pas l'humour du condé22</t>
+          <t>J'me suis fait tout seul, j'sais même pas si j'me suis fini En contrat avec le Sheitan, sur, faut qu'j'le résilie Tu veux d'la haine ? Tiens, la mienne, j'te la définis Si j'te fais des curs, c'est qu'j'kiffe ton boule dans le bikini J't'envoie du vrai, écouté par des faux Quand t'es dans la merde, bah, tu bibi par défaut Y a qu'dans dans nos sons qu't'entendras du bang bang bang Devant son boule, j'mets du Triple Chain Gang Tant d'choses à raconter, plus vraiment grand-chose à compter J'mets mon front au sol pour voter, que des 'tasses à la porte d'à côté Que des traîtres à l'étage en-dessous, que des jnouns à l'étage au-dessus Et wAllah, les mythos rendent sourd, s'tu dis vrai, les mythos censurent Marre d'rapper, ça m'fait chier, j'arrête bientôt si y a pas l'biff Marre d'rapper, ça m'fait chier, j'arrête bientôt si y a pas l'biff Igo, c'est tellement la street, ça nous écoute en Free Wifi Au milieu du hood, les frères qui s'noient dans le Tennessee Avoue qu'tu kiffes Jasmine mais elle comprend pas qu't'es QLF Que tu vends pour la mif, que tu gardes tout au bout des lèvres au bout des lèvres Pense pas ma gueule, Dieu est grand, fuck les ténèbres Et même assis sur l'banc, c'est le banc qui devient célèbre Igo, j'ai l'habitude, c'est ma routine, la galère Un gros billet, ma villa et j'crie nananananère Nananananère, nananananère Si on perce, j'fume le Cohiba, en Louis V sur la mer Elle a voulu qu'j'lui parle, elle a fini par pleurer, la psy' Pourtant, y a rien d'tragique, hein, c'est la vie, hein, hein, moi-même, j'assume J'fais ça pour les RPS, les rappeurs sont SNPR Nous, on leur bibi la cess, nique la grand-mère aux 3assas Mon son, c'est d'la frappe, droit au but comme Mark Landers Toi, t'écoutes tes rappeurs khenez qui t'vendent d'la caille ou du poppers Bref, j'vais pas jalouser, moi, j'fais pas d'feats, oubliez Si j'pose ma voix sur l'instru, c'est juste pour ramener un billet J'm'isole du troupeau, j'm'enfonce dans la savane Le sol au-dessus des épaules, plus bas qu'terre, usé par les grammes Pas b'soin de leurs langues de putes pour m'égarer Entassés, ça sort du F3, on finit dans un neuf mètres carrés J'suis pas comme eux, igo, j'ai pas ma place, Sur Namek, un tour, j'casse Chico, pas de respect, pour le but, cette monnaie, j'la vois pas dans la glace Le charme de ma haine m'embarrasse, mon passé, mon présent dans ta mass' Pas leur plaire ni leur ressembler Sur le front, un M, dans le dos, un V J'parle au cul de mon teh, j'fais 22 à Casper Mêmes ennemis que mon frère, ensemble, on fait la guerre Un bâtard teste mes couilles, un p'tit ange teste mon corazón Pour le bâtard, j'parle en douilles, pour le p'tit ange, mon cur parle en sommes Qu'est-c'qu'on fait dans la vie vie ? On fait c'q'il faut pour la mif Sinon, j'fais dans la bibi, banni, les anges me sifflent Les démons kiffent, les démons kiffent, les démons kiffent Une bombe dans l'bide, j'suis sous calmant avant qu'elle pète, bang Les démons kiffent, les démons kiffent, les démons kiffent Loin des hommes, j'ai pas d'attaches J'tourne en rond, Manny, j'fais les quatre cents pas Égaré, les anges jouent à cache-cache Si ça paye pas, retour sur le terrain, mauvais côté du trottoir Niquer nos vies, ça va vite, mon ami, hésiter, il est trop tard Baiser cette vie m'inspire plus trop, même dans son cul, je m'embête Rien n'change, demande à tous ces kilos, le monde chico sur le cul d'la plaquette Peu bavard comme téléphone maison Là, j'tourne en rond, j'cours après les ronds Cette tasse-pé smoke sur ma ke-skun mais elle veut pas qu'son mec le sache Et moi, j'veux pas savoir ton blaze, pour leur sourire, ça pipe-casse C'est QLF quand tu crois qu'on brasse, va bien niquer ta p'tite race Que la mif pour raisonner, que les bleus pour v'nir sonner Sous l'matelas, plus de monnaie, retour au bon-char, abonné Les murs s'effritent, le temps passe trop vite Là, y a plus de liquide, chico, je revends le bolide et je garde le brolique J'pose pas l'genou dans la montée, j'attends l'sommet pour recompter Igo, y a des vies à combler, à fonder, j'ris pas, j'aime pas l'humour du condé22</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kaiji, Kaiji, Vegeta, Tekashi Eikichi, Ryuji ou Gon c'est mon tah qui agit qui agit T'étais là mais caché, t'es fiché, t'es sous shit ou sous rhum ? Dans les pommes, bang, bang Dans la foulée, ah gros, faut pas douter De soi, quand la vie te braque, faut pas r'culer À l'aventure j'suis parti, peu d'amis j'ai rencontré Pourtant j'en voulais plein mais sans thunes, j'restais en chien J'mets l'jeu à l'horizontale, appelle-moi AD en saccadé tchi Fini l'détail sur le rain-té tchi Ounga gros bail, j'vois qu'la lune baille juste pour palper l'fric J'dors pas, j'veux maille comme Kaïo, solo, j'vois ces bitchs Solo, j'vois ces bitchs Solo, j'vois ces bitchs Solo, j'vois ces bitchs Ounga gros bail ounga gros bail, ounga gros bail Ounga gros bail, ounga gros bail Ounga gros bail, aïe aïe aïe, ayayaye solo, j'vois ces bitchs Ounga gros bail, ounga gros bail Ounga gros bail, aïe aïe aïe, ayayaye Allez gros, j'vais les faire danser, j'vais pas leur faire de pas J'vais pas leur faire de tas ounga gros bail Pour moi, j'ai rien dépensé, et j'continue à vendre, j'me déplace pour du rap ounga gros bail, aïe aïe aïe, ayayaye You might also like Ce soir, j'suis dans la ville à Miami Ce soir, j'suis little spoon comme ma che-bi Et puis le temps d'ma vie On baise le game, on l'tej' comme une tche-bi Du zoo à Itachi Fonce-dé dans les rues de Six Suce-moi en attendant mon prochain titre Cette chienne me regarde comme un monkey Lala la ahhhhh Ce soir, j'suis dans la aahhhh T'es pas assez sauvage, t'as pas compris Ce soir, j'tourne dans la ville, ça tire la nuit Il m'faut 9 milli' dans tous les pays Peu importe le langage de mes enn'mis La voix même quand ça raille ounga gros bail, ounga gros bail Un flash, un oinj' prêt à niquer ma life ounga gros bail Ounga gros bail, ounga gros bail Ounga gros bail, aïe aïe aïe, ayayaye solo, j'vois ces bitchs Ounga gros bail, ounga gros bail Ounga gros bail, aïe aïe aïe, ayayaye Allez gros, j'vais les faire danser, j'vais pas leur faire de pas J'vais pas leur faire de tas ounga gros bail Pour moi j'ai rien dépensé, et j'continue à vendre, j'me déplace pour du rap ounga gros bail, aïe aïe, ayaye14</t>
+          <t>Kaiji, Kaiji, Vegeta, Tekashi Eikichi, Ryuji ou Gon c'est mon tah qui agit qui agit T'étais là mais caché, t'es fiché, t'es sous shit ou sous rhum ? Dans les pommes, bang, bang Dans la foulée, ah gros, faut pas douter De soi, quand la vie te braque, faut pas r'culer À l'aventure j'suis parti, peu d'amis j'ai rencontré Pourtant j'en voulais plein mais sans thunes, j'restais en chien J'mets l'jeu à l'horizontale, appelle-moi AD en saccadé tchi Fini l'détail sur le rain-té tchi Ounga gros bail, j'vois qu'la lune baille juste pour palper l'fric J'dors pas, j'veux maille comme Kaïo, solo, j'vois ces bitchs Solo, j'vois ces bitchs Solo, j'vois ces bitchs Solo, j'vois ces bitchs Ounga gros bail ounga gros bail, ounga gros bail Ounga gros bail, ounga gros bail Ounga gros bail, aïe aïe aïe, ayayaye solo, j'vois ces bitchs Ounga gros bail, ounga gros bail Ounga gros bail, aïe aïe aïe, ayayaye Allez gros, j'vais les faire danser, j'vais pas leur faire de pas J'vais pas leur faire de tas ounga gros bail Pour moi, j'ai rien dépensé, et j'continue à vendre, j'me déplace pour du rap ounga gros bail, aïe aïe aïe, ayayaye Ce soir, j'suis dans la ville à Miami Ce soir, j'suis little spoon comme ma che-bi Et puis le temps d'ma vie On baise le game, on l'tej' comme une tche-bi Du zoo à Itachi Fonce-dé dans les rues de Six Suce-moi en attendant mon prochain titre Cette chienne me regarde comme un monkey Lala la ahhhhh Ce soir, j'suis dans la aahhhh T'es pas assez sauvage, t'as pas compris Ce soir, j'tourne dans la ville, ça tire la nuit Il m'faut 9 milli' dans tous les pays Peu importe le langage de mes enn'mis La voix même quand ça raille ounga gros bail, ounga gros bail Un flash, un oinj' prêt à niquer ma life ounga gros bail Ounga gros bail, ounga gros bail Ounga gros bail, aïe aïe aïe, ayayaye solo, j'vois ces bitchs Ounga gros bail, ounga gros bail Ounga gros bail, aïe aïe aïe, ayayaye Allez gros, j'vais les faire danser, j'vais pas leur faire de pas J'vais pas leur faire de tas ounga gros bail Pour moi j'ai rien dépensé, et j'continue à vendre, j'me déplace pour du rap ounga gros bail, aïe aïe, ayaye14</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ouais, ah on va voir Ouais, ouais Et ça r'commence On arrête Steezy on the beat Et ça r'commence J'ai appris à chuter, j'ai appris à perdre J'ai appris à tirer, pour avoir la paix J'écoule toute ma salade, jemmène la misère en balade Pour leur sourire gros j'canarde Il m'reste du sang sur les dents j'suis pas content Donc j'recharge le scié et ces cons dansent Y'a que ses bras qui pourront m'apaiser QLF quand ils vont mal j'suis blessé J'échange un regard avec le vide J'kiffe, elle fait jamais la timide Nique le match, on reste en bas, des thunes à s'faire Que les mouches qui se rappellent, quand ça pue la merde J'sais faire que ça écouler kilos de verte Pas besoin des bras d'une femme, j'connais pas ceux de ma mère Pas besoin qu'on m'aime en fait, j'ai juste besoin qu'tu quittes ma tête Teint pâle comme un souffrant, t'inquiète pas j'me sens bien Vous êtes nombreux, mon pompe demande vous êtes combien ? You might also like J'recompte dans ma jungle et j'm'apaise, Simba Le tour d'la montée de tes fesses, j'recompte j'recompte Que la famille j'vends pour la miff, Simba Sous mon arbre tant qu'y'a du biff, j'recompte j'recompte Dans la savane comme Simba Les traîtres veulent la couronne à Simba Elle coûte cher la balade à Simba QLF le bras de la haine porte Simba ouh Ouais, ouais, ounga, sur le front, la haine, le M Ouais, ouais, ouais, ouais, que pour l'V que j'fais le L Mowgli, Simba, on sait qui paie l'hôtel Ounga wawa, pas l'temps pour t'rappeler le thème Un G en uf de Pâques et la poisse me tâte comme un kiné Gala, gala, gala, gala Finir dans la hess mais pas finir par tapiner, hmm PNL tu kiffes, on kiffe le ient-cli qui appelle brr, brr, brr, brr J'm'endors bigo qui sonne j'allais visser à n'importe quelle heure ouh-ouh-ouh En leu-leu, en leu-leu, en leu-leu pépère pépère, pépère, pépère Fais 22, fais 22, fais 22 sur le teh ouh-ouh-ouh Sa mère, viens pas lèche on tempêche ma main sur ta fesse La merde, c'est la hess, c'est la dèche, on empeste, on encaisse Écartez les pucelles, Vegeta encule Cell Pas d'hagra sur plus faible, madame, madame, madame Vraiment rusé la rage dans la fusée On reçoit l'accusé d'la CA d'la CA d'la CAF J'suis comme Zeus ma puce j'viens montrer ma puissance Et la pétasse tu sens que ça passe, ça passe, ça passe Petit pont entre les jambes, charbon dans tous les sens La haine depuis la naissance, hella hella hella J'recompte dans ma jungle et j'm'apaise, Simba Le tour d'la montée de tes fesses, j'recompte j'recompte Que la famille j'vends pour la miff, Simba Sous mon arbre tant qu'y'a du biff, j'recompte j'recompte Dans la savane comme Simba Les traîtres veulent la couronne à Simba Elle coûte cher la balade à Simba QLF le bras de la haine porte Simba8</t>
+          <t>Ouais, ah on va voir Ouais, ouais Et ça r'commence On arrête Steezy on the beat Et ça r'commence J'ai appris à chuter, j'ai appris à perdre J'ai appris à tirer, pour avoir la paix J'écoule toute ma salade, jemmène la misère en balade Pour leur sourire gros j'canarde Il m'reste du sang sur les dents j'suis pas content Donc j'recharge le scié et ces cons dansent Y'a que ses bras qui pourront m'apaiser QLF quand ils vont mal j'suis blessé J'échange un regard avec le vide J'kiffe, elle fait jamais la timide Nique le match, on reste en bas, des thunes à s'faire Que les mouches qui se rappellent, quand ça pue la merde J'sais faire que ça écouler kilos de verte Pas besoin des bras d'une femme, j'connais pas ceux de ma mère Pas besoin qu'on m'aime en fait, j'ai juste besoin qu'tu quittes ma tête Teint pâle comme un souffrant, t'inquiète pas j'me sens bien Vous êtes nombreux, mon pompe demande vous êtes combien ? J'recompte dans ma jungle et j'm'apaise, Simba Le tour d'la montée de tes fesses, j'recompte j'recompte Que la famille j'vends pour la miff, Simba Sous mon arbre tant qu'y'a du biff, j'recompte j'recompte Dans la savane comme Simba Les traîtres veulent la couronne à Simba Elle coûte cher la balade à Simba QLF le bras de la haine porte Simba ouh Ouais, ouais, ounga, sur le front, la haine, le M Ouais, ouais, ouais, ouais, que pour l'V que j'fais le L Mowgli, Simba, on sait qui paie l'hôtel Ounga wawa, pas l'temps pour t'rappeler le thème Un G en uf de Pâques et la poisse me tâte comme un kiné Gala, gala, gala, gala Finir dans la hess mais pas finir par tapiner, hmm PNL tu kiffes, on kiffe le ient-cli qui appelle brr, brr, brr, brr J'm'endors bigo qui sonne j'allais visser à n'importe quelle heure ouh-ouh-ouh En leu-leu, en leu-leu, en leu-leu pépère pépère, pépère, pépère Fais 22, fais 22, fais 22 sur le teh ouh-ouh-ouh Sa mère, viens pas lèche on tempêche ma main sur ta fesse La merde, c'est la hess, c'est la dèche, on empeste, on encaisse Écartez les pucelles, Vegeta encule Cell Pas d'hagra sur plus faible, madame, madame, madame Vraiment rusé la rage dans la fusée On reçoit l'accusé d'la CA d'la CA d'la CAF J'suis comme Zeus ma puce j'viens montrer ma puissance Et la pétasse tu sens que ça passe, ça passe, ça passe Petit pont entre les jambes, charbon dans tous les sens La haine depuis la naissance, hella hella hella J'recompte dans ma jungle et j'm'apaise, Simba Le tour d'la montée de tes fesses, j'recompte j'recompte Que la famille j'vends pour la miff, Simba Sous mon arbre tant qu'y'a du biff, j'recompte j'recompte Dans la savane comme Simba Les traîtres veulent la couronne à Simba Elle coûte cher la balade à Simba QLF le bras de la haine porte Simba8</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mon Dieu, c'est la merde, mais déter', j'fais la guerre J'bicrave sept sur sept, H24, en bas du hall, j'ai tant bibi Au fond, j'ai la haine mais quand j'm'endors, faut qu'j'me lève J'visser, j'ai pas d'heure, quand le tél' de mon ient-cli m'fait brr, brr ouais, ouais, ouais, ouais Posté dans l'hall, les gens partent au taf Peu stupéfaits de voir qu'en revenant, j'suis toujours là j'suis toujours là L'hiver, j'ai froid, l'été, ça bronze J'pisse, j'oublie qu'j'ai zitounes de frappe sous les boulards Le prof m'a dit tu veux faire quoi plus tard ? Quoi ? Comme Zizou sur l'terrain À minuit, j'suis seul, j'me dis qu'j'attends, qu'j'fais pas assez Au fait, Sheitan, merci, de rien Ils sont tous rentrés, les fenêtres qui s'éteignent Me laissent dans l'noir, bah j'tiens dans la haine De loin, j'vois une ombre, la lumière d'mon ient' Me dit qu'patienter en valait la peine La nuit porte conseil, ah non! pas du tout! la nuit NIQUE SA MÈRE!! Et pourquoi m'en faire ? Tellement plus bas qu'terre, qu'j'vois les pieds d'Lucifer J'me couche, l'il s'ouvre à six J'recompte, j'ai comme un tic Poto, j'ai pas d'heures fixes Pas d'sourire sur la pics You might also like J'recherche bonheur pour ma chair Et j'recompte vers l'Enfer Igo, j'me perds et j'erre Porte de Mesrine J'sors Porte de Mesrine J'recherche bonheur pour ma chair Porte de Mesrine Et j'recompte vers l'Enfer Porte de Mesrine Igo, j'me perds et j'erre Porte de Mesrine J'sors Porte de Mesrine J'tire deux-trois barres, c'est ma haine qui ressort par le zen J'cours après dollars et mes sentiments, je sème J'me rappelle que j'ai tout ce cash à faire, j'oublie tout c'que j'aime J'en veux pas d'ton amitié, PNL, on veut juste le M Ouais, ouais j'ai changé, j'suis ressorti transformé de la tranchée Matelas sur le sol, j'ferai de beaux rêves avec bénef sur le plancher Le sommeil d'une plume, le bruit des portières qui claquent sur le parking Six heures moins une, dans l'escalier, j'entends les pas des Starsky Et j'laisse une berry, j'fais l'tour du périph', j'sors Porte de Mesrine Bientôt, on s'guérit, ou bien on périt, le monde le mérite Igo, on s'refait pas, j'vis la vie qu'j'aurai pas, j'nique la fille qu'j'aurai pas Deux-trois millions d'rrettes-ba, deux-trois curs je répare, QLF, t'inquiète pas J'me couche, l'il s'ouvre à six J'recompte, j'ai comme un tic Poto, j'ai pas d'heures fixes Pas d'sourire sur la pics J'recherche bonheur pour ma chair Et j'recompte vers l'Enfer Igo, j'me perds et j'erre Porte de Mesrine J'sors Porte de Mesrine J'recherche bonheur pour ma chair Porte de Mesrine Et j'recompte vers l'Enfer Porte de Mesrine Igo, j'me perds et j'erre Porte de Mesrine J'sors Porte de Mesrine17</t>
+          <t>Mon Dieu, c'est la merde, mais déter', j'fais la guerre J'bicrave sept sur sept, H24, en bas du hall, j'ai tant bibi Au fond, j'ai la haine mais quand j'm'endors, faut qu'j'me lève J'visser, j'ai pas d'heure, quand le tél' de mon ient-cli m'fait brr, brr ouais, ouais, ouais, ouais Posté dans l'hall, les gens partent au taf Peu stupéfaits de voir qu'en revenant, j'suis toujours là j'suis toujours là L'hiver, j'ai froid, l'été, ça bronze J'pisse, j'oublie qu'j'ai zitounes de frappe sous les boulards Le prof m'a dit tu veux faire quoi plus tard ? Quoi ? Comme Zizou sur l'terrain À minuit, j'suis seul, j'me dis qu'j'attends, qu'j'fais pas assez Au fait, Sheitan, merci, de rien Ils sont tous rentrés, les fenêtres qui s'éteignent Me laissent dans l'noir, bah j'tiens dans la haine De loin, j'vois une ombre, la lumière d'mon ient' Me dit qu'patienter en valait la peine La nuit porte conseil, ah non! pas du tout! la nuit NIQUE SA MÈRE!! Et pourquoi m'en faire ? Tellement plus bas qu'terre, qu'j'vois les pieds d'Lucifer J'me couche, l'il s'ouvre à six J'recompte, j'ai comme un tic Poto, j'ai pas d'heures fixes Pas d'sourire sur la pics J'recherche bonheur pour ma chair Et j'recompte vers l'Enfer Igo, j'me perds et j'erre Porte de Mesrine J'sors Porte de Mesrine J'recherche bonheur pour ma chair Porte de Mesrine Et j'recompte vers l'Enfer Porte de Mesrine Igo, j'me perds et j'erre Porte de Mesrine J'sors Porte de Mesrine J'tire deux-trois barres, c'est ma haine qui ressort par le zen J'cours après dollars et mes sentiments, je sème J'me rappelle que j'ai tout ce cash à faire, j'oublie tout c'que j'aime J'en veux pas d'ton amitié, PNL, on veut juste le M Ouais, ouais j'ai changé, j'suis ressorti transformé de la tranchée Matelas sur le sol, j'ferai de beaux rêves avec bénef sur le plancher Le sommeil d'une plume, le bruit des portières qui claquent sur le parking Six heures moins une, dans l'escalier, j'entends les pas des Starsky Et j'laisse une berry, j'fais l'tour du périph', j'sors Porte de Mesrine Bientôt, on s'guérit, ou bien on périt, le monde le mérite Igo, on s'refait pas, j'vis la vie qu'j'aurai pas, j'nique la fille qu'j'aurai pas Deux-trois millions d'rrettes-ba, deux-trois curs je répare, QLF, t'inquiète pas J'me couche, l'il s'ouvre à six J'recompte, j'ai comme un tic Poto, j'ai pas d'heures fixes Pas d'sourire sur la pics J'recherche bonheur pour ma chair Et j'recompte vers l'Enfer Igo, j'me perds et j'erre Porte de Mesrine J'sors Porte de Mesrine J'recherche bonheur pour ma chair Porte de Mesrine Et j'recompte vers l'Enfer Porte de Mesrine Igo, j'me perds et j'erre Porte de Mesrine J'sors Porte de Mesrine17</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>J'sors faire du cash, j'me tape d'la couleur du ciel Ma haine prend de l'âge, 3ami ce que le temps la rend belle Je voulais pas qu'on m'aime, je voulais juste le M comme Kratos Je m'écarte du rrain-té, igo j'oublie le visage de mes clickos Mon frère en allume un, j'en allume un Je suis Peace'n'lovés, la guerre, le million, la paix, le calumet On est pas comme eux, le monde en indé' Je veux qu'ils vivent leurs rêves, pour ça je serai blindé Plus très loin du sommet, j'veux garder les pieds sur terre, je garde une photo d'en bas J'me rapprocherai de l'enfer pour éloigner les démons de la nouvelle villa On te laissera le trône et puis leurs filles, on garde la monnaie, la vie. Le Seigneur Coola ! Les cafards m'ont dit toujours là Pourquoi ? Parce que la moula, la moula Yemma, yemma, yemma J'ai tant de haine, j'charbonne, j'fais pas de pause Yemma, yemma, yemma J'deviens, mauvais, comme Kratos Rum-Rumpumpumpum, j'avance où le vent me perd J'avance j'regarde derrière la fume Rum-Rumpumpumpum, 50 nuances de haine, 50 nuances d'ta mère la pute Ounga, ounga, ounga, j'fais ma vie J'révise, 20 sur 20 si le keuf contrôle man Ounga, ounga, wawa, j'souris car j'connais déjà le sort de cette juge qui m'condamne Naha, dis-leur qu'on les baise premier dans la course un gros bisous à ceux qui m'détestent tchek AD khey, gros J'sors plus la teille à cause d'cette pute j'suis devenu paro Tchek à chaque attaque-attaque, de la vie j'me relève j'attends l'jour où j'raque-raque Fake, pourquoi tu mytho ? Un homme de valeur tient sa parole petit hermanito, tchek T'sais qu'on manie tôt, l'art du vice, l'art de vendre bien sûr qu'on est pas Rico C'est toujours Mexico dans la tête, t'es belle-belle-belle Sourire du hood, pas là pour faire d'la peine peine peine Chacal bats les couilles d'ta miss, allez file ta mère, envoie l'billet que le mur je tapisse J'reviens des abysses, les bleus sont toujours au fond Maintenant j'ai la barre à 6 heures You might also like Yemma, yemma, yemma J'ai tant de haine, j'charbonne, j'fais pas de pause Yemma, yemma, yemma J'deviens, mauvais, comme Kratos Et j'ai la tête à l'envers, j'vois tous les jnouns à l'endroit Sur terre en Enfer, j'rentre dans le four avant toi Yemma, yemma, yemma J'deviens, mauvais, comme Kratos14</t>
+          <t>J'sors faire du cash, j'me tape d'la couleur du ciel Ma haine prend de l'âge, 3ami ce que le temps la rend belle Je voulais pas qu'on m'aime, je voulais juste le M comme Kratos Je m'écarte du rrain-té, igo j'oublie le visage de mes clickos Mon frère en allume un, j'en allume un Je suis Peace'n'lovés, la guerre, le million, la paix, le calumet On est pas comme eux, le monde en indé' Je veux qu'ils vivent leurs rêves, pour ça je serai blindé Plus très loin du sommet, j'veux garder les pieds sur terre, je garde une photo d'en bas J'me rapprocherai de l'enfer pour éloigner les démons de la nouvelle villa On te laissera le trône et puis leurs filles, on garde la monnaie, la vie. Le Seigneur Coola ! Les cafards m'ont dit toujours là Pourquoi ? Parce que la moula, la moula Yemma, yemma, yemma J'ai tant de haine, j'charbonne, j'fais pas de pause Yemma, yemma, yemma J'deviens, mauvais, comme Kratos Rum-Rumpumpumpum, j'avance où le vent me perd J'avance j'regarde derrière la fume Rum-Rumpumpumpum, 50 nuances de haine, 50 nuances d'ta mère la pute Ounga, ounga, ounga, j'fais ma vie J'révise, 20 sur 20 si le keuf contrôle man Ounga, ounga, wawa, j'souris car j'connais déjà le sort de cette juge qui m'condamne Naha, dis-leur qu'on les baise premier dans la course un gros bisous à ceux qui m'détestent tchek AD khey, gros J'sors plus la teille à cause d'cette pute j'suis devenu paro Tchek à chaque attaque-attaque, de la vie j'me relève j'attends l'jour où j'raque-raque Fake, pourquoi tu mytho ? Un homme de valeur tient sa parole petit hermanito, tchek T'sais qu'on manie tôt, l'art du vice, l'art de vendre bien sûr qu'on est pas Rico C'est toujours Mexico dans la tête, t'es belle-belle-belle Sourire du hood, pas là pour faire d'la peine peine peine Chacal bats les couilles d'ta miss, allez file ta mère, envoie l'billet que le mur je tapisse J'reviens des abysses, les bleus sont toujours au fond Maintenant j'ai la barre à 6 heures Yemma, yemma, yemma J'ai tant de haine, j'charbonne, j'fais pas de pause Yemma, yemma, yemma J'deviens, mauvais, comme Kratos Et j'ai la tête à l'envers, j'vois tous les jnouns à l'endroit Sur terre en Enfer, j'rentre dans le four avant toi Yemma, yemma, yemma J'deviens, mauvais, comme Kratos14</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Message d'une grosse tass, au moment où j'pense à mes soucis J'fais les cent pas dans la casa, un peu rhabat, j'écris cousine J'bouge les bras, un peu fou, tu sais J'sais que l'avenir est dark comme ton boule, pucelle Taga taga, zitoun, paki, afghan, coco, be-her, co-mer On a vendu dans la ville sous Jack un pété véner au Maire Salam salam, j'vous invite, banane banane pour ta bitch Sur le macadam, on navigue, teste, on vient là où t'habites Libérez So igo, libérez Viper Libérez Lino et Zepek, mes sourous sont trop, j'peux pas les citer mes sourous, mes sourous Sans vous c'est niqué igo, mais on va tout niquer Sans vous c'est niqué, mais on va tout niquer IGD Gang Demain j'vais voler igo, après-demain j'vais voler Pénika a dealé qué pasa, braquer pour ramener à dîner Que des sourous dans la ville, demande pardon à Dieu, sourire sincère sur les joues de mon fils Tu m'aimes pas, tu m'critiques, tu t'affiches, mes manières mes sourous au défi sourous F pour le flow, 4 pour les sorties d'pot 3 comme Ralph' Lau', 0 poucave dans mon ghetto Parti de la cave en passant dans l'bendo Quand j'vois l'argent, ça me fait bander Entouré des miens, que des trafiquentés Darori de fumer que du bon bedo Jet numéro uno et Sanders en deux et demi On veut pas l'cheval de Troie, on veut celui d'la Ferrari On fait pas crari sur le parvis, on a bicrave même sur Paris PNL, IGD, que la famille, sur ma vie, signé Lazeurmi You might also like Grosse taffe de kush guapo, guapo, guapo Ça donne du punch J'repars en mimi J'en ai marre, faut qu'je prie Trop bon est l'teu-sh guapo, guapo, guapo Donc j'roule et j'pense À comment dépenser le fric Si un jour j'avais le llion-mi T'as reconnu Moha de la 2MZ, frérot, viens je t'emmène Igo, Louboutin, Philipp Plein, sur l'navire on est plein Si j'étais Tony j'claque Gina Gina, igo, j'te laisse Valentina-tina Quand on est là, tu parles china-china J'veux l'monde chico, ouais ouais, j'veux les billets Du haut d'mes 17 piges, frère, j'vais tous les plier Trop souvent que j'ai mal à la tête, pour ta dose faut qu'tu passes à la tess Fais belek ici c'est pas la fête, et en c'moment c'est trop souvent la hess T'es une grosse mierda joue pas le gangster, j't'ai mis à l'amende j'ai vu ton gang s'taire Les p'tits jouent les grands, ils appellent leurs grands frères, si la hess te tient, enfile les gants, frère Paie-nous cash, paie-nous pas au lance-pierre, Corbeil ça rap gros t'as pas à t'en faire J'fous le feu en studio comme en concert, si tu m'souhaites ma chute moi j'te souhaite un cancer J'suis pas fumeur j'suis pas buraliste, pourtant j'sais faire que des tabacs Ptite merde tu finiras quand même sous mes semelles, même si tu laisses pousser ta barbe T'as niqué ton plan A pour d'l'oseille, tu veux pas t'faire plomber Tes nuits sont hantées par le dernier classe A, donc laisse tomber ou sinon passe au plan B Trop tendance à dormir dans la vie faut s'lever tôt faut pas roupiller T'as pas b'soin d'me dire quoi que ce soit les bonnes manières j'les ai pas oubliées C'est le monde chico, ainsi va la vie fais tes bails igo Mais pense à la mif' c'est le squad mon gros la débrouille à vie, posé, igo, y'a my squad Postiché dans le binks, vitres teintées, fumée blanche,des gros sons qui font mal, c'est normal que je pense Pense à faire tes billets, respecte-toi, faut pas oublier Même si tu tombes il faut avancer, le zoo dans mon cur j'peux pas l'oublier jamais Z Double O, c'est my squad Que la famille dans le bat', QLF n'da J'suis vers Alicanta, lîle de la tenta, retour dans le benda J'sais faire que le taga, remonté d'Malaga Sheitana que guapa Déteste-moi, fais moi un truc déteste-moi, déteste-moi J'sors pour le flouz, j'rentre après un trip bien marqué j'suis paro Ilinas, j'vends, IGD Gang F4.30, que la mif gang14</t>
+          <t>Message d'une grosse tass, au moment où j'pense à mes soucis J'fais les cent pas dans la casa, un peu rhabat, j'écris cousine J'bouge les bras, un peu fou, tu sais J'sais que l'avenir est dark comme ton boule, pucelle Taga taga, zitoun, paki, afghan, coco, be-her, co-mer On a vendu dans la ville sous Jack un pété véner au Maire Salam salam, j'vous invite, banane banane pour ta bitch Sur le macadam, on navigue, teste, on vient là où t'habites Libérez So igo, libérez Viper Libérez Lino et Zepek, mes sourous sont trop, j'peux pas les citer mes sourous, mes sourous Sans vous c'est niqué igo, mais on va tout niquer Sans vous c'est niqué, mais on va tout niquer IGD Gang Demain j'vais voler igo, après-demain j'vais voler Pénika a dealé qué pasa, braquer pour ramener à dîner Que des sourous dans la ville, demande pardon à Dieu, sourire sincère sur les joues de mon fils Tu m'aimes pas, tu m'critiques, tu t'affiches, mes manières mes sourous au défi sourous F pour le flow, 4 pour les sorties d'pot 3 comme Ralph' Lau', 0 poucave dans mon ghetto Parti de la cave en passant dans l'bendo Quand j'vois l'argent, ça me fait bander Entouré des miens, que des trafiquentés Darori de fumer que du bon bedo Jet numéro uno et Sanders en deux et demi On veut pas l'cheval de Troie, on veut celui d'la Ferrari On fait pas crari sur le parvis, on a bicrave même sur Paris PNL, IGD, que la famille, sur ma vie, signé Lazeurmi Grosse taffe de kush guapo, guapo, guapo Ça donne du punch J'repars en mimi J'en ai marre, faut qu'je prie Trop bon est l'teu-sh guapo, guapo, guapo Donc j'roule et j'pense À comment dépenser le fric Si un jour j'avais le llion-mi T'as reconnu Moha de la 2MZ, frérot, viens je t'emmène Igo, Louboutin, Philipp Plein, sur l'navire on est plein Si j'étais Tony j'claque Gina Gina, igo, j'te laisse Valentina-tina Quand on est là, tu parles china-china J'veux l'monde chico, ouais ouais, j'veux les billets Du haut d'mes 17 piges, frère, j'vais tous les plier Trop souvent que j'ai mal à la tête, pour ta dose faut qu'tu passes à la tess Fais belek ici c'est pas la fête, et en c'moment c'est trop souvent la hess T'es une grosse mierda joue pas le gangster, j't'ai mis à l'amende j'ai vu ton gang s'taire Les p'tits jouent les grands, ils appellent leurs grands frères, si la hess te tient, enfile les gants, frère Paie-nous cash, paie-nous pas au lance-pierre, Corbeil ça rap gros t'as pas à t'en faire J'fous le feu en studio comme en concert, si tu m'souhaites ma chute moi j'te souhaite un cancer J'suis pas fumeur j'suis pas buraliste, pourtant j'sais faire que des tabacs Ptite merde tu finiras quand même sous mes semelles, même si tu laisses pousser ta barbe T'as niqué ton plan A pour d'l'oseille, tu veux pas t'faire plomber Tes nuits sont hantées par le dernier classe A, donc laisse tomber ou sinon passe au plan B Trop tendance à dormir dans la vie faut s'lever tôt faut pas roupiller T'as pas b'soin d'me dire quoi que ce soit les bonnes manières j'les ai pas oubliées C'est le monde chico, ainsi va la vie fais tes bails igo Mais pense à la mif' c'est le squad mon gros la débrouille à vie, posé, igo, y'a my squad Postiché dans le binks, vitres teintées, fumée blanche,des gros sons qui font mal, c'est normal que je pense Pense à faire tes billets, respecte-toi, faut pas oublier Même si tu tombes il faut avancer, le zoo dans mon cur j'peux pas l'oublier jamais Z Double O, c'est my squad Que la famille dans le bat', QLF n'da J'suis vers Alicanta, lîle de la tenta, retour dans le benda J'sais faire que le taga, remonté d'Malaga Sheitana que guapa Déteste-moi, fais moi un truc déteste-moi, déteste-moi J'sors pour le flouz, j'rentre après un trip bien marqué j'suis paro Ilinas, j'vends, IGD Gang F4.30, que la mif gang14</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>J'commence avec des pompes sur les poings, soleil plein, enculé T-shirt Dior, j'crois qu'manque plus qu'la vue sur la mer, enculé J'hésite entre un verre de Jack ou bien un Coca fraise Igo, c'est misère DZ, demande pas pourquoi on t'agresse, grrr Moitié forza moitié tahia Explosif depuis la naissance, 9.1 100 ouais, paria, paria Déterminé, tiens la tour comme Dende, une-deux Banalisé puis t'entends les 22, arriba N'da, mode survie dans l'bendo Maybe, banco, ça bibi mais c'est pas Cali, man À travers mes LV, j'me sens si bien J'me souviens quand j'étais rien, quand j'survolais les terriens, de Titan Billets d'500, j'attends, toi, tu peux m'détester J'ai maigri pour mieux m'engraisser, toi, Tarik, tu pourrais tester ? Depuis quand ? Du Vegeta, Mowgli, depuis tout p'tit trop énervé Du biff ou bien zebi, toune-zi j'donne à Hervé Ça bédave comme Esco, devant Julie Lescaut Dans la tess' y a l'escroc, dans la tess y a Rico Dans le four, y a AD, open la boîte aux lettres Pas loin du comico, BAC-man veulent me connaître J'suis dans mon monde j'ai ma bouée, j'ai ma p'tite niaks', mon playback sur Acadian J'suis ravi qu'ma haine vous plaise Ravi qu'on vous baise You might also like Hasta la vista, hasta la vista Hasta la vista, on verra La pauvreté nous manque pas, ces moments peut-être Encore un ou deux bums-al et, allez un peu d'air Hasta la vista, hasta la vista Hasta la vista, on verra J'suis resté en bas plus tard pour faire plus de moula La chaise est restée au fond du hall, moi, j'suis plus là J'regarde le ciel, le soleil caresse mon âme Grandi dans l'bend', là où la hess embrasse ton crâne Enivré Enivré Envie d'être Envie d'être Envie même Envie même D'me libérer Wesh Calinta, appelle sur ma lyca J'tourne sur ris-Pa, être heureux j'arrive pas, ouais Vie d'moi, ouais Donc j'recompte le butin, sur la vue d'ton fond d'teint, PNL pompe pas Tout ça, c'est pas ma vie, pas ma vie, pas ma vie, pas ma vie, pas ma vie Je n'veux plus d'ton cul, je n'veux plus d'ton cur, t'es dev'nue lassante T'as plus rien d'spécial, devenue banale comme billet d'500 J'suis dans mon monde j'ai ma bouée, j'ai ma p'tite niaks', mon playback sur Acadian J'suis ravi qu'ma haine vous plaise, ravi qu'on vous baise Hasta la vista, hasta la vista Hasta la vista, on verra La pauvreté nous manque pas ses moments peut-être Encore un ou deux bums-al et, allez un peu d'air Hasta la vista, hasta la vista Hasta la vista, on verra Hasta la vista Hasta la vista On verra15</t>
+          <t>J'commence avec des pompes sur les poings, soleil plein, enculé T-shirt Dior, j'crois qu'manque plus qu'la vue sur la mer, enculé J'hésite entre un verre de Jack ou bien un Coca fraise Igo, c'est misère DZ, demande pas pourquoi on t'agresse, grrr Moitié forza moitié tahia Explosif depuis la naissance, 9.1 100 ouais, paria, paria Déterminé, tiens la tour comme Dende, une-deux Banalisé puis t'entends les 22, arriba N'da, mode survie dans l'bendo Maybe, banco, ça bibi mais c'est pas Cali, man À travers mes LV, j'me sens si bien J'me souviens quand j'étais rien, quand j'survolais les terriens, de Titan Billets d'500, j'attends, toi, tu peux m'détester J'ai maigri pour mieux m'engraisser, toi, Tarik, tu pourrais tester ? Depuis quand ? Du Vegeta, Mowgli, depuis tout p'tit trop énervé Du biff ou bien zebi, toune-zi j'donne à Hervé Ça bédave comme Esco, devant Julie Lescaut Dans la tess' y a l'escroc, dans la tess y a Rico Dans le four, y a AD, open la boîte aux lettres Pas loin du comico, BAC-man veulent me connaître J'suis dans mon monde j'ai ma bouée, j'ai ma p'tite niaks', mon playback sur Acadian J'suis ravi qu'ma haine vous plaise Ravi qu'on vous baise Hasta la vista, hasta la vista Hasta la vista, on verra La pauvreté nous manque pas, ces moments peut-être Encore un ou deux bums-al et, allez un peu d'air Hasta la vista, hasta la vista Hasta la vista, on verra J'suis resté en bas plus tard pour faire plus de moula La chaise est restée au fond du hall, moi, j'suis plus là J'regarde le ciel, le soleil caresse mon âme Grandi dans l'bend', là où la hess embrasse ton crâne Enivré Enivré Envie d'être Envie d'être Envie même Envie même D'me libérer Wesh Calinta, appelle sur ma lyca J'tourne sur ris-Pa, être heureux j'arrive pas, ouais Vie d'moi, ouais Donc j'recompte le butin, sur la vue d'ton fond d'teint, PNL pompe pas Tout ça, c'est pas ma vie, pas ma vie, pas ma vie, pas ma vie, pas ma vie Je n'veux plus d'ton cul, je n'veux plus d'ton cur, t'es dev'nue lassante T'as plus rien d'spécial, devenue banale comme billet d'500 J'suis dans mon monde j'ai ma bouée, j'ai ma p'tite niaks', mon playback sur Acadian J'suis ravi qu'ma haine vous plaise, ravi qu'on vous baise Hasta la vista, hasta la vista Hasta la vista, on verra La pauvreté nous manque pas ses moments peut-être Encore un ou deux bums-al et, allez un peu d'air Hasta la vista, hasta la vista Hasta la vista, on verra Hasta la vista Hasta la vista On verra15</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Artem did you make this? J'm'en bats les couilles, en fait, c'est ça, la vérité J'reprends ma fouille, dehors, la hess vient m'irriter Viens visiter, chez nous, pas d'gros meubles, pas d'grosses tls On prend les cafards dans l'mouchoir, et moi, j'ai trop l'seum depuis qu'j'suis né Y a qu'le Diable qui m'laisse des pourboires Tiens, la putain d'ta mère, tu veux savoir, oui, j'te baise pour un putain d'salaire J'laisse pas une pièce pour tes fesses Tu veux d'la punch, suce ma bite J'rappe ma vie, pas celle de ces bitches Sans déconner, j'ai l'cerveau vide, les yeux vides, le compte vide, le cur vide J'rentre en semi avec du seum, j'partirai seul en balade Juste du teh et des feuilles Et j'traîne seul sur Paname Dans l'hall, il m'faut un plan J'suis seul, ah ouais, sa mère Des fois, j'rêve de la mer Et j'traîne seul sur Paname QLF dans la vie J'veux pas d'leur compagnie J'veux pas d'cette vie banale Sur Paname Et mon ombre, tu t'rappelles ? À bibi, 7 sur 7, tout l'hiver Sur Paname 'roule et j'les vois pas J'coule et j'm'adapte J'cours après ma part You might also like J'casse un tour loin des hommes, j'ai fait une O.D Que du bon-char depuis qu'j'suis en âge de monter On les met au frais, on raccroche Le bruit du gyro nous rappelle que Le Sheitan nous attend au prochain level Trois cents tractions, smoke un teh, igo, j'ai des ailes Ouais, j'veux dada, on tombe cet été, bah, on s'adapte C'est N'DA-DA, ça paye pas-pas, série d'btata Dis-moi, t'étais où quand j'faisais la guerre ? J'pète une niaks, mon blaze fait l'tour de la Terre La haine qui nous catapulte, j'pénave un kho, pas ta pute J'fais P2 à Casper, quand ça pue bah j'casse ma puce Le pocheton m'fait la soirée, cette 'tasse me fait la soirée On sait qu'ils nous aiment pas, ils savent qu'on les baise J'recompte le bénef sur le boule de J-Lopez Ces bâtards sont bien loin dans notre vie Chacun son bénef, chacun son rre-ve Les mains froides comptent-re tous ces billets PNL, plutôt crier, ils ont chaud, canon scié Et j'traîne seul sur Paname Dans l'hall, il m'faut un plan J'suis seul, ah ouais, sa mère Des fois, j'rêve de la mer Et j'traîne seul sur Paname QLF dans la vie J'veux pas d'leur compagnie J'veux pas d'cette vie banale Sur Paname Et mon ombre, tu t'rappelles ? À bibi, 7 sur 7, tout l'hiver Sur Paname J'roule et j'les vois pas J'coule et j'm'adapte J'cours après ma part21</t>
+          <t>Artem did you make this? J'm'en bats les couilles, en fait, c'est ça, la vérité J'reprends ma fouille, dehors, la hess vient m'irriter Viens visiter, chez nous, pas d'gros meubles, pas d'grosses tls On prend les cafards dans l'mouchoir, et moi, j'ai trop l'seum depuis qu'j'suis né Y a qu'le Diable qui m'laisse des pourboires Tiens, la putain d'ta mère, tu veux savoir, oui, j'te baise pour un putain d'salaire J'laisse pas une pièce pour tes fesses Tu veux d'la punch, suce ma bite J'rappe ma vie, pas celle de ces bitches Sans déconner, j'ai l'cerveau vide, les yeux vides, le compte vide, le cur vide J'rentre en semi avec du seum, j'partirai seul en balade Juste du teh et des feuilles Et j'traîne seul sur Paname Dans l'hall, il m'faut un plan J'suis seul, ah ouais, sa mère Des fois, j'rêve de la mer Et j'traîne seul sur Paname QLF dans la vie J'veux pas d'leur compagnie J'veux pas d'cette vie banale Sur Paname Et mon ombre, tu t'rappelles ? À bibi, 7 sur 7, tout l'hiver Sur Paname 'roule et j'les vois pas J'coule et j'm'adapte J'cours après ma part J'casse un tour loin des hommes, j'ai fait une O.D Que du bon-char depuis qu'j'suis en âge de monter On les met au frais, on raccroche Le bruit du gyro nous rappelle que Le Sheitan nous attend au prochain level Trois cents tractions, smoke un teh, igo, j'ai des ailes Ouais, j'veux dada, on tombe cet été, bah, on s'adapte C'est N'DA-DA, ça paye pas-pas, série d'btata Dis-moi, t'étais où quand j'faisais la guerre ? J'pète une niaks, mon blaze fait l'tour de la Terre La haine qui nous catapulte, j'pénave un kho, pas ta pute J'fais P2 à Casper, quand ça pue bah j'casse ma puce Le pocheton m'fait la soirée, cette 'tasse me fait la soirée On sait qu'ils nous aiment pas, ils savent qu'on les baise J'recompte le bénef sur le boule de J-Lopez Ces bâtards sont bien loin dans notre vie Chacun son bénef, chacun son rre-ve Les mains froides comptent-re tous ces billets PNL, plutôt crier, ils ont chaud, canon scié Et j'traîne seul sur Paname Dans l'hall, il m'faut un plan J'suis seul, ah ouais, sa mère Des fois, j'rêve de la mer Et j'traîne seul sur Paname QLF dans la vie J'veux pas d'leur compagnie J'veux pas d'cette vie banale Sur Paname Et mon ombre, tu t'rappelles ? À bibi, 7 sur 7, tout l'hiver Sur Paname J'roule et j'les vois pas J'coule et j'm'adapte J'cours après ma part21</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>On les tord jusqu'au cash monnaie Avant de n'plus être inspiré Hun On les tord jusqu'au cash monnaie Avant de n'plus être inspiré L'être humain a failli m'dégoûter Puis je l'ai rencontré Et nique la vie d'artiste, tu sais, je viens d'en bas Les cliquos, les grosses têtes et les rats s'rappellent de moi On a tout r'ssenti, on t'a pas menti Sur le bonheur de ma famille, qu'est-c'tu crois ? S'rappellent de moi car j'suis plus dans l'noir Moi, j'veux plus les voir, car d'puis qu'j'suis plus dans l'noir Igo, je vois On les baise pas par hasard, j'veux être le prince de la ville J'suis plus Tarik que Nabil J'te boufferai pas la chatte, on a pris l'rap, fait les kil's J'veux l'monde, Papa veut son île Tu connais pas l'animal, tard le soir, ça tire devant Maint'nant, j'remplis des salles mais tu sais ma vie me manque You might also like Ma vie m'manque ma vie m'manque On plie l'temps on plie l'temps La vie d'vant la vie d'vant Y'a plus d'grands y'a plus d'grands La vie devant on part, ma miff me manque c'est ça Et l'vide me hante Laisse-moi les tordre, laisse-moi le temps Laisse-moi les pendre Oh, oh oui, oh oui, j'combats mon mal On est N'DA, on les baise même seuls au monde Zebi, zebi, j'suis pas normal Les démons me font l'aumône J'veux pas savoir quel est l'moyen tant qu'y'a les couilles, tous les moyens sont bons pour nourrir la miff Toi, lève ta patte comme un chien, c'genre d'animal dont on m'traitait quand j'errais le soir Fatigué d'tous ces soucis, j'ressens comme une apesanteur J'ai l'habitude de souffrir, jamais pour moi mais pour les autres J'porte ambition herculéenne J'retrace ma vie en Dieu Plus grand poète que j'ai vu dans labîme Cétait si dur, mais j'ai toujours commencé par Bismillah Et fini par Amîn, ouais Tu parles trop, j'suis pas d'humeur J'me sens gêné, demain j'prends l'biff D'un braco en moins d'une heure Tous ces puristes MC m'font rire, dans la rue J'les aurais graille comme dans Pac-Man Et j'suis sûr qu'à deux choix près, Nabil et moi On aurait pu prendre Paname Au final, qu'est-c'qu'on devient ? Quand on voit d'où on revient On meurt, on s'lève, on s'barre, on s'perd Le cur brûle, le cur serre Ma vie m'manque ma vie m'manque On plie l'temps on plie l'temps La vie d'vant la vie d'vant Y'a plus d'grands y'a plus d'grands La vie devant on part, ma miff me manque c'est ça Et l'vide me hante Laisse-moi les tordre, laisse-moi le temps Laisse-moi les pendre Oh, oh Pardonne-moi, pardonne-moi, c'est sale22</t>
+          <t>On les tord jusqu'au cash monnaie Avant de n'plus être inspiré Hun On les tord jusqu'au cash monnaie Avant de n'plus être inspiré L'être humain a failli m'dégoûter Puis je l'ai rencontré Et nique la vie d'artiste, tu sais, je viens d'en bas Les cliquos, les grosses têtes et les rats s'rappellent de moi On a tout r'ssenti, on t'a pas menti Sur le bonheur de ma famille, qu'est-c'tu crois ? S'rappellent de moi car j'suis plus dans l'noir Moi, j'veux plus les voir, car d'puis qu'j'suis plus dans l'noir Igo, je vois On les baise pas par hasard, j'veux être le prince de la ville J'suis plus Tarik que Nabil J'te boufferai pas la chatte, on a pris l'rap, fait les kil's J'veux l'monde, Papa veut son île Tu connais pas l'animal, tard le soir, ça tire devant Maint'nant, j'remplis des salles mais tu sais ma vie me manque Ma vie m'manque ma vie m'manque On plie l'temps on plie l'temps La vie d'vant la vie d'vant Y'a plus d'grands y'a plus d'grands La vie devant on part, ma miff me manque c'est ça Et l'vide me hante Laisse-moi les tordre, laisse-moi le temps Laisse-moi les pendre Oh, oh oui, oh oui, j'combats mon mal On est N'DA, on les baise même seuls au monde Zebi, zebi, j'suis pas normal Les démons me font l'aumône J'veux pas savoir quel est l'moyen tant qu'y'a les couilles, tous les moyens sont bons pour nourrir la miff Toi, lève ta patte comme un chien, c'genre d'animal dont on m'traitait quand j'errais le soir Fatigué d'tous ces soucis, j'ressens comme une apesanteur J'ai l'habitude de souffrir, jamais pour moi mais pour les autres J'porte ambition herculéenne J'retrace ma vie en Dieu Plus grand poète que j'ai vu dans labîme Cétait si dur, mais j'ai toujours commencé par Bismillah Et fini par Amîn, ouais Tu parles trop, j'suis pas d'humeur J'me sens gêné, demain j'prends l'biff D'un braco en moins d'une heure Tous ces puristes MC m'font rire, dans la rue J'les aurais graille comme dans Pac-Man Et j'suis sûr qu'à deux choix près, Nabil et moi On aurait pu prendre Paname Au final, qu'est-c'qu'on devient ? Quand on voit d'où on revient On meurt, on s'lève, on s'barre, on s'perd Le cur brûle, le cur serre Ma vie m'manque ma vie m'manque On plie l'temps on plie l'temps La vie d'vant la vie d'vant Y'a plus d'grands y'a plus d'grands La vie devant on part, ma miff me manque c'est ça Et l'vide me hante Laisse-moi les tordre, laisse-moi le temps Laisse-moi les pendre Oh, oh Pardonne-moi, pardonne-moi, c'est sale22</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J'te donne la couronne, mais avant jchie sur le trône J'pars comme un prince, j'te laisse juste lodeur du cône Milliers d'euros mission accomplie, il le fallait...Enfoiré J'compte les zéros sur l'chèque, j'me transforme en Saiyan J'quitte Namek, con-continuez à parler sur oi-m J'ai une miff à nourrir, pour ça que j'tai fait sniffer la white Mettre à genoux, qui ? Moi ? Essaye pour voir si cest possible Et t'as une toute ptite voix quand ça parle de schlass ou d'uzi La souffrance, on la connaît, tu la connais pas comme nous La misère, tu la regardes, on la caresse pas comme vous Tu t'amuses, nous, on a des ambitions herculéennes Ta michto t'aime à des conditions Saoudiennes Et jdis peace peace mais avant j'disais plus, canon scié Sous le sun en LV, toute ma haine s'est irradiée Et la vie m'gêne J'reviens d'l'enfer, j'fais partie d'ces abo-ri-gènes G-g-g-gang Comme la vie, comme la rue, man, j'suis déconnecté J'tombe pas une larme, le corps est humecté J'survole ce monde, terriens me pointent du doigt Quand j'rappe, j'les baise fort, j'dois être maladroit J'ai drôle d'attitude man, j'dois être niqué État che-lou dur à diagnostiquer Igo, j'pense aux autres, c'est peut-être c'qui me tue J'pense peu à moi, mon bonheur est têtu You might also like Mon ange de gauche veut son selfie, cette pute me chuchote cette vie C'est pour toi, prends la, vie la, baise la, j'suis défoncé, j'ai rempli le vide On était plusieurs sur la quette-pla, maintenant, j'prends l'monde avec Ade' La miff est à l'abri, j'ai pas soigné mon cur 3ami, les sucer, jamais J'arme et j'me fonce j'ressens plus le vide, j'marche de travers, la lumière j'évite J'me déconnecte de ce monde, j'revis, le sourire des miens me suffit Peur d'mes sentiments, mon cur se lasse vite La lumière m'a appris que l'obscurité reste Douleur terrestre, sentiments d'tess Faut que j'm'engraisse, faut que j'm'engraisse Le torse gainé sous le ciel, le poids d'mon nom sur les ailes J'sais pas si j'ai l'bonheur que tu mérites, j'ferai d'mon mieux ma belle Nous, c'est toujours fier, j'rentre à la maison, j'les laisse à la porte Si t'es pas d'mon sang, pas sûr que j'pourrai t'aimer jusqu'à la mort Plus que ma vie papa m'a dit, centaines de kil's taille-dés sur l'caddie Parce que j'voulais ma part de paradis, maint'nant qu'j'ai tout pris, ça n'a pas suffit Toi, t'aimes trop la vie, moi, j'm'écarte d'la hess avant qu'elle m'épouse Maintenant toutes ces 'tasses Elles veulent ma bite comme si elle avait changé d'goût Eh 3ami J'ai plus d'amis Parce que tu sais la vie M'a rendu trop 7ami Dans l'ombre j'les vois, ils veulent être comme moi Mais tu sais le soir Je broie du noir Le soir, du noir G-g-g-gang Comme la vie, comme la rue, man, j'suis déconnecté J'tombe pas une larme, le corps est humecté J'survole ce monde, terriens me pointent du doigt Quand j'rappe, j'les baise fort, j'dois être maladroit J'ai drôle d'attitude man, j'dois être niqué État che-lou dur à diagnostiquer Igo, j'pense aux autres, c'est peut-être c'qui me tue J'pense peu à moi, mon bonheur est têtu25</t>
+          <t>J'te donne la couronne, mais avant jchie sur le trône J'pars comme un prince, j'te laisse juste lodeur du cône Milliers d'euros mission accomplie, il le fallait...Enfoiré J'compte les zéros sur l'chèque, j'me transforme en Saiyan J'quitte Namek, con-continuez à parler sur oi-m J'ai une miff à nourrir, pour ça que j'tai fait sniffer la white Mettre à genoux, qui ? Moi ? Essaye pour voir si cest possible Et t'as une toute ptite voix quand ça parle de schlass ou d'uzi La souffrance, on la connaît, tu la connais pas comme nous La misère, tu la regardes, on la caresse pas comme vous Tu t'amuses, nous, on a des ambitions herculéennes Ta michto t'aime à des conditions Saoudiennes Et jdis peace peace mais avant j'disais plus, canon scié Sous le sun en LV, toute ma haine s'est irradiée Et la vie m'gêne J'reviens d'l'enfer, j'fais partie d'ces abo-ri-gènes G-g-g-gang Comme la vie, comme la rue, man, j'suis déconnecté J'tombe pas une larme, le corps est humecté J'survole ce monde, terriens me pointent du doigt Quand j'rappe, j'les baise fort, j'dois être maladroit J'ai drôle d'attitude man, j'dois être niqué État che-lou dur à diagnostiquer Igo, j'pense aux autres, c'est peut-être c'qui me tue J'pense peu à moi, mon bonheur est têtu Mon ange de gauche veut son selfie, cette pute me chuchote cette vie C'est pour toi, prends la, vie la, baise la, j'suis défoncé, j'ai rempli le vide On était plusieurs sur la quette-pla, maintenant, j'prends l'monde avec Ade' La miff est à l'abri, j'ai pas soigné mon cur 3ami, les sucer, jamais J'arme et j'me fonce j'ressens plus le vide, j'marche de travers, la lumière j'évite J'me déconnecte de ce monde, j'revis, le sourire des miens me suffit Peur d'mes sentiments, mon cur se lasse vite La lumière m'a appris que l'obscurité reste Douleur terrestre, sentiments d'tess Faut que j'm'engraisse, faut que j'm'engraisse Le torse gainé sous le ciel, le poids d'mon nom sur les ailes J'sais pas si j'ai l'bonheur que tu mérites, j'ferai d'mon mieux ma belle Nous, c'est toujours fier, j'rentre à la maison, j'les laisse à la porte Si t'es pas d'mon sang, pas sûr que j'pourrai t'aimer jusqu'à la mort Plus que ma vie papa m'a dit, centaines de kil's taille-dés sur l'caddie Parce que j'voulais ma part de paradis, maint'nant qu'j'ai tout pris, ça n'a pas suffit Toi, t'aimes trop la vie, moi, j'm'écarte d'la hess avant qu'elle m'épouse Maintenant toutes ces 'tasses Elles veulent ma bite comme si elle avait changé d'goût Eh 3ami J'ai plus d'amis Parce que tu sais la vie M'a rendu trop 7ami Dans l'ombre j'les vois, ils veulent être comme moi Mais tu sais le soir Je broie du noir Le soir, du noir G-g-g-gang Comme la vie, comme la rue, man, j'suis déconnecté J'tombe pas une larme, le corps est humecté J'survole ce monde, terriens me pointent du doigt Quand j'rappe, j'les baise fort, j'dois être maladroit J'ai drôle d'attitude man, j'dois être niqué État che-lou dur à diagnostiquer Igo, j'pense aux autres, c'est peut-être c'qui me tue J'pense peu à moi, mon bonheur est têtu25</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ouais Ouais Ouais Ouais Ouais Ouais Ouais Ouais Ouais J'ai l'zoo dans les veines j'peux pas oublier Du 7G au bat C pour briller Igo Casper recompte les billets Pendant que j'papote avec mon scié J'l'ai vendu parce qu'on m'l'a demandé Sors tes loves souris-moi ma beauté C'est plus l'heure de cogiter J'recompte le bénef' j'suis excité Si ça paye pas j'retourne chercher l'monde en or très loin dans le sud de l'Essonne Tu crois tout savoir, mais si tu savais comment nos curs raisonnent Igo j'suis dans la merde demande à mon Allemande Igo j'suis dans la verte demande à mon calmant Tout l'monde debout, tout l'monde veut place assise J'aime pas l'décor je mets mes sunglasses 666, ouvre le robinet, j'cours après l'oseille Grosminet J'ai retrouvé la foi j'ai perdu des frères P'tit coup d'balai devant les bouches de l'enfer T'es QLF on verra si on tombe bas J'regarde le ciel j'dis merci pour l'combat Igo j'hésite, que Dieu me pardonne si j'finis en tête Fuck tous mes rêves, nique l'imaginaire vers Scampia j'roule un pet' La misère a plus d'chicots, la p'tite souris est dans la masse Sous l'coussin, quelques clicos J'reviens chez moi comme Rico, toujours célèbre dans l'impasse On veut le monde Chico You might also like Nouveaux ennemis, nouvelles armes T'aimes pas la paix c'est qu't'as pas fait la guerre guerre guerre L'oseille et la mif, éclairent mon âme J'refais la peinture du frigo en bleu jaune vert On veut notre coin d'herbe on veut la planète Terre On veut le monde Chico T'inquiète, on rendra tout ce qu'on acquiert On veut le monde Chico Ok, ok j'fucke ces putes Tu sais c'est dar toute la journée Je pense au biff, je pense au biff J'suis pas blindé, j'suis pas Cooler Bats les couilles de ces grosses putains Qui voudraient me per-pom le dard J'dois charbonner, j'suis abonné Le frigo vide, j'tape pas des barres J'pense à la miff, tu sais sa mère J'pense à les mettre au bord de la mer Galère pour ça, galette je vends Bicar' souvent, compte mon salaire À faire le haram, j'sais que j'm'enfonce Mais bon personne nourrit les miens J'mets les crampons, j'ai les dents longues Donc j'chante ma haine, j'nourris ces chiens Le prends pas mal, mais j'ai pas d'amour L'public j'm'en fous, j'sais qu'il me lâchera Ah gars profite de c'que j'te donne Surveille ta folle, la mode passera Ounga, ounga, man qué pasa Mowgli jongle dans la jungle Ounga wawa, ah nigga wawa J'vois que tu suck, j'ai rien à craindre Nouveaux ennemis, nouvelles armes T'aimes pas la paix c'est qu't'as pas fait la guerre guerre guerre L'oseille et la mif, éclairent mon âme J'refais la peinture du frigo en bleu jaune vert On veut notre coin d'herbe on veut la planète Terre On veut le monde Chico T'inquiète, on rendra tout ce qu'on acquiert On veut le monde Chico Nouveaux ennemis, nouvelles armes T'aimes pas la paix c'est qu't'as pas fait la guerre guerre guerre L'oseille et la mif, éclairent mon âme J'refais la peinture du frigo en bleu jaune vert On veut notre coin d'herbe on veut la planète Terre On veut le monde Chico T'inquiète, on rendra tout ce qu'on acquiert On veut le monde Chico18</t>
+          <t>Ouais Ouais Ouais Ouais Ouais Ouais Ouais Ouais Ouais J'ai l'zoo dans les veines j'peux pas oublier Du 7G au bat C pour briller Igo Casper recompte les billets Pendant que j'papote avec mon scié J'l'ai vendu parce qu'on m'l'a demandé Sors tes loves souris-moi ma beauté C'est plus l'heure de cogiter J'recompte le bénef' j'suis excité Si ça paye pas j'retourne chercher l'monde en or très loin dans le sud de l'Essonne Tu crois tout savoir, mais si tu savais comment nos curs raisonnent Igo j'suis dans la merde demande à mon Allemande Igo j'suis dans la verte demande à mon calmant Tout l'monde debout, tout l'monde veut place assise J'aime pas l'décor je mets mes sunglasses 666, ouvre le robinet, j'cours après l'oseille Grosminet J'ai retrouvé la foi j'ai perdu des frères P'tit coup d'balai devant les bouches de l'enfer T'es QLF on verra si on tombe bas J'regarde le ciel j'dis merci pour l'combat Igo j'hésite, que Dieu me pardonne si j'finis en tête Fuck tous mes rêves, nique l'imaginaire vers Scampia j'roule un pet' La misère a plus d'chicots, la p'tite souris est dans la masse Sous l'coussin, quelques clicos J'reviens chez moi comme Rico, toujours célèbre dans l'impasse On veut le monde Chico Nouveaux ennemis, nouvelles armes T'aimes pas la paix c'est qu't'as pas fait la guerre guerre guerre L'oseille et la mif, éclairent mon âme J'refais la peinture du frigo en bleu jaune vert On veut notre coin d'herbe on veut la planète Terre On veut le monde Chico T'inquiète, on rendra tout ce qu'on acquiert On veut le monde Chico Ok, ok j'fucke ces putes Tu sais c'est dar toute la journée Je pense au biff, je pense au biff J'suis pas blindé, j'suis pas Cooler Bats les couilles de ces grosses putains Qui voudraient me per-pom le dard J'dois charbonner, j'suis abonné Le frigo vide, j'tape pas des barres J'pense à la miff, tu sais sa mère J'pense à les mettre au bord de la mer Galère pour ça, galette je vends Bicar' souvent, compte mon salaire À faire le haram, j'sais que j'm'enfonce Mais bon personne nourrit les miens J'mets les crampons, j'ai les dents longues Donc j'chante ma haine, j'nourris ces chiens Le prends pas mal, mais j'ai pas d'amour L'public j'm'en fous, j'sais qu'il me lâchera Ah gars profite de c'que j'te donne Surveille ta folle, la mode passera Ounga, ounga, man qué pasa Mowgli jongle dans la jungle Ounga wawa, ah nigga wawa J'vois que tu suck, j'ai rien à craindre Nouveaux ennemis, nouvelles armes T'aimes pas la paix c'est qu't'as pas fait la guerre guerre guerre L'oseille et la mif, éclairent mon âme J'refais la peinture du frigo en bleu jaune vert On veut notre coin d'herbe on veut la planète Terre On veut le monde Chico T'inquiète, on rendra tout ce qu'on acquiert On veut le monde Chico Nouveaux ennemis, nouvelles armes T'aimes pas la paix c'est qu't'as pas fait la guerre guerre guerre L'oseille et la mif, éclairent mon âme J'refais la peinture du frigo en bleu jaune vert On veut notre coin d'herbe on veut la planète Terre On veut le monde Chico T'inquiète, on rendra tout ce qu'on acquiert On veut le monde Chico18</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer You might also like Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
+          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Chaque jour c'dans cmonde de putes que jvis Chaque jour jrêve qucest sur la Lune qujme tire Dites à la Juge quon la fait pour survivre Jvoulais lmonde, jle veux toujours oh oui Oh oui on a grandi un peu sauvages, Mowgli Mowgli Tu mcomprends pas ? Me3lich mon frère, oublie À chaque bon-char jme suis su en sursis Paraît qutu mcherches ? Moi jsuis là, jaime, si si Hmm, hmm, hmm Tinquiète pas quon est forts, quon est durs, quon encaisse normal Wesh bien sûr qujviens dla banlieue, bien sûr que si tu viens du 16 j'te la bicrave normal Eh, eh, eh, eh Pas d'conte de fée, le Clochard ne plaît pas à la Belle Eh, eh, eh, eh Pétasse on traccroche quand le ient-cli appelle Yeah, j'suis ce genre de cassos qui drague une Anglaise en espagnol La vida loca chiquita, bambina, fais ta folle fais ta folle, fais ta folle, fais ta folle Là jécris mon texte dans la cave, mon avenir en dents dscie Avec mon cuir sur le dos sur lequel jmendormais au 36 Ouais ouais ouais Jai la haine comme à Mexico Jmarche comme à Mexico La dégaine à la Mexico Dans la tête cest Mexico Tous les jours cest la guerre Nous, on doit lfaire à la Mexico Toujours le doigt en lair Arriba, arriba Mexico Jai la haine comme à Mexico Jmarche comme à Mexico La dégaine à la Mexico Dans la tête cest Mexico Tous les jours cest la guerre Nous, on doit lfaire à la Mexico Toujours le doigt en lair Arriba, arriba Mexico You might also like Eh ouais, Judas veut membrasser ouais Il croit que jvais être célèbre Ma haine éclaire les ténèbres Nous cest la mif et loseille Jai le cur en double appel On sécarte des anges cest mieux Faudrait pas quils sbrûlent les ailes Seul, mon ombre à lasile Jfronce le deuxième sourcil On place la F et on kille Jconnais plus trop lgoût de mes larmes Jai un grain, jroule une graine Jai quelques projets qui naissent Tous fécondés par la haine Ya rien à voir et ma rétine se tourne les pouces Donc jferme les yeux, et lobscurité jépouse Quils niquent leur mother, igo jsuis pas comme eux Jrecompte seul dans lhall, ma liasse résonne Dans la poche, jrecompte, jai combien Jmécarte des frontières du bien Peine de ferme le coffre contient Tout pour les miens Jai la haine comme à Mexico Jmarche comme à Mexico La dégaine à la Mexico Dans la tête cest Mexico Tous les jours cest la guerre Nous, on doit lfaire à la Mexico Toujours le doigt en lair Arriba, arriba Mexico Jai la haine comme à Mexico Jmarche comme à Mexico La dégaine à la Mexico Dans la tête cest Mexico Tous les jours cest la guerre Nous, on doit lfaire à la Mexico Toujours le doigt en lair Arriba, arriba Mexico Mexico Mexico21</t>
+          <t>Chaque jour c'dans cmonde de putes que jvis Chaque jour jrêve qucest sur la Lune qujme tire Dites à la Juge quon la fait pour survivre Jvoulais lmonde, jle veux toujours oh oui Oh oui on a grandi un peu sauvages, Mowgli Mowgli Tu mcomprends pas ? Me3lich mon frère, oublie À chaque bon-char jme suis su en sursis Paraît qutu mcherches ? Moi jsuis là, jaime, si si Hmm, hmm, hmm Tinquiète pas quon est forts, quon est durs, quon encaisse normal Wesh bien sûr qujviens dla banlieue, bien sûr que si tu viens du 16 j'te la bicrave normal Eh, eh, eh, eh Pas d'conte de fée, le Clochard ne plaît pas à la Belle Eh, eh, eh, eh Pétasse on traccroche quand le ient-cli appelle Yeah, j'suis ce genre de cassos qui drague une Anglaise en espagnol La vida loca chiquita, bambina, fais ta folle fais ta folle, fais ta folle, fais ta folle Là jécris mon texte dans la cave, mon avenir en dents dscie Avec mon cuir sur le dos sur lequel jmendormais au 36 Ouais ouais ouais Jai la haine comme à Mexico Jmarche comme à Mexico La dégaine à la Mexico Dans la tête cest Mexico Tous les jours cest la guerre Nous, on doit lfaire à la Mexico Toujours le doigt en lair Arriba, arriba Mexico Jai la haine comme à Mexico Jmarche comme à Mexico La dégaine à la Mexico Dans la tête cest Mexico Tous les jours cest la guerre Nous, on doit lfaire à la Mexico Toujours le doigt en lair Arriba, arriba Mexico Eh ouais, Judas veut membrasser ouais Il croit que jvais être célèbre Ma haine éclaire les ténèbres Nous cest la mif et loseille Jai le cur en double appel On sécarte des anges cest mieux Faudrait pas quils sbrûlent les ailes Seul, mon ombre à lasile Jfronce le deuxième sourcil On place la F et on kille Jconnais plus trop lgoût de mes larmes Jai un grain, jroule une graine Jai quelques projets qui naissent Tous fécondés par la haine Ya rien à voir et ma rétine se tourne les pouces Donc jferme les yeux, et lobscurité jépouse Quils niquent leur mother, igo jsuis pas comme eux Jrecompte seul dans lhall, ma liasse résonne Dans la poche, jrecompte, jai combien Jmécarte des frontières du bien Peine de ferme le coffre contient Tout pour les miens Jai la haine comme à Mexico Jmarche comme à Mexico La dégaine à la Mexico Dans la tête cest Mexico Tous les jours cest la guerre Nous, on doit lfaire à la Mexico Toujours le doigt en lair Arriba, arriba Mexico Jai la haine comme à Mexico Jmarche comme à Mexico La dégaine à la Mexico Dans la tête cest Mexico Tous les jours cest la guerre Nous, on doit lfaire à la Mexico Toujours le doigt en lair Arriba, arriba Mexico Mexico Mexico21</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>J'écris ma vie, p't-être avant d'me faire fumer Sans trop réfléchir, comme quand j'ai commencé à t'aimer Le cur serré, j'pense à mes Tarterêts A c'que ce monde était, j'dois oublier pour pas crever Il est jamais trop tard sauf si j't'ai montré mon âme Des milliers d'putain d'grammes, j'poursuis mes rêves dans l'hram T'façon, j'connais que ça pour ne pas voir p'tit frère dans l'sale J'compromets la vie loin des lâches, loin d'mon nombril, loin du H La hess, faut qu'tu saches j'aurais pu devenir pire qu'eux À une épine près du cur, à un tir d'la panique À un tir d'la panique Ce soir, j'te kra comme pas deux dans ta vie Fais 22 que j'navigue Putain, qu'est-ce qu'il m'arrive ? Pourquoi j'm'en sors sans vivre ? Pourquoi j'm'en sors sans vivre ? Ce soir, j'te kra comme pas deux dans ta vie Fais 22 que j'navigue Putain, qu'est-ce qu'il m'arrive ? Pourquoi j'm'en sors sans vivre ? Pourquoi j'm'en sors sans vivre ? You might also like Hemi, hemi, hemi F-F dans la caisse, j'ai sorti l're-cui comme Training Day Cette 'tasse kiffe mon délire Comme Denzel, okay, délits, délits, délits sur délits J'suis suspect, j'sers été comme hiver, okay ? Tous veulent latina, c'rempli d'coke dans la zone Bécane, rayon yellow, mmh, avec un flow Ya-Ya Bouge, bouge, bambina, réglée comme ton tieks Oh non, jsuis trop yes, cambré comme ton tcha-tcha-tcha J'aime tes ongles couleurs pink, sors-moi les greens J'suis touché, Jack ou weed, j'me fais emballer par des gouines J'crois qu'ce soir, c'est encore la plus bonne qui m'fait signe Moi, j'fume mon ouais, princesse voudrait que j'lui dise Ce soir, j't'aimerai comme pas deux dans ta vie Ce soir, j'te... wouh Ce soir, j'te kra comme pas deux dans ta vie Fais 22 que j'navigue Putain, qu'est-ce qu'il m'arrive ? Pourquoi j'm'en sors sans vivre ? Pourquoi j'm'en sors sans vivre ? Ce soir, j'te kra comme pas deux dans ta vie Fais 22 que j'navigue Putain, qu'est-ce qu'il m'arrive ? Pourquoi j'm'en sors sans vivre ? Pourquoi j'm'en sors sans vivre ?16</t>
+          <t>J'écris ma vie, p't-être avant d'me faire fumer Sans trop réfléchir, comme quand j'ai commencé à t'aimer Le cur serré, j'pense à mes Tarterêts A c'que ce monde était, j'dois oublier pour pas crever Il est jamais trop tard sauf si j't'ai montré mon âme Des milliers d'putain d'grammes, j'poursuis mes rêves dans l'hram T'façon, j'connais que ça pour ne pas voir p'tit frère dans l'sale J'compromets la vie loin des lâches, loin d'mon nombril, loin du H La hess, faut qu'tu saches j'aurais pu devenir pire qu'eux À une épine près du cur, à un tir d'la panique À un tir d'la panique Ce soir, j'te kra comme pas deux dans ta vie Fais 22 que j'navigue Putain, qu'est-ce qu'il m'arrive ? Pourquoi j'm'en sors sans vivre ? Pourquoi j'm'en sors sans vivre ? Ce soir, j'te kra comme pas deux dans ta vie Fais 22 que j'navigue Putain, qu'est-ce qu'il m'arrive ? Pourquoi j'm'en sors sans vivre ? Pourquoi j'm'en sors sans vivre ? Hemi, hemi, hemi F-F dans la caisse, j'ai sorti l're-cui comme Training Day Cette 'tasse kiffe mon délire Comme Denzel, okay, délits, délits, délits sur délits J'suis suspect, j'sers été comme hiver, okay ? Tous veulent latina, c'rempli d'coke dans la zone Bécane, rayon yellow, mmh, avec un flow Ya-Ya Bouge, bouge, bambina, réglée comme ton tieks Oh non, jsuis trop yes, cambré comme ton tcha-tcha-tcha J'aime tes ongles couleurs pink, sors-moi les greens J'suis touché, Jack ou weed, j'me fais emballer par des gouines J'crois qu'ce soir, c'est encore la plus bonne qui m'fait signe Moi, j'fume mon ouais, princesse voudrait que j'lui dise Ce soir, j't'aimerai comme pas deux dans ta vie Ce soir, j'te... wouh Ce soir, j'te kra comme pas deux dans ta vie Fais 22 que j'navigue Putain, qu'est-ce qu'il m'arrive ? Pourquoi j'm'en sors sans vivre ? Pourquoi j'm'en sors sans vivre ? Ce soir, j'te kra comme pas deux dans ta vie Fais 22 que j'navigue Putain, qu'est-ce qu'il m'arrive ? Pourquoi j'm'en sors sans vivre ? Pourquoi j'm'en sors sans vivre ?16</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Les larmes caressent les joues, tombent dans le vide Dans le noir, l'odeur de l'oseille me guide J'aime les choses simples comme ton cul sur ma bite Le mal pour les biens, l'enfer pour le paradis J'viens d'la où des fils partent avant leurs mères J'vais là où tous les bi-billets sont verts Je sors du zoo, j'aime quand c'est animal Igo, j'vois flou comme les balles J'veux ma villa, pour tous les énerver Un jour j'suis tombé, pour apprendre à me relever Ils ne m'aiment pas, j'plais à leurs putas Donc je prends leurs putas, et je prends leur moula J'resserre ma paire avant mon tête Miaulez je ne sais pas qui vous êtes La dalle trop grande pour être honnête Double peace, TZ TZ Du mal à me souvenir, mais bon igo j'oublierai pas On voit les sous v'nir, j'sens quelque chose qui se répare Gars Perdu dans le Benda J'aime sa gueule de Sheita Venga, Venga Gars Perdu dans le Benda J'aime sa gueule de Sheita Venga, Venga You might also like Gars J'leur mets ma hmm n'da Puta danse la salsa J'suis R7, j'prends tout seul le Barça Hé tu sais ce qu'est qu'un hassa ? Ouhh J'sors pocheton tout vert au feu rouge Passe-moi cette 'teille, aujourd'hui j'me saoule Si le rap s'arrête, j'ai toujours la cagoule Sifflement Et j'me balade en gamos, Louis Vuitton sur le petit frère J'souris en scred devant ma clope Disque d'or, ah bon c'est nous ? WAllah j'savais pas Pourtant meilleurs dans la drogue, mais bon Pourtant meilleurs dans la drogue, mais bon Khali, khali, khali, khali J'pense plus à grand chose à part le khaliss, khaliss, khaliss, khaliss J'tire toujours ma langue, toujours comme Manny J'veux ma coupe de fraise, mes boules de vanille, vanille, vanille, vanille Gars Perdu dans le Benda J'aime sa gueule de Sheita Venga, Venga Gars Perdu dans le Benda J'aime sa gueule de Sheita Venga, Venga7</t>
+          <t>Les larmes caressent les joues, tombent dans le vide Dans le noir, l'odeur de l'oseille me guide J'aime les choses simples comme ton cul sur ma bite Le mal pour les biens, l'enfer pour le paradis J'viens d'la où des fils partent avant leurs mères J'vais là où tous les bi-billets sont verts Je sors du zoo, j'aime quand c'est animal Igo, j'vois flou comme les balles J'veux ma villa, pour tous les énerver Un jour j'suis tombé, pour apprendre à me relever Ils ne m'aiment pas, j'plais à leurs putas Donc je prends leurs putas, et je prends leur moula J'resserre ma paire avant mon tête Miaulez je ne sais pas qui vous êtes La dalle trop grande pour être honnête Double peace, TZ TZ Du mal à me souvenir, mais bon igo j'oublierai pas On voit les sous v'nir, j'sens quelque chose qui se répare Gars Perdu dans le Benda J'aime sa gueule de Sheita Venga, Venga Gars Perdu dans le Benda J'aime sa gueule de Sheita Venga, Venga Gars J'leur mets ma hmm n'da Puta danse la salsa J'suis R7, j'prends tout seul le Barça Hé tu sais ce qu'est qu'un hassa ? Ouhh J'sors pocheton tout vert au feu rouge Passe-moi cette 'teille, aujourd'hui j'me saoule Si le rap s'arrête, j'ai toujours la cagoule Sifflement Et j'me balade en gamos, Louis Vuitton sur le petit frère J'souris en scred devant ma clope Disque d'or, ah bon c'est nous ? WAllah j'savais pas Pourtant meilleurs dans la drogue, mais bon Pourtant meilleurs dans la drogue, mais bon Khali, khali, khali, khali J'pense plus à grand chose à part le khaliss, khaliss, khaliss, khaliss J'tire toujours ma langue, toujours comme Manny J'veux ma coupe de fraise, mes boules de vanille, vanille, vanille, vanille Gars Perdu dans le Benda J'aime sa gueule de Sheita Venga, Venga Gars Perdu dans le Benda J'aime sa gueule de Sheita Venga, Venga7</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>On prend l'rap, on l'encule à deux, on prend le bât', le fait ner-tour à deux On s'en sort ou on crève à deux, cur qui bat quand ça tire à deux J'ai mal à la vie, j'recompte mon fric, toi pense à ma bite J'suis n'da, j'suis Que La Famille, je leur donnerai ma vie sans pousser un cri Face à ma solitude, je tourne le dos à l'univers J'veux faire le bien, ça embête Lucifer Et crois pas qu'on est riches mais crois pas qu'on est pauvres Et j'ai honte pour ceux qui attendent qu'on les sauve J't'ai perdu, tu m'as jamais trouvé, j'les aime bonnes, slim comme OCB J'recompte charbon avant l'été, j'me suis cherché, j'ai brassé, j'me suis pas trouvé La vie n'a pas d'prix à part c'qu'elle m'a appris J'ressens l'vide mais j'sais pas c'qu'elle m'a pris J'ai gardé l'pénave du charbon, c'est le même Histoire d'me rapp'ler c'que ma vie aurait pu être Est-c'que cette lumière aurait jamais pu naître ? Ça m'sauv'ra pas, trop tard j'suis plus net J'suis plus net, j'suis plus net J'suis plus net, dans la lune-e-e On prend l'rap, on l'encule à deux, on prend le bât', le fait ner-tour à deux On s'en sort ou on crève à deux, cur qui bat quand ça tire à deux You might also like J'trouve la vie N'da, j'vous sors le zetla J'suis ravi d'être là, pourtant, j'vous aime pas Mélodie du bando, banlieusard, hello C'comme ça que j'dis hello J'suis perché dans les abîmes, un peu comme Anakin Yoda roule un deux feuilles, obscure très tôt dans la matinée Fond de poche quelques centimes, plus rien pour les sentiments J'lui parle assez poliment, j'lui revends quelques centimètres Laisse-moi parler dans ma fonce', laisse-moi rider dans la zone Avec un peu d'weed, avec un peu Laisse-moi planer comme un con, meilleur buteur d'la saison Avec un cur vide, avec un cur Victime de ma haine, y'a qu'mon cur qui saigne Grosse graine dans la gov' à la parisienne La rue, c'est ma go, j'ai l'démon comme Bleach Ouais ma bitch, ouais ouais ma biche J'suis sauvage c'est l'blème, ouais c'est l'blème Et toi tu connais R, R, de nos vies Au-d'ssus de la ville, nuages gris me fera froid dans le dos Et la haine, haine, nous aura servi comme des ients-cli J'sais d'où j'viens, non pas l'cul qui sort d'un château Gyros dans les verres, plus bas qu'terre, le ciel me rassure Noir comme Corbeil-Essonnes, vagues de bleus, pas la côte d'Azur J'suis plus net, j'suis plus net J'suis plus net, dans la lune-e-e On prend l'rap, on l'encule à deux, on prend l'bât', le fait ner-tour à deux On s'en sort ou on crève à deux, cur qui bat quand ça tire à deux J'trouve la vie N'DA, j'vous sors le zetla J'suis ravi d'être là, pourtant, j'vous aime pas Mélodie du bando, banlieusard, hello C'comme ça qu'j'dis hello16</t>
+          <t>On prend l'rap, on l'encule à deux, on prend le bât', le fait ner-tour à deux On s'en sort ou on crève à deux, cur qui bat quand ça tire à deux J'ai mal à la vie, j'recompte mon fric, toi pense à ma bite J'suis n'da, j'suis Que La Famille, je leur donnerai ma vie sans pousser un cri Face à ma solitude, je tourne le dos à l'univers J'veux faire le bien, ça embête Lucifer Et crois pas qu'on est riches mais crois pas qu'on est pauvres Et j'ai honte pour ceux qui attendent qu'on les sauve J't'ai perdu, tu m'as jamais trouvé, j'les aime bonnes, slim comme OCB J'recompte charbon avant l'été, j'me suis cherché, j'ai brassé, j'me suis pas trouvé La vie n'a pas d'prix à part c'qu'elle m'a appris J'ressens l'vide mais j'sais pas c'qu'elle m'a pris J'ai gardé l'pénave du charbon, c'est le même Histoire d'me rapp'ler c'que ma vie aurait pu être Est-c'que cette lumière aurait jamais pu naître ? Ça m'sauv'ra pas, trop tard j'suis plus net J'suis plus net, j'suis plus net J'suis plus net, dans la lune-e-e On prend l'rap, on l'encule à deux, on prend le bât', le fait ner-tour à deux On s'en sort ou on crève à deux, cur qui bat quand ça tire à deux J'trouve la vie N'da, j'vous sors le zetla J'suis ravi d'être là, pourtant, j'vous aime pas Mélodie du bando, banlieusard, hello C'comme ça que j'dis hello J'suis perché dans les abîmes, un peu comme Anakin Yoda roule un deux feuilles, obscure très tôt dans la matinée Fond de poche quelques centimes, plus rien pour les sentiments J'lui parle assez poliment, j'lui revends quelques centimètres Laisse-moi parler dans ma fonce', laisse-moi rider dans la zone Avec un peu d'weed, avec un peu Laisse-moi planer comme un con, meilleur buteur d'la saison Avec un cur vide, avec un cur Victime de ma haine, y'a qu'mon cur qui saigne Grosse graine dans la gov' à la parisienne La rue, c'est ma go, j'ai l'démon comme Bleach Ouais ma bitch, ouais ouais ma biche J'suis sauvage c'est l'blème, ouais c'est l'blème Et toi tu connais R, R, de nos vies Au-d'ssus de la ville, nuages gris me fera froid dans le dos Et la haine, haine, nous aura servi comme des ients-cli J'sais d'où j'viens, non pas l'cul qui sort d'un château Gyros dans les verres, plus bas qu'terre, le ciel me rassure Noir comme Corbeil-Essonnes, vagues de bleus, pas la côte d'Azur J'suis plus net, j'suis plus net J'suis plus net, dans la lune-e-e On prend l'rap, on l'encule à deux, on prend l'bât', le fait ner-tour à deux On s'en sort ou on crève à deux, cur qui bat quand ça tire à deux J'trouve la vie N'DA, j'vous sors le zetla J'suis ravi d'être là, pourtant, j'vous aime pas Mélodie du bando, banlieusard, hello C'comme ça qu'j'dis hello16</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Je recrache le mal J'ai percé avec l'argent sale J'ai peur de te perdre m'a dit mon miroir Je garde cauchemar dans le fond du tiroir Je pense aux amis, ennemis tis-par Comme le goût de ma bite je me fais rare Ouais on est pas comme eux Ouais on pisse sur l'trône On r'part avec les sommes J'aime une vie courte, le bras long Cliquos pensent que j'ai l'million Pas encore, tire sur ton pilon Oh, la vie est belle Oh, la vie est belle Tu verras, la vie est belle La vie est belle Cette époque est lourde Aussi lourde, que le poids qu'portent mes paupières J'ouvre la porte de l'Audi ou de l'Enfer De l'eau vite, mer de larmes on s'déshydrate J'f'rai les frais de c'que l'Très-Haut décidera Autour y'a les hommes, entre nous y'a le voile Dans l'four y'a Ade', khey, khey, khey Au dessus y'a les anges, en dessous y'a le Mal Mais dans l'four y'a Ade', khey, khey, khey Tout ça n'est qu'le fruit de l'envie qu'on se donne-donne Si j'ferme les yeux quel est l'frère qui m'le donne-donne ? Se mentir à soi, ou être hypocrite envers Dieu ? Pas très serein, dealer averti en sert deux Le soleil se lève, temps et soucis dessinent le visage La lune prend le relais, lance un dernier baiser dans l'virage J'rattrape l'horizon, pressé, j'démarre en seconde Infini chemin demain et du temps pour qu'on se trompe You might also like Oh, la vie est belle Oh, la vie est belle Tu verras, la vie est belle La vie est belle22</t>
+          <t>Je recrache le mal J'ai percé avec l'argent sale J'ai peur de te perdre m'a dit mon miroir Je garde cauchemar dans le fond du tiroir Je pense aux amis, ennemis tis-par Comme le goût de ma bite je me fais rare Ouais on est pas comme eux Ouais on pisse sur l'trône On r'part avec les sommes J'aime une vie courte, le bras long Cliquos pensent que j'ai l'million Pas encore, tire sur ton pilon Oh, la vie est belle Oh, la vie est belle Tu verras, la vie est belle La vie est belle Cette époque est lourde Aussi lourde, que le poids qu'portent mes paupières J'ouvre la porte de l'Audi ou de l'Enfer De l'eau vite, mer de larmes on s'déshydrate J'f'rai les frais de c'que l'Très-Haut décidera Autour y'a les hommes, entre nous y'a le voile Dans l'four y'a Ade', khey, khey, khey Au dessus y'a les anges, en dessous y'a le Mal Mais dans l'four y'a Ade', khey, khey, khey Tout ça n'est qu'le fruit de l'envie qu'on se donne-donne Si j'ferme les yeux quel est l'frère qui m'le donne-donne ? Se mentir à soi, ou être hypocrite envers Dieu ? Pas très serein, dealer averti en sert deux Le soleil se lève, temps et soucis dessinent le visage La lune prend le relais, lance un dernier baiser dans l'virage J'rattrape l'horizon, pressé, j'démarre en seconde Infini chemin demain et du temps pour qu'on se trompe Oh, la vie est belle Oh, la vie est belle Tu verras, la vie est belle La vie est belle22</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ouais ouais ouais... Ouais ouais... Ouais ouais ouais... J'ai traversé les frontières Croyant que mon cur saignerait moins là-bas J'vais finir par m'y faire J'serai jamais heureux comme Papa 'Ta mère ici, on cherche pas d'amis Le rêve nous sépare, j'ressens le vide Pourquoi tu tournes autour des mots ? J'suis seul, la Lune me tourne le dos J'rentre tard à la maison, dehors, je cherche réponses J'aime pas ton monde, donc parfois, j'me 'fonce J'sais que charbonner, pointer toute la journée Garde le cur en apnée pour pas couler Toi, t'étais mieux avant, quand j'te connaissais moins Maintenant j'me sens mieux quand j'suis loin J'ai pas besoin d'eux ma gueule Car je sais qui je suis quand j'suis seul You might also like T'étais mieux avant j'te connaissais moins Comme le teh comme le temps Moins d'sentiments moins d'sentiments Plus d'argent plus d'argent Toi, t'étais mieux avant t'étais mieux avant Comme la Terre comme la Terre Plus d'eu', moins d'sentiments moins d'sentiments Plus d'argent plus d'argent T'étais mieux avant mieux avant Mieux avant mieux avant Moins d'sentiments moins d'sentiments Plus d'argent plus d'argent J'ai tout -euh, t'as rien -euh, j'm'en veux Mon cur -euh, coupé -euh, en deux J'suis sale, t'aimes les belles choses, pourquoi tu m'aimes ? J'réponds jamais quand tu m'demandes Pourquoi tu saignes ? bah non, bah non J'suis vénère toute la journée J'm'hydrate un litre de seum dans la gourde Un sauvage dans la foule Animal qu'on dresse pas sous la douleur J'suis partagé entre le dîn, entre le haram, j'ai besoin d'ton avis j'ai besoin d'ton avis Baba m'a dit Fort est le pléonasme quand j'dis qu'j'suis mort à vie bah ouais, bah ouais J'suis loin dans mes pensées, j'préfère être franc, j'vous déteste tous En chien, j'me suis forgé, un cur de loup, la laisse m'étouffe T'es jaloux d'moi, pourquoi tu m'aimes ? J'réponds jamais quand mon âme passe sous un tunnel Tu sais, j'ai comme un problème, un truc qui m'gêne dans la te-tê J'aimerais te faire des poèmes mais j'gâcherais tout avec un J'te baise Le oigt-d en l'air face au monde, j'avais rien quand j'crevais Tu m'cherches, toute ma haine tu vas trouver T'étais mieux avant quand j'te connaissais moins Comme le temps comme le temps Moins d'sentiments moins d'sentiments Plus d'argent plus d'argent Toi, t'étais mieux avant t'étais mieux avant Comme la Terre comme la Terre Plus d'eu', moins d'sentiments moins d'sentiments Plus d'argent plus d'argent T'étais mieux avant mieux avant Mieux avant mieux avant Moins d'sentiments moins d'sentiments Plus d'argent plus d'argent21</t>
+          <t>Ouais ouais ouais... Ouais ouais... Ouais ouais ouais... J'ai traversé les frontières Croyant que mon cur saignerait moins là-bas J'vais finir par m'y faire J'serai jamais heureux comme Papa 'Ta mère ici, on cherche pas d'amis Le rêve nous sépare, j'ressens le vide Pourquoi tu tournes autour des mots ? J'suis seul, la Lune me tourne le dos J'rentre tard à la maison, dehors, je cherche réponses J'aime pas ton monde, donc parfois, j'me 'fonce J'sais que charbonner, pointer toute la journée Garde le cur en apnée pour pas couler Toi, t'étais mieux avant, quand j'te connaissais moins Maintenant j'me sens mieux quand j'suis loin J'ai pas besoin d'eux ma gueule Car je sais qui je suis quand j'suis seul T'étais mieux avant j'te connaissais moins Comme le teh comme le temps Moins d'sentiments moins d'sentiments Plus d'argent plus d'argent Toi, t'étais mieux avant t'étais mieux avant Comme la Terre comme la Terre Plus d'eu', moins d'sentiments moins d'sentiments Plus d'argent plus d'argent T'étais mieux avant mieux avant Mieux avant mieux avant Moins d'sentiments moins d'sentiments Plus d'argent plus d'argent J'ai tout -euh, t'as rien -euh, j'm'en veux Mon cur -euh, coupé -euh, en deux J'suis sale, t'aimes les belles choses, pourquoi tu m'aimes ? J'réponds jamais quand tu m'demandes Pourquoi tu saignes ? bah non, bah non J'suis vénère toute la journée J'm'hydrate un litre de seum dans la gourde Un sauvage dans la foule Animal qu'on dresse pas sous la douleur J'suis partagé entre le dîn, entre le haram, j'ai besoin d'ton avis j'ai besoin d'ton avis Baba m'a dit Fort est le pléonasme quand j'dis qu'j'suis mort à vie bah ouais, bah ouais J'suis loin dans mes pensées, j'préfère être franc, j'vous déteste tous En chien, j'me suis forgé, un cur de loup, la laisse m'étouffe T'es jaloux d'moi, pourquoi tu m'aimes ? J'réponds jamais quand mon âme passe sous un tunnel Tu sais, j'ai comme un problème, un truc qui m'gêne dans la te-tê J'aimerais te faire des poèmes mais j'gâcherais tout avec un J'te baise Le oigt-d en l'air face au monde, j'avais rien quand j'crevais Tu m'cherches, toute ma haine tu vas trouver T'étais mieux avant quand j'te connaissais moins Comme le temps comme le temps Moins d'sentiments moins d'sentiments Plus d'argent plus d'argent Toi, t'étais mieux avant t'étais mieux avant Comme la Terre comme la Terre Plus d'eu', moins d'sentiments moins d'sentiments Plus d'argent plus d'argent T'étais mieux avant mieux avant Mieux avant mieux avant Moins d'sentiments moins d'sentiments Plus d'argent plus d'argent21</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ShinoX-Mker Ok, j'ai compris on s'en sort pas comme ça On est loin de la vie à Tony fuck Sosa, on me baise pas Gratte pas l'amitié on est QLF, on s'écarte Chacun son chemin chacun son bénef' J'm'endors cagoulé, je rêve dans l'anonymat On ne pense qu'à mouler, sur ma branche comme Cheeta WAllah, qu'on se vend pas qu'on se baisse pas pour ter-mon Au sheitan ils donnent leur cul, le per-pom, 2-3-4 barres, souflettes dans la tête des démons Inch'Allah on fait du bien On a fait du mal j'sais plus pour combien Les tarots augmentent comme le prix du bidon, augmentent comme ma haine Tu kifferas moins quand tu verras qu'mes Vuitton ont vue sur la merde Pas de futur wAllah, dans les poches c'est le passé Sur le présent un cadenas, tant que y a pas assez Je vois très bien d'où ça commence, je sais pas où tout ça va se finir On baise tout avant de partir, ma bite dans la tirelire Ouais on n'est pas comme eux, pas comme eux Pas comme eux, pas comme eux ouais Plus Tony que Sosa, plus Tony que Sosa Plus Tony que Sosa, ouais pas comme eux ouais You might also like J'attends que la nuit tombe solo j'écris un tube Sauvage, un animal au milieu des hommes Mowgli fait ses premiers pas dans la nature Transporte le kilo d'Val-de-Marne en Essonne Bam-bam-bino Bam-bam-bino Rampampampam Rampampampam Correr es tu destino Rampampampam Rampampampam Ouais habiba pour la bague, j't'ai dit j'vais devoir dealer Riche dans l'haram ou pauvre dans l'halal alors choisis vas-y dis-le J'arrive au sommet que quand les péchés sont empilés La première fois qu'j'suis bé-tom j'ai laissé le terrain à Nabil Seul, des milliers d'soucis et des dizaines de bitches Seul, on vendait tu regardais les Télétubbies En photo sur Facebook sur Twitter et en fait Pas 36 solutions en photo jusqu'au 36 des Orfèvres Mais quand tu dis vous toi tu cites qui en fait ? Prononce mon blaze j'aimerais bien rigoler Que la famille les dents frottent l'assiette J'vais t'schlasser le visage sera en cabriolet Ouais on n'est pas comme eux, pas comme eux Pas comme eux, pas comme eux ouais Plus Tony que Sosa, plus Tony que Sosa Plus Tony que Sosa, ouais pas comme eux ouais Ouais on n'est pas comme eux, pas comme eux Pas comme eux, pas comme eux ouais Plus Tony que Sosa, plus Tony que Sosa Plus Tony que Sosa, ouais pas comme eux ouais13</t>
+          <t>ShinoX-Mker Ok, j'ai compris on s'en sort pas comme ça On est loin de la vie à Tony fuck Sosa, on me baise pas Gratte pas l'amitié on est QLF, on s'écarte Chacun son chemin chacun son bénef' J'm'endors cagoulé, je rêve dans l'anonymat On ne pense qu'à mouler, sur ma branche comme Cheeta WAllah, qu'on se vend pas qu'on se baisse pas pour ter-mon Au sheitan ils donnent leur cul, le per-pom, 2-3-4 barres, souflettes dans la tête des démons Inch'Allah on fait du bien On a fait du mal j'sais plus pour combien Les tarots augmentent comme le prix du bidon, augmentent comme ma haine Tu kifferas moins quand tu verras qu'mes Vuitton ont vue sur la merde Pas de futur wAllah, dans les poches c'est le passé Sur le présent un cadenas, tant que y a pas assez Je vois très bien d'où ça commence, je sais pas où tout ça va se finir On baise tout avant de partir, ma bite dans la tirelire Ouais on n'est pas comme eux, pas comme eux Pas comme eux, pas comme eux ouais Plus Tony que Sosa, plus Tony que Sosa Plus Tony que Sosa, ouais pas comme eux ouais J'attends que la nuit tombe solo j'écris un tube Sauvage, un animal au milieu des hommes Mowgli fait ses premiers pas dans la nature Transporte le kilo d'Val-de-Marne en Essonne Bam-bam-bino Bam-bam-bino Rampampampam Rampampampam Correr es tu destino Rampampampam Rampampampam Ouais habiba pour la bague, j't'ai dit j'vais devoir dealer Riche dans l'haram ou pauvre dans l'halal alors choisis vas-y dis-le J'arrive au sommet que quand les péchés sont empilés La première fois qu'j'suis bé-tom j'ai laissé le terrain à Nabil Seul, des milliers d'soucis et des dizaines de bitches Seul, on vendait tu regardais les Télétubbies En photo sur Facebook sur Twitter et en fait Pas 36 solutions en photo jusqu'au 36 des Orfèvres Mais quand tu dis vous toi tu cites qui en fait ? Prononce mon blaze j'aimerais bien rigoler Que la famille les dents frottent l'assiette J'vais t'schlasser le visage sera en cabriolet Ouais on n'est pas comme eux, pas comme eux Pas comme eux, pas comme eux ouais Plus Tony que Sosa, plus Tony que Sosa Plus Tony que Sosa, ouais pas comme eux ouais Ouais on n'est pas comme eux, pas comme eux Pas comme eux, pas comme eux ouais Plus Tony que Sosa, plus Tony que Sosa Plus Tony que Sosa, ouais pas comme eux ouais13</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>J'monte sur scène, j'aime pas du tout, cest khéné Poto, j'kiffe pas m'voir dans tes Snaps J'fais ni Mowgli, j'fais ni Bambina Bambina, Bambina, Bambina J'finis et j'remballe mes sapes J'suis tellement du bâtiment, tellement d'la rue, tellement du hall J'suis pas comme eux, encore moins comme toi jamais Poto, j'ai pas gé-chan, le joint s'allume, j'joue pas de rôle J'comprends quand tu dis que t'es pas comme moi Faudrait un max de vitesse, faudrait un max de nuits vertes pour changer d'putain d'univers putain d'planète Faudrait un max de vie, eh, faudrait un max de vivres, merde, pour quitter l'ter-ter d'Lucifer Dans mon vaisseau, j'me sens si seul, d'vant mes péchés, j'me vois si sale, derrière, mon ange dit T'es si sombre La tête à l'envers sur l'terrain, j'vois pas l'visage de tous les autres, numéro 9, j'fais qu'des ciseaux Bang, bang, bang, bang, bang J'fume un teuz et puis j'te baise Bang, bang, bang, bang, bang Et puis, j'suis bestial donc j'te blesse Bang, bang, bang, bang, bang Toi, tu veux test mais j'claque ta fesse Bang, bang, bang, bang, bang Tu m'dis qu'j'suis le best et tu te baisses Bang, bang, bang, bang, bang J'pense à ma vie, j'ai l'manque d'la rue Bang, bang, bang, bang, bang J'regarde la lune, sombre est la vue Bang, bang, bang, bang, bang Et j'trouve que ça dure, dure, dure Bang, bang, bang, bang, bang Et j'parle aux murs, murs, murs You might also like J'préfère quand c'est réel, j'préfère quand c'est réel Comme les ba-ba-ba-balles que tirait papa Capuché dans le bend', capuché dans le bend' capuché dans le bend' Tard le soir, quand ils n'me voient pas Les anges se cassent aux P2, les démons se montrent au cul Et moi, j'suis là sans être là car le passé m'encule On subit les blessures choisit les points d'suture Ouais, j'te déshabillerai j'parle d'jà du futur Mes sentiments sont glacés, ralentis, incompréhensibles Quelques je t'aime de plus m'auraient rendu invincible Mais ta haine pour ce monde est plus forte que ton amour pour moi Les écraser car j'ai vie à construire loin d'tout ça P'tite voix m'a dit Que la famille, plus que ma vie Il restera les souvenirs, peut-être les euros, peut-être les rêves de demain Bang, bang, bang, bang, bang J'fume un teuz et puis j'te baise Bang, bang, bang, bang, bang Et puis, j'suis bestial donc j'te blesse Bang, bang, bang, bang, bang Toi, tu veux test mais j'claque ta fesse Bang, bang, bang, bang, bang Tu m'dis qu'j'suis le best et tu te baisses Bang, bang, bang, bang, bang J'pense à ma vie, j'ai l'manque d'la rue Bang, bang, bang, bang, bang J'regarde la lune, sombre est la vue Bang, bang, bang, bang, bang Et j'trouve que ça dure, dure, dure Bang, bang, bang, bang, bang Et j'parle aux murs, murs, murs20</t>
+          <t>J'monte sur scène, j'aime pas du tout, cest khéné Poto, j'kiffe pas m'voir dans tes Snaps J'fais ni Mowgli, j'fais ni Bambina Bambina, Bambina, Bambina J'finis et j'remballe mes sapes J'suis tellement du bâtiment, tellement d'la rue, tellement du hall J'suis pas comme eux, encore moins comme toi jamais Poto, j'ai pas gé-chan, le joint s'allume, j'joue pas de rôle J'comprends quand tu dis que t'es pas comme moi Faudrait un max de vitesse, faudrait un max de nuits vertes pour changer d'putain d'univers putain d'planète Faudrait un max de vie, eh, faudrait un max de vivres, merde, pour quitter l'ter-ter d'Lucifer Dans mon vaisseau, j'me sens si seul, d'vant mes péchés, j'me vois si sale, derrière, mon ange dit T'es si sombre La tête à l'envers sur l'terrain, j'vois pas l'visage de tous les autres, numéro 9, j'fais qu'des ciseaux Bang, bang, bang, bang, bang J'fume un teuz et puis j'te baise Bang, bang, bang, bang, bang Et puis, j'suis bestial donc j'te blesse Bang, bang, bang, bang, bang Toi, tu veux test mais j'claque ta fesse Bang, bang, bang, bang, bang Tu m'dis qu'j'suis le best et tu te baisses Bang, bang, bang, bang, bang J'pense à ma vie, j'ai l'manque d'la rue Bang, bang, bang, bang, bang J'regarde la lune, sombre est la vue Bang, bang, bang, bang, bang Et j'trouve que ça dure, dure, dure Bang, bang, bang, bang, bang Et j'parle aux murs, murs, murs J'préfère quand c'est réel, j'préfère quand c'est réel Comme les ba-ba-ba-balles que tirait papa Capuché dans le bend', capuché dans le bend' capuché dans le bend' Tard le soir, quand ils n'me voient pas Les anges se cassent aux P2, les démons se montrent au cul Et moi, j'suis là sans être là car le passé m'encule On subit les blessures choisit les points d'suture Ouais, j'te déshabillerai j'parle d'jà du futur Mes sentiments sont glacés, ralentis, incompréhensibles Quelques je t'aime de plus m'auraient rendu invincible Mais ta haine pour ce monde est plus forte que ton amour pour moi Les écraser car j'ai vie à construire loin d'tout ça P'tite voix m'a dit Que la famille, plus que ma vie Il restera les souvenirs, peut-être les euros, peut-être les rêves de demain Bang, bang, bang, bang, bang J'fume un teuz et puis j'te baise Bang, bang, bang, bang, bang Et puis, j'suis bestial donc j'te blesse Bang, bang, bang, bang, bang Toi, tu veux test mais j'claque ta fesse Bang, bang, bang, bang, bang Tu m'dis qu'j'suis le best et tu te baisses Bang, bang, bang, bang, bang J'pense à ma vie, j'ai l'manque d'la rue Bang, bang, bang, bang, bang J'regarde la lune, sombre est la vue Bang, bang, bang, bang, bang Et j'trouve que ça dure, dure, dure Bang, bang, bang, bang, bang Et j'parle aux murs, murs, murs20</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Igo, on vend, tachètes et puis on s'barre en Espagne Des talons, un gros boule et j'parle en Cómo está ? Chica, chica, vida loca, chico, loco Ah chica, chickette, vendeur, taga, zik, beuh, coco J'kiffe si t'es la plus bonne en shorty dentelle Bitch, j'suis l'plus hardcore, champagne, pilon, pompette J'pense pas aux gens, oh nan j'm'en tape J'calcule plus rien, j'suis khabat au max' Sourire d'une beurette car on déboule de Paname J'pense au bon-char même quand sous l'soleil j'me balade Snapchat en direction du futur, y'a R Elle m'kiffe car mes Louis Vuitton ont vue sur la mer Yah yah yah yah, ok Manny ? Yah yah yah yah, ok la Miss ? Wesh ma go ? Wesh la plus bella ? Wesh ma go du Venezuela ? Mec, on t'sers, combien tu veux ? PNL, le caleçon pue la beuh Today, ça sort, ça s'tue les kheys Ok ? Ça s'tue les kheys Mec, on t'sers, combien tu veux ? PNL, le caleçon pue la beuh Today, ça sort, ça s'tue les kheys Ok ? Ça s'tue les kheys You might also like Igo, j'suis cool, pour tout te dire mieux qu'ça j'suis QLF Ok ça roule, audio danser, on laisse les keufs dans l'zef Gala, j'emmène la misère en balade Paname, 9.1 c'est la street qui canarde Là j'vis la vie qu'j'aurai pas, j'la nique et j'm'en sépare J'récupère même ses bas, juste avant mon départ Igo, j'vis en selfie avec la shneck d'un colis Elle ne pige pas ma langue, se fiche que j'sois impoli Igo, on s'casse, j'emmène en croisière la misère Plus j'prends d'la distance avec mon hood, plus ma Gucci s'desserre J'suis dans mon film, dans mon game, une liasse, la braguette open J'ai bossé la rue toute l'année, l'doigt en l'air, jour de paye J'suis dans ma fonss' J'ai mon cash, et ma Gucc' et ma cons' Attitude gang Belle inconnue qui veut la danse Le regard noir, j'ai un bon teint, dans mon V, belle demoiselle Elle veut savoir qui j'suis ? Moi c'est N.O.S du PNL Mec, on t'sers, combien tu veux ? PNL, le caleçon pue la beuh Today, ça sort, ça s'tue les kheys Ok ? Ça s'tue les kheys Mec, on t'sers, combien tu veux ? PNL, le caleçon pue la beuh Today, ça sort, ça s'tue les kheys Ok ? Ça s'tue les kheys9</t>
+          <t>Igo, on vend, tachètes et puis on s'barre en Espagne Des talons, un gros boule et j'parle en Cómo está ? Chica, chica, vida loca, chico, loco Ah chica, chickette, vendeur, taga, zik, beuh, coco J'kiffe si t'es la plus bonne en shorty dentelle Bitch, j'suis l'plus hardcore, champagne, pilon, pompette J'pense pas aux gens, oh nan j'm'en tape J'calcule plus rien, j'suis khabat au max' Sourire d'une beurette car on déboule de Paname J'pense au bon-char même quand sous l'soleil j'me balade Snapchat en direction du futur, y'a R Elle m'kiffe car mes Louis Vuitton ont vue sur la mer Yah yah yah yah, ok Manny ? Yah yah yah yah, ok la Miss ? Wesh ma go ? Wesh la plus bella ? Wesh ma go du Venezuela ? Mec, on t'sers, combien tu veux ? PNL, le caleçon pue la beuh Today, ça sort, ça s'tue les kheys Ok ? Ça s'tue les kheys Mec, on t'sers, combien tu veux ? PNL, le caleçon pue la beuh Today, ça sort, ça s'tue les kheys Ok ? Ça s'tue les kheys Igo, j'suis cool, pour tout te dire mieux qu'ça j'suis QLF Ok ça roule, audio danser, on laisse les keufs dans l'zef Gala, j'emmène la misère en balade Paname, 9.1 c'est la street qui canarde Là j'vis la vie qu'j'aurai pas, j'la nique et j'm'en sépare J'récupère même ses bas, juste avant mon départ Igo, j'vis en selfie avec la shneck d'un colis Elle ne pige pas ma langue, se fiche que j'sois impoli Igo, on s'casse, j'emmène en croisière la misère Plus j'prends d'la distance avec mon hood, plus ma Gucci s'desserre J'suis dans mon film, dans mon game, une liasse, la braguette open J'ai bossé la rue toute l'année, l'doigt en l'air, jour de paye J'suis dans ma fonss' J'ai mon cash, et ma Gucc' et ma cons' Attitude gang Belle inconnue qui veut la danse Le regard noir, j'ai un bon teint, dans mon V, belle demoiselle Elle veut savoir qui j'suis ? Moi c'est N.O.S du PNL Mec, on t'sers, combien tu veux ? PNL, le caleçon pue la beuh Today, ça sort, ça s'tue les kheys Ok ? Ça s'tue les kheys Mec, on t'sers, combien tu veux ? PNL, le caleçon pue la beuh Today, ça sort, ça s'tue les kheys Ok ? Ça s'tue les kheys9</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Igo j'suis dans mon bat' L'argent vient et s'en va Cold Blood Beats Igo, 'Ient-'ient fidèle, pas besoin d'la loyauté de cette go J'claque le bénef' à la Madelaine et dans le frigo Pas comme un frère un pote ça se remplace amigo Tu gagneras pas avec nous y aura pas d'ex-æquo Faut pas t'en faire on assume nos affaires QLF Connaissent pas l'oseille doit rapidement brûler par l'bénef' Mes ennemis dans le viseur, goût d'mon sang sur les lèvres J'aime faire bégayer le hagar j'aime quand le bien s'élève Cherche monnaie pour la mif pas pour la schnek de ta pute Verre d'alcool me rappelle qu'j'ai la haine quand j'ai bu Fils de bandit, j'ai vu j'ai grandi, kiffé la rue On se capte demain la même heure, la même hass, même tarot Là j'tiens l'rrain-té j'pense à mon sang derrière les barreaux J'arrête les bails l'oseille fond et je repars de zéro Et de nouveau le coffre est chargé, me rappelle le gyro' C'est pour ceux qui crèvent isolés, tous ceux qu'on oublie C'est pour mon Zoo, naquit à 'Bebeil, Mowgli Y a qu'à la mère d'aux gens biens et aux petits qu'on sourit Que la famille dans les yeux QLF j'peux mourir You might also like Toute ma vie Que la mif' QLF PNL Cold Blood Beats Toute ma vie Que la mif' QLF PNL Toute ma vie Que la mif' QLF PNL Toute ma vie Que la mif' QLF PNL Ok bougez, allez, cassez vos cous Si c'est ta femme je vais pas t'casser ton coup Gros fais belek, t'es mort dans le film J'ai même plus besoin de tâter ton pouls Faut du soleil, j'suis frileux comme Sanka J'dis à son boule j'ai pas besoin de Redbull Naha m'appelle, copine attends Tu veux du taga ou j't'envoie des mandats Dehors ça pue, les pédés me 3ienne J'perce pas car j'ai pas une voix de miel Et les minettes, j't'en parle même pas J'trouve pas la bonne j'vois des tonnes de chiennes J'ai la même dégaine, tu connais j'suis cramé Petit bob sur la tête, c'est dur de sourire J'fais pas la fête, le cur est noir WAllah j'ai même plus envie de vanner Mais j'suis confiant, toi même tu sais J'suis l'plus déterminé des enfoirés En attendant j'suis à l'hôtel J'ai besoin de sentiments tu connais le taré J'ai les mains sales, c'est la merde obligé Quand j'fais l'odo j'fais peur au robinet Beaucoup d'ennemis, j'porte du DG J'les ken ils m'feront pas porter de gilet Cold Blood Beats J'suis en mode Cuba ou Mexico Holà chica, adios mi amigo Faut qu'j'soigne mon cur, faut qu'j'soigne ma chicot J'les prend en i, bang bang à la Rico Ils m'jalousent j'm'en fous, j'suis parano J'Bebeto, Romario Zamorano J'leur mets l'crochet et j'tire en touche Ils m'disent Pourquoi ?, j'dis J'vais plus au ballon Si tu voyais la rette-beu 1 v 6 J'veux aller jouer, j'veux attendre la petite Fuck le parlu et la 3ème série Garde les crocs grave, les bravas, lappétit Lala j't'oublie pas Papa j'suis en bas Baba j'fais click bah Bah-bah Toute ma vie Que la mif' QLF PNL Toute ma vie Que la mif' QLF PNL10</t>
+          <t>Igo j'suis dans mon bat' L'argent vient et s'en va Cold Blood Beats Igo, 'Ient-'ient fidèle, pas besoin d'la loyauté de cette go J'claque le bénef' à la Madelaine et dans le frigo Pas comme un frère un pote ça se remplace amigo Tu gagneras pas avec nous y aura pas d'ex-æquo Faut pas t'en faire on assume nos affaires QLF Connaissent pas l'oseille doit rapidement brûler par l'bénef' Mes ennemis dans le viseur, goût d'mon sang sur les lèvres J'aime faire bégayer le hagar j'aime quand le bien s'élève Cherche monnaie pour la mif pas pour la schnek de ta pute Verre d'alcool me rappelle qu'j'ai la haine quand j'ai bu Fils de bandit, j'ai vu j'ai grandi, kiffé la rue On se capte demain la même heure, la même hass, même tarot Là j'tiens l'rrain-té j'pense à mon sang derrière les barreaux J'arrête les bails l'oseille fond et je repars de zéro Et de nouveau le coffre est chargé, me rappelle le gyro' C'est pour ceux qui crèvent isolés, tous ceux qu'on oublie C'est pour mon Zoo, naquit à 'Bebeil, Mowgli Y a qu'à la mère d'aux gens biens et aux petits qu'on sourit Que la famille dans les yeux QLF j'peux mourir Toute ma vie Que la mif' QLF PNL Cold Blood Beats Toute ma vie Que la mif' QLF PNL Toute ma vie Que la mif' QLF PNL Toute ma vie Que la mif' QLF PNL Ok bougez, allez, cassez vos cous Si c'est ta femme je vais pas t'casser ton coup Gros fais belek, t'es mort dans le film J'ai même plus besoin de tâter ton pouls Faut du soleil, j'suis frileux comme Sanka J'dis à son boule j'ai pas besoin de Redbull Naha m'appelle, copine attends Tu veux du taga ou j't'envoie des mandats Dehors ça pue, les pédés me 3ienne J'perce pas car j'ai pas une voix de miel Et les minettes, j't'en parle même pas J'trouve pas la bonne j'vois des tonnes de chiennes J'ai la même dégaine, tu connais j'suis cramé Petit bob sur la tête, c'est dur de sourire J'fais pas la fête, le cur est noir WAllah j'ai même plus envie de vanner Mais j'suis confiant, toi même tu sais J'suis l'plus déterminé des enfoirés En attendant j'suis à l'hôtel J'ai besoin de sentiments tu connais le taré J'ai les mains sales, c'est la merde obligé Quand j'fais l'odo j'fais peur au robinet Beaucoup d'ennemis, j'porte du DG J'les ken ils m'feront pas porter de gilet Cold Blood Beats J'suis en mode Cuba ou Mexico Holà chica, adios mi amigo Faut qu'j'soigne mon cur, faut qu'j'soigne ma chicot J'les prend en i, bang bang à la Rico Ils m'jalousent j'm'en fous, j'suis parano J'Bebeto, Romario Zamorano J'leur mets l'crochet et j'tire en touche Ils m'disent Pourquoi ?, j'dis J'vais plus au ballon Si tu voyais la rette-beu 1 v 6 J'veux aller jouer, j'veux attendre la petite Fuck le parlu et la 3ème série Garde les crocs grave, les bravas, lappétit Lala j't'oublie pas Papa j'suis en bas Baba j'fais click bah Bah-bah Toute ma vie Que la mif' QLF PNL Toute ma vie Que la mif' QLF PNL10</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>J'suis abonné, abonné J'suis abonné, abonné Élevé par un bandit, ouais, papa apprends-moi à tuer Écoute le cri de Mowgli, ouais, la hess m'a appris à muer Ouais, on se revoit dans quelques los-ki, le passé, le présent sur la pouki Du futur, je te fais un croquis PNL, les putains huaient On va chercher seuls, on redétaille seuls, qu'ils niquent leurs mothers On prend le monde seul, la porte est entrouverte on glisse le majeur Quelques billets dans les tripes Ça y est, j'ai comblé le vide Mon ange a pleuré, parce que j'ai péché J'voudrais lui dire que j'aimerais tous les aimer Mais qu'au final ces bâtards me feraient saigner Je fais le tour du rain-té, je reviens empoché Nachave ou parle au cul d'mon teh Ou passe voter comme l'poto vé-Her J'me refais, j'me refais l'portrait en vert J'pose la miff avant qu'on m'enterre A-a-abonné, a-a-abonné, a-a-abonné A-a-abonné, a-a-abonné, a-a-abonné You might also like Une flamme, une flamme, une flamme, j'allume tout Moi j'suis dans la merde, j'sais pas pour vous Une femme, deux femmes, trois femmes, toutes elles gobent Une fois, deux fois, trois fois, tout pour le globe J'ai une drôle de vision entre vautours et hyènes Tu peux te faire oublier mais tu garderas tes péchés comme Ayem On les baise, on n'baisse pas notre froc devant ces locas Loco-loco, loco-loco, je vends la pomme tu la croques Hum, tu raques, tu raques car notre son c'est du crack-crack Ah gars-gars-gars-gars, on t'a-bat-bat-bat, on te braque tu craques-craques Hum, mon ami Pierrot je te hagar ta plume Hum, dans un froid polaire au clair de la Lune Nachave ou parle au cul d'mon teh Ou passe voter comme l'poto vé-Her J'me refais, j'me refais l'portrait en vert J'pose la miff avant qu'on m'enterre A-a-abonné, a-a-abonné, a-a-abonné A-a-abonné, a-a-abonné, a-a-abonné A-a-abonné, a-a-abonné, a-a-abonné A-a-abonné, a-a-abonné, a-a-abonné21</t>
+          <t>J'suis abonné, abonné J'suis abonné, abonné Élevé par un bandit, ouais, papa apprends-moi à tuer Écoute le cri de Mowgli, ouais, la hess m'a appris à muer Ouais, on se revoit dans quelques los-ki, le passé, le présent sur la pouki Du futur, je te fais un croquis PNL, les putains huaient On va chercher seuls, on redétaille seuls, qu'ils niquent leurs mothers On prend le monde seul, la porte est entrouverte on glisse le majeur Quelques billets dans les tripes Ça y est, j'ai comblé le vide Mon ange a pleuré, parce que j'ai péché J'voudrais lui dire que j'aimerais tous les aimer Mais qu'au final ces bâtards me feraient saigner Je fais le tour du rain-té, je reviens empoché Nachave ou parle au cul d'mon teh Ou passe voter comme l'poto vé-Her J'me refais, j'me refais l'portrait en vert J'pose la miff avant qu'on m'enterre A-a-abonné, a-a-abonné, a-a-abonné A-a-abonné, a-a-abonné, a-a-abonné Une flamme, une flamme, une flamme, j'allume tout Moi j'suis dans la merde, j'sais pas pour vous Une femme, deux femmes, trois femmes, toutes elles gobent Une fois, deux fois, trois fois, tout pour le globe J'ai une drôle de vision entre vautours et hyènes Tu peux te faire oublier mais tu garderas tes péchés comme Ayem On les baise, on n'baisse pas notre froc devant ces locas Loco-loco, loco-loco, je vends la pomme tu la croques Hum, tu raques, tu raques car notre son c'est du crack-crack Ah gars-gars-gars-gars, on t'a-bat-bat-bat, on te braque tu craques-craques Hum, mon ami Pierrot je te hagar ta plume Hum, dans un froid polaire au clair de la Lune Nachave ou parle au cul d'mon teh Ou passe voter comme l'poto vé-Her J'me refais, j'me refais l'portrait en vert J'pose la miff avant qu'on m'enterre A-a-abonné, a-a-abonné, a-a-abonné A-a-abonné, a-a-abonné, a-a-abonné A-a-abonné, a-a-abonné, a-a-abonné A-a-abonné, a-a-abonné, a-a-abonné21</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>La honte La honte, la honte, la honte Igo j'm'en bats les couilles de ta vie J'te sors ma langue comme Manny huh Que des frères igo, pas d'amis Si y'a les lovés on sera pea-pea-pea-peace Compter-compter le temps c'est plus le délire, on arrive à pile On coupe, on détaille, on emballe, on bibi à la Kill Bill Fous le zbeul, copine la rage au fond de la pupille, te pine On veut la vie de rêve, elles veulent toutes l'arrière à Kim-Kim J'crame ma garo puis j'respire comme si j'sortais d'Guantanamo Taga camaro, on fume avec les cernes, les cernes à Navarro Tu veux des mots doux ? Impossible car la rage et la haine m'ont élevé J'me déshabille au parlu, me3lich, j'habillerai mon fils en LV Où sont les faux qu'on les cane ? Tu connais nos vies, gros c'est sale, c'est grâce au haram qu'on a mis des zéros sur nos salaires J'te ken t'es pas mon égal, on est méthodiques on fait mal et man regarde-moi cher-mar comme un singe sur la planète singe sur la planète Pas là pour perdre, la défaite n'est pas une option, marre d'avoir le sourire à l'envers J'compte leur mettre, j'compte arriver comme un ancien, j'compte partir comme un ancêtre Cigare de Cuba j'te fumerais avant que tu m'embrasses comme Judas Hijo de puta, j'te donne RDV sur le terrain à Cheeta Appelle-moi A.D ounga ounga ounga, la haine en saccadé, pédé J'ai pas d'Audi TT, j'pars pas, pas l'choix, j'bibi c't'été You might also like Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler QLF, le temps passe, une bougie d'plus toujours rien à fêter PNL, petit de la portée rejeté, rien à téter Cette année on nique tout, igo on fait l'bénef sans s'arrêter Ouais, ni ces pédés, ni tes amigos ne peuvent nous inquiéter Pour la hassana isolés, pas ceux qu'on invite Rappelle-moi ton nom après que j'ai rangé ma bite Quelques tractions, j'crache la haine qui m'habite, j'vends pas, j'finis à poil y'a personne qui m'habille Tente de m'éloigner du haram, moi, l'ange du mal sait où j'habite Tous ces pêchés, doucement, j'suis en train d'm'immoler J'suis pas comme eux, je ne me confonds pas, j'suis isolé J'attends l'appel de personne à part celui des iens-clar J'bénef dans l'frigo et l'cendard, dans un peu d'joint, dans les mandats Qui t'parle de passion ou d'hobby là j'vais pas t'enjailler Fragile comme la paix, m'oblige pas, d'humeur à mitrailler J'croyais sauver l'monde, pardonnez-moi je n'y changerai rien Dans le présent, dans le futur, j'pète une niaks avec le dernier terrien Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler8</t>
+          <t>La honte La honte, la honte, la honte Igo j'm'en bats les couilles de ta vie J'te sors ma langue comme Manny huh Que des frères igo, pas d'amis Si y'a les lovés on sera pea-pea-pea-peace Compter-compter le temps c'est plus le délire, on arrive à pile On coupe, on détaille, on emballe, on bibi à la Kill Bill Fous le zbeul, copine la rage au fond de la pupille, te pine On veut la vie de rêve, elles veulent toutes l'arrière à Kim-Kim J'crame ma garo puis j'respire comme si j'sortais d'Guantanamo Taga camaro, on fume avec les cernes, les cernes à Navarro Tu veux des mots doux ? Impossible car la rage et la haine m'ont élevé J'me déshabille au parlu, me3lich, j'habillerai mon fils en LV Où sont les faux qu'on les cane ? Tu connais nos vies, gros c'est sale, c'est grâce au haram qu'on a mis des zéros sur nos salaires J'te ken t'es pas mon égal, on est méthodiques on fait mal et man regarde-moi cher-mar comme un singe sur la planète singe sur la planète Pas là pour perdre, la défaite n'est pas une option, marre d'avoir le sourire à l'envers J'compte leur mettre, j'compte arriver comme un ancien, j'compte partir comme un ancêtre Cigare de Cuba j'te fumerais avant que tu m'embrasses comme Judas Hijo de puta, j'te donne RDV sur le terrain à Cheeta Appelle-moi A.D ounga ounga ounga, la haine en saccadé, pédé J'ai pas d'Audi TT, j'pars pas, pas l'choix, j'bibi c't'été Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler QLF, le temps passe, une bougie d'plus toujours rien à fêter PNL, petit de la portée rejeté, rien à téter Cette année on nique tout, igo on fait l'bénef sans s'arrêter Ouais, ni ces pédés, ni tes amigos ne peuvent nous inquiéter Pour la hassana isolés, pas ceux qu'on invite Rappelle-moi ton nom après que j'ai rangé ma bite Quelques tractions, j'crache la haine qui m'habite, j'vends pas, j'finis à poil y'a personne qui m'habille Tente de m'éloigner du haram, moi, l'ange du mal sait où j'habite Tous ces pêchés, doucement, j'suis en train d'm'immoler J'suis pas comme eux, je ne me confonds pas, j'suis isolé J'attends l'appel de personne à part celui des iens-clar J'bénef dans l'frigo et l'cendard, dans un peu d'joint, dans les mandats Qui t'parle de passion ou d'hobby là j'vais pas t'enjailler Fragile comme la paix, m'oblige pas, d'humeur à mitrailler J'croyais sauver l'monde, pardonnez-moi je n'y changerai rien Dans le présent, dans le futur, j'pète une niaks avec le dernier terrien Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler8</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Une brise dans la vallée, j'descends d'la selle Une bise sur mon âme noire, elle fait la belle Hé poto, les larmes coulent sur le pare-brise Les pneus glissent sur mes yeux rouges Les lions roulent dans la matrice Gros sourire sur le gars triste Pas d'AD sans cicatrices C'est la vie, peace Et le temps m'baise baise Tant d'haine haine s'évacue d'mon corps et crée la tempête oh lblème, oh lblème J'ai songé, j'ai songé, à fuir à Los Angeles J'me suis rongé, cerveau rodé comme un Hells Angels J'ai tapé dans l'paquet d'guinz la garo est tie-sor Dernière paire aux ied-ps, papa est posé sur l'trésor Ce flow me stresse, cette vie me gêne, ce regard me gêne Sans cesse cette pute met j'aime clique, j'aime Bruit de pluie Seul sous la capuche Aah Jamais lâcher peu d'quantité On donne le temps, d'la qualité Souvent spooney, tard la night On s'rappelle d'nos vies, d'la réalité Oh lblème, oh lblème... Yah yah yah yah yah Que La F Dans l'regard, le vide rappelle nos démons Dans l'regard, le vide rappelle nos démons Oh lblème, oh lblème, oh lblème, oh lblème Yah yah yah yah yah You might also like Faut que j'apprenne à kiffer ma vie Des fois, à oublier la sère-mi Mais bon tu sais, pas si facile Quand j'pense à c'que mes frères, surs vivent Le matin, sûr, tu m'croiseras pas tu m'croiseras jamais J'aurais passé la nuit à combattre le noir J'remercie l'bon Dieu, tu sais j'suis free mais bon j'suis bête Moi j'vais souvent vers l'obscurité dans la tempête Elle me chuchote t'es flow de dingue Et je tords l'âme d'une gow de dingue J'écoule des milliers de vingt J'vois des Z sur toutes les mains Et j'croise mes anciens cliquos M'disent Nabil des fois t'as une dose ? Changer de vie avant qu'la vie m'change J'fais du PNL crois pas que je chante À gauche, à droite, la flicaille me dévisage On prend l'monde, c'est notre héritage Celui dla rue, grosse paix sur vous, j'tire sur la Lune Quand elle est pleine, quand elle est vide, j'remets ma capuche Jamais lâcher peu d'quantité On donne le temps, d'la qualité Souvent spooney, tard la night On s'rappelle d'nos vies, d'la réalité Oh lblème, oh lblème... Yah yah yah yah yah Que La F Dans l'regard, le vide rappelle nos démons Dans l'regard, le vide rappelle nos démons Oh lblème, oh lblème, oh lblème, oh lblème Bruit de pluie Seul sous la capuche Aah Yah yah yah yah yah17</t>
+          <t>Une brise dans la vallée, j'descends d'la selle Une bise sur mon âme noire, elle fait la belle Hé poto, les larmes coulent sur le pare-brise Les pneus glissent sur mes yeux rouges Les lions roulent dans la matrice Gros sourire sur le gars triste Pas d'AD sans cicatrices C'est la vie, peace Et le temps m'baise baise Tant d'haine haine s'évacue d'mon corps et crée la tempête oh lblème, oh lblème J'ai songé, j'ai songé, à fuir à Los Angeles J'me suis rongé, cerveau rodé comme un Hells Angels J'ai tapé dans l'paquet d'guinz la garo est tie-sor Dernière paire aux ied-ps, papa est posé sur l'trésor Ce flow me stresse, cette vie me gêne, ce regard me gêne Sans cesse cette pute met j'aime clique, j'aime Bruit de pluie Seul sous la capuche Aah Jamais lâcher peu d'quantité On donne le temps, d'la qualité Souvent spooney, tard la night On s'rappelle d'nos vies, d'la réalité Oh lblème, oh lblème... Yah yah yah yah yah Que La F Dans l'regard, le vide rappelle nos démons Dans l'regard, le vide rappelle nos démons Oh lblème, oh lblème, oh lblème, oh lblème Yah yah yah yah yah Faut que j'apprenne à kiffer ma vie Des fois, à oublier la sère-mi Mais bon tu sais, pas si facile Quand j'pense à c'que mes frères, surs vivent Le matin, sûr, tu m'croiseras pas tu m'croiseras jamais J'aurais passé la nuit à combattre le noir J'remercie l'bon Dieu, tu sais j'suis free mais bon j'suis bête Moi j'vais souvent vers l'obscurité dans la tempête Elle me chuchote t'es flow de dingue Et je tords l'âme d'une gow de dingue J'écoule des milliers de vingt J'vois des Z sur toutes les mains Et j'croise mes anciens cliquos M'disent Nabil des fois t'as une dose ? Changer de vie avant qu'la vie m'change J'fais du PNL crois pas que je chante À gauche, à droite, la flicaille me dévisage On prend l'monde, c'est notre héritage Celui dla rue, grosse paix sur vous, j'tire sur la Lune Quand elle est pleine, quand elle est vide, j'remets ma capuche Jamais lâcher peu d'quantité On donne le temps, d'la qualité Souvent spooney, tard la night On s'rappelle d'nos vies, d'la réalité Oh lblème, oh lblème... Yah yah yah yah yah Que La F Dans l'regard, le vide rappelle nos démons Dans l'regard, le vide rappelle nos démons Oh lblème, oh lblème, oh lblème, oh lblème Bruit de pluie Seul sous la capuche Aah Yah yah yah yah yah17</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>J'ai pas rêvé, j'me réveille, pas tout à fait comme la veille J'ai pas rêvé, j'me réveille, pas tout à fait comme la veille J'ai pas rêvé, j'me réveille, pas tout à fait comme la veille Ah, khey, 'seille J'ai pas rêvé, j'me réveille putain d'cauchemar Pas tout à fait comme la veille ah, j'en ai marre Paranoïaque, comme d'habitude vie de putain C'putain d'billet nous a dit Tu j'en fais plus d'un F'ras beaucoup de mal à ces putes Beaucoup de mal à ces putes ces putes J'suis dans ma tête, j'navigue un peu toujours dans l'game T'es dans un putain d'jeu putain d'jeu Oh oui, oh oui, cherche pas la bête Cherche pas l'démon, qui s'cache derrière Tellement d'barrières à sauter ou à éviter, tellement uh Dangereux qu'il faudrait léviter lé-lé-lé-lé J'suis dans, j'suis dans J'suis dans un game, dans un putain d'jeu lé-lé-lé-lé Dans un ouuuuuuh lé-lé-lé-lé, dans un mer-dier Dans un game, dans un putain d'jeu Dans un ouh, dans un monde Oui oh oui, putain d'jeu Putain d'game, j'suis dans la folie P't-être qu'un jour, j'm'arrêterai You might also like Toi, tu m'comprends pas, moi-même, j'comprends pas Moi, j'baise bourgeoises qui demandent pourquoi Pourquoi tu bois ? Toi, j't'aime pas Un peu comme la prod que j'baise quand même L'Histoire est longue mais toi, t'as pas D'cur pour ma haine, j'te baise quand même Donc reste sur ma bite et cambre, p'tite chienne J'ai un Sheitan dans les yeux, c'est la merde Pour leur bonheur, qu'est-c'que j'pourrais pas te faire Faudra pas m'en vouloir, j'les aime plus qu'la Terre Bitch, j'ai pas vu passer ton boule comme l'hiver Un, deux, trois, quatre, j'recompte avant l'show Pendant qu'la rue tremble sous les cros-mi, kho Chez moi, c'est à l'envers Juste un peu sur les nerfs Putain d'album, faudra faire Pour parler à ces cons, mon frère J'suis dans, j'suis dans J'suis dans un game, dans un putain d'jeu lé-lé-lé-lé Dans un ouh lé-lé-lé-lé, dans un mer-dier Dans un game, dans un putain d'jeu Dans un ouh, dans un monde Oui oh oui, putain d'jeu Putain d'game, j'suis dans la folie P't-être qu'un jour, j'm'arrêterai15</t>
+          <t>J'ai pas rêvé, j'me réveille, pas tout à fait comme la veille J'ai pas rêvé, j'me réveille, pas tout à fait comme la veille J'ai pas rêvé, j'me réveille, pas tout à fait comme la veille Ah, khey, 'seille J'ai pas rêvé, j'me réveille putain d'cauchemar Pas tout à fait comme la veille ah, j'en ai marre Paranoïaque, comme d'habitude vie de putain C'putain d'billet nous a dit Tu j'en fais plus d'un F'ras beaucoup de mal à ces putes Beaucoup de mal à ces putes ces putes J'suis dans ma tête, j'navigue un peu toujours dans l'game T'es dans un putain d'jeu putain d'jeu Oh oui, oh oui, cherche pas la bête Cherche pas l'démon, qui s'cache derrière Tellement d'barrières à sauter ou à éviter, tellement uh Dangereux qu'il faudrait léviter lé-lé-lé-lé J'suis dans, j'suis dans J'suis dans un game, dans un putain d'jeu lé-lé-lé-lé Dans un ouuuuuuh lé-lé-lé-lé, dans un mer-dier Dans un game, dans un putain d'jeu Dans un ouh, dans un monde Oui oh oui, putain d'jeu Putain d'game, j'suis dans la folie P't-être qu'un jour, j'm'arrêterai Toi, tu m'comprends pas, moi-même, j'comprends pas Moi, j'baise bourgeoises qui demandent pourquoi Pourquoi tu bois ? Toi, j't'aime pas Un peu comme la prod que j'baise quand même L'Histoire est longue mais toi, t'as pas D'cur pour ma haine, j'te baise quand même Donc reste sur ma bite et cambre, p'tite chienne J'ai un Sheitan dans les yeux, c'est la merde Pour leur bonheur, qu'est-c'que j'pourrais pas te faire Faudra pas m'en vouloir, j'les aime plus qu'la Terre Bitch, j'ai pas vu passer ton boule comme l'hiver Un, deux, trois, quatre, j'recompte avant l'show Pendant qu'la rue tremble sous les cros-mi, kho Chez moi, c'est à l'envers Juste un peu sur les nerfs Putain d'album, faudra faire Pour parler à ces cons, mon frère J'suis dans, j'suis dans J'suis dans un game, dans un putain d'jeu lé-lé-lé-lé Dans un ouh lé-lé-lé-lé, dans un mer-dier Dans un game, dans un putain d'jeu Dans un ouh, dans un monde Oui oh oui, putain d'jeu Putain d'game, j'suis dans la folie P't-être qu'un jour, j'm'arrêterai15</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais, ouais J'fais l'odo, j'fais peur au robinet ma gueule Tu m'dis qu'tu m'aimes pour le buzz, t'fous pas d'ma gueule T'as toujours l'Diable si t'as peur d'finir seul J'ai moins peur d'être pauvre que d'finir riche seul T'as des pêchés ? Vas-y, test' et on t'les lave C'est bientôt, au moins un, qu'tous, on déménage Demi-kil', damné, dans la ride N'imagine surtout pas que j'pimp my life my life, my life J'ai rêvé qu'j'vendais des barrettes à mes fans bah ouais, bah ouais Nos clips méritent le Festival de Cannes J'vois un po-poster, j'ai l'regard qui louche Naha, y a un gros popotin qui m'attend dans la douche J'souffle la fumée, j'souffle la fumée ouf, ouf, ouf J'souffre, abusé, j'souffre, abusé, toz J'suis dans la fusée, dans la fusée, ouais Viens m'la mmh, viens m'la mmh, ouais Laisse laisse, laisse laisse, laisse PNL gère gère, gère gère, gère Ces cons sont verts verts, verts eh, verts Ils ont l'seum, cheh cheh, cheh cheh, cheh Ah, woulah, gros, vite fait, vite fait J'emballe, OK eh, chica eh, chica, ray-ay-ay, gros Niqué, niqué, champagne, pompette eh J'kiffe loca eh, loca, ray-ay-ay, gros You might also like J'ai mis du temps à m'habituer à cette obscurité Donc j'caresse timidement la lumière par sécurité Pour sortir de l'impasse, une chaise au fond d'un hall On est là pour les liasses, amuse-toi, joue ton rôle Plus tu montes, plus c'est propre, pour l'instant, on fait du sale en bas Ton joli boule refait l'décor, reste, pourquoi tu t'en vas ? ouais, ouais, ouais, ouais, ouais, ouais Au-d'ssus des lois, c'est sous l'sommier Rien fait d'beau dans la vie, j'suis pas premier La mif a la dalle, j'suis sous l'pommier j'suis sous l'pommier, j'suis sous l'pommier La jungle attend de voir attend, putain de trône, revenir à la maison Jasmine, Jafar Jafar, deux-trois liasses pour faire fondre ton glaçon Gag, wesh le zoo, j'cours toujours après les sous J'parle toujours avec les fous et pour l'aimer, j'suis Jack-sous J'pense à mes frères qui s'en sortent pas, Gucci resserré sur le ssin-ba J'suis que la famille, quand j'emballe, arriba, arriba Laisse laisse, laisse laisse, laisse PNL gère gère, gère gère, gère Ces cons sont verts verts, verts eh, verts Ils ont l'seum, cheh cheh, cheh cheh, cheh Ah, woulah, gros, vite fait, vite fait J'emballe, OK eh, chica eh, chica, ray-ay-ay, gros Niqué, niqué, champagne, pompette eh J'kiffe loca eh, loca, ray-ay-ay, gros Eh, eh eh, eh, eh, eh Eh, eh eh, eh, eh, eh Ray-ay-ay, gros6</t>
+          <t>Ouais, ouais, ouais, ouais J'fais l'odo, j'fais peur au robinet ma gueule Tu m'dis qu'tu m'aimes pour le buzz, t'fous pas d'ma gueule T'as toujours l'Diable si t'as peur d'finir seul J'ai moins peur d'être pauvre que d'finir riche seul T'as des pêchés ? Vas-y, test' et on t'les lave C'est bientôt, au moins un, qu'tous, on déménage Demi-kil', damné, dans la ride N'imagine surtout pas que j'pimp my life my life, my life J'ai rêvé qu'j'vendais des barrettes à mes fans bah ouais, bah ouais Nos clips méritent le Festival de Cannes J'vois un po-poster, j'ai l'regard qui louche Naha, y a un gros popotin qui m'attend dans la douche J'souffle la fumée, j'souffle la fumée ouf, ouf, ouf J'souffre, abusé, j'souffre, abusé, toz J'suis dans la fusée, dans la fusée, ouais Viens m'la mmh, viens m'la mmh, ouais Laisse laisse, laisse laisse, laisse PNL gère gère, gère gère, gère Ces cons sont verts verts, verts eh, verts Ils ont l'seum, cheh cheh, cheh cheh, cheh Ah, woulah, gros, vite fait, vite fait J'emballe, OK eh, chica eh, chica, ray-ay-ay, gros Niqué, niqué, champagne, pompette eh J'kiffe loca eh, loca, ray-ay-ay, gros J'ai mis du temps à m'habituer à cette obscurité Donc j'caresse timidement la lumière par sécurité Pour sortir de l'impasse, une chaise au fond d'un hall On est là pour les liasses, amuse-toi, joue ton rôle Plus tu montes, plus c'est propre, pour l'instant, on fait du sale en bas Ton joli boule refait l'décor, reste, pourquoi tu t'en vas ? ouais, ouais, ouais, ouais, ouais, ouais Au-d'ssus des lois, c'est sous l'sommier Rien fait d'beau dans la vie, j'suis pas premier La mif a la dalle, j'suis sous l'pommier j'suis sous l'pommier, j'suis sous l'pommier La jungle attend de voir attend, putain de trône, revenir à la maison Jasmine, Jafar Jafar, deux-trois liasses pour faire fondre ton glaçon Gag, wesh le zoo, j'cours toujours après les sous J'parle toujours avec les fous et pour l'aimer, j'suis Jack-sous J'pense à mes frères qui s'en sortent pas, Gucci resserré sur le ssin-ba J'suis que la famille, quand j'emballe, arriba, arriba Laisse laisse, laisse laisse, laisse PNL gère gère, gère gère, gère Ces cons sont verts verts, verts eh, verts Ils ont l'seum, cheh cheh, cheh cheh, cheh Ah, woulah, gros, vite fait, vite fait J'emballe, OK eh, chica eh, chica, ray-ay-ay, gros Niqué, niqué, champagne, pompette eh J'kiffe loca eh, loca, ray-ay-ay, gros Eh, eh eh, eh, eh, eh Eh, eh eh, eh, eh, eh Ray-ay-ay, gros6</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Rien ne sert d'effleurer ma peau ma peau, cest la Sibérie Si mon cur avait un visage, tu l'appellerais Seal ou Ribéry J'traîne dans cmonde et j'vois ton gloss qui traîne sur des bites Prends la mienne, épargne-moi d'écouter la merde qu'tu débites Si le cur devient noir, c'est la faute à tes fautes qui perdurent dans la lumière d'mon écho J'imagine que tu penses que j'suis lmal de par mes états dâme, tu captes rien sous l'rideau Si tout ça srésume à raconter ma haine, priez pour qu'un jour, j'change de thème Et le jour où j'parlerai damour, peut-être que j'me dirai que ça en valait la peine J'ai vu à peu près quatre cents facettes de l'être humain, aussi noir qu'il soit La ville est grande, j'veux juste faire un tour, libre comme Onizuka La rose est grise, le drapeau est rouge, cheveux poussent, le temps rigole Quoi, J'traîne trop ? Attends-moi, le passé m'passe la camisole J'ai des pêchés qui passent à la compta', mon côté haram reste toujours indompté J'suis différent, j'ppe-ra avec la ginga, dans vingt ans, tu m'écouteras, tu diras Pelé La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers You might also like Du mal avec leur monde qu'on ne côtoie pas, juste venu pour les baiser bang, bang, bang Ils pourraient pas comprendre l'ambition d'tout niquer sans l'expliquer tous les niquer Et plus j'm'écarte d'la misère, plus j'sens qu'la vérité n'en est pas loin Et même si tu m'aimes, des fois, j't'en veux d'pas avoir été là quand j'étais rien casse-toi de là J'veux vivre comme un lion sans avoir connu les règles, en ayant connu mon cur bang, bang, bang Et ceux qui préfèrent les chèques, la victoire accompagnée d'chaînes J'suis le même en moins pire, le même en pire, ça dépend d'la douleur Ils ont détruit nos tours, détruiront pas l'empire qu'on a construit dans nos curs Des rêves trop égoïstes pour que j'les vive Moi, j'suis trop différent pour savoir qui j'suis Nulle part où j'me sens chez moi donc j'passe mon temps à fuir À traîner ceux que j'aime derrière moi en leur vendant un avenir J'fais plus la différence entre les groupies et les femmes Entre ces putains d'hommes et puis les fans La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers J'vois tout à l'envers, tout à l'envers19</t>
+          <t>Rien ne sert d'effleurer ma peau ma peau, cest la Sibérie Si mon cur avait un visage, tu l'appellerais Seal ou Ribéry J'traîne dans cmonde et j'vois ton gloss qui traîne sur des bites Prends la mienne, épargne-moi d'écouter la merde qu'tu débites Si le cur devient noir, c'est la faute à tes fautes qui perdurent dans la lumière d'mon écho J'imagine que tu penses que j'suis lmal de par mes états dâme, tu captes rien sous l'rideau Si tout ça srésume à raconter ma haine, priez pour qu'un jour, j'change de thème Et le jour où j'parlerai damour, peut-être que j'me dirai que ça en valait la peine J'ai vu à peu près quatre cents facettes de l'être humain, aussi noir qu'il soit La ville est grande, j'veux juste faire un tour, libre comme Onizuka La rose est grise, le drapeau est rouge, cheveux poussent, le temps rigole Quoi, J'traîne trop ? Attends-moi, le passé m'passe la camisole J'ai des pêchés qui passent à la compta', mon côté haram reste toujours indompté J'suis différent, j'ppe-ra avec la ginga, dans vingt ans, tu m'écouteras, tu diras Pelé La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers Du mal avec leur monde qu'on ne côtoie pas, juste venu pour les baiser bang, bang, bang Ils pourraient pas comprendre l'ambition d'tout niquer sans l'expliquer tous les niquer Et plus j'm'écarte d'la misère, plus j'sens qu'la vérité n'en est pas loin Et même si tu m'aimes, des fois, j't'en veux d'pas avoir été là quand j'étais rien casse-toi de là J'veux vivre comme un lion sans avoir connu les règles, en ayant connu mon cur bang, bang, bang Et ceux qui préfèrent les chèques, la victoire accompagnée d'chaînes J'suis le même en moins pire, le même en pire, ça dépend d'la douleur Ils ont détruit nos tours, détruiront pas l'empire qu'on a construit dans nos curs Des rêves trop égoïstes pour que j'les vive Moi, j'suis trop différent pour savoir qui j'suis Nulle part où j'me sens chez moi donc j'passe mon temps à fuir À traîner ceux que j'aime derrière moi en leur vendant un avenir J'fais plus la différence entre les groupies et les femmes Entre ces putains d'hommes et puis les fans La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers La Terre tourne, j'me contourne J'vois tout à l'envers, tout à l'envers J'vois tout à l'envers, tout à l'envers19</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Yo, yo, Pi'erre, you wanna come out here? You don't owe nobody nothin' You have everything, they could say whatever they want You don't owe nobody nothin' Was anybody buying you anything when you weren't famous? No, did they clothe you? Feed you? You don't owe nobody a goddamn thing Yo, Pi'erre, yo, Pi'erre Ayy, yeah, smokin' on that Piccolo 'Member I was down, never been so low Now look at me now, yeah, my neck so cold Cut them niggas off, they was makin' me broke Lookin' at the wall, all I had was hope Lookin' at the mall, couldn't shop in those stores Now I don't even shop at the mall no more You can't even cop this at the mall, I know I've been that nigga, been that nigga, yeah, ayy Name all in they mouth, like a dentist, yeah, yeah Bitch stay in my moves, like its physics, yeah, ayy Man, my life a movie, you a critic, yeah, yeah Man, these niggas sweet, niggas Splenda, yeah, huh Ain't no more bros in these times, yeah, yeah Bought it on my birthday, sentimental, yeah, hey I don't pop no beans 'cept the senzu, yeah You might also like Yeah, smokin' on that Piccolo 'Member I was down, never been so low Now look at me now, and my neck so cold Cut them niggas off, they was makin' me broke Lookin' at the wall, all I had was hope Lookin' at the mall, couldn't shop in those stores Now I don't even shop at the mall no more You can't even cop these at the mall, I know Wait, UPS, yeah, she on deliver, hey Like FedEx, yeah, I'm gon' deliver, huh If you stressed, better read your scripture Can't be scared of this shit, I ain't no bitch, yeah, hey Left my feelings there, love, I give up Love, I forfeit, money more important, hey Make sure money blue like I'm Corbin, hey Send it to my uncle, he deported Yeah, smokin' on that Piccolo 'Member I was down, never been so low Now look at me now, and my neck so cold Cut them niggas off, they was makin' me broke Lookin' at the wall, all I had was hope Lookin' at the mall, couldn't shop in those stores Now I don't even shop at the mall no more You can't even cop these at the mall, I know Yo, Pi'erre, yo, Pi'erre10</t>
+          <t>Yo, yo, Pi'erre, you wanna come out here? You don't owe nobody nothin' You have everything, they could say whatever they want You don't owe nobody nothin' Was anybody buying you anything when you weren't famous? No, did they clothe you? Feed you? You don't owe nobody a goddamn thing Yo, Pi'erre, yo, Pi'erre Ayy, yeah, smokin' on that Piccolo 'Member I was down, never been so low Now look at me now, yeah, my neck so cold Cut them niggas off, they was makin' me broke Lookin' at the wall, all I had was hope Lookin' at the mall, couldn't shop in those stores Now I don't even shop at the mall no more You can't even cop this at the mall, I know I've been that nigga, been that nigga, yeah, ayy Name all in they mouth, like a dentist, yeah, yeah Bitch stay in my moves, like its physics, yeah, ayy Man, my life a movie, you a critic, yeah, yeah Man, these niggas sweet, niggas Splenda, yeah, huh Ain't no more bros in these times, yeah, yeah Bought it on my birthday, sentimental, yeah, hey I don't pop no beans 'cept the senzu, yeah Yeah, smokin' on that Piccolo 'Member I was down, never been so low Now look at me now, and my neck so cold Cut them niggas off, they was makin' me broke Lookin' at the wall, all I had was hope Lookin' at the mall, couldn't shop in those stores Now I don't even shop at the mall no more You can't even cop these at the mall, I know Wait, UPS, yeah, she on deliver, hey Like FedEx, yeah, I'm gon' deliver, huh If you stressed, better read your scripture Can't be scared of this shit, I ain't no bitch, yeah, hey Left my feelings there, love, I give up Love, I forfeit, money more important, hey Make sure money blue like I'm Corbin, hey Send it to my uncle, he deported Yeah, smokin' on that Piccolo 'Member I was down, never been so low Now look at me now, and my neck so cold Cut them niggas off, they was makin' me broke Lookin' at the wall, all I had was hope Lookin' at the mall, couldn't shop in those stores Now I don't even shop at the mall no more You can't even cop these at the mall, I know Yo, Pi'erre, yo, Pi'erre10</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Frère, la vie d'ma mère, j'baise ces gros pédés On vise la fresh, on est obsédé J'veux ma paire de LV, pour tous les énerver J'me rappelle plus d'mon ex, j'me rappelle de mon ien-cli Hervé J'vais t'faire danser l'mode zaza-zinzin, si j'bé-tom j'connais le hessess Et puis j'm'enfume au taga, zézé che-per j'me fous de tes grosses fesses Igo la vie est belle-belle, nan pas comme nos gueules-gueules À l'heure j'donne pas de délai-délai, rouleau d'scotch pour pas que tu gueules-gueules Ounga ounga, si tu testes faut être sauvage Pourquoi-pourquoi ? Parce que chez moi l'cur est froid d'puis l'sophage On attend plus l'arrivage, on ira chercher en choupette Arriba arriba, ainsi font les petites savonnettes Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros You might also like Tout le bénef sous le matelas, zéro dans la shneck de madame J'emmène la misère en balade, gros le terrain c'est mon dada Un billet elle s'met à danser, dans son cul dans mes pensées Que du bon-char pas de plan C, y a qu'la haine qui m'a apaisé Paisé, paisé Pas s'faire lever avant d'peser Gala pour bâtard qui voudrait m'baiser QLF, la famille va s'engraisser J'tté-ma ni ton gamos, ni ta pétasse, je dois re-ter-comp ma liasse Mes Gucci, du béton, se lassent J'la baise, pas sur mon épaule elle s'endort On a rien et on en veut encore Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros12</t>
+          <t>Frère, la vie d'ma mère, j'baise ces gros pédés On vise la fresh, on est obsédé J'veux ma paire de LV, pour tous les énerver J'me rappelle plus d'mon ex, j'me rappelle de mon ien-cli Hervé J'vais t'faire danser l'mode zaza-zinzin, si j'bé-tom j'connais le hessess Et puis j'm'enfume au taga, zézé che-per j'me fous de tes grosses fesses Igo la vie est belle-belle, nan pas comme nos gueules-gueules À l'heure j'donne pas de délai-délai, rouleau d'scotch pour pas que tu gueules-gueules Ounga ounga, si tu testes faut être sauvage Pourquoi-pourquoi ? Parce que chez moi l'cur est froid d'puis l'sophage On attend plus l'arrivage, on ira chercher en choupette Arriba arriba, ainsi font les petites savonnettes Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros Tout le bénef sous le matelas, zéro dans la shneck de madame J'emmène la misère en balade, gros le terrain c'est mon dada Un billet elle s'met à danser, dans son cul dans mes pensées Que du bon-char pas de plan C, y a qu'la haine qui m'a apaisé Paisé, paisé Pas s'faire lever avant d'peser Gala pour bâtard qui voudrait m'baiser QLF, la famille va s'engraisser J'tté-ma ni ton gamos, ni ta pétasse, je dois re-ter-comp ma liasse Mes Gucci, du béton, se lassent J'la baise, pas sur mon épaule elle s'endort On a rien et on en veut encore Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros Hey, hey, hey, hey, hey, hey J'entends cette toute petite voix me dire khey, khey, khey Faut du biff dans tes ches-po Prends des risques faut des euros12</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ma bitch, tu peux tbrosser Ma bite traîne au rez-dchaussée Cest lzoo, on veut pas raccrocher Ici la liberté s'nomme Maître Brossier Eh, eh Mama, tu mas pas conté dhistoires Ouais ça danse dans les ténèbres pour la victoire Ouais jte plais, ouais s'te plaît Tu veux connaître mon cur mais ya des drôles de plaies Des-des-des tonnes de cicatrices font fuir ta D-D-D Tes-t'es-t'es conne jai tenu la tour, tout comme Dendé-dé-dé Pas de passe faut qujmarque un rentrant au corner Tu testes, jte baise ton père, ta mère, ta grand-mère Hm, ounga, Mowgli, hm, ennemi, crois pas qujtoublie Mon Dieu jvous aime jpeux pas frimer Jpèche les anges ont déjà tout filmé Chacun son taf Jcherche le soleil, jsuis sur ses traces Jrêve de gros chèques, de cette tasse Regarde dans lciel, corbeaux qui passent Une drôle de gueule cous', jsors dla jungle J'fous halla depuis tit-pe tout, en liquide ya pas de RIB Ok Manny, jarrive, je prends Le monde chico, et tout cquil y a dedans You might also like Ouais, mais pas maintenant Igo cette crasse me fait du charme Lobscurité me fait du charme En bas ouais jcompte plus la galère Là jsuis dhumeur lunaire Jpapote avec mon teh Au fait jai des chromes dans la ville On place la famille et on kille Me demande pas combien jai doseille La hess me crève, un litron, trou dans la recette Wesh, wesh Manny, wesh Mowgli, wesh Simba Famille, Gucci, famille, Gucci, c'est c'qui me va Ouais j'm'égare, ouais mes gars, ouais j'tombe Ouais j'm'égare, ouais mes gars, ouais jsombre Keskun sur les lèvres Plus on vend, plus on sélève Mon produit dans la rée-soi Et jrecharge, les anges je déçois Je déçois, je déçois Wesh les mecs, cest quand quon sarrête ? Jouvre un terrain sur la planète Namek On va ssalir, on va pt-être pas slaver Jamais prié pour briller, ni pour mgaver Wesh mon ami, jroule et jgravite Hmmhmmhmm, Nabil On va samuser, mais pas maintenant Quelques billets, quelques battements Dans la soucoupe Grand frère dans la soucoupe Petit frère dans la soucoupe Grand frère dans la soucoupe Petit frère dans la soucoupe Soixante litrons dans la soucoupe Soixante litrons dans la soucoupe Dans la soucoupe, dans la soucoupe11</t>
+          <t>Ma bitch, tu peux tbrosser Ma bite traîne au rez-dchaussée Cest lzoo, on veut pas raccrocher Ici la liberté s'nomme Maître Brossier Eh, eh Mama, tu mas pas conté dhistoires Ouais ça danse dans les ténèbres pour la victoire Ouais jte plais, ouais s'te plaît Tu veux connaître mon cur mais ya des drôles de plaies Des-des-des tonnes de cicatrices font fuir ta D-D-D Tes-t'es-t'es conne jai tenu la tour, tout comme Dendé-dé-dé Pas de passe faut qujmarque un rentrant au corner Tu testes, jte baise ton père, ta mère, ta grand-mère Hm, ounga, Mowgli, hm, ennemi, crois pas qujtoublie Mon Dieu jvous aime jpeux pas frimer Jpèche les anges ont déjà tout filmé Chacun son taf Jcherche le soleil, jsuis sur ses traces Jrêve de gros chèques, de cette tasse Regarde dans lciel, corbeaux qui passent Une drôle de gueule cous', jsors dla jungle J'fous halla depuis tit-pe tout, en liquide ya pas de RIB Ok Manny, jarrive, je prends Le monde chico, et tout cquil y a dedans Ouais, mais pas maintenant Igo cette crasse me fait du charme Lobscurité me fait du charme En bas ouais jcompte plus la galère Là jsuis dhumeur lunaire Jpapote avec mon teh Au fait jai des chromes dans la ville On place la famille et on kille Me demande pas combien jai doseille La hess me crève, un litron, trou dans la recette Wesh, wesh Manny, wesh Mowgli, wesh Simba Famille, Gucci, famille, Gucci, c'est c'qui me va Ouais j'm'égare, ouais mes gars, ouais j'tombe Ouais j'm'égare, ouais mes gars, ouais jsombre Keskun sur les lèvres Plus on vend, plus on sélève Mon produit dans la rée-soi Et jrecharge, les anges je déçois Je déçois, je déçois Wesh les mecs, cest quand quon sarrête ? Jouvre un terrain sur la planète Namek On va ssalir, on va pt-être pas slaver Jamais prié pour briller, ni pour mgaver Wesh mon ami, jroule et jgravite Hmmhmmhmm, Nabil On va samuser, mais pas maintenant Quelques billets, quelques battements Dans la soucoupe Grand frère dans la soucoupe Petit frère dans la soucoupe Grand frère dans la soucoupe Petit frère dans la soucoupe Soixante litrons dans la soucoupe Soixante litrons dans la soucoupe Dans la soucoupe, dans la soucoupe11</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>On charbonne, on va s'balader Ça dit quoi les anges ? Vous datez J'ai pas d'amis, Yanis, Adé L'oseille, la miff', cur blindé Plus de places comme sur le rain-ter Tu croyais p'têtre qu'on allait s'taire ? Comme si on avait la même mère ? Et même sous CR on les sert Ces billets froissés m'apaisèrent J'porte Louis, Gucci, cache-misère Un casse-pipe, une prière à Casper, un p'tit teh Un million on s'libère Tu vendais la meilleure came, tu fais des chromes pour du com' QLF on veut le trône dans la jungle, loin des hommes T'as goûté à la vie, re-goûte à la merde Elle m'kiffe pas, elle kiffe la villa, ça fera l'affaire Penche-toi sur mon présent bitch, dans ton cul j'vois l'avenir Le temps passe, j'm'impatiente, j'me calme dans quelques sourires J'veux du biff' la chatte à ton père Depuis tit-pe c'est très grand qu'on pense Mon gland, mes couilles, j'me repère J'sais c'que j'vaux, j'laisse le temps au temps Y'a tant tant d'haine, à la base À la passe, c'est la merde, paye argent comptant On campe dans ton camp Pas d'solution, j'garde la balle, la balle ouais brrr Ça caille en bas du bat', j'visser, l'hiver Les dents qui claquent Bats les couilles, un cur de pierre, igo j'me balade Hombre, hombre, j'suis dans la rue sombre J'ai commencé tout seul, igo ils étaient pas là J'ai vendu chaque soir, les doigts qui comptent, comptent Avec un air vénère, déterminé Solo depuis l'époque du verre pilé Donc toi viens pas m'dire que j'fais la gueule pour rien J'oublie pas qu'c'est un jour t'as tout, demain t'as plus rien J'la connais en large, en long, en travers, ah ah ah Faut qu'j'demande pardon à Dieu, car j'ai fait du sa-a-ale Feu dans tous ces fils de pute de merde Si j'finis en cellule, c'est qu'j'refuse le F2 J're, j're, j'pars au casse-pipe pour la miff', j'ai pas d'horaireYou might also like8</t>
+          <t>On charbonne, on va s'balader Ça dit quoi les anges ? Vous datez J'ai pas d'amis, Yanis, Adé L'oseille, la miff', cur blindé Plus de places comme sur le rain-ter Tu croyais p'têtre qu'on allait s'taire ? Comme si on avait la même mère ? Et même sous CR on les sert Ces billets froissés m'apaisèrent J'porte Louis, Gucci, cache-misère Un casse-pipe, une prière à Casper, un p'tit teh Un million on s'libère Tu vendais la meilleure came, tu fais des chromes pour du com' QLF on veut le trône dans la jungle, loin des hommes T'as goûté à la vie, re-goûte à la merde Elle m'kiffe pas, elle kiffe la villa, ça fera l'affaire Penche-toi sur mon présent bitch, dans ton cul j'vois l'avenir Le temps passe, j'm'impatiente, j'me calme dans quelques sourires J'veux du biff' la chatte à ton père Depuis tit-pe c'est très grand qu'on pense Mon gland, mes couilles, j'me repère J'sais c'que j'vaux, j'laisse le temps au temps Y'a tant tant d'haine, à la base À la passe, c'est la merde, paye argent comptant On campe dans ton camp Pas d'solution, j'garde la balle, la balle ouais brrr Ça caille en bas du bat', j'visser, l'hiver Les dents qui claquent Bats les couilles, un cur de pierre, igo j'me balade Hombre, hombre, j'suis dans la rue sombre J'ai commencé tout seul, igo ils étaient pas là J'ai vendu chaque soir, les doigts qui comptent, comptent Avec un air vénère, déterminé Solo depuis l'époque du verre pilé Donc toi viens pas m'dire que j'fais la gueule pour rien J'oublie pas qu'c'est un jour t'as tout, demain t'as plus rien J'la connais en large, en long, en travers, ah ah ah Faut qu'j'demande pardon à Dieu, car j'ai fait du sa-a-ale Feu dans tous ces fils de pute de merde Si j'finis en cellule, c'est qu'j'refuse le F2 J're, j're, j'pars au casse-pipe pour la miff', j'ai pas d'horaire8</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>J'me suis vu dans les cordes, hmmm J'me suis vu rabaissé, hmmm J'me suis vu oublié, hmmm J'me suis vu tout seul, hmmm J'essaie d'marquer au corner, ounga, ounga J'ai des ennemis, j'ai pas d'mère, oula, oula Peut-être que j'manque de repères, en tout cas, tout cas C'est la vie faut pas s'en faire, gala, gala Quand j'vois mon p'tit reuf dormir, hmmm, j'veux briser le monde L'avenir des miens au péril du tien, hmmm, j'dois sortir le monstre J'essaie d'pas trop penser, y'a qu'la haine qui n'm'a pas déçu J'ai pas l'temps d'me branler, j'te ken et j'te crache dessus J'porte pas la cravate, ni l'nud-papillon J'porte mes couilles toi tu joues d'la flûte comme Tapion Tu m'parles d'amour, mais qu'est-ce t'y connais ? Si j'te tends la main tu m'couperas le bras, mais j'ai pas de Rolex Aaaaaaaaaaah, gros on navigue dans la tempête, j'ai beau poser le front sur l'sol igo j'm'endette Donne-moi des ailes pour que j'm'envole, j'regarde le ciel cloué au sol Aaaaaaaaaaah, on t'dira pas qu'on a mal Ounga, ounga, on cherche le bonheur où c'est sale Gros on navigue dans la tempête, j'ai beau poser le front sur l'sol igo j'm'endette Donne-moi des ailes pour que j'm'envole, j'regarde le ciel cloué au sol Aaaaaaaaaaah, on t'dira pas qu'on a mal Ounga, ounga, on cherche le bonheur où c'est sale You might also like Igo ce soir j'ai la haine Et même parfois j'confonds ma haine et ma peine En attendant qu'j'raccroche les clickos appellent Armé comme un ange j'viens pour embrasser la paix Plus d'oseille il me faut, zéro plaisir, j'réinvestis tout mon labeur D'l'argent sale en noir et blanc, j'en ai pas vu la couleur Fini d'rêver, besoin d'rattraper le temps, salaire sur le poignet J'ai pas besoin qu'on m'aime j'fais P2 à Casper, j'suis bien accompagné Dos tourné à ta putain j'fais face à la réalité fuck mes rêves J'compte le bénef de la veille, du monde quand ça s'enjaille personne quand ça crève Donne-moi ton biff, j'veux pas savoir d'où il vient Donne-moi ton cul, j'veux pas savoir c'est combien Faut pas t'en faire, PNL mon camp Le monde s'active autour de moi, j'observe sans l'comprendre, j'suis différent Parfois c'est confus dans ma tête, tout c'que j'sais c'est que ces putes sont pas prêtes On sauvera pas toute la misère, à niquer leur monde on s'apprête PNL Aaaaaaaaaaah, gros on navigue dans la tempête, j'ai beau poser le front sur l'sol igo j'm'endette Donne-moi des ailes pour que j'm'envole, j'regarde le ciel cloué au sol Aaaaaaaaaaah, on t'dira pas qu'on a mal Ounga, ounga, on cherche le bonheur où c'est sale Gros on navigue dans la tempête, j'ai beau poser le front sur l'sol igo j'm'endette Donne-moi des ailes pour que j'm'envole, j'regarde le ciel cloué au sol Aaaaaaaaaaah, on t'dira pas qu'on a mal Ounga, ounga, on cherche le bonheur où c'est sale Aaaaaaaaaaah Ounga, ounga Aaaaaaaaaaah Ounga, ounga10</t>
+          <t>J'me suis vu dans les cordes, hmmm J'me suis vu rabaissé, hmmm J'me suis vu oublié, hmmm J'me suis vu tout seul, hmmm J'essaie d'marquer au corner, ounga, ounga J'ai des ennemis, j'ai pas d'mère, oula, oula Peut-être que j'manque de repères, en tout cas, tout cas C'est la vie faut pas s'en faire, gala, gala Quand j'vois mon p'tit reuf dormir, hmmm, j'veux briser le monde L'avenir des miens au péril du tien, hmmm, j'dois sortir le monstre J'essaie d'pas trop penser, y'a qu'la haine qui n'm'a pas déçu J'ai pas l'temps d'me branler, j'te ken et j'te crache dessus J'porte pas la cravate, ni l'nud-papillon J'porte mes couilles toi tu joues d'la flûte comme Tapion Tu m'parles d'amour, mais qu'est-ce t'y connais ? Si j'te tends la main tu m'couperas le bras, mais j'ai pas de Rolex Aaaaaaaaaaah, gros on navigue dans la tempête, j'ai beau poser le front sur l'sol igo j'm'endette Donne-moi des ailes pour que j'm'envole, j'regarde le ciel cloué au sol Aaaaaaaaaaah, on t'dira pas qu'on a mal Ounga, ounga, on cherche le bonheur où c'est sale Gros on navigue dans la tempête, j'ai beau poser le front sur l'sol igo j'm'endette Donne-moi des ailes pour que j'm'envole, j'regarde le ciel cloué au sol Aaaaaaaaaaah, on t'dira pas qu'on a mal Ounga, ounga, on cherche le bonheur où c'est sale Igo ce soir j'ai la haine Et même parfois j'confonds ma haine et ma peine En attendant qu'j'raccroche les clickos appellent Armé comme un ange j'viens pour embrasser la paix Plus d'oseille il me faut, zéro plaisir, j'réinvestis tout mon labeur D'l'argent sale en noir et blanc, j'en ai pas vu la couleur Fini d'rêver, besoin d'rattraper le temps, salaire sur le poignet J'ai pas besoin qu'on m'aime j'fais P2 à Casper, j'suis bien accompagné Dos tourné à ta putain j'fais face à la réalité fuck mes rêves J'compte le bénef de la veille, du monde quand ça s'enjaille personne quand ça crève Donne-moi ton biff, j'veux pas savoir d'où il vient Donne-moi ton cul, j'veux pas savoir c'est combien Faut pas t'en faire, PNL mon camp Le monde s'active autour de moi, j'observe sans l'comprendre, j'suis différent Parfois c'est confus dans ma tête, tout c'que j'sais c'est que ces putes sont pas prêtes On sauvera pas toute la misère, à niquer leur monde on s'apprête PNL Aaaaaaaaaaah, gros on navigue dans la tempête, j'ai beau poser le front sur l'sol igo j'm'endette Donne-moi des ailes pour que j'm'envole, j'regarde le ciel cloué au sol Aaaaaaaaaaah, on t'dira pas qu'on a mal Ounga, ounga, on cherche le bonheur où c'est sale Gros on navigue dans la tempête, j'ai beau poser le front sur l'sol igo j'm'endette Donne-moi des ailes pour que j'm'envole, j'regarde le ciel cloué au sol Aaaaaaaaaaah, on t'dira pas qu'on a mal Ounga, ounga, on cherche le bonheur où c'est sale Aaaaaaaaaaah Ounga, ounga Aaaaaaaaaaah Ounga, ounga10</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>I mean shit... I mean, basically dawg, This is... This is Compton man you feel me ? This is one of the worst cities to be in in California dawgg. This is a city where goes down at... Real talking, it ain't just movie shit, real shit J'ferme les yeux, j'vois la merde, j'ouvre les yeux, j'vois la merde J'connais pas d'ler-dea qui vend d'la mort à perte T'es pas qui t'aurais voulu être, dommage la vie est mal faite Comme ton ennemi qui vit ton rêve le jour de ta fête La descente est rapide, la montée est si lente Quelques chromes à mon étoile et j'vois qu'des étoiles filantes Premier jour d'l'année premier 'ient, sors tes lov' j'fais un souhait On voit nos rêves s'étouffer, couler, envoie-leur une bouée Les démons se rendorment j'pose mes armes les anges se réveillent J'attends mon heure, attends les renforts, égaré du premier kil' à la dernière 'teille Ça charbonne pas pour la passion, igo le but est lucratif J'te conseille de quitter l'gazon si t'es plutôt du genre craintif Un peu comme ma bite j'm'embête, heure de pointe la ville s'endette Ça manque pas d'chienne ça manque de montant, du liquide pas d'chèque pour un peu d'bon temps De l'argent sale sous un fer, d'l'eau bénite sur des mains sales La fidélité d'un frère, notre survie dans ta massa Je vis, j'meurs avec mes frères, tu vas pas durer si tu comptes sur tes potes Igo quand t'es dans la merde y'a qu'les mouches qui s'rappellent de la bonne époque Enchanté la famille, c'est comment vers chez oi-t ? Ici comme les dollars c'est gris, j'té-ma la lune me faire des oigts-d You might also like Pas d'grands discours on sait qu'la rue est muette, la tête dans un nuage de fumée Pas d'lumière juste une clope allumée, olives dans les couilles au moins 7 balles assurées Veux voir c'que c'est qu'd'être en haut, au rez-de-chaussée posté dans l'hall Le temps coule comme le liquide, vi-ser la foule vi-ser les vils-ci Rêve toujours de durer, pas s'faire péter pas s'faire lever Levé tôt pour la monnaie, beuh en sachet, caleçon parfumé Gentil garçon ou garçon mauvais, l'hiver gelé, les pieds enrhumés Sortir d'la merde terrain occupé Buter buter les choix assumer, derrière l'Imam les genoux pliés Prier le ciel d'sortir du tunnel, on fera tout pour, on sera fortunés C'est fuck les pâtes et fuck la purée, dis-leur qu'on vole, qu'on s'fait pas plumer La rue c'est nous, nous c'est les ruelles, on oublie pas, ok habiba Tout l'temps, les heures où on a sué, le beurre qui a afflué Les jours de taule qu'on a tués, nos pas gravés sur ris-Pas Ris pas ça pleure devant la lune, tu sais pourquoi on est mal lunés L'argent, le vide et puis les tracas, on s'suicide pas on préfère le braquage Bravas gonflés à force de pomper, en cellule c'est l'feu pas d'pompier Combler nos vies avant de tomber, s'relever tomber, encore se relever Dans la foi atteindre son apogée, parle pas d'mon Dieu j'pourrais t'amocher Si t'es un dep' viens pas m'approcher, crochet d'la vie ça on connait Cligne-cligne des yeux l'image a sauté, un jour Fleury un jour La Santé Sans s'taire l'ouvrir pas des mythos, bien plus sensible que ton clito' Paname l'endroit qu'on habite, on t'met un doigt pas la bite Tu connais l'emploi qu'à la bicrave, c'est sauve les siens pas sauve qui peut8</t>
+          <t>I mean shit... I mean, basically dawg, This is... This is Compton man you feel me ? This is one of the worst cities to be in in California dawgg. This is a city where goes down at... Real talking, it ain't just movie shit, real shit J'ferme les yeux, j'vois la merde, j'ouvre les yeux, j'vois la merde J'connais pas d'ler-dea qui vend d'la mort à perte T'es pas qui t'aurais voulu être, dommage la vie est mal faite Comme ton ennemi qui vit ton rêve le jour de ta fête La descente est rapide, la montée est si lente Quelques chromes à mon étoile et j'vois qu'des étoiles filantes Premier jour d'l'année premier 'ient, sors tes lov' j'fais un souhait On voit nos rêves s'étouffer, couler, envoie-leur une bouée Les démons se rendorment j'pose mes armes les anges se réveillent J'attends mon heure, attends les renforts, égaré du premier kil' à la dernière 'teille Ça charbonne pas pour la passion, igo le but est lucratif J'te conseille de quitter l'gazon si t'es plutôt du genre craintif Un peu comme ma bite j'm'embête, heure de pointe la ville s'endette Ça manque pas d'chienne ça manque de montant, du liquide pas d'chèque pour un peu d'bon temps De l'argent sale sous un fer, d'l'eau bénite sur des mains sales La fidélité d'un frère, notre survie dans ta massa Je vis, j'meurs avec mes frères, tu vas pas durer si tu comptes sur tes potes Igo quand t'es dans la merde y'a qu'les mouches qui s'rappellent de la bonne époque Enchanté la famille, c'est comment vers chez oi-t ? Ici comme les dollars c'est gris, j'té-ma la lune me faire des oigts-d Pas d'grands discours on sait qu'la rue est muette, la tête dans un nuage de fumée Pas d'lumière juste une clope allumée, olives dans les couilles au moins 7 balles assurées Veux voir c'que c'est qu'd'être en haut, au rez-de-chaussée posté dans l'hall Le temps coule comme le liquide, vi-ser la foule vi-ser les vils-ci Rêve toujours de durer, pas s'faire péter pas s'faire lever Levé tôt pour la monnaie, beuh en sachet, caleçon parfumé Gentil garçon ou garçon mauvais, l'hiver gelé, les pieds enrhumés Sortir d'la merde terrain occupé Buter buter les choix assumer, derrière l'Imam les genoux pliés Prier le ciel d'sortir du tunnel, on fera tout pour, on sera fortunés C'est fuck les pâtes et fuck la purée, dis-leur qu'on vole, qu'on s'fait pas plumer La rue c'est nous, nous c'est les ruelles, on oublie pas, ok habiba Tout l'temps, les heures où on a sué, le beurre qui a afflué Les jours de taule qu'on a tués, nos pas gravés sur ris-Pas Ris pas ça pleure devant la lune, tu sais pourquoi on est mal lunés L'argent, le vide et puis les tracas, on s'suicide pas on préfère le braquage Bravas gonflés à force de pomper, en cellule c'est l'feu pas d'pompier Combler nos vies avant de tomber, s'relever tomber, encore se relever Dans la foi atteindre son apogée, parle pas d'mon Dieu j'pourrais t'amocher Si t'es un dep' viens pas m'approcher, crochet d'la vie ça on connait Cligne-cligne des yeux l'image a sauté, un jour Fleury un jour La Santé Sans s'taire l'ouvrir pas des mythos, bien plus sensible que ton clito' Paname l'endroit qu'on habite, on t'met un doigt pas la bite Tu connais l'emploi qu'à la bicrave, c'est sauve les siens pas sauve qui peut8</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ils veulent me sauter, solo, calibré, j'ai même pas envie d'savoir pourquoi Les bastos sont là, si j't'ai raté, merlich, la deuxième elle sera pour toi Igo, plein d'rancune on n'oublie rien donc on t'lâche un sourire sournois La vida loca, dans le pif la coca, my bitches love Sosa Isolé, le cur noir, la confiance j'l'ai rangée dans l'armoire C'est tout pour le fric, détaille le shit igo, on s'refait dans moins d'un mois Bénef' bénef', lève ton joint en l'air, t'as pas capté encore ? L'avenir est à moi Quenelle, quenelle dans la chatte à vos mères, bloc de seum en direct du parloir Ils font les fous, c'est que des huîtres ma gueule Tu m'dois des sous, dis-moi pourquoi pourquoi tu fuis ma gueule ? Téma l'casse-croûte c'est ton heure ma gueule, garde tes excuses, j'laisse parler mon gun Nueve cuatro, loco, les loups n'ont pas d'cur, de la street tu n'es que spectateur Igo, les miss c'est comme les euros tu connais ça va, ça vient J'fume d'la frappe, j'me pète les neurones, texte de fou chico accroche-toi bien Tu t'demandes ça vient d'où ? C'mec est malade, malade mental On t'chante gala gala avant d'sortir la bête du çon-cale Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella You might also like Regarde droit dans mes yeux et dis-moi c'que tu vois Si c'n'est une âme en perte de foi qui défie les lois Un pochton sur ma puki, faut bien payer l'ier-loy Car j'ai subi les fractures que les factures causent dans l'ier-foy Dans la merde jusqu'au cou, demande pas si tout baigne renoi Dirty Deh un G, j'suis né ainsi, j'finirai comme ça J'ai jamais joué au rugby, pourtant j'me suis fait mêler Noyé dans la solitude à en devenir fêlé 6.35 contre ma tempe, une voix qui m'dit Fais-le ! Le doigt qui tremble sur la détente, j'sursaute, un cri Fais-le ! Baise une meuf bien j'veux une pétasse, bah ouais, j'offre pas d'pétales J'baise et j'détale, j'pèse et j'détaille Ou j'cambriole chez mon fournisseur, mon négro n'a que d'la caille J'prends tes biens et j'me taille, Dirty Deh cherche la maille Depuis quand les pédales veulent tenir le guidon ? Que pour la famille, le chargeur, nous vidons Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella Wesh igo j'suis dans mon bat', j'galère avec Casper, j'm'en bats les couilles d'leur mère Igo, plus j'écoule la verte, plus j'redonne le sourire à la misère Viens on a d'quoi te visser, un gros billet j'nous libère Dis-moi t'étais où quand j'faisais la guerre, j'pète une niaks, mon blase fait l'tour d'la Terre Je brûle mes rêves dans ma vie, Tarte-zoo moi c'est Nabil Que la famille, on s'mélange pas donc pas de traîtrise, que les putes se rhabillent QLF Que du bon-char pas d'magie, papa sourit j'm'assagis Tout le bénef dans cette merde, ne crois pas qu'on joue v'là de quoi il s'agit Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella5</t>
+          <t>Ils veulent me sauter, solo, calibré, j'ai même pas envie d'savoir pourquoi Les bastos sont là, si j't'ai raté, merlich, la deuxième elle sera pour toi Igo, plein d'rancune on n'oublie rien donc on t'lâche un sourire sournois La vida loca, dans le pif la coca, my bitches love Sosa Isolé, le cur noir, la confiance j'l'ai rangée dans l'armoire C'est tout pour le fric, détaille le shit igo, on s'refait dans moins d'un mois Bénef' bénef', lève ton joint en l'air, t'as pas capté encore ? L'avenir est à moi Quenelle, quenelle dans la chatte à vos mères, bloc de seum en direct du parloir Ils font les fous, c'est que des huîtres ma gueule Tu m'dois des sous, dis-moi pourquoi pourquoi tu fuis ma gueule ? Téma l'casse-croûte c'est ton heure ma gueule, garde tes excuses, j'laisse parler mon gun Nueve cuatro, loco, les loups n'ont pas d'cur, de la street tu n'es que spectateur Igo, les miss c'est comme les euros tu connais ça va, ça vient J'fume d'la frappe, j'me pète les neurones, texte de fou chico accroche-toi bien Tu t'demandes ça vient d'où ? C'mec est malade, malade mental On t'chante gala gala avant d'sortir la bête du çon-cale Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella Regarde droit dans mes yeux et dis-moi c'que tu vois Si c'n'est une âme en perte de foi qui défie les lois Un pochton sur ma puki, faut bien payer l'ier-loy Car j'ai subi les fractures que les factures causent dans l'ier-foy Dans la merde jusqu'au cou, demande pas si tout baigne renoi Dirty Deh un G, j'suis né ainsi, j'finirai comme ça J'ai jamais joué au rugby, pourtant j'me suis fait mêler Noyé dans la solitude à en devenir fêlé 6.35 contre ma tempe, une voix qui m'dit Fais-le ! Le doigt qui tremble sur la détente, j'sursaute, un cri Fais-le ! Baise une meuf bien j'veux une pétasse, bah ouais, j'offre pas d'pétales J'baise et j'détale, j'pèse et j'détaille Ou j'cambriole chez mon fournisseur, mon négro n'a que d'la caille J'prends tes biens et j'me taille, Dirty Deh cherche la maille Depuis quand les pédales veulent tenir le guidon ? Que pour la famille, le chargeur, nous vidons Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella Wesh igo j'suis dans mon bat', j'galère avec Casper, j'm'en bats les couilles d'leur mère Igo, plus j'écoule la verte, plus j'redonne le sourire à la misère Viens on a d'quoi te visser, un gros billet j'nous libère Dis-moi t'étais où quand j'faisais la guerre, j'pète une niaks, mon blase fait l'tour d'la Terre Je brûle mes rêves dans ma vie, Tarte-zoo moi c'est Nabil Que la famille, on s'mélange pas donc pas de traîtrise, que les putes se rhabillent QLF Que du bon-char pas d'magie, papa sourit j'm'assagis Tout le bénef dans cette merde, ne crois pas qu'on joue v'là de quoi il s'agit Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella Chacal, j'fais que penser au temps, aux rides que j'vois sur le daron J'sais que j'serai jamais content la hess qui marche dans le salon J'regarde, chelou, faut pas téma, les chiennes se prennent pour Athéna T'es moche, j'te chante Bella, Bella, Bella, Bella, Hella, Hella5</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J'suis fier comme l'Algeria, comme dit Mustapha fiha khir J'suis fou comme à Beriz', billets trop verts dans la valise J'ai ma bande, et ma bande c'est mon sang O.P. pour t'la mettre Et si j'bande, c'est pas ma faute, tous les arabes bougent la tête Eh, eh peace, joyeux quand on tize, carré dans nos buis' Que des dix, j'finis l'joint et l'cheese, hrach ou ch'veux lisses comme McCann Le mental gainé, ouais, le cur gainé Et attends, j'finis en TT, parce qu'elle veut té' hum Dès maintenant, monte le son et stream et même si t'es chim ou t'es maton Nous, on n'est pas un dream ouais le son est green et l'maton, j'fumais devant son zen', j'criais Libertà Ma tata, counia manmanw à tous les chmeta', Alalah Fini d'jouer les cons, j'leurs mets des p'tits ponts Si t'es Z', Tarte' zoo, DZ, igo tous des zemels Dans l'action, j'leur déploie mes ailes, j'prie et j'finis seul Dans ma fons', j'nique tout sur la scène et je fais bander la Serie A Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr You might also like Hé, j'fais le tour d'Alger avec AD' Ça fait longtemps qu'on n'était pas passé Sur le terrain on était bloqué À détailler, et à tirer C'putain d'game français, sans jamais sucer Normal ça vient du ZT, nous, c'est money, money J'fais l'tour de la ville avec Yaya Après les showcases, c'est Rebenga Fais fumer sur ta Jamaïca Nous, c'est n'da, et ta-ta-ta J'lui fais faire un tour d'cane-bé Elle s'accroche à mon cur ma liberté Que la mif', c'est Tarterêts C'est Alger, un peu trop corsé Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr11</t>
+          <t>J'suis fier comme l'Algeria, comme dit Mustapha fiha khir J'suis fou comme à Beriz', billets trop verts dans la valise J'ai ma bande, et ma bande c'est mon sang O.P. pour t'la mettre Et si j'bande, c'est pas ma faute, tous les arabes bougent la tête Eh, eh peace, joyeux quand on tize, carré dans nos buis' Que des dix, j'finis l'joint et l'cheese, hrach ou ch'veux lisses comme McCann Le mental gainé, ouais, le cur gainé Et attends, j'finis en TT, parce qu'elle veut té' hum Dès maintenant, monte le son et stream et même si t'es chim ou t'es maton Nous, on n'est pas un dream ouais le son est green et l'maton, j'fumais devant son zen', j'criais Libertà Ma tata, counia manmanw à tous les chmeta', Alalah Fini d'jouer les cons, j'leurs mets des p'tits ponts Si t'es Z', Tarte' zoo, DZ, igo tous des zemels Dans l'action, j'leur déploie mes ailes, j'prie et j'finis seul Dans ma fons', j'nique tout sur la scène et je fais bander la Serie A Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr Hé, j'fais le tour d'Alger avec AD' Ça fait longtemps qu'on n'était pas passé Sur le terrain on était bloqué À détailler, et à tirer C'putain d'game français, sans jamais sucer Normal ça vient du ZT, nous, c'est money, money J'fais l'tour de la ville avec Yaya Après les showcases, c'est Rebenga Fais fumer sur ta Jamaïca Nous, c'est n'da, et ta-ta-ta J'lui fais faire un tour d'cane-bé Elle s'accroche à mon cur ma liberté Que la mif', c'est Tarterêts C'est Alger, un peu trop corsé Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr Tahia, tahia PNL Tahia, tahia Djazaïr11</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>La honte La honte, la honte, la honte Igo j'm'en bats les couilles de ta vie J'te sors ma langue comme Manny huh Que des frères igo, pas d'amis Si y'a les lovés on sera pea-pea-pea-peace Compter-compter le temps c'est plus le délire, on arrive à pile On coupe, on détaille, on emballe, on bibi à la Kill Bill Fous le zbeul, copine la rage au fond de la pupille, te pine On veut la vie de rêve, elles veulent toutes l'arrière à Kim-Kim J'crame ma garo puis j'respire comme si j'sortais d'Guantanamo Taga camaro, on fume avec les cernes, les cernes à Navarro Tu veux des mots doux ? Impossible car la rage et la haine m'ont élevé J'me déshabille au parlu, me3lich, j'habillerai mon fils en LV Où sont les faux qu'on les cane ? Tu connais nos vies, gros c'est sale, c'est grâce au haram qu'on a mis des zéros sur nos salaires J'te ken t'es pas mon égal, on est méthodiques on fait mal et man regarde-moi cher-mar comme un singe sur la planète singe sur la planète Pas là pour perdre, la défaite n'est pas une option, marre d'avoir le sourire à l'envers J'compte leur mettre, j'compte arriver comme un ancien, j'compte partir comme un ancêtre Cigare de Cuba j'te fumerais avant que tu m'embrasses comme Judas Hijo de puta, j'te donne RDV sur le terrain à Cheeta Appelle-moi A.D ounga ounga ounga, la haine en saccadé, pédé J'ai pas d'Audi TT, j'pars pas, pas l'choix, j'bibi c't'été You might also like Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler QLF, le temps passe, une bougie d'plus toujours rien à fêter PNL, petit de la portée rejeté, rien à téter Cette année on nique tout, igo on fait l'bénef sans s'arrêter Ouais, ni ces pédés, ni tes amigos ne peuvent nous inquiéter Pour la hassana isolés, pas ceux qu'on invite Rappelle-moi ton nom après que j'ai rangé ma bite Quelques tractions, j'crache la haine qui m'habite, j'vends pas, j'finis à poil y'a personne qui m'habille Tente de m'éloigner du haram, moi, l'ange du mal sait où j'habite Tous ces pêchés, doucement, j'suis en train d'm'immoler J'suis pas comme eux, je ne me confonds pas, j'suis isolé J'attends l'appel de personne à part celui des iens-clar J'bénef dans l'frigo et l'cendard, dans un peu d'joint, dans les mandats Qui t'parle de passion ou d'hobby là j'vais pas t'enjailler Fragile comme la paix, m'oblige pas, d'humeur à mitrailler J'croyais sauver l'monde, pardonnez-moi je n'y changerai rien Dans le présent, dans le futur, j'pète une niaks avec le dernier terrien Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler8</t>
+          <t>La honte La honte, la honte, la honte Igo j'm'en bats les couilles de ta vie J'te sors ma langue comme Manny huh Que des frères igo, pas d'amis Si y'a les lovés on sera pea-pea-pea-peace Compter-compter le temps c'est plus le délire, on arrive à pile On coupe, on détaille, on emballe, on bibi à la Kill Bill Fous le zbeul, copine la rage au fond de la pupille, te pine On veut la vie de rêve, elles veulent toutes l'arrière à Kim-Kim J'crame ma garo puis j'respire comme si j'sortais d'Guantanamo Taga camaro, on fume avec les cernes, les cernes à Navarro Tu veux des mots doux ? Impossible car la rage et la haine m'ont élevé J'me déshabille au parlu, me3lich, j'habillerai mon fils en LV Où sont les faux qu'on les cane ? Tu connais nos vies, gros c'est sale, c'est grâce au haram qu'on a mis des zéros sur nos salaires J'te ken t'es pas mon égal, on est méthodiques on fait mal et man regarde-moi cher-mar comme un singe sur la planète singe sur la planète Pas là pour perdre, la défaite n'est pas une option, marre d'avoir le sourire à l'envers J'compte leur mettre, j'compte arriver comme un ancien, j'compte partir comme un ancêtre Cigare de Cuba j'te fumerais avant que tu m'embrasses comme Judas Hijo de puta, j'te donne RDV sur le terrain à Cheeta Appelle-moi A.D ounga ounga ounga, la haine en saccadé, pédé J'ai pas d'Audi TT, j'pars pas, pas l'choix, j'bibi c't'été Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler QLF, le temps passe, une bougie d'plus toujours rien à fêter PNL, petit de la portée rejeté, rien à téter Cette année on nique tout, igo on fait l'bénef sans s'arrêter Ouais, ni ces pédés, ni tes amigos ne peuvent nous inquiéter Pour la hassana isolés, pas ceux qu'on invite Rappelle-moi ton nom après que j'ai rangé ma bite Quelques tractions, j'crache la haine qui m'habite, j'vends pas, j'finis à poil y'a personne qui m'habille Tente de m'éloigner du haram, moi, l'ange du mal sait où j'habite Tous ces pêchés, doucement, j'suis en train d'm'immoler J'suis pas comme eux, je ne me confonds pas, j'suis isolé J'attends l'appel de personne à part celui des iens-clar J'bénef dans l'frigo et l'cendard, dans un peu d'joint, dans les mandats Qui t'parle de passion ou d'hobby là j'vais pas t'enjailler Fragile comme la paix, m'oblige pas, d'humeur à mitrailler J'croyais sauver l'monde, pardonnez-moi je n'y changerai rien Dans le présent, dans le futur, j'pète une niaks avec le dernier terrien Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler Ah, ah, aaaah, ah, gala gala S'relever, retomber, voir ma haine s'estomper Ah, ah, aaaah, ah, gala gala Bien sûr que j'pense qu'à compter, j'ai des vies à combler8</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ton artiste préféré parle du zoo dans ses ceaux-mor Ta bitch adorée pète un boulon sur l'ceau-mor Les murs de ma cité ? Pire qu'une maison hantée PNL Clan hostile, patriarche du rap d'la cité La relève passe le message, violent ma gueule Amochés, cabossés, violentés, bienvenue dans la jungle Trafic, bolide, broliqué, bizz et ciao ma gueule Préfère crever à genoux, que s'la manger dans l'boule D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter Grand frère ira chercher l'oseille D'la fenêtre au ter-ter J'efface pas mes péchés, je casse ma puce J'te manque tant que ça ? Viens pécho ma puce J'relève la capote, que les haineux me la sucent Tétais où quand j'puchais dans l'froid comme un russe ? La miff, la monnaie, igo j'suis QLF Papa qui m'éduque, la haine qui m'élève Dans l'ombre, anti-système solaire Le jour de paye, majeur en l'air You might also like D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter Grand frère ira chercher l'oseille D'la fenêtre au ter-ter J'fume dans la nuit, les yeux dans la lune, j'ai les yeux dans le vide J'ai tellement faim, que j'suis prêt à partir prendre du plomb dans le bide Vendu comme un damné, en bas, marre de zoner J'bé-tom, j'rêve que d'rentrer, rentrer à la son-mai Bats les couilles du sommet, tu connais pas le même terrain, rase la crête à Balotelli Tu m'poses la question Qu'est-ce tu veux qu'on fasse ?, J'te réponds Qu'est-ce tu veux qu'on fasse à lhôtel ? Pas d'étoile dans mon ciel, Baba, tire une étincelle en bas-bas, bas-bas J'ai un biff à faire, à poser devant la porte de Baba D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter Grand frère ira chercher l'oseille D'la fenêtre au ter-ter C'est sur nous qu'les anciens misent, sur l'injection ils s'focalisent Demande à S-Pion, on les brutalise et on s'excuse pas si on vous l'a mise Mate comme ils analysent, les flows, la technique qu'on utilise Pour t'la mettre, on a pas besoin d'tise, passe nous un mic tu verras qu'on l'brise L'instru on l'maîtrise, pas d'traîtrise, on t'méprise C'est la crise comme sortir d'prison, tape la pose, capture la prise S'te plaît fais pas la miss, y'a que l'train qui t'l'a pas mise Sans cesse tu t'ridiculises, tu pues d'la gueule, me tape pas la bise D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter Grand frère ira chercher l'oseille D'la fenêtre au ter-ter Salope qu'est-ce tu veux ? J'ai le gang dans la chair,IGD Sosa banga fait nos affaires Nous la mif' d'abord on n'a plus rien à perdre, fuck tous ces sourougnas, j'leur parle à l'envers T'as fait du sale, tu cherches une fille propre ? Tu tomberas que sur des tasse-pé On va plus parler, t'allumer et t'éteindre, ce sera le dernier mot du tard-pé J'ai la recette pour taper la recette, vida loca, faut filoche le Q7 Ganda, les tits-pe d'chez moi, les tits-pe d'chez moi ont hagar les grands de ton tieks Plus l'sourire est large, plus je me méfie Caméra dans ma ville, bibi, gi-gi nouveau défi7</t>
+          <t>Ton artiste préféré parle du zoo dans ses ceaux-mor Ta bitch adorée pète un boulon sur l'ceau-mor Les murs de ma cité ? Pire qu'une maison hantée PNL Clan hostile, patriarche du rap d'la cité La relève passe le message, violent ma gueule Amochés, cabossés, violentés, bienvenue dans la jungle Trafic, bolide, broliqué, bizz et ciao ma gueule Préfère crever à genoux, que s'la manger dans l'boule D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter Grand frère ira chercher l'oseille D'la fenêtre au ter-ter J'efface pas mes péchés, je casse ma puce J'te manque tant que ça ? Viens pécho ma puce J'relève la capote, que les haineux me la sucent Tétais où quand j'puchais dans l'froid comme un russe ? La miff, la monnaie, igo j'suis QLF Papa qui m'éduque, la haine qui m'élève Dans l'ombre, anti-système solaire Le jour de paye, majeur en l'air D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter Grand frère ira chercher l'oseille D'la fenêtre au ter-ter J'fume dans la nuit, les yeux dans la lune, j'ai les yeux dans le vide J'ai tellement faim, que j'suis prêt à partir prendre du plomb dans le bide Vendu comme un damné, en bas, marre de zoner J'bé-tom, j'rêve que d'rentrer, rentrer à la son-mai Bats les couilles du sommet, tu connais pas le même terrain, rase la crête à Balotelli Tu m'poses la question Qu'est-ce tu veux qu'on fasse ?, J'te réponds Qu'est-ce tu veux qu'on fasse à lhôtel ? Pas d'étoile dans mon ciel, Baba, tire une étincelle en bas-bas, bas-bas J'ai un biff à faire, à poser devant la porte de Baba D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter Grand frère ira chercher l'oseille D'la fenêtre au ter-ter C'est sur nous qu'les anciens misent, sur l'injection ils s'focalisent Demande à S-Pion, on les brutalise et on s'excuse pas si on vous l'a mise Mate comme ils analysent, les flows, la technique qu'on utilise Pour t'la mettre, on a pas besoin d'tise, passe nous un mic tu verras qu'on l'brise L'instru on l'maîtrise, pas d'traîtrise, on t'méprise C'est la crise comme sortir d'prison, tape la pose, capture la prise S'te plaît fais pas la miss, y'a que l'train qui t'l'a pas mise Sans cesse tu t'ridiculises, tu pues d'la gueule, me tape pas la bise D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter P'tit frère ira chercher l'oseille D'la fenêtre au ter-ter Grand frère ira chercher l'oseille D'la fenêtre au ter-ter Salope qu'est-ce tu veux ? J'ai le gang dans la chair,IGD Sosa banga fait nos affaires Nous la mif' d'abord on n'a plus rien à perdre, fuck tous ces sourougnas, j'leur parle à l'envers T'as fait du sale, tu cherches une fille propre ? Tu tomberas que sur des tasse-pé On va plus parler, t'allumer et t'éteindre, ce sera le dernier mot du tard-pé J'ai la recette pour taper la recette, vida loca, faut filoche le Q7 Ganda, les tits-pe d'chez moi, les tits-pe d'chez moi ont hagar les grands de ton tieks Plus l'sourire est large, plus je me méfie Caméra dans ma ville, bibi, gi-gi nouveau défi7</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Père né en Algérie, mère qui naît à Fès Ademo né dans l'zoo, peut pas retourner sa veste PNL laisse, beleck on vous blesse Pas la même tess', j'l'appelle Eva Mendes Ton nez dans ma cess', chienne on te dresse A 6 heures c'est la hess Hmm, des lions comme Mufasa Hmm, j't'ai mis l'coup d'bassin Hmm, dans la beuh y'a l'fil orange Hmm, billets bleus et verts qui m'enjaillent Hmm, elle peut pas mappeler mon ange Hmm, le sheitan me pète le champagne Et puis j'm'en fous d'ber-tom tant qu'les miens sourient J'm'en branle sur les films d'karaté à Katsuni Viens nous voir bibi dans des cages de hall pleines de pisse J'veux l'pactole, j'dis à Félindra tête de tigre Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans You might also like Petit pélican ne sait pas voler Regarde les émeutes à travers ses volets Petit pélican un jour sera grand Ne traîne pas dans les halls, ne se doute de rien quand ça vend Petit pélican plein d'rêves, d'mande souvent papa ou maman Resserre ses crampons face au but, la boule au ventre qui l'attend Petit pélican veut croquer l'monde, un peu nerveux Et quand il rentre prend parfois le chemin de la cave Ne connait pas l'prix de la vie, mais déjà le prix d'un baveux Petit pélican fait un vu, petit pélican fait deux vux A la son-mai ça parle de la chute du grand, ça parle despèce Espèce, c'est donc toi qui fout la merde à la maison Petit pélican part chercher de l'espèce Grand panorama sur la tess' Petit pélican compte et recompte Déjà peu d'amis qui s'écartent de lui au fur et à mesure qu'il monte Petit pélican pète sa niaks, compte sur personne, attend que ça passe Ça crie moins à la maison, y'a que les schmitts qui s'agacent Petit pélican s'arrête et recommence Petit pélican tombe, ses ailes se cassent et la haine les panse Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans7</t>
+          <t>Père né en Algérie, mère qui naît à Fès Ademo né dans l'zoo, peut pas retourner sa veste PNL laisse, beleck on vous blesse Pas la même tess', j'l'appelle Eva Mendes Ton nez dans ma cess', chienne on te dresse A 6 heures c'est la hess Hmm, des lions comme Mufasa Hmm, j't'ai mis l'coup d'bassin Hmm, dans la beuh y'a l'fil orange Hmm, billets bleus et verts qui m'enjaillent Hmm, elle peut pas mappeler mon ange Hmm, le sheitan me pète le champagne Et puis j'm'en fous d'ber-tom tant qu'les miens sourient J'm'en branle sur les films d'karaté à Katsuni Viens nous voir bibi dans des cages de hall pleines de pisse J'veux l'pactole, j'dis à Félindra tête de tigre Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Petit pélican ne sait pas voler Regarde les émeutes à travers ses volets Petit pélican un jour sera grand Ne traîne pas dans les halls, ne se doute de rien quand ça vend Petit pélican plein d'rêves, d'mande souvent papa ou maman Resserre ses crampons face au but, la boule au ventre qui l'attend Petit pélican veut croquer l'monde, un peu nerveux Et quand il rentre prend parfois le chemin de la cave Ne connait pas l'prix de la vie, mais déjà le prix d'un baveux Petit pélican fait un vu, petit pélican fait deux vux A la son-mai ça parle de la chute du grand, ça parle despèce Espèce, c'est donc toi qui fout la merde à la maison Petit pélican part chercher de l'espèce Grand panorama sur la tess' Petit pélican compte et recompte Déjà peu d'amis qui s'écartent de lui au fur et à mesure qu'il monte Petit pélican pète sa niaks, compte sur personne, attend que ça passe Ça crie moins à la maison, y'a que les schmitts qui s'agacent Petit pélican s'arrête et recommence Petit pélican tombe, ses ailes se cassent et la haine les panse Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans7</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>J'suis seul dans la gova Posé en face des cafards qui font attendre qui font attendre ... J'suis sous CR, oui j'le sais, toute l'année ça pousse le V Dans l'frigo une gousse de C, couz j'le fais, couz j'le P La haine, sacrifié ... En Enfer on va griller, j'ai pas prié et j'm'en fous d'me voir briller Dans c'monde t'as peur, j'fume ma OG ... J'te casse un bras, j'te dis pardon j'viens d'en bas Hella hella, ma famille ne me quitte pas ... Impatient Les cafards me parlent toujours, le diable, j'le regarde en face Ça s'incruste dans ma soucoupe, allez cut, cut, cut, cut, cut Bitch, bitch, bitch, bitch, bitch Sur l'rain-té, but, but, but, but, but, j'porte la cup, cup, cup, cup, cup ...You might also like5</t>
+          <t>J'suis seul dans la gova Posé en face des cafards qui font attendre qui font attendre ... J'suis sous CR, oui j'le sais, toute l'année ça pousse le V Dans l'frigo une gousse de C, couz j'le fais, couz j'le P La haine, sacrifié ... En Enfer on va griller, j'ai pas prié et j'm'en fous d'me voir briller Dans c'monde t'as peur, j'fume ma OG ... J'te casse un bras, j'te dis pardon j'viens d'en bas Hella hella, ma famille ne me quitte pas ... Impatient Les cafards me parlent toujours, le diable, j'le regarde en face Ça s'incruste dans ma soucoupe, allez cut, cut, cut, cut, cut Bitch, bitch, bitch, bitch, bitch Sur l'rain-té, but, but, but, but, but, j'porte la cup, cup, cup, cup, cup ...5</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Recto-verso Pages 1-2 You might also like</t>
+          <t>Recto-verso Pages 1-2</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J'suis seul dans la gova Posé en face des cafards qui font attendre y en a marre J'suis sous CR, oui j'le sais, toute l'année ça pousse le V Dans l'frigo une gousse de C, couz j'le fais, couz j'le P La haine, sacrifiée Cur de pierre, j'arrive pas à aimer En Enfer on va griller, j'ai pas prié et j'm'en fous d'me voir briller Dans c'monde t'as peur, j'fume ma OG Kush J'te casse un bras, j'te dis pardon j'viens d'en bas Hella hella, ma femme ne me quitte pas Et même si on voulait sauver ce monde, ce monde ne comprendrait pas J'm'impatiente Les cafards me parlent toujours, le diable, j'le regarde en face Car s'incruste dans ma soucoupe, allez cut, cut, cut, cut, cut J'bute, j'bute, j'bute, j'bute, j'bute Sur l'rain-té, but, but, but, but, but, j'porte la cup, cup, cup, cup, cup Jmaille j'maille j'maille j'maille j'maille puis j'm'envole à Miami Un peu sous DD, j'suis comme Meruem tellement de fois Et j'rêve de prendre le monde monde monde monde monde Pas meilleur, juste moins pire Et papa me répète sans cesse toi pas comme eux J'suis sous CR, oui j'le sais, toute l'année ça pousse le V Dans l'frigo une gousse de C, couz j'le fais, couz j'le P J'suis sous DD comme Meru-em , sur le seum tampon M Et j'me rappelle, j'me rappelle, j'me rappelle Tous ces sourires Et j'écris et j'écris et j'écris parce que je crains le pire You might also like Qui se rappelle quand j'étais ce vaurien Qui se rappelle quand j'étais Nabil blase Ladif Et maintenant j'suis dans le futur Là-bas les gens m'ont connu, demande à la ure Wesh on est trop N'DA, 91 Essonne Power Objectif atteint, plus rien à faire, the World is mine J'me casse à Miami ou L.A, j'garde le sourire et j'leur dis Yes I'm fine Du zoo à Itachi, de Gag à Bercy Tfouh dans ta ce-fa pour mon bâtiment C J'crains le meilleur et le pire Mais j'suis ni le meilleur ni le pire Rétrospective, mon cur pleure en se souvenant Introspection, mon cur pleure en se voyant si noir Z double O c'est ma square Des flows venus de nulle part, 185 on prend le monde c'est notre part Pas meilleur, juste moins pire Et papa me répète sans cesse toi pas comme eux J'suis sous CR, oui j'le sais, toute l'année ça pousse le V Dans l'frigo une gousse de C, couz j'le fais, couz j'le P J'suis sous DD comme Meru-em , sur le seum tampon M Et j'me rappelle, j'me rappelle, j'me rappelle Tous ces sourires Et j'écris et j'écris et j'écris parce que je crains le pire1</t>
+          <t>J'suis seul dans la gova Posé en face des cafards qui font attendre y en a marre J'suis sous CR, oui j'le sais, toute l'année ça pousse le V Dans l'frigo une gousse de C, couz j'le fais, couz j'le P La haine, sacrifiée Cur de pierre, j'arrive pas à aimer En Enfer on va griller, j'ai pas prié et j'm'en fous d'me voir briller Dans c'monde t'as peur, j'fume ma OG Kush J'te casse un bras, j'te dis pardon j'viens d'en bas Hella hella, ma femme ne me quitte pas Et même si on voulait sauver ce monde, ce monde ne comprendrait pas J'm'impatiente Les cafards me parlent toujours, le diable, j'le regarde en face Car s'incruste dans ma soucoupe, allez cut, cut, cut, cut, cut J'bute, j'bute, j'bute, j'bute, j'bute Sur l'rain-té, but, but, but, but, but, j'porte la cup, cup, cup, cup, cup Jmaille j'maille j'maille j'maille j'maille puis j'm'envole à Miami Un peu sous DD, j'suis comme Meruem tellement de fois Et j'rêve de prendre le monde monde monde monde monde Pas meilleur, juste moins pire Et papa me répète sans cesse toi pas comme eux J'suis sous CR, oui j'le sais, toute l'année ça pousse le V Dans l'frigo une gousse de C, couz j'le fais, couz j'le P J'suis sous DD comme Meru-em , sur le seum tampon M Et j'me rappelle, j'me rappelle, j'me rappelle Tous ces sourires Et j'écris et j'écris et j'écris parce que je crains le pire Qui se rappelle quand j'étais ce vaurien Qui se rappelle quand j'étais Nabil blase Ladif Et maintenant j'suis dans le futur Là-bas les gens m'ont connu, demande à la ure Wesh on est trop N'DA, 91 Essonne Power Objectif atteint, plus rien à faire, the World is mine J'me casse à Miami ou L.A, j'garde le sourire et j'leur dis Yes I'm fine Du zoo à Itachi, de Gag à Bercy Tfouh dans ta ce-fa pour mon bâtiment C J'crains le meilleur et le pire Mais j'suis ni le meilleur ni le pire Rétrospective, mon cur pleure en se souvenant Introspection, mon cur pleure en se voyant si noir Z double O c'est ma square Des flows venus de nulle part, 185 on prend le monde c'est notre part Pas meilleur, juste moins pire Et papa me répète sans cesse toi pas comme eux J'suis sous CR, oui j'le sais, toute l'année ça pousse le V Dans l'frigo une gousse de C, couz j'le fais, couz j'le P J'suis sous DD comme Meru-em , sur le seum tampon M Et j'me rappelle, j'me rappelle, j'me rappelle Tous ces sourires Et j'écris et j'écris et j'écris parce que je crains le pire1</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Des fois j'abuse on se contrôle pas gros, on fout la merde, j'accuse La rue, ou p'têtre j'me trompe mais qui l'aurait crû ? On fait des choses sans s'en rendre compte On délaisse la ière-pri pour des choses futiles et ouais c'est ça le comble C'est vrai qu'j'abuse L'information du jour, c'est bien évidemment le groupe PNL qui vient d'entrer dans la légende. Après être allés de victoires en victoires, ils ont réalisé pour la première fois de l'histoire un disque de diamant en totale indépendance Ma frappe y'a personne qui larrête Penalty j'souris au gardien Igo y'a Mowgli dans larène Ciseaux retournés comme Papin J'parle pas trop j'me fous du rap J'négocie l'tarot man Tes rappeurs c'est tous des tapins Ils s'passent tous, tous la pommadeYou might also like</t>
+          <t>Des fois j'abuse on se contrôle pas gros, on fout la merde, j'accuse La rue, ou p'têtre j'me trompe mais qui l'aurait crû ? On fait des choses sans s'en rendre compte On délaisse la ière-pri pour des choses futiles et ouais c'est ça le comble C'est vrai qu'j'abuse L'information du jour, c'est bien évidemment le groupe PNL qui vient d'entrer dans la légende. Après être allés de victoires en victoires, ils ont réalisé pour la première fois de l'histoire un disque de diamant en totale indépendance Ma frappe y'a personne qui larrête Penalty j'souris au gardien Igo y'a Mowgli dans larène Ciseaux retournés comme Papin J'parle pas trop j'me fous du rap J'négocie l'tarot man Tes rappeurs c'est tous des tapins Ils s'passent tous, tous la pommade</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Jrallume ma béda-da-da Dix-huit piges gros ça rabat-bat-bat Lamour des miens pour mtenir cest la ba-ba-base Jte lai déjà dit, tu testes igo cest bah-bah-bah On a pesé la M dans le ca-ca-cave Rlah, rlah, rlah, chiffre à défaut de la lettre Laisse tomber cest noir en bas-bas-bas Tu deviens chelou quand tu nous vois dans ta fête On danse, mets-nous du son, on bouge les mains nimporte comment Dégaine de Mexicain avec le seum qui sort d'Hollande Chacal, chacal noublie pas quy a Mowgli dans la jungle Taga, taga sous la branche qui sourit dans la gainz On prendra lterrain, prendra la tour à Dendé Tu trouves pas lbonheur ? Tu trouves la beuh, la coke, la M.D Tinquiète, tinquiète au ballon on a tous voulu percer Te trompe pas dbut igo fais pas lCSC C'est c'est sept sur sept que les démons stressent Deux-trois semaines et les résolutions cessent Ton nez dans ma cess, chienne on te dresse Joue pas les chauds si tu refroidis devant la braise Un pas dtravers jte dis hasta luego On veut pas dta gow on veut ton biff ah ouais gros La barre trop haute pour faire du limbo On prend pas dcoke, on met rien dans la limo You might also like Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas Tu m'aimes pas igo je m'en fous Sur le rainté les poches vides je vends tout Souvenirs dans la tête, la croisière à Salou J'embrasse le front de ma mère et j'fume les jaloux PNL dans ma tête L'avenir est à nous J'pense aux frères au hebs Une cassded à Samou J'regarde vers le ciel attiré par l'argent sale On fait de l'oseille on se fume après la chute l'atterrissage Mon frère bloqué au hebs j'suis dans le mal Demandé à Delet au parlu ça cale des grammes J'regarde par la fenêtre j'fuck les ratons Ça s'allume dans la tess comme dans un cartoon Que Dieu me pardonne j'ai mis les cartouches J'charge le pompe j'm'en bats les reins je tire partout Aujourd'hui t'es mon best demain tu feras le traître Tout ça pour du papier la rue c'est cru en screte Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas Igo, jbrûle mes rêves Sur les poings je pousse le sol, je fais du karaté On tombe, on se relève Dtemps à autre dans lsalon jvois la hass se balader Jsais quils maiment pas Leurs mères ces putains jaimerais faire le bien Mais ya des pédés armés Jpense quà recompter y a que ça pour me calmer Igo jpète une niaks Rien dneuf à part les tasses qui pensent que jvais percer Salam la misère jpourrai jamais te pourchasser Jcasse ma puce de mes pêchés jsuis pas débarrassé Là j'suis vers Namek Jrentre pas à la maison jai pas assez brassé Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas</t>
+          <t>Jrallume ma béda-da-da Dix-huit piges gros ça rabat-bat-bat Lamour des miens pour mtenir cest la ba-ba-base Jte lai déjà dit, tu testes igo cest bah-bah-bah On a pesé la M dans le ca-ca-cave Rlah, rlah, rlah, chiffre à défaut de la lettre Laisse tomber cest noir en bas-bas-bas Tu deviens chelou quand tu nous vois dans ta fête On danse, mets-nous du son, on bouge les mains nimporte comment Dégaine de Mexicain avec le seum qui sort d'Hollande Chacal, chacal noublie pas quy a Mowgli dans la jungle Taga, taga sous la branche qui sourit dans la gainz On prendra lterrain, prendra la tour à Dendé Tu trouves pas lbonheur ? Tu trouves la beuh, la coke, la M.D Tinquiète, tinquiète au ballon on a tous voulu percer Te trompe pas dbut igo fais pas lCSC C'est c'est sept sur sept que les démons stressent Deux-trois semaines et les résolutions cessent Ton nez dans ma cess, chienne on te dresse Joue pas les chauds si tu refroidis devant la braise Un pas dtravers jte dis hasta luego On veut pas dta gow on veut ton biff ah ouais gros La barre trop haute pour faire du limbo On prend pas dcoke, on met rien dans la limo Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas Tu m'aimes pas igo je m'en fous Sur le rainté les poches vides je vends tout Souvenirs dans la tête, la croisière à Salou J'embrasse le front de ma mère et j'fume les jaloux PNL dans ma tête L'avenir est à nous J'pense aux frères au hebs Une cassded à Samou J'regarde vers le ciel attiré par l'argent sale On fait de l'oseille on se fume après la chute l'atterrissage Mon frère bloqué au hebs j'suis dans le mal Demandé à Delet au parlu ça cale des grammes J'regarde par la fenêtre j'fuck les ratons Ça s'allume dans la tess comme dans un cartoon Que Dieu me pardonne j'ai mis les cartouches J'charge le pompe j'm'en bats les reins je tire partout Aujourd'hui t'es mon best demain tu feras le traître Tout ça pour du papier la rue c'est cru en screte Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas Igo, jbrûle mes rêves Sur les poings je pousse le sol, je fais du karaté On tombe, on se relève Dtemps à autre dans lsalon jvois la hass se balader Jsais quils maiment pas Leurs mères ces putains jaimerais faire le bien Mais ya des pédés armés Jpense quà recompter y a que ça pour me calmer Igo jpète une niaks Rien dneuf à part les tasses qui pensent que jvais percer Salam la misère jpourrai jamais te pourchasser Jcasse ma puce de mes pêchés jsuis pas débarrassé Là j'suis vers Namek Jrentre pas à la maison jai pas assez brassé Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas Ok Manny, Rebenga Dix-huit piges sous lhall, jvends la ganja Dans cmonde jai pas dgrand, jsuis n-da Besoin dpersonne, jsais quils maiment pas</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait Aouhh Ah, ahh-yahh You might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait Aouhh Ah, ahh-yahh</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait vide lune Le soir je dors tard, le soir je regarde mon pétard Jtire sur mon pétard, jregarde par la fenêtre Jregarde au loin You might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait vide lune Le soir je dors tard, le soir je regarde mon pétard Jtire sur mon pétard, jregarde par la fenêtre Jregarde au loin</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tonight I smoke a big big joint I look at her ass, I want the same in picture If we kill each other I dont count the bullets that get lost Life is weird, I fuck her theres no mystery Bro, I get mean, not Jasmine for Jafar Im like the bottom of my building, I feel blue every day My clear eyes look at hell, hell, hell I thought you were straight but actually... I do pump and pull, I have the triceps of Vegeta The pecs of Leonidas and your bitch gets her fingers And I get hard and I get hard, and I make a big smiley And theyll all be high if I deal my heart Ouwawa ouwawa ouwawa Ive been on the street too long Ouwawa ouwawa ouwawa I have to make a million for dad Ouwawa ouwawa ouwawa You test, we take out the bang-bang Ouwawa ouwawa ouwawa I dont understand why they dont understand me You might also like God forgive me if Im wrong I help my family before they dig my grave This narrow and dark path seduces me The impression that it heals my E.T heart Covered of cash bro Im under sedative Hate to spare I have so much Youre alone in the dark, I hope your shadow hasnt let go And they think they know why we pack I wont be the first or the last Only Family, those who die apart I fall asleep under alcohol near Zadar I sell drugs its no coincidence I take my coins I go home I look at the moon, Im in debt with sins Angels talk to me but I dont hear Im in my bubble, Im fucked, Im bored I dont understand why they dont understand me Ouwawa ouwawa ouwawa Ive been on the street too long Ouwawa ouwawa ouwawa I have to make a million for dad Ouwawa ouwawa ouwawa You test, we take out the bang-bang Ouwawa ouwawa ouwawa I dont understand why they dont understand me Ouwawa ouwawa ouwawa Ive been on the street too long Ouwawa ouwawa ouwawa I have to make a million for dad Ouwawa ouwawa ouwawa You test, we take out the bang-bang Ouwawa ouwawa ouwawa I dont understand why they dont understand me</t>
+          <t>Tonight I smoke a big big joint I look at her ass, I want the same in picture If we kill each other I dont count the bullets that get lost Life is weird, I fuck her theres no mystery Bro, I get mean, not Jasmine for Jafar Im like the bottom of my building, I feel blue every day My clear eyes look at hell, hell, hell I thought you were straight but actually... I do pump and pull, I have the triceps of Vegeta The pecs of Leonidas and your bitch gets her fingers And I get hard and I get hard, and I make a big smiley And theyll all be high if I deal my heart Ouwawa ouwawa ouwawa Ive been on the street too long Ouwawa ouwawa ouwawa I have to make a million for dad Ouwawa ouwawa ouwawa You test, we take out the bang-bang Ouwawa ouwawa ouwawa I dont understand why they dont understand me God forgive me if Im wrong I help my family before they dig my grave This narrow and dark path seduces me The impression that it heals my E.T heart Covered of cash bro Im under sedative Hate to spare I have so much Youre alone in the dark, I hope your shadow hasnt let go And they think they know why we pack I wont be the first or the last Only Family, those who die apart I fall asleep under alcohol near Zadar I sell drugs its no coincidence I take my coins I go home I look at the moon, Im in debt with sins Angels talk to me but I dont hear Im in my bubble, Im fucked, Im bored I dont understand why they dont understand me Ouwawa ouwawa ouwawa Ive been on the street too long Ouwawa ouwawa ouwawa I have to make a million for dad Ouwawa ouwawa ouwawa You test, we take out the bang-bang Ouwawa ouwawa ouwawa I dont understand why they dont understand me Ouwawa ouwawa ouwawa Ive been on the street too long Ouwawa ouwawa ouwawa I have to make a million for dad Ouwawa ouwawa ouwawa You test, we take out the bang-bang Ouwawa ouwawa ouwawa I dont understand why they dont understand me</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wesh Comme un putain de cowboy Comme un putain de cowboy Cette année a été longue, plus longue que l'année d'avant Putain de cowboy On aura appris des choses, on a encore vécu des choses Comme un putain de cowboy mec J'marche seul, comme un putain de cowboy J'crame ma gainz, j'crame ma gainz Comme un putain de cowboy, ouais boy C'est la vie, c'est nos vies J'suis quun cowboy dans la vallée, j'ai mon arme dans la vallée Tellement de choses à déballer, que j'trimballe J'suis perdu dans ce trou noir, j'suis solo dans ce trou noir, j'vois personne dans ce trou noirYou might also like</t>
+          <t>Wesh Comme un putain de cowboy Comme un putain de cowboy Cette année a été longue, plus longue que l'année d'avant Putain de cowboy On aura appris des choses, on a encore vécu des choses Comme un putain de cowboy mec J'marche seul, comme un putain de cowboy J'crame ma gainz, j'crame ma gainz Comme un putain de cowboy, ouais boy C'est la vie, c'est nos vies J'suis quun cowboy dans la vallée, j'ai mon arme dans la vallée Tellement de choses à déballer, que j'trimballe J'suis perdu dans ce trou noir, j'suis solo dans ce trou noir, j'vois personne dans ce trou noir</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait , déchiré dans le coeur J'ressemble aux frictions dans mon corps You might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait , déchiré dans le coeur J'ressemble aux frictions dans mon corps</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Si tu m'caresses, j'te doigte, Spider-Man, han Fly J'rentre gang dans la fête Flex, j'fuck les Luthor Lex Break, comeback, et pluie de chèques Next, SkôlYou might also like</t>
+          <t>Si tu m'caresses, j'te doigte, Spider-Man, han Fly J'rentre gang dans la fête Flex, j'fuck les Luthor Lex Break, comeback, et pluie de chèques Next, Skôl</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait Ya, ya, ya, ya, yoo Toujours moi réma mais oh Dans l'rétro, wow, wow, yibidi, yoh Shhi Ya, ya, yo You might also like</t>
+          <t>Disclaimer Transcrit à partir d'un extrait Ya, ya, ya, ya, yoo Toujours moi réma mais oh Dans l'rétro, wow, wow, yibidi, yoh Shhi Ya, ya, yo</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_PNL_songs.xlsx
+++ b/data/02_intermediate/cleaned_PNL_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>La misère est si belle (MAYKO Remix)</t>
+          <t>Le cowboy*</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0401 La Ligne Bleue - Blue Points 0601 Edvy Dash - LEVITATE - 0601 Favé - F4 - 0601 Ghost Killer Track - Que de l'amour pt.2 - 0601 Saamou Skuu - Nous Cest La TH, vol. 2 0601 Slim C - Killu Kinf G 2 0801 Lowssa - L 1201 L'Don - Limportant cest pas la chute vol. 1 - 1201 Retro X - Yellowtape - 1301 Aketo - Zone bleue Réédition - 1301 Arlk1 Gaman lo - MAUDIT SAME SHIT 1301 GAULOIS - La Gaule Vol. 1 1301 KLS Le K - ANALOGIE 1301 Mini Rttclan - New Jersey 1301 Regularboy - TOUJOURS LA MÊME 1301 RBK - Lignes De Vécu 1301 Sam - Quelle vie - 1301 Spider Zed - Club de cur - 1301 Vin's - La chambre d'écoute - 1301 Yvnnis - NOVAE 1301 Zeusé - Zéro Degré - 1501 Djado Mado - RDV 1501 LITO - B.EYES 1801 RR - Sang Bleu 2001 93TWENTY - ABYME 2001 111knu - 111knuTape vol.1 2001 Anas - La vie de Many - 2001 Angsty Camboyz Revnge - ETERNELLE - 2001 ASHE 22 - Vingt-deux - 2001 Baby Neelou - Bromance - 2001 Caballro JeanJass - High Fines Herbes La Mixtape - Volume 2 - Saison 4. Parce quon na pas fait de mixtape pour les deux premières saisons. Ok, cest pas très logique, mais on-sen-bat-les-couilles, le projet il tue sa mère ! 2001 Carré d'As - ALPHA SIERRA 2001 Fresh LaDouille - Voltaire - 2001 Gianni - 42 jours avant MRTHN 2001 Johny Smile - CACHE-CASH 2001 Masto - Sonar - 2001 nelick - Supplément Chantilly Version deluxe - 2001 Roswein - FOLLOW MAC TWISP - 2001 Sir Reda - Amer.2 - 2001 Tommy Isaac - CAHM1R 2001 Yassin C2s - Denali - 2001 Zaho - Résilience - 2001 Zkr - Caméléon 2301 23 Megabits - 23MEGASPHERE - 2401 SOMA - hustle mode - 2701 Darealright - Dareal m'a tuer 2701 Denza - Ocean Violet part.1 2701 DIL - Fissure cérébrale - 2701 Dri-i - FLYDRI-I 2701 Elten - AUTARCIE - 2701 Jeune Morty - Ghetto Youth - 2701 Kekra - Stratos - 2701 Mano Leyra - C'EST PAS DU TAYC - 2701 Planaway - PREMIERE RENCONTRE 2701 Refré Couplain - NO FACE - 2701 Sadek - Changement de propriétaire - 2701 Seizur - Pluie d'Automne 2701 Venom Cz - Burn Alive 2701 Vves - Message groupé - 2701 ULQUI - NOTÍCIA - 2801 HOUDI - GRHÜNT 77 - 2901 Nobodylikesbirdie - DANS DE BEAUX DRAPS Février 0102 Cogofrégé - Sire Denathrius - 0102 Henri Bleu - armor - 0202 Costa - La ville derrière nos torches - 0302 Alkpote - LSDC - 0302 Chanje - BLACKBIRD 0302 Char - Comme si de rien n'était 0302 Dhab King - T.O.R. - 0302 F430 - Street Quality II - 0302 Georgio - Années Sauvages 0302 Kodes - NO CAP, Vol. 1 - 0302 Kofs - Matrixé - 0302 Lowtso - BZZZZZZ - 0302 Lujipeka - Montagnes Russes Menu XL - 0302 Sadandsolo - Subsahara 0302 WarEnd - Mutation Hg - 0302 YG Pablo - Kiss And Tell 0702 Misère Record - Deadline - 0902 Dirtyiceboyz - ONE OF A KIND 0902 Kaeles - VIBRATIONS 1002 Blasko - Carré Noir - 1002 Deemax - CAP CAPUCHE - 1002 DTF - KARMA - 1002 Myth Syzer - POISON 1002 Niro - Taulier 1002 Squadra - Mourir 100 regrets - 1002 Upsilon - Maison Hantée - 1102 Realo - EURO STEP - 1202 Laws Babyface - TROIS 1502 M.A.M - Starter Pack Side A 1502 Pbl - L'HEURE BLEUE 1602 Blue Sky Publishing - COOTB vol.2 - 1602 Luni - CAMELLIA 1602 ShuriGuzman - D-Boyy World 1702 2zer - Zerzervol2 - 1702 404Billy - BLKKKK VAN GOGH 2 1702 8Ruki BinksBeatz - INT8TION 1702 Achim - Aquarium Vol.1 - 1702 AKISSI - IMPURE. 1702 Beceith - Quand le ciel tombera 1702 Cacahouète - Les sales gueules - 1702 Captaine Roshi - Larosh 1er 1702 Criminls - WW3 - 1702 Dajak - LES LARMES DU SOLEIL 1702 DJ Weedim - Boulangerie française, Vol. 5 - 1702 FouKi - Zayon - 1702 Genezio - VIBESTARS SAISON 1 - 1702 gvs - ST4RS - 1702 Hamza - Sincèrement - 1702 Jey Brownie - Faits divers - 1702 Nunca - VISAG3 1702 TK - Avant la fête Bonus 1702 Trixxo - RotterK 2002 Bavaz - V.O. Violence Occidentale - 2002 Yuri Online mh - MEGALOVER 2202 Grödash - Grödash présente Flymen Music - 2302 Asinine - XIII - 2402 bupropion. - haven 2402 Cenza - Z.0 2402 Djavann - ATTENDS-MOI LÀ-HAUT 2402 DJ MS Mr. Dillinger - Jeune OG 2402 Hös Copperfield - LUEUR - 2402 JEUNE OBSERVATEUR - E.VOLUTION - 2402 Karmen - 100 DIAMANTS 2402 Klem Schen - Clément 2402 Kozi - VDA 2402 KR Malsain - Korozif Vol.1 - 2402 Landy - BRAVE - 2402 La F - GENJUTSU 2402 Malty2BZ - Enfant de Malheur 2402 Mapess - NO FACE - 2402 Maxi Jay - BADMAN - 2402 Peet - Todo Bien - 2402 Pirate - KDO 2 2402 Raous gang - Mauvais Chemin - 2402 Sultan - Iwazaru - 2402 Tengo John - Monstrueux EP - 2402 The Free - Filaments Bleus 2402 Waïv - VOUS COMPRENDREZ PLUS TARD - 2402 Ziak - Chrome - 2802 ihatemed - Genesis Mars - 0103 MC Lokass - Partage Vol. 2 0203 BimBim - La bande à Bimbim 1 0203 Cesar Niso - PRÉMICES - 0203 Hyacinthe - c'était pas le bruit du vent c'était juste mon souffle - 0203 JWK - FUCK ÇA - 0303 Azur - Horizon Deluxe Réédition 0303 Ben.C - SILVER BOY 0303 Bené - Rosa Nera 0303 C4 Family - CARTIER-BRESSON - 0303 Dandyguel - Chapitre 1 lhistoire continue - 0303 Deelay - 111e Saison 0303 Djadja Dinaz - ALPHA 0303 DJ Hamida - À la bien Winter edition - 0303 Double Zulu Just Music Beats - HUSTLEMANIA 0303 Drismer PCN - Sang 9 Volume 2 - 0303 Empty7 - Averse Nuit - 0303 Foleymingo - Les pensées d'un jeune casanier - 0303 HOUDI - LA FOLIE DES GRANDEURS 0303 JEUNESAINT - RIDEORDIE - 0303 Jwles Bob Marlich - Histoire Vraie - 0303 La Plaie - Sans Pression - 0303 Lyre - IRIS - 0303 M le Maudit - M.A.C.R. 0303 Nessbeal - Lumières Nocturnes - 0303 NOMATTER - Paradise Bay - 0303 Rvhim - Galb 0303 Softo - Mirage 0303 TripleGo - GIBRALTAR - 0303 web7 - world first 0403 Aero - Nouvelle ère - 0803 GEAVN - L'AMOUR SUR LES CENDRES 1003 GO GO GO - L'ÉPOPÉE 1003 2 Mètres - 2X46 - 1003 A2H - Une rose et une lame II 1003 Bilk - J'perds pas le nord 1003 Bné - Zone 4 1003 Compilation Bendo - Bendo X, Pt. 3 1003 J2LASTEU - J2 CORP - 1003 J9ueve - LE BIJOU LE PLUS BRILLANT - 1003 Keroué - CANDELA 1003 L'As - Saison 2 - 1003 Lorenzo - Coco Todiefor Remix - 1003 mademoiselle lou - Précieux - 1003 Maes - OMERTA - 1003 Novy - Nuketown 1003 Oumar - TRAUMA Saison 3 - 1003 Primero - Fragments, Pt. 4 - 1003 Princesse - Skyclub 1003 Ritzo - Ailleurs - 1003 Sadek - Changement de propriétaire version physique 1003 SAF - WINTERLOVE 1003 Sciences Peura - L'atelier - 1003 TIF - 1.6 - 1003 Werenoi - Carré - 1103 404Billy - BLKKKK VAN GOGH version vinyle 1303 13Mini - Exutoire - 1503 HVDDOCK Benjay - GLOW 1503 Janis - MULTIVERS 1503 Rapi Sati - Rapi Sati School - 1503 Toam - Plus Réel - 1603 Heskis - Plot Twist - 1603 Theodora Jeez Suave - Lili Aux Paradis Artificiels - 1703 Absolem - Balle d'argent - 1703 Achim - STRATUS JOYEUX 1703 Bilton - B.I.L - 1703 CAPUH - LOST VALLEY 1703 Cshmr - Twin Flame 1703 Decimo - Symphonia Vol. 1 1703 Djadja Dinaz - ALPHA part. 2 - 1703 Django - Logos 1703 Gianni - MRTHN 1703 H.LA DROGUE - Drogue - 1703 Leonis - De l'autre côté - 1703 LinLin - The Espers - 1703 Lost - Pont Champlain 1703 MV - Wavy 1703 Nakk Mendosa - Artefacts Vol. 6 1703 Noodels - Love Story 1703 Nubi - Artefacts Vol. 5 - 1703 PHLP - C'EST UN FAIT - 1703 Prinzly - PASSAGER 8 1703 Rocca - CIMARRON 1703 Rvzmo - 100 moi - 1703 Slimka Mairo - QUI A VOLÉ LE SOLEIL ? 1703 Thaubi - STRAYDOG.3 1703 Tisco - Narsheshe 3.0 1703 Tissmey - Noir blanc Volume 1 - 1703 Ucyll Ryo - la peau des yeux - 1703 winnterzuko - WINNTERMANIA 1703 Yams - Personally - 1703 Zola - DIAMANT DU BLED - 1803 Max D. Carter - Singulièrement Vôtre - 2003 JuL - Album gratuit, Vol. 7 - 2003 Loto - ALL FAX LIL NIGGA VOL1 2103 88Kvly - Sirius B 2103 Kamas Skuh - La Paye - 2103 Lucio Bukowski - ASADACHI TAPE Vol. 3 - 2203 YEND - Yekrik - 2303 23wa - RORSCHACH - 2303 Jolagreen23 - 23 2303 Ockney Krimophonik - LAZARE - 2403 34murphy - première traque - 2403 6osy - Kiss, Marry Kill Vol. 1 - 2403 BEN plg - Jrêve mieux quavant - 2403 Carbonne - Sous l'averse - 2403 DMS - VAGALAME 2403 Elams - Faits divers - 2403 Falcko - Black Code, Tome 3 2403 Lapostroz - BLEU - 2403 Resell - ZÉRO51 - 2403 Rozzy - VANTANOIR 1 - 2403 Varnish La Piscine - THIS LAKE IS SUCCESSFUL 2403 WarEnd - Mercure - 2403 YUNG POOR ALO - JEUNE PAUVRE 3 2403 Zaky - S.P.T. - 2403 Zéphir - Zé - 2803 akkai - LUM!NOL - 2803 arøne - conséquences - 2803 WISSKELESH - DU BINKS AU WISSEX WISSBINKS - 2903 Luther - AMI 3003 San-Nom - Silence Assourdissant - 3103 Akan - MAPP - 3103 Bekar - Plus fort que l'orage - 3103 Bramsito - Enchanté 3103 Dany Dan - Spécial Dany Dan Vol. 4 - 3103 Django - Eros 3103 Gizo Evoracci - Playeurisme Grâce 3103 Grödash - Monnaie Time 2 3103 Guizmo - Réédition 10 Ans 3103 Josué - Confessions 3103 LaF - CHROME 3103 La Place - Des perles et des cendres 3103 L'Hexaler - Lune Croissante - 3103 LUMJR - LOTERIE - 3103 Mara - LOVÉLAND 3103 Yasmine Ase - BLACKSWAN Avril 0104 James Deano - Existentiel Vol.1 - 0604 Närka - SWITCH - 0704 528ron Lovarran - DESDB 2 0704 Ashéo - Double Visage - 0704 Benjamin Epps - La grande désillusion - 0704 Cellulaire Sno3 - LE VRAI, L'INVERSE 0704 Donguti - BREAK UP SEASON 0704 Driver Le A - CONGÉS PAYÉS - 0704 Gatchete - AMR - 0704 Hicham - POLARITÉ 2 0704 JNR - Junior 0704 Kim - Evidence - 0704 Lord Esperanza - Phoenix 0704 Mister.C - Bantu Tape - 0704 Skia - Comme si j'avais - 0704 Sokuu - kenöpsia - 0704 Vadek - PACK - 0904 T.I.S - Vieux Indiens dans un monde moderne 1004 Recklessboise - H6 - 1304 TAKU - GHOST TRAIN - 1404 18snor - repulsa - 1404 47Ter - Au bon endroit - 1404 Bolémvn - Kaleidoscope - 1404 Charles BDL - Kaïros - 1404 Damlif - MAISON À L'AIDE 1404 Flynt - MAUVAIS POUR LE BUSINESS 1404 iTo - Biutiful ! - 1404 Jwles V900 - 25 sur 8 - 1404 Kahnji HIBA - quasi triste 1404 Kayna Samet - Altaïr, Pt. 2 - 1404 Lucio Bukowski - ET LE PRESTIDIGITATEUR IVRE MANQUA SON TOUR - 1404 Meryl - Ozoror - 1404 PLK - 2069' - 1404 Sabuu - PARTIR SUFFIRA 1404 Tenn Jeune Producer - SPIRAL 1404 Theodore - CHIC CHOC LOYENGE - 1404 Yome - ATMOSPHERIA - 1404 Yuz Boy - SAJÉ 1404 Zidi - MAUVAIS SENTIMENTS - 1904 Bluume - BLU PART 3 Muun Flowerz - 1904 Kay The Prodigy Mezzo Millo - Eastern Wind Deluxe - 1904 Urde - Faire des vagues 2104 2TH - Union - 2104 Bambino47 - Drillmatic 2 2104 Bunny - Quoi d9 - 2104 Dasuun - MADARA 2104 Diem Elioi - DragonTree 2104 Geeeko - Peine 333 - 2104 GRËJ - TAKE AWAY EP - 2104 Indydono - KANDIES - 2104 L'Don - FRANCONE MAFIA 2104 Le Risque - CPPR - 2104 Lpee - 33 - 2104 NeS - ÇA VA ALLER 2104 Rêves - Le bleu a des yeux - 2104 Rozzy - VANTANOIR 2 2104 Shaim - ZROGRAVITY 2104 Skefre - SKRRT Vol.1 - 2104 Tsew The Kid - Deuxième chance 2104 Wood - Dans mon Wood - 2104 Yonidas - Tréfonds - 2204 wasting shit - G.L.O.CC - 2304 Beeby - UN GRAND CUR DANS UN MONDE DE FILS DE PUTE - 2604 Green Montana - ROUGE NÉON 2704 Costa - Derrière la ville - 2704 Gris Anthracite - Anémone - 2804 Arsaphe - MURBERRY STREET - 2804 Atro Boi - L'inconnue d'en face - 2804 Dau - 2CB 2804 Elh Kmer - Vivaldi - 2804 Empty7 - BLV NUIT - 2804 Fuzati Le Motel - Baltimore - 2804 GR OMEGA - ResetStart 2804 Kaba Hyas - Music 4 Tesla 2804 Kima - Baby project - 2804 Leo SVR - Manita 2804 Naps - En temps réel 2804 RAS - Retour Aux Sources 2804 Selby - Black - 2804 Sheldon - Îlot 2804 Shtar Academy - Shtar Academy En permission - 2804 Stony Stone HOUDI - AVANT LES YEUX - 2804 X-Sphère - Après lHiver Mai 0205 Reta - Trash Life - 0305 ENOCK - DERNIÈRE PLUIE - 0305 STLR - 12 grammes 0505 Bolémvn - 5.0.5 0505 HD La Relève - Dieu, mes Frères et le Fer 0505 Rémy - Camus 0505 Sadandsolo - Oasis 0505 Slkrack - Crackito, vol. 1 - 0505 Yuri Online, Bricksy 3G - HUMAN LABORATORY 0905 Suspect 95 - Société Suspecte 1005 Di-Meh - Pixel 1005 Tovaritch - Baba Yaga - 1205 323madon - parental advisory - 1205 Baek - Minuit - 1205 Celestino - UNTITLED TAPE 2 - 1205 Furax Barbarossa - Libérable 1205 Hatik - niyya - 1205 James Loup - FULL OPTION - 1205 Jeune Observateur - PORISMA - 1205 Jok'Air - Melvin de Paris - 1205 L2B - Plus comme avant - 1205 LETS GO - LETS GO 1205 Paco - Contrôle Technique - 1205 Soleil Noir - Avant l'aube - 1205 Vacra - Galatée - 1205 Vadek - DU TEMPS - 1205 Zed - SOIXVNT3 1305 Jeune Lion - HIGHLY SPIRITUAL - 1605 Vink - Lordre et le Chaos - 1705 Sameer Ahmad - Tracy 168 - 1705 T.I.S Kaer MKS - Robots - 1805 Antoniucci - ENVIRONNEMENTS HOSTILES - 1905 Django - Troisième Terme 1905 Fresh - À labri Réédition 1905 GAZY MP - Masiaka 1905 Houssbad - GATE 67 - 1905 Kenyon - DATA - 1905 La F - 691 1905 La Gale - On vous rappellera 1905 L'uZine - La 26ème lettre 1905 Leone - ÉCLIPSE - 1905 Luv Resval - Mustafar 1905 Lybro - Oozaru - 1905 Mairo - omar chappier - 1905 Navve Tyngaa - AFTERMAPP 1905 Ol Zico - Tout baigne - 1905 Reynz - R - 1905 Tuerie - Papillon Monarque - 2305 Nosnow - 478 Hotline 2405 Blue Sky Publishing - COOTB vol.3 - 2405 Hakai - HOLLOW 2405 La Pépite - Apollo Mission Evangelion 2605 Def Prod - Def Prod Vol. 1 2605 Elams - Mwanamboka 2605 Elh Kmer - Vivaldi Vatna 2605 Fabio - L'OMBRE ET LA NUIT - 2605 Gemen Tenma - DRAGA - 2605 Gen - GENNIFER - 2605 GRËJ - RESTAURANT - 2605 H JeuneCrack - MATIÈRE PREMIÈRE - 2605 i300 - 3HUNNA 2605 Jwles - Blablazin 2605 MIG - 21 - 2605 NewStain - Du Rêve? - 2605 R.E.D.K. - N'écoutez pas cette merde - 2605 Rethno - SEULFIER - 2605 Riski - Paris vaut bien une messe - 2605 Roméo Elvis - Les galeries - 2605 Souldia - Non conventionnel - 2605 thaHomey - RARISSIME - 2605 USKY - RETINA - 3005 Ptite Soeur - REDSUN 3105 Fadah - DELUGE Juin - 0206 313 - RVMA II 0206 3arbi Amine Farsi - Interlope 0206 Aketo - Une petite vie sans histoires 0206 Allebou - BUNRAKU 0206 Couli B - Ambiance Joviale 0206 Dehmo - FLEGMATIQUE 0206 Don Milli - Le prix d'une vie 0206 JMK - SOUTH BABY 0206 khazy - MOURIR PEUT ATTENDRE 0206 La Famax - RÉTRO - 0206 Malo - iD - 0206 Moji x Sboy - AUTOMNE 0206 Raplume - TALENTS VOL.1 0206 Relo - Dieu Merci 0206 Rouge Carmin - Radio Futurista Vol. 3 - 0206 Rozzy - VANTANOIR 3 - 0206 Sheng - DI YU 0206 SLK - La Centrale - 0206 T.I.S Ouayiie - Lépidoptères 0206 Vin's - Le masque vide 0706 Famille Nombreuse - Ziamois - 0806 Lester - PIONEER - 0906 34murphy - fata morgana 0906 Achim - ALMA - 0906 Gambi - N'A STRAGIA 0906 Ghetto Phénomène - Longue Vie 0906 I.K - Rêves de rue 2.0 0906 Jackmaboy - MENACE SAISON I - 0906 JuL - C'est quand qu'il s'éteint ? - 0906 Lazer MMZ - BUSHIDO 0906 Lucci x Jeune Gueule - REFLEXION - 0906 Mussy - JIG 2.2 0906 Raplume - TALENTS VOL.2 0906 Royce - Avant-gardiste 0906 Ol' Kainry - Noble art 0906 Sto - Time Out Vol. 2 - 0906 Surprise - L'INVERSE 0906 Swift Guad - Les meilleurs feats du Swifton, Part.1 - 0906 TripleGo - Quand tu partiras 1406 Bakari - Arcadia - 1406 Bluume Triple Nine - OUT OF THE MUDD - 1406 Cyrious - Nés pour... - 1506 AAMO - LAKEHOUSE SEASON 1506 Bimbim - La bande 2 Bimbim 1606 Benab - Drapeau Blanc 1606 Black Jack - Don Black 1606 Cashmire - Mes rêves m'épuisent 1606 Deezer - Deezer Originals La Relève 4 1606 Donguti - Polaroïd Memories 1606 Dwen - Crack 1606 Ice Crimi Just Music Beats - Big Pap's El Papso 1606 Kodes - NO CAP, Vol. 1 Deluxe 1606 La Rumeur - Comment rester propre ? - 1606 Le Juiice - Trap Mama 2 - 1606 Linton - Black Bumble 1606 Nahir - Intégral 2 POV - 1606 Ratu - Ratusserie 1606 Sadek - Ouvert tout l'été - 1606 SOPA - PEIVNE - 1606 Wallace Cleaver - baiser 1606 Yanso - BX 212 - 1906 Henri Bleu - Jette moi le sort 1906 Implaccable - So Vladdy Shit - 2106 Eric Eract - LENDEMAIN D'UN MARDI GRAS - 2106 Fenka - Doll Lover 2106 STLR - Fer 2206 Araujo - Une larme de 2306 Cheu-B - BIG 2306 Chich - MANNSCHAFT 2306 Decimo - Symphonia Vol. 2 - 2306 Double Zulu Pablaw - KAIJU 2 2306 Elh Kmer - Vivaldi Jokül - 2306 Esso Luxueux - Liaisons Dangereuses 2306 Greenfinch - GREENY Lo-Fi 2306 Hash24 Sobek - Antartica 2306 Insa - Gris Béton - 2306 Kay The Prodigy - Triple Kay Supremacy 2306 Unfamouslouie - FREE UNFAMOUS 2306 Le 3ème il - Renaissance Réédition - 2306 Lpee - Intermède - 2306 Luidji - Saison 00 - 2306 PHLP - Magnifique - 2306 Rafal - Jukai Tome I - 2306 Selug - Le jour se lève 2306 Seyté - En chemin 2306 Shinzo - poétiquement votre 2306 So La Zone - La rue m'a eu - 2306 YG Pablo Sofiane Pamart - DIAMOND TEARS - 2306 Zéphir - Interlude ZÉ 2306 Zokush - SÛR ET CERTAIN 3006 Abah - Lumière 3006 AM La Scampia - Triste fête... ncor - 3006 Ammar - L'ARGENT AVANT LA FAME 3006 Ben.C - BLOODY SUMMER 3006 Boub'z - BDLB 3006 Butter Bullets - JAZZ 3006 Capou Jeune Gueule - Uno Nueve - 3006 Deadi - Autrement 3006 Deelee S - 3 FOIS 3006 Ether - SIMULCAST - 3006 Gapman - Prochaine Chèvre - 3006 Heuss L'enfoiré - Chef D'orchestre 3006 Jeri - R1NGTONE 3006 LaCraps Dezef - ASSOCIÉS 3006 L'Don - L'Don Compagnie vol.1 Starring Monsieur Dioni 3006 Leonis - De l'autre côté Réédition - 3006 Lotus - SOURIR - 3006 luXe Timeless Bessy Bess - BUSINESS MOVES - 3006 Melan - La tr3ntaine Partie 1 - 3006 Magnar - BLEU LAGON - 3006 Moken - PHASE 1 - RACINES 3006 Moubarak - Dans le vrai - 3006 Ninho - NI - 3006 OSO - c pas d'la pop! 3006 rad cartier - VISION NOCTURNE - 3006 robdbloc - Caméo - 3006 Rowjay - LA VIE RAPIDE EARLY ACCESS - 3006 SNSET - 22 - 3006 Zeu - WATERGATE Juillet - 0107 Yuz Boy - AVEC SINCÉRITÉ ET LE COEUR LÉGER. - 0507 Caballero JeanJass - High Fines Herbes - Édition 420 - 0507 Empty7 - Nessun dorma - 0507 Jelyh - 222 - 0507 Many Santana - PHANTOM - 0607 Costa - Là, derrière - 0607 Theodora - Lili Aux Paradis Artificiels Tome 2 0707 BRK - Top Boy, Vol. 2 - 0707 Coelho - LE SOLEIL NE S'ÉTEINT JAMAIS 0707 Dau - DENNIS - 0707 Deen Burbigo - OG San II 0707 Fresh LaDouille - Voltaire Deluxe - 0707 Gemen - VARA - 0707 HOUDI - SUN7 0707 Le Croc - BLOOM 0707 Lim Zeler - Nik ma vie 0707 Lrk - Hoshi 0707 Maxi Jay - BADGYAL - 0707 Ninho - NI Extension - 0707 Norsacce Berlusconi Dinos - Fallout Ushuaïa - 0707 Pirate - KDO 3 - 0707 Prototype - FAREWELL 0707 SAF - SUMMERLOVE - 0707 Tsukii Lyre - TL 0707 Youpi2000 - L'Amour me suffira toujours - 1007 ANTON - Même les méchants rêvent damour 1207 Lapostroz - GALLICE - 1307 baby hayabusa - Deadly Poison Sting 1307 Cesar Niso - ELMER - 1407 Ateyaba - La vie en Violet 1407 Bedjik - MULTIVERSE X1 - 1407 Bob Marlich - Gro-tex 1407 Gizo Evoracci - Superfly - 1407 Inflow - Hélios 1407 ISS - Libre 2.0 1407 Jackmaboy - MENACE SAISON II - 1907 Realo Tony Seng - BASSLINE 2007 asmarr311, Planaway meto - vraiment 2107 Artistes divers - Les Déguns 2 BO 2107 Elh Kmer - Vivaldi Vík 2107 Famille Nombreuse - Ziamois Deluxe - 2107 Flynt Don Choa - FLYNT DON CHOA 2107 Gambino La MG - Après Gambinerie - 2107 J9ueve - WDTA 2107 Karmen - MOTEL STUDIO 2107 Keeqaid - ANTICIPE 2107 Lybro - swimmingpool aqua 2107 Malty2BZ - 097 - 2107 NKP - AIGRI 2107 Nunca - Aléa 2107 Yassin - V3.5 2307 Adæb - Alphablanca - 2707 BabySolo33 - Radio ummer Hits - 2807 404Billy - Mr. AAA - 2807 Cellulaire - CMV - 2807 H.LA DROGUE - En attendant Drogue 2 - 2807 HVDDOCK Benjay - MIRAGE - 2807 Josué - MaisOùEstJosué 2807 Le Lij - Juste un Enfant du Queens II 2807 Momsii - LGT 2807 Oumar - MALCOLM X AVEC UN PARE-BALLES - 2807 Saiba - 9STA - 2907 ouley - FEVER .FM Août - 0208 liesaa - liesaa sors nous ce miel ! 0308 PAPI TeddyBear, GAL FFO RION - 3TROIS 0408 Ghetto One - Ghetto One - 0408 GVS - The Blue Fade 0408 Lascaar - Dis-leur - 0408 Lil Zamm - K!LL THËM ALL - 0408 Zoomy Vilhelm - GATE - 1108 Achim - icare. - 1108 Bob Marlich - Boutique de souvenirs 1108 Mola - Omar 1108 Pins Dimeh - Nindo III - Réédition - 1608 Inflow - Hélios - réédition 1608 Ouxma - Earth is hell 1808 Furlax - NEBULA - 1808 Jayel - Puzzle première pièce 1808 Kaki Santana - Back to Back - 1808 KronoMuzik - FREE KRONO - 1808 L'Don - LDon Compagnie vol.2 Starring PAPI TeddyBear GAL - 1808 Nosnow - Ipanema 1808 Sadek - Toujours ouvert tout l'été - 1808 SOPA - YEUZ BLEUS - 1808 Tyngaa - SUMMER MEMORIES 2 2208 Ludovico - Lehen Lorpena - 2408 Gris Anthracite - Drosera - 2508 DMS - NO PASSION - 2508 Navve - ESSKO - 3008 DOC OVG - Pourcentage vol. 1 - 3008 Jolagreen23 Kosei - 888823 - 3108 Tedax Max Just Music Beats - Palm Brick Septembre - 0109 Cellulaire - DÉSOLÉ D'ÊTRE 0109 Earvin - 2024 - 0109 Krisy - euphorie - 0109 Lester - wizard confirmé - 0109 Livaï Cosmo - on sen sort toujours pas - 0109 Max D. Carter - Vers La Beauté 0109 Nixon - Wall East 0109 Smeels - UCKME - 0109 TH - SI - 0209 wasting shit abel31 - mercuriales 0409 Mini RTTCLAN - Mini l'ingé - 0709 N3MS - EVERYDAY - 0809 404Billy - BLKKKK VAN GOGH 3 0809 Golgoth - JOUR DE PLUIE - 0809 KIK - ADIEU 0809 Leck - Mode Nuit 0809 Lil Zamm - FRÖM HESS TÖ EUROPE - 0809 Slayeur Slace - PROJET SANG BOUILLANT - 0809 Ulqui - ETNA - 1009 Nemavo - PostMortem - 1109 Freeze Corleone - ADC - 1309 sean - Se laver de ses péchés - 1409 Jeune LC - FIN DE JEU - 1509 47Ter - Au bon endroit Deluxe - 1509 Ammar - MA VIE AVANT LA TIENNE - 1509 Darlean - DEAD FILES 1509 Glauque - Les gens passent, le temps reste - 1509 LOTO - Detroit 2 Paris - 1509 Mandyspie - La Vie en Rose Vision 1509 Nyda - Acte II Le loup dans la bergerie 1509 Skefre - SKRRT Vol.2 - 1509 Théo Juice - Passionnément 1509 The Strangers - The Strangers 1809 Ry's - ARABIC DIAL - 1909 Primero - Fragments 2009 ihatemed - NMS 2109 BXII - Que la salade - 2209 A2H - Une rose et une lame, FIN. - 2209 babyxi - HIT OR MISS - 2209 Disiz - L'Amour... 2209 Hornet La Frappe - Avant Cités d'or 2209 J2LASTEU - RSF, pt. 1 - 2209 Mairo JeanJass - Déjeuner en paix 2209 Rookie - AMPLITUDE THERMIQUE - 2209 TH - SIGN - 2209 T.I.S Öster - TOY Terror Of the Year - 2209 Werenoi - Telegram 2 - 2609 Moken - PHASE 3 - EFFET TUNNEL 2609 TIPI MOBB - FCQTAA VOL1 - 2709 Empty7 - Ora pro nobis - 2709 H JeuneCrack Hologram Lo' - La pieuvre 2909 Banlieue Ouest Mafia - Banlieue Ouest Mafia 2809 Bricksy 3g - it looks fun - 2809 OgLounis - OGLOUNIS VS LES DOUTES 2909 DIEGO - Entre ciel et terre 2909 Genezio - VIBESTARS SAISON 2 - 2909 HK La Paille - NOCTAMBULE - 2909 Ikaz Boi - BRUT4L - 2909 Irko AMNE - DANGER RAPPROCHÉ - 2909 Jayel - Puzzle deuxième pièce 2909 Klem Schen - Temps davant - 2909 KT Gorique - DIASPORA GANG - 2909 Luni - AHBON MIXTAPE 2909 Mac Seamus - HUMAIN - 2909 MEL - Même pas mal - 2909 Niaks - Mandat de Dépôt - 2909 samayusi - FRACTALE - 2909 Tengo John - Métamorphoz 2909 Venom Cz - Crime Master 2909 Zequin - RESCAPÉ DES RUES RR 700FS 2909 Zesau - RC Octobre - 0410 Jwles Mad Rey - Le Zin dans la maison - 0410 Dj Per-k Moïse The Dude - Deep - 0510 AnNie .Adaa - MENTALITY RECOVERY - 0610 22Carbone - Entropie - 0610 34murphy Sobek - 9m 0610 Cesar Niso - LA FISSURE NSLW - 0610 Cyrious - Briller - 0610 Georgio - Les Alizés - 0610 Kaneki - 4REAL - 0610 KIK - ADIEU Version Feats - 0610 Krisy - euphoria 0610 Rosaliedu38 - RELOAD - 0610 Shay - Commando - 0610 Vicky R - SYSTM - 1110 Akhenaton Veust - Monopolium - 1110 Ucyll Ryo - NUKEM 1310 Aelpéacha - XYLOSTOMIASE 1310 Artistes divers - Chroniques de Mars 3 - 1310 Beendo Z - De la fontaine 1310 Black M - La légende Black - 1310 Cellulaire - SILENCE SOUS LAVERSE 1310 Cinco - 0TA BENGV 1310 E17 - E17 - 1310 Favé - IL LE FALLAIT - 1310 GLK - VENI 1310 Heavy - POLYGONES 1310 Keuchei - Cest Le Gang 1310 KT Gorique - AKISSI - 1310 L'Don - LDon Compagnie vol.3 Starring Râmiro - 1310 Lotus - Moneymachine, Vol. 2 - 1310 Lyre - merci, j'sais m'perdre - 1310 Mano Leyra - VOVÓ 1310 NDO Runway - Personne Ne Dormira Dans Le Hood Ce Soir 1310 Swift Guad Willy Bank - Artefact 1310 VVES - Implication - 1310 Yamê - ELOWI 1310 Ydane - Kanda 3D Blade Bouffon - 1310 YUNG POOR ALO PUSH GIO - CHAT NOIR 1710 Virgile - NUAGERIES - 1810 Leo SVR - SVR EFFECT - 1910 Bluume Triple Nine - RARI458 - 1910 N3MS - SPARRING 1910 TheYoungGolfeur - Sacrilèges - 2010 808NOCHE - STELLA - 2010 ADVM - .s'oublier encore. - 2010 arøne - toutes mes larmes - 2010 Gris Anthracite - Valériane - 2010 Ichon - KASSESSA - 2010 Inspire - Hier je meurs - 2010 Leto - TRAPTAR 3 2010 L'Hexaler - Croissant de lune 2010 Mac Kregor Kazkami - La guerre des nerfs Réédition 2010 Mehdi YZ - Troisième il 2010 Microbe - Lever de rideau - 2010 OSO - osowhereRu? 2010 Paco - Du gris au bleu 2010 SIMONY - ORIGINES Euphoria 2010 Softo - Instinct - 2010 TH - SIGNAL - 2010 web7 - wizard child - 2210 Laws Babyface - SUNFM - 2510 Lovarran UnfamousLouie - Ils Me Manquent Mes Rêves 2610 Oumar - MALCOLM X AVEC UN PARE-BALLES Vol.2 2710 Absolem - Balle d'argent Réédition 2710 BÉNI BASS DJ - L'homme de l'ombre 2710 Ici cest la street - Ici cest la street 2710 ISK - LDLG L'art de la guerre - 2710 Jewel Usain - Où les garçons grandissent 2710 Kemmler - 37 Folie-Méricourt - 2710 Livaï Cosmo - un long fleuve bien chiant 2710 Luzi Dar - GrandBazaar 01 2710 Milanezie kofi bæ - La Nuit Porte Conseil - 2710 Sensey - Hokage - 2710 Sokuu - tatlm 2710 Zaky - REVLUTION 2710 Zbig - Docteur Zbig - 2810 Damso - QALF LIVE - 2810 Josman - J.000. - 2910 Cielbleu - Par les yeux 3110 Harley - Loading 3110 Karl Drogo - La naissance de drogo - 3110 Kosei - AI - 3110 Magnim - Refem - 3110 MSyn - NWR Novembre 0111 Dafliky - Pas fait pour eux - 0211 abel31 - 4h16 - 0211 Fokca - Qui Est Baby Fokca ? 0311 AliasJazz - Échappée Belle 0311 Flaco Mundo - DRAPETOMANIA - 0311 GRËJ - ÉTOILES MICHELIN - 0311 Klem Schen - Archives - 0311 L'Don - L'Don Compagnie vol.4 Starring Famille Nombreuse - 0311 Neop0p whatever51 - EIGENGRAU - 0311 okis - Rêve dun rouilleur 0311 Rsko - Memory 0311 Sakage - IRL 0311 Slkrack - Crackito, vol. 2 - 0311 TIF - 1.6 LIVE SESSION 0311 Viez - Nemrock All Star - 0411 Sa2d - NEXT GEN - 0611 Zekhso - FULGURANCES 0711 Kaki Santana - Piege Volume 3 - 0711 ozkar - KANSAS - 0811 Lacrim - SALE ÉPOQUE - 0811 SAM - EXTÉRIEUR NUIT - 0811 AKISSI - Ciel m'en veut - 1011 AYATH - Perturbations 1011 Cheu-B - SKY - 1011 Dalí - Muse - 1011 Georgio - Années Sauvages Part. 2 1011 ihatemed - NMS NIGHTMARES EDITION 1011 Mister You - HLM3 1011 Ouss Riane - Razien 1011 Rockin' Squat - L'undaground s'exprime 1011 Sicario - Silence - 1011 snorunt - arva offmode - 1011 So' - SAHARA, Vol. 2 - 1011 Souffrance - Eau de source 1011 STI - Retrodrill vol.1 - 1011 Stony Stone - ROUGE RED ROSSO 1311 Hash24 - Origin - 1311 Krisy - euphoria sans interludes 1311 Warlock - Sorcellerie - 1411 Lorenzo - Coffret ultime - 1511 Malo - X3 - 1511 Peka59 - Fenêtre ouverte - 1511 Urde - Maintenant ou jamais - 1711 Achim - Ariane 1711 Criminls Congo Bill - VINDICTA - 1711 Double Zulu Pablaw - KAIJU MECHA - 1711 Dri-i - ne mexcuse pas - 1711 FouKi - RAP CLUB - 1711 GEAVN - CYNE 1711 Guy2Bezbar - AMBITION 1711 Hös Copperfield - LUEUR ESPOIR - 1711 Lazuli Angie - ANGILINAZULI 1711 LUMJR - CASINO 1711 Mvms - Renégat - 1711 Nayra - Riah 1711 Pivi - Triste mais Heureux - 1711 Youri Darealright - Neva - 1711 Yuzmv - Gardien du Labyrinthe - 2111 Zonmai - SunCash feelings - 2211 Rapclub - La Litanie des Horlas 2211 Ekloz - 3motional b!tch 2311 DTF - Karma Extended - 2311 Hamza - Drifté - 2311 JRK 19 - FreeJRK - 2311 MPablo - HUMAIN - 2411 ADVM - .soublier encore. - 2411 Ajar - Ö 2411 Bhk220 - Génération 2000 - 2411 Chanceko - La voix dans ma tête 2411 Fababy - La Symphonie des chargeurs Vol 2 - 2411 Fanny's Station - FANNY 2411 Générations - Générations Street - 2411 GR OMEGA - ICARE - 2411 Halo - BAD JAZZ 2411 Imed zee - Bipolaire 2411 Keeqaid - GENRE - 2411 Kerchak - En attendant Saison 2 2411 La Famax - Album Gratuix - 2411 Lujipeka - Weekend à Marseille - 2411 Noti Rose - Mirages Moisissures - 2411 Rémy - Le fils de la gardienne - 2411 Reynz - Z - 2411 Richie Beats - Oh My God Vol.1 - 2411 Sheldon - Seuls 2411 Yaro - Ciel - 2411 YL - LARLAR Part. 1 - 2711 Dalienski - Dali - 2711 Duke Mobb - En attendant La cassette 2 - 2711 FEMTOGO Neophron - NAMELESS BELLIGERENT - 2811 luXe Timeless - ALLUME - 2911 HAKAI - VEGA - 2911 Zalmad Nannaa - SUPERWHOAYEAH Décembre - 0112 Ajna - Boys Basement - 0112 ASHE 22 - KH-22 - 0112 Benjamin Epps - READY FOR WAR 0112 Bob Marlich - Sans Filtre II 0112 Chicaille Argenté - RESET 0112 Couli B - Encore 0112 Decimo - Symphonia, vol. 3 0112 Fuku JeanJass - Phoenix - 0112 Gazo Tiakola - LA MELO EST GANGX - 0112 Gemen Tsukii - 4PEAT - 0112 Gris Anthracite - Triple Venom 0112 Golgoth - Hostie part2 0112 ISS - Libre 3.0 - 0112 Jeune Mort - No colors - 0112 Jeune Ras - LUNE DE SANG - 0112 Khali - 23 - - 0112 L'Don - LDon Compagnie vol. 5 Starring Worms-T 0112 La Financière - TOO BIG TO FAIL 0112 Lasco - PENSÉE 2 - 0112 Limsa d'Aulnay ISHA - Bitume Caviar Vol.1 - 0112 Malko - MAELSTRÖM 0112 Mitch Ladrogua - Big Meech - 0112 Oni Kira - 237 BLOC F - 0112 Pollux - BLUES LAGUNE - 0112 Swing - AU REVOIR SIMEON 0112 Twenty9 - thérapie, stéréo - 0112 wasting shit - wase ape volume 3 0112 Yuri Online Chenpol - Noctura Pure Pueri Musika Magica - 0312 Djeemy RedUzi GRËJ - TAKE AWAY FOR TWO 0512 Blaz Pit - NO SKIP - 0512 Lonepsi - au sommet de ma tour 0512 VII - SCRAP vol.1 0612 PEKA - L'un parle de l'autre 0712 Tovaritch - Systema - 0812 243red - 001red 0812 47ter - Au bon endroit 47tour Live 0812 Bakari - SUPERNOVA 0812 DJ Quick - Onde2Choc 0812 Foot Korner - Du Nord au Sud - Compilation Foot Korner - 0812 Hugo TSR - Jeudi - 0812 ICO - MIA 0812 JSX - Antebellum - 0812 JuL - La route est longue - 0812 Kaba Hyas - Music 4 Tesla Vol. 2 - 0812 Kanoé - NOÉ - 0812 L2B - Plus comme avant Réédition - 0812 L'Allemand - Ma vie 0812 Lil Zamm - ZAMMWORLD 0812 Lossa2Squa - Afrowave 0812 Ludmael - Hérésie - 0812 Prinzly - ESCALE 8000 0812 Oldpee - JE M'APPELLE SIDI - 0812 robdbloc - Faux départs - 0812 Sadek - Nique le Casino 2 0812 Samy - Club Espoir - 0812 So La Lune - L'enfant de la pluie - 0812 SVUDVDE - SAUDADE 1012 Adæb - Casablanca - 1012 T.I.S Lando - MINUIT PILE 1112 IAM - HHHistory - 1112 Luni Sacks - Inédits 2022 - 2023 - 1212 Douze Déluge - MCRCLMT - 1212 OG L'Enf - 3x4 - 1312 Danyl - KHEDMA 2 1312 Loveni - BACK IN THE DAY ROOKIE II - 1312 YUNG POOR ALO - À l'envers - 1412 Nono La Grinta - 75022 - 1512 Ammar - MA PAIX AVANT L'AMOUR 1512 Diddi Trix - Trix City 2 - 1512 DIEGO - Rouge sang Félin version orchestrale - 1512 Jolagreen23 - RECHERCHE DESTRUCTION - 1512 Kaaris - Day One 1512 Lacrim - En attendant Corleone 1512 Lison - GODMODE 1512 Mayo - YOSKI 2 1512 Nefaste - Hiver 365 1512 Niro - Taulier La recave - 1512 Nono La Grinta - LA QUOIII ? - 1512 Prince Waly - BO Y Z Vol.2 1512 Roshi Amine Farsi - Night Ride - 1512 Selug enar - Le monde qui m'tombe sur la tête 1512 Sventx - UN SEUL IL 1512 Todd - UN NOIR SUR LA LUNE 1512 YPN - La patrie - 1812 Ptite Soeur Neophron - NOUVELLE ECONOMIE 1912 Afro S - Parenthèse 1912 ENV444 - Prélude - 2012 Jaymee - Brand New Jazz Trilogie 2112 N3MS - NAUSICAA - 2212 Dinos Dosseh - CÉSIUM 2212 Eloquence - El Chalino - 2212 Jayel - Puzzle Dernière pièce - 2212 Kay The Prodigy Mezzo Millo - Eastern Wind 2 - 2212 La Fève - 24 2212 Shotas - Oue La 6T 2212 Slayeur Slace Emes - ALPHA 2212 TAÏZ - POST-MORTEM 2512 Deelee S - RED ALERT 2 2512 Raplume - MIEL 2612 L'Don - LDon Compagnie hors-série Repas de famille 2712 BLOODYANJI - KILL TO LIVE 2712 Tarkov Lee - MÉCHANT DU FILM 2912 BERRY Phasm - TOP NIVEAU ll - 2912 Gouap Mini - BACK EN TRAP 2912 Kemi Gunner - Elf Oxy Fantasy 2912 Lemon Haze - 31 2912 Narson - Maquette Tape4</t>
+          <t>Wesh Comme un putain de cowboy Comme un putain de cowboy Cette année a été longue, plus longue que l'année d'avant Putain de cowboy On aura appris des choses, on a encore vécu des choses Comme un putain de cowboy mec J'marche seul, comme un putain de cowboy J'crame ma gainz, j'crame ma gainz Comme un putain de cowboy, ouais boy C'est la vie, c'est nos vies J'suis quun cowboy dans la vallée, j'ai mon arme dans la vallée Tellement de choses à déballer, que j'trimballe J'suis perdu dans ce trou noir, j'suis solo dans ce trou noir, j'vois personne dans ce trou noir</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Le cowboy*</t>
+          <t>Pluie*</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wesh Comme un putain de cowboy Comme un putain de cowboy Cette année a été longue, plus longue que l'année d'avant Putain de cowboy On aura appris des choses, on a encore vécu des choses Comme un putain de cowboy mec J'marche seul, comme un putain de cowboy J'crame ma gainz, j'crame ma gainz Comme un putain de cowboy, ouais boy C'est la vie, c'est nos vies J'suis quun cowboy dans la vallée, j'ai mon arme dans la vallée Tellement de choses à déballer, que j'trimballe J'suis perdu dans ce trou noir, j'suis solo dans ce trou noir, j'vois personne dans ce trou noir</t>
+          <t>Disclaimer Transcrit à partir d'un extrait , déchiré dans le coeur J'ressemble aux frictions dans mon corps</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pluie*</t>
+          <t>Skôl*</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Disclaimer Transcrit à partir d'un extrait , déchiré dans le coeur J'ressemble aux frictions dans mon corps</t>
+          <t>Si tu m'caresses, j'te doigte, Spider-Man, han Fly J'rentre gang dans la fête Flex, j'fuck les Luthor Lex Break, comeback, et pluie de chèques Next, Skôl</t>
         </is>
       </c>
     </row>
@@ -1937,27 +1937,10 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Skôl*</t>
+          <t>YA*</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
-        <is>
-          <t>Si tu m'caresses, j'te doigte, Spider-Man, han Fly J'rentre gang dans la fête Flex, j'fuck les Luthor Lex Break, comeback, et pluie de chèques Next, Skôl</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>PNL</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>YA*</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>Disclaimer Transcrit à partir d'un extrait Ya, ya, ya, ya, yoo Toujours moi réma mais oh Dans l'rétro, wow, wow, yibidi, yoh Shhi Ya, ya, yo</t>
         </is>
